--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19896900</v>
+        <v>21578300</v>
       </c>
       <c r="E8" s="3">
-        <v>19522400</v>
+        <v>20070800</v>
       </c>
       <c r="F8" s="3">
-        <v>19129400</v>
+        <v>19693100</v>
       </c>
       <c r="G8" s="3">
-        <v>18453000</v>
+        <v>19296600</v>
       </c>
       <c r="H8" s="3">
-        <v>23487300</v>
+        <v>18614300</v>
       </c>
       <c r="I8" s="3">
-        <v>24145000</v>
+        <v>23692700</v>
       </c>
       <c r="J8" s="3">
+        <v>24356100</v>
+      </c>
+      <c r="K8" s="3">
         <v>25755800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24640600</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10505700</v>
+        <v>11491400</v>
       </c>
       <c r="E9" s="3">
-        <v>10540800</v>
+        <v>10597500</v>
       </c>
       <c r="F9" s="3">
-        <v>10413400</v>
+        <v>10633000</v>
       </c>
       <c r="G9" s="3">
-        <v>10534200</v>
+        <v>10504500</v>
       </c>
       <c r="H9" s="3">
-        <v>14477100</v>
+        <v>10626300</v>
       </c>
       <c r="I9" s="3">
-        <v>13893000</v>
+        <v>14603700</v>
       </c>
       <c r="J9" s="3">
+        <v>14014500</v>
+      </c>
+      <c r="K9" s="3">
         <v>15883700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14944900</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>9391200</v>
+        <v>10086900</v>
       </c>
       <c r="E10" s="3">
-        <v>8981600</v>
+        <v>9473300</v>
       </c>
       <c r="F10" s="3">
-        <v>8715900</v>
+        <v>9060200</v>
       </c>
       <c r="G10" s="3">
-        <v>7918800</v>
+        <v>8792100</v>
       </c>
       <c r="H10" s="3">
-        <v>9010200</v>
+        <v>7988000</v>
       </c>
       <c r="I10" s="3">
-        <v>10252000</v>
+        <v>9089000</v>
       </c>
       <c r="J10" s="3">
+        <v>10341700</v>
+      </c>
+      <c r="K10" s="3">
         <v>9872100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9695700</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,38 +824,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1847900</v>
+        <v>1919500</v>
       </c>
       <c r="E12" s="3">
-        <v>1823800</v>
+        <v>1864100</v>
       </c>
       <c r="F12" s="3">
-        <v>1832600</v>
+        <v>1839700</v>
       </c>
       <c r="G12" s="3">
-        <v>1715100</v>
+        <v>1848600</v>
       </c>
       <c r="H12" s="3">
-        <v>1795200</v>
+        <v>1730100</v>
       </c>
       <c r="I12" s="3">
-        <v>1821600</v>
+        <v>1810900</v>
       </c>
       <c r="J12" s="3">
+        <v>1837500</v>
+      </c>
+      <c r="K12" s="3">
         <v>2010400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1884000</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,39 +887,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>197600</v>
+        <v>681200</v>
       </c>
       <c r="E14" s="3">
-        <v>299800</v>
+        <v>199400</v>
       </c>
       <c r="F14" s="3">
-        <v>27500</v>
+        <v>302400</v>
       </c>
       <c r="G14" s="3">
-        <v>50500</v>
+        <v>27700</v>
       </c>
       <c r="H14" s="3">
+        <v>50900</v>
+      </c>
+      <c r="I14" s="3">
         <v>3300</v>
       </c>
-      <c r="I14" s="3">
-        <v>41700</v>
-      </c>
       <c r="J14" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K14" s="3">
         <v>8800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1630400</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -931,9 +953,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>18009400</v>
+        <v>19757400</v>
       </c>
       <c r="E17" s="3">
-        <v>17859000</v>
+        <v>18166900</v>
       </c>
       <c r="F17" s="3">
-        <v>17548200</v>
+        <v>18015100</v>
       </c>
       <c r="G17" s="3">
-        <v>17781000</v>
+        <v>17701700</v>
       </c>
       <c r="H17" s="3">
-        <v>22953700</v>
+        <v>17936500</v>
       </c>
       <c r="I17" s="3">
-        <v>22108200</v>
+        <v>23154400</v>
       </c>
       <c r="J17" s="3">
+        <v>22301500</v>
+      </c>
+      <c r="K17" s="3">
         <v>25053100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25242800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1887500</v>
+        <v>1820900</v>
       </c>
       <c r="E18" s="3">
-        <v>1663500</v>
+        <v>1904000</v>
       </c>
       <c r="F18" s="3">
-        <v>1581100</v>
+        <v>1678000</v>
       </c>
       <c r="G18" s="3">
-        <v>672000</v>
+        <v>1594900</v>
       </c>
       <c r="H18" s="3">
-        <v>533600</v>
+        <v>677900</v>
       </c>
       <c r="I18" s="3">
-        <v>2036800</v>
+        <v>538300</v>
       </c>
       <c r="J18" s="3">
+        <v>2054600</v>
+      </c>
+      <c r="K18" s="3">
         <v>702700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-602200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-30700</v>
+        <v>57600</v>
       </c>
       <c r="E20" s="3">
-        <v>92200</v>
+        <v>-31000</v>
       </c>
       <c r="F20" s="3">
-        <v>-62600</v>
+        <v>93000</v>
       </c>
       <c r="G20" s="3">
-        <v>74700</v>
+        <v>-63100</v>
       </c>
       <c r="H20" s="3">
-        <v>-19800</v>
+        <v>75300</v>
       </c>
       <c r="I20" s="3">
-        <v>-85600</v>
+        <v>-19900</v>
       </c>
       <c r="J20" s="3">
+        <v>-86400</v>
+      </c>
+      <c r="K20" s="3">
         <v>339300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>355700</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3054300</v>
+        <v>3421100</v>
       </c>
       <c r="E21" s="3">
-        <v>2882900</v>
+        <v>3071200</v>
       </c>
       <c r="F21" s="3">
-        <v>2591800</v>
+        <v>2898900</v>
       </c>
       <c r="G21" s="3">
-        <v>1815500</v>
+        <v>2605700</v>
       </c>
       <c r="H21" s="3">
-        <v>1819200</v>
+        <v>1822700</v>
       </c>
       <c r="I21" s="3">
-        <v>3245500</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>1824400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>3263300</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1398000</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>206400</v>
+        <v>185000</v>
       </c>
       <c r="E22" s="3">
-        <v>243800</v>
+        <v>208200</v>
       </c>
       <c r="F22" s="3">
-        <v>383200</v>
+        <v>245900</v>
       </c>
       <c r="G22" s="3">
-        <v>385400</v>
+        <v>386600</v>
       </c>
       <c r="H22" s="3">
-        <v>310700</v>
+        <v>388800</v>
       </c>
       <c r="I22" s="3">
-        <v>276700</v>
+        <v>313500</v>
       </c>
       <c r="J22" s="3">
+        <v>279100</v>
+      </c>
+      <c r="K22" s="3">
         <v>691700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>704300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1650300</v>
+        <v>1693500</v>
       </c>
       <c r="E23" s="3">
-        <v>1511900</v>
+        <v>1664700</v>
       </c>
       <c r="F23" s="3">
-        <v>1135300</v>
+        <v>1525200</v>
       </c>
       <c r="G23" s="3">
-        <v>361200</v>
+        <v>1145300</v>
       </c>
       <c r="H23" s="3">
-        <v>203100</v>
+        <v>364400</v>
       </c>
       <c r="I23" s="3">
-        <v>1674500</v>
+        <v>204900</v>
       </c>
       <c r="J23" s="3">
+        <v>1689100</v>
+      </c>
+      <c r="K23" s="3">
         <v>350300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-950800</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>211900</v>
+        <v>373300</v>
       </c>
       <c r="E24" s="3">
-        <v>383200</v>
+        <v>213800</v>
       </c>
       <c r="F24" s="3">
-        <v>222900</v>
+        <v>386600</v>
       </c>
       <c r="G24" s="3">
-        <v>185600</v>
+        <v>224800</v>
       </c>
       <c r="H24" s="3">
-        <v>28500</v>
+        <v>187200</v>
       </c>
       <c r="I24" s="3">
-        <v>511700</v>
+        <v>28800</v>
       </c>
       <c r="J24" s="3">
+        <v>516100</v>
+      </c>
+      <c r="K24" s="3">
         <v>203100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>294600</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1438400</v>
+        <v>1320300</v>
       </c>
       <c r="E26" s="3">
-        <v>1128700</v>
+        <v>1451000</v>
       </c>
       <c r="F26" s="3">
-        <v>912400</v>
+        <v>1138600</v>
       </c>
       <c r="G26" s="3">
-        <v>175700</v>
+        <v>920400</v>
       </c>
       <c r="H26" s="3">
-        <v>174600</v>
+        <v>177200</v>
       </c>
       <c r="I26" s="3">
-        <v>1162800</v>
+        <v>176100</v>
       </c>
       <c r="J26" s="3">
+        <v>1172900</v>
+      </c>
+      <c r="K26" s="3">
         <v>147100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1245400</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1430700</v>
+        <v>1313600</v>
       </c>
       <c r="E27" s="3">
-        <v>893800</v>
+        <v>1443200</v>
       </c>
       <c r="F27" s="3">
-        <v>879500</v>
+        <v>901600</v>
       </c>
       <c r="G27" s="3">
-        <v>192200</v>
+        <v>887200</v>
       </c>
       <c r="H27" s="3">
-        <v>247100</v>
+        <v>193800</v>
       </c>
       <c r="I27" s="3">
-        <v>1132000</v>
+        <v>249200</v>
       </c>
       <c r="J27" s="3">
+        <v>1141900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-316200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1234800</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1286,39 +1343,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-233900</v>
+        <v>-21000</v>
       </c>
       <c r="E29" s="3">
-        <v>925600</v>
+        <v>-235900</v>
       </c>
       <c r="F29" s="3">
-        <v>724700</v>
+        <v>933700</v>
       </c>
       <c r="G29" s="3">
-        <v>525900</v>
+        <v>731000</v>
       </c>
       <c r="H29" s="3">
-        <v>208600</v>
+        <v>530500</v>
       </c>
       <c r="I29" s="3">
-        <v>151500</v>
+        <v>210400</v>
       </c>
       <c r="J29" s="3">
+        <v>152800</v>
+      </c>
+      <c r="K29" s="3">
         <v>51600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-481300</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>30700</v>
+        <v>-57600</v>
       </c>
       <c r="E32" s="3">
-        <v>-92200</v>
+        <v>31000</v>
       </c>
       <c r="F32" s="3">
-        <v>62600</v>
+        <v>-93000</v>
       </c>
       <c r="G32" s="3">
-        <v>-74700</v>
+        <v>63100</v>
       </c>
       <c r="H32" s="3">
-        <v>19800</v>
+        <v>-75300</v>
       </c>
       <c r="I32" s="3">
-        <v>85600</v>
+        <v>19900</v>
       </c>
       <c r="J32" s="3">
+        <v>86400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-339300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-355700</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1196800</v>
+        <v>1292600</v>
       </c>
       <c r="E33" s="3">
-        <v>1819400</v>
+        <v>1207300</v>
       </c>
       <c r="F33" s="3">
-        <v>1604200</v>
+        <v>1835300</v>
       </c>
       <c r="G33" s="3">
-        <v>718100</v>
+        <v>1618200</v>
       </c>
       <c r="H33" s="3">
-        <v>455700</v>
+        <v>724400</v>
       </c>
       <c r="I33" s="3">
-        <v>1283600</v>
+        <v>459700</v>
       </c>
       <c r="J33" s="3">
+        <v>1294800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-264600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1716100</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1196800</v>
+        <v>1292600</v>
       </c>
       <c r="E35" s="3">
-        <v>1819400</v>
+        <v>1207300</v>
       </c>
       <c r="F35" s="3">
-        <v>1604200</v>
+        <v>1835300</v>
       </c>
       <c r="G35" s="3">
-        <v>718100</v>
+        <v>1618200</v>
       </c>
       <c r="H35" s="3">
-        <v>455700</v>
+        <v>724400</v>
       </c>
       <c r="I35" s="3">
-        <v>1283600</v>
+        <v>459700</v>
       </c>
       <c r="J35" s="3">
+        <v>1294800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-264600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1716100</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1853400</v>
+        <v>1581500</v>
       </c>
       <c r="E41" s="3">
-        <v>2129000</v>
+        <v>1873300</v>
       </c>
       <c r="F41" s="3">
-        <v>2562700</v>
+        <v>2151900</v>
       </c>
       <c r="G41" s="3">
-        <v>1939100</v>
+        <v>2590300</v>
       </c>
       <c r="H41" s="3">
-        <v>2056600</v>
+        <v>1959900</v>
       </c>
       <c r="I41" s="3">
-        <v>2706600</v>
+        <v>2078700</v>
       </c>
       <c r="J41" s="3">
+        <v>2735700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4209700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3694000</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>478700</v>
+        <v>1100</v>
       </c>
       <c r="E42" s="3">
+        <v>483900</v>
+      </c>
+      <c r="F42" s="3">
         <v>2200</v>
       </c>
-      <c r="F42" s="3">
-        <v>110900</v>
-      </c>
       <c r="G42" s="3">
-        <v>13200</v>
+        <v>112100</v>
       </c>
       <c r="H42" s="3">
-        <v>137300</v>
+        <v>13300</v>
       </c>
       <c r="I42" s="3">
-        <v>11000</v>
+        <v>138700</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>11100</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>4894900</v>
+        <v>5570100</v>
       </c>
       <c r="E43" s="3">
-        <v>4616000</v>
+        <v>4947500</v>
       </c>
       <c r="F43" s="3">
-        <v>6268500</v>
+        <v>4665600</v>
       </c>
       <c r="G43" s="3">
-        <v>11065600</v>
+        <v>6335800</v>
       </c>
       <c r="H43" s="3">
-        <v>10525400</v>
+        <v>11184600</v>
       </c>
       <c r="I43" s="3">
-        <v>5213300</v>
+        <v>10638500</v>
       </c>
       <c r="J43" s="3">
+        <v>5269300</v>
+      </c>
+      <c r="K43" s="3">
         <v>10175200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5857300</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>2936100</v>
+        <v>3077500</v>
       </c>
       <c r="E44" s="3">
-        <v>2583600</v>
+        <v>2967600</v>
       </c>
       <c r="F44" s="3">
-        <v>3724400</v>
+        <v>2611400</v>
       </c>
       <c r="G44" s="3">
-        <v>7604700</v>
+        <v>3764400</v>
       </c>
       <c r="H44" s="3">
-        <v>7277500</v>
+        <v>7686500</v>
       </c>
       <c r="I44" s="3">
-        <v>3557500</v>
+        <v>7355800</v>
       </c>
       <c r="J44" s="3">
+        <v>3595800</v>
+      </c>
+      <c r="K44" s="3">
         <v>3837500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4255100</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>347000</v>
+        <v>267500</v>
       </c>
       <c r="E45" s="3">
-        <v>1777700</v>
+        <v>350700</v>
       </c>
       <c r="F45" s="3">
-        <v>2787800</v>
+        <v>1796800</v>
       </c>
       <c r="G45" s="3">
-        <v>3074400</v>
+        <v>2817800</v>
       </c>
       <c r="H45" s="3">
-        <v>2884400</v>
+        <v>3107400</v>
       </c>
       <c r="I45" s="3">
-        <v>1110100</v>
+        <v>2915400</v>
       </c>
       <c r="J45" s="3">
+        <v>1122000</v>
+      </c>
+      <c r="K45" s="3">
         <v>937700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1327600</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>10510100</v>
+        <v>10497600</v>
       </c>
       <c r="E46" s="3">
-        <v>11108500</v>
+        <v>10623000</v>
       </c>
       <c r="F46" s="3">
-        <v>15454400</v>
+        <v>11227800</v>
       </c>
       <c r="G46" s="3">
-        <v>13936900</v>
+        <v>15620400</v>
       </c>
       <c r="H46" s="3">
-        <v>13605300</v>
+        <v>14086700</v>
       </c>
       <c r="I46" s="3">
-        <v>12598500</v>
+        <v>13751500</v>
       </c>
       <c r="J46" s="3">
+        <v>12733800</v>
+      </c>
+      <c r="K46" s="3">
         <v>13755700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15133900</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>841100</v>
+        <v>731400</v>
       </c>
       <c r="E47" s="3">
-        <v>943200</v>
+        <v>850100</v>
       </c>
       <c r="F47" s="3">
-        <v>746600</v>
+        <v>953300</v>
       </c>
       <c r="G47" s="3">
-        <v>945400</v>
+        <v>754700</v>
       </c>
       <c r="H47" s="3">
-        <v>1553700</v>
+        <v>955500</v>
       </c>
       <c r="I47" s="3">
-        <v>879500</v>
+        <v>1570400</v>
       </c>
       <c r="J47" s="3">
+        <v>888900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1787500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>644400</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>1879800</v>
+        <v>3180700</v>
       </c>
       <c r="E48" s="3">
-        <v>1746900</v>
+        <v>1900000</v>
       </c>
       <c r="F48" s="3">
-        <v>2366200</v>
+        <v>1765700</v>
       </c>
       <c r="G48" s="3">
-        <v>5099100</v>
+        <v>2391600</v>
       </c>
       <c r="H48" s="3">
-        <v>4600600</v>
+        <v>5153900</v>
       </c>
       <c r="I48" s="3">
-        <v>3052400</v>
-      </c>
-      <c r="J48" s="3" t="s">
+        <v>4650100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3085200</v>
+      </c>
+      <c r="K48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3537900</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13277000</v>
+        <v>13450800</v>
       </c>
       <c r="E49" s="3">
-        <v>12136200</v>
+        <v>13419700</v>
       </c>
       <c r="F49" s="3">
-        <v>13670100</v>
+        <v>12266600</v>
       </c>
       <c r="G49" s="3">
-        <v>17468100</v>
+        <v>13817000</v>
       </c>
       <c r="H49" s="3">
-        <v>23115100</v>
+        <v>17655800</v>
       </c>
       <c r="I49" s="3">
-        <v>10723100</v>
+        <v>23363500</v>
       </c>
       <c r="J49" s="3">
+        <v>10838300</v>
+      </c>
+      <c r="K49" s="3">
         <v>15822200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12926000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2060900</v>
+        <v>2121900</v>
       </c>
       <c r="E52" s="3">
-        <v>1861100</v>
+        <v>2083100</v>
       </c>
       <c r="F52" s="3">
-        <v>3195200</v>
+        <v>1881100</v>
       </c>
       <c r="G52" s="3">
-        <v>3166600</v>
+        <v>3229500</v>
       </c>
       <c r="H52" s="3">
-        <v>2793300</v>
+        <v>3200700</v>
       </c>
       <c r="I52" s="3">
-        <v>1908300</v>
+        <v>2823300</v>
       </c>
       <c r="J52" s="3">
+        <v>1928800</v>
+      </c>
+      <c r="K52" s="3">
         <v>4611600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2261900</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28568900</v>
+        <v>29982400</v>
       </c>
       <c r="E54" s="3">
-        <v>27795900</v>
+        <v>28875900</v>
       </c>
       <c r="F54" s="3">
-        <v>35432500</v>
+        <v>28094600</v>
       </c>
       <c r="G54" s="3">
-        <v>34011600</v>
+        <v>35813200</v>
       </c>
       <c r="H54" s="3">
-        <v>31130500</v>
+        <v>34377200</v>
       </c>
       <c r="I54" s="3">
-        <v>29161800</v>
+        <v>31465000</v>
       </c>
       <c r="J54" s="3">
+        <v>29475200</v>
+      </c>
+      <c r="K54" s="3">
         <v>31930900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>34504100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2528700</v>
+        <v>2318400</v>
       </c>
       <c r="E57" s="3">
-        <v>2294800</v>
+        <v>2555900</v>
       </c>
       <c r="F57" s="3">
-        <v>6250900</v>
+        <v>2319500</v>
       </c>
       <c r="G57" s="3">
-        <v>5865500</v>
+        <v>6318100</v>
       </c>
       <c r="H57" s="3">
-        <v>5483400</v>
+        <v>5928600</v>
       </c>
       <c r="I57" s="3">
-        <v>2703300</v>
+        <v>5542300</v>
       </c>
       <c r="J57" s="3">
+        <v>2732300</v>
+      </c>
+      <c r="K57" s="3">
         <v>6234400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3927600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>755400</v>
+        <v>423900</v>
       </c>
       <c r="E58" s="3">
-        <v>251400</v>
+        <v>763500</v>
       </c>
       <c r="F58" s="3">
-        <v>1740300</v>
+        <v>254100</v>
       </c>
       <c r="G58" s="3">
-        <v>1828200</v>
+        <v>1759000</v>
       </c>
       <c r="H58" s="3">
-        <v>430400</v>
+        <v>1847800</v>
       </c>
       <c r="I58" s="3">
-        <v>650000</v>
+        <v>435000</v>
       </c>
       <c r="J58" s="3">
+        <v>657000</v>
+      </c>
+      <c r="K58" s="3">
         <v>1776600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>683200</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5437300</v>
+        <v>5001900</v>
       </c>
       <c r="E59" s="3">
-        <v>4992600</v>
+        <v>5495700</v>
       </c>
       <c r="F59" s="3">
-        <v>6635200</v>
+        <v>5046300</v>
       </c>
       <c r="G59" s="3">
-        <v>10664900</v>
+        <v>6706500</v>
       </c>
       <c r="H59" s="3">
-        <v>10839500</v>
+        <v>10779500</v>
       </c>
       <c r="I59" s="3">
-        <v>5953400</v>
+        <v>10955900</v>
       </c>
       <c r="J59" s="3">
+        <v>6017300</v>
+      </c>
+      <c r="K59" s="3">
         <v>12114200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6873800</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8721400</v>
+        <v>7744200</v>
       </c>
       <c r="E60" s="3">
-        <v>7538900</v>
+        <v>8815100</v>
       </c>
       <c r="F60" s="3">
-        <v>11499400</v>
+        <v>7619900</v>
       </c>
       <c r="G60" s="3">
-        <v>10935000</v>
+        <v>11622900</v>
       </c>
       <c r="H60" s="3">
-        <v>9526200</v>
+        <v>11052500</v>
       </c>
       <c r="I60" s="3">
-        <v>9306600</v>
+        <v>9628600</v>
       </c>
       <c r="J60" s="3">
+        <v>9406700</v>
+      </c>
+      <c r="K60" s="3">
         <v>10930600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11484600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3556400</v>
+        <v>5412500</v>
       </c>
       <c r="E61" s="3">
-        <v>3807900</v>
+        <v>3594600</v>
       </c>
       <c r="F61" s="3">
-        <v>4415100</v>
+        <v>3848800</v>
       </c>
       <c r="G61" s="3">
-        <v>4496300</v>
+        <v>4462500</v>
       </c>
       <c r="H61" s="3">
-        <v>4075800</v>
+        <v>4544600</v>
       </c>
       <c r="I61" s="3">
-        <v>3633300</v>
+        <v>4119600</v>
       </c>
       <c r="J61" s="3">
+        <v>3672300</v>
+      </c>
+      <c r="K61" s="3">
         <v>4090100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3847700</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2986600</v>
+        <v>2814500</v>
       </c>
       <c r="E62" s="3">
-        <v>3247900</v>
+        <v>3018700</v>
       </c>
       <c r="F62" s="3">
-        <v>4746700</v>
+        <v>3282800</v>
       </c>
       <c r="G62" s="3">
-        <v>11413700</v>
+        <v>4797700</v>
       </c>
       <c r="H62" s="3">
-        <v>7503700</v>
+        <v>11536400</v>
       </c>
       <c r="I62" s="3">
-        <v>3894600</v>
+        <v>7584400</v>
       </c>
       <c r="J62" s="3">
+        <v>3936500</v>
+      </c>
+      <c r="K62" s="3">
         <v>9167200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4675300</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>15296200</v>
+        <v>16002200</v>
       </c>
       <c r="E66" s="3">
-        <v>14621000</v>
+        <v>15460600</v>
       </c>
       <c r="F66" s="3">
-        <v>21657000</v>
+        <v>14778100</v>
       </c>
       <c r="G66" s="3">
-        <v>21206800</v>
+        <v>21889700</v>
       </c>
       <c r="H66" s="3">
-        <v>19198500</v>
+        <v>21434700</v>
       </c>
       <c r="I66" s="3">
-        <v>16848800</v>
+        <v>19404900</v>
       </c>
       <c r="J66" s="3">
+        <v>17029900</v>
+      </c>
+      <c r="K66" s="3">
         <v>19687100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20047500</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9076100</v>
+        <v>9206900</v>
       </c>
       <c r="E72" s="3">
-        <v>9438400</v>
+        <v>9173600</v>
       </c>
       <c r="F72" s="3">
-        <v>8979400</v>
+        <v>9539800</v>
       </c>
       <c r="G72" s="3">
-        <v>8827900</v>
+        <v>9075900</v>
       </c>
       <c r="H72" s="3">
-        <v>9651400</v>
+        <v>8922800</v>
       </c>
       <c r="I72" s="3">
-        <v>11435700</v>
+        <v>9755100</v>
       </c>
       <c r="J72" s="3">
+        <v>11558600</v>
+      </c>
+      <c r="K72" s="3">
         <v>11775000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15116300</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13272600</v>
+        <v>13980200</v>
       </c>
       <c r="E76" s="3">
-        <v>13174900</v>
+        <v>13415300</v>
       </c>
       <c r="F76" s="3">
-        <v>13775500</v>
+        <v>13316500</v>
       </c>
       <c r="G76" s="3">
-        <v>12804900</v>
+        <v>13923600</v>
       </c>
       <c r="H76" s="3">
-        <v>11932000</v>
+        <v>12942500</v>
       </c>
       <c r="I76" s="3">
-        <v>12313000</v>
+        <v>12060200</v>
       </c>
       <c r="J76" s="3">
+        <v>12445300</v>
+      </c>
+      <c r="K76" s="3">
         <v>12243800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14456600</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1196800</v>
+        <v>1292600</v>
       </c>
       <c r="E81" s="3">
-        <v>1819400</v>
+        <v>1207300</v>
       </c>
       <c r="F81" s="3">
-        <v>1604200</v>
+        <v>1835300</v>
       </c>
       <c r="G81" s="3">
-        <v>718100</v>
+        <v>1618200</v>
       </c>
       <c r="H81" s="3">
-        <v>455700</v>
+        <v>724400</v>
       </c>
       <c r="I81" s="3">
-        <v>1283600</v>
+        <v>459700</v>
       </c>
       <c r="J81" s="3">
+        <v>1294800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-264600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1716100</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1195700</v>
+        <v>1552900</v>
       </c>
       <c r="E83" s="3">
-        <v>1125500</v>
+        <v>1206200</v>
       </c>
       <c r="F83" s="3">
-        <v>1071600</v>
+        <v>1135300</v>
       </c>
       <c r="G83" s="3">
-        <v>1067300</v>
+        <v>1081000</v>
       </c>
       <c r="H83" s="3">
-        <v>1303300</v>
+        <v>1076600</v>
       </c>
       <c r="I83" s="3">
-        <v>1292300</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>1314700</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1303600</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1643300</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2664800</v>
+        <v>2221800</v>
       </c>
       <c r="E89" s="3">
-        <v>3220400</v>
+        <v>2688100</v>
       </c>
       <c r="F89" s="3">
-        <v>3646500</v>
+        <v>3248600</v>
       </c>
       <c r="G89" s="3">
-        <v>1246200</v>
+        <v>3678300</v>
       </c>
       <c r="H89" s="3">
-        <v>1546000</v>
+        <v>1257100</v>
       </c>
       <c r="I89" s="3">
-        <v>926700</v>
+        <v>1559500</v>
       </c>
       <c r="J89" s="3">
+        <v>934800</v>
+      </c>
+      <c r="K89" s="3">
         <v>2103800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>563400</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-463400</v>
+        <v>-573700</v>
       </c>
       <c r="E91" s="3">
-        <v>-461200</v>
+        <v>-467400</v>
       </c>
       <c r="F91" s="3">
-        <v>-395300</v>
+        <v>-465200</v>
       </c>
       <c r="G91" s="3">
-        <v>-474300</v>
+        <v>-398700</v>
       </c>
       <c r="H91" s="3">
-        <v>-479800</v>
+        <v>-478500</v>
       </c>
       <c r="I91" s="3">
-        <v>-529200</v>
+        <v>-484000</v>
       </c>
       <c r="J91" s="3">
+        <v>-533900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-725800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1156200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1631600</v>
+        <v>-667900</v>
       </c>
       <c r="E94" s="3">
-        <v>-3512500</v>
+        <v>-1645900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1199000</v>
+        <v>-3543200</v>
       </c>
       <c r="G94" s="3">
-        <v>-2033500</v>
+        <v>-1209500</v>
       </c>
       <c r="H94" s="3">
-        <v>-983800</v>
+        <v>-2051300</v>
       </c>
       <c r="I94" s="3">
-        <v>-998100</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-992400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1006800</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1606900</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-440300</v>
+        <v>-501700</v>
       </c>
       <c r="E96" s="3">
-        <v>-421600</v>
+        <v>-444100</v>
       </c>
       <c r="F96" s="3">
-        <v>-362300</v>
+        <v>-425300</v>
       </c>
       <c r="G96" s="3">
-        <v>-327200</v>
+        <v>-365500</v>
       </c>
       <c r="H96" s="3">
-        <v>-320600</v>
+        <v>-330100</v>
       </c>
       <c r="I96" s="3">
-        <v>-298700</v>
+        <v>-323400</v>
       </c>
       <c r="J96" s="3">
+        <v>-301300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-280000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-304000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1308800</v>
+        <v>-1844200</v>
       </c>
       <c r="E100" s="3">
-        <v>60400</v>
+        <v>-1320300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1804000</v>
+        <v>60900</v>
       </c>
       <c r="G100" s="3">
-        <v>580800</v>
+        <v>-1819800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1305500</v>
+        <v>585900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1362600</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-1316900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1374500</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2101100</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="E101" s="3">
-        <v>-202000</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-18700</v>
+        <v>-203800</v>
       </c>
       <c r="G101" s="3">
-        <v>87800</v>
+        <v>-18800</v>
       </c>
       <c r="H101" s="3">
-        <v>93300</v>
+        <v>88600</v>
       </c>
       <c r="I101" s="3">
-        <v>-69200</v>
-      </c>
-      <c r="J101" s="3" t="s">
+        <v>94100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-69800</v>
+      </c>
+      <c r="K101" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-8200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-275600</v>
+        <v>-292400</v>
       </c>
       <c r="E102" s="3">
-        <v>-433700</v>
+        <v>-278000</v>
       </c>
       <c r="F102" s="3">
-        <v>624800</v>
+        <v>-437500</v>
       </c>
       <c r="G102" s="3">
-        <v>-118600</v>
+        <v>630200</v>
       </c>
       <c r="H102" s="3">
-        <v>-650000</v>
+        <v>-119600</v>
       </c>
       <c r="I102" s="3">
-        <v>-1503200</v>
+        <v>-655700</v>
       </c>
       <c r="J102" s="3">
+        <v>-1516300</v>
+      </c>
+      <c r="K102" s="3">
         <v>754300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3152900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>21578300</v>
+        <v>23045300</v>
       </c>
       <c r="E8" s="3">
-        <v>20070800</v>
+        <v>21435300</v>
       </c>
       <c r="F8" s="3">
-        <v>19693100</v>
+        <v>21032000</v>
       </c>
       <c r="G8" s="3">
-        <v>19296600</v>
+        <v>20608500</v>
       </c>
       <c r="H8" s="3">
-        <v>18614300</v>
+        <v>19879800</v>
       </c>
       <c r="I8" s="3">
-        <v>23692700</v>
+        <v>25303400</v>
       </c>
       <c r="J8" s="3">
-        <v>24356100</v>
+        <v>26012000</v>
       </c>
       <c r="K8" s="3">
         <v>25755800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11491400</v>
+        <v>12272600</v>
       </c>
       <c r="E9" s="3">
-        <v>10597500</v>
+        <v>11318000</v>
       </c>
       <c r="F9" s="3">
-        <v>10633000</v>
+        <v>11355800</v>
       </c>
       <c r="G9" s="3">
-        <v>10504500</v>
+        <v>11218600</v>
       </c>
       <c r="H9" s="3">
-        <v>10626300</v>
+        <v>11348700</v>
       </c>
       <c r="I9" s="3">
-        <v>14603700</v>
+        <v>15596500</v>
       </c>
       <c r="J9" s="3">
-        <v>14014500</v>
+        <v>14967200</v>
       </c>
       <c r="K9" s="3">
         <v>15883700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10086900</v>
+        <v>10772700</v>
       </c>
       <c r="E10" s="3">
-        <v>9473300</v>
+        <v>10117300</v>
       </c>
       <c r="F10" s="3">
-        <v>9060200</v>
+        <v>9676100</v>
       </c>
       <c r="G10" s="3">
-        <v>8792100</v>
+        <v>9389900</v>
       </c>
       <c r="H10" s="3">
-        <v>7988000</v>
+        <v>8531100</v>
       </c>
       <c r="I10" s="3">
-        <v>9089000</v>
+        <v>9706900</v>
       </c>
       <c r="J10" s="3">
-        <v>10341700</v>
+        <v>11044700</v>
       </c>
       <c r="K10" s="3">
         <v>9872100</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1919500</v>
+        <v>2050000</v>
       </c>
       <c r="E12" s="3">
-        <v>1864100</v>
+        <v>1990800</v>
       </c>
       <c r="F12" s="3">
-        <v>1839700</v>
+        <v>1964800</v>
       </c>
       <c r="G12" s="3">
-        <v>1848600</v>
+        <v>1974300</v>
       </c>
       <c r="H12" s="3">
-        <v>1730100</v>
+        <v>1847700</v>
       </c>
       <c r="I12" s="3">
-        <v>1810900</v>
+        <v>1934000</v>
       </c>
       <c r="J12" s="3">
-        <v>1837500</v>
+        <v>1962400</v>
       </c>
       <c r="K12" s="3">
         <v>2010400</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>681200</v>
+        <v>727500</v>
       </c>
       <c r="E14" s="3">
-        <v>199400</v>
+        <v>212900</v>
       </c>
       <c r="F14" s="3">
-        <v>302400</v>
+        <v>322900</v>
       </c>
       <c r="G14" s="3">
-        <v>27700</v>
+        <v>29600</v>
       </c>
       <c r="H14" s="3">
-        <v>50900</v>
+        <v>54400</v>
       </c>
       <c r="I14" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J14" s="3">
-        <v>42100</v>
+        <v>45000</v>
       </c>
       <c r="K14" s="3">
         <v>8800</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>19757400</v>
+        <v>21100600</v>
       </c>
       <c r="E17" s="3">
-        <v>18166900</v>
+        <v>19401900</v>
       </c>
       <c r="F17" s="3">
-        <v>18015100</v>
+        <v>19239900</v>
       </c>
       <c r="G17" s="3">
-        <v>17701700</v>
+        <v>18905100</v>
       </c>
       <c r="H17" s="3">
-        <v>17936500</v>
+        <v>19155900</v>
       </c>
       <c r="I17" s="3">
-        <v>23154400</v>
+        <v>24728500</v>
       </c>
       <c r="J17" s="3">
-        <v>22301500</v>
+        <v>23817700</v>
       </c>
       <c r="K17" s="3">
         <v>25053100</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1820900</v>
+        <v>1944700</v>
       </c>
       <c r="E18" s="3">
-        <v>1904000</v>
+        <v>2033400</v>
       </c>
       <c r="F18" s="3">
-        <v>1678000</v>
+        <v>1792100</v>
       </c>
       <c r="G18" s="3">
-        <v>1594900</v>
+        <v>1703400</v>
       </c>
       <c r="H18" s="3">
-        <v>677900</v>
+        <v>723900</v>
       </c>
       <c r="I18" s="3">
-        <v>538300</v>
+        <v>574900</v>
       </c>
       <c r="J18" s="3">
-        <v>2054600</v>
+        <v>2194300</v>
       </c>
       <c r="K18" s="3">
         <v>702700</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>57600</v>
+        <v>61500</v>
       </c>
       <c r="E20" s="3">
-        <v>-31000</v>
+        <v>-33100</v>
       </c>
       <c r="F20" s="3">
-        <v>93000</v>
+        <v>99400</v>
       </c>
       <c r="G20" s="3">
-        <v>-63100</v>
+        <v>-67400</v>
       </c>
       <c r="H20" s="3">
-        <v>75300</v>
+        <v>80400</v>
       </c>
       <c r="I20" s="3">
-        <v>-19900</v>
+        <v>-21300</v>
       </c>
       <c r="J20" s="3">
-        <v>-86400</v>
+        <v>-92300</v>
       </c>
       <c r="K20" s="3">
         <v>339300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3421100</v>
+        <v>3665200</v>
       </c>
       <c r="E21" s="3">
-        <v>3071200</v>
+        <v>3288900</v>
       </c>
       <c r="F21" s="3">
-        <v>2898900</v>
+        <v>3104300</v>
       </c>
       <c r="G21" s="3">
-        <v>2605700</v>
+        <v>2790900</v>
       </c>
       <c r="H21" s="3">
-        <v>1822700</v>
+        <v>1954500</v>
       </c>
       <c r="I21" s="3">
-        <v>1824400</v>
+        <v>1958200</v>
       </c>
       <c r="J21" s="3">
-        <v>3263300</v>
+        <v>3494800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>41</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>185000</v>
+        <v>197500</v>
       </c>
       <c r="E22" s="3">
-        <v>208200</v>
+        <v>222400</v>
       </c>
       <c r="F22" s="3">
-        <v>245900</v>
+        <v>262600</v>
       </c>
       <c r="G22" s="3">
-        <v>386600</v>
+        <v>412800</v>
       </c>
       <c r="H22" s="3">
-        <v>388800</v>
+        <v>415200</v>
       </c>
       <c r="I22" s="3">
-        <v>313500</v>
+        <v>334800</v>
       </c>
       <c r="J22" s="3">
-        <v>279100</v>
+        <v>298100</v>
       </c>
       <c r="K22" s="3">
         <v>691700</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1693500</v>
+        <v>1808700</v>
       </c>
       <c r="E23" s="3">
-        <v>1664700</v>
+        <v>1777900</v>
       </c>
       <c r="F23" s="3">
-        <v>1525200</v>
+        <v>1628900</v>
       </c>
       <c r="G23" s="3">
-        <v>1145300</v>
+        <v>1223100</v>
       </c>
       <c r="H23" s="3">
-        <v>364400</v>
+        <v>389200</v>
       </c>
       <c r="I23" s="3">
-        <v>204900</v>
+        <v>218800</v>
       </c>
       <c r="J23" s="3">
-        <v>1689100</v>
+        <v>1803900</v>
       </c>
       <c r="K23" s="3">
         <v>350300</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>373300</v>
+        <v>398600</v>
       </c>
       <c r="E24" s="3">
-        <v>213800</v>
+        <v>228300</v>
       </c>
       <c r="F24" s="3">
-        <v>386600</v>
+        <v>412800</v>
       </c>
       <c r="G24" s="3">
-        <v>224800</v>
+        <v>240100</v>
       </c>
       <c r="H24" s="3">
-        <v>187200</v>
+        <v>199900</v>
       </c>
       <c r="I24" s="3">
-        <v>28800</v>
+        <v>30800</v>
       </c>
       <c r="J24" s="3">
-        <v>516100</v>
+        <v>551200</v>
       </c>
       <c r="K24" s="3">
         <v>203100</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1320300</v>
+        <v>1410000</v>
       </c>
       <c r="E26" s="3">
-        <v>1451000</v>
+        <v>1549600</v>
       </c>
       <c r="F26" s="3">
-        <v>1138600</v>
+        <v>1216000</v>
       </c>
       <c r="G26" s="3">
-        <v>920400</v>
+        <v>983000</v>
       </c>
       <c r="H26" s="3">
-        <v>177200</v>
+        <v>189300</v>
       </c>
       <c r="I26" s="3">
-        <v>176100</v>
+        <v>188100</v>
       </c>
       <c r="J26" s="3">
-        <v>1172900</v>
+        <v>1252700</v>
       </c>
       <c r="K26" s="3">
         <v>147100</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1313600</v>
+        <v>1402900</v>
       </c>
       <c r="E27" s="3">
-        <v>1443200</v>
+        <v>1541300</v>
       </c>
       <c r="F27" s="3">
-        <v>901600</v>
+        <v>962900</v>
       </c>
       <c r="G27" s="3">
-        <v>887200</v>
+        <v>947500</v>
       </c>
       <c r="H27" s="3">
-        <v>193800</v>
+        <v>207000</v>
       </c>
       <c r="I27" s="3">
-        <v>249200</v>
+        <v>266200</v>
       </c>
       <c r="J27" s="3">
-        <v>1141900</v>
+        <v>1219600</v>
       </c>
       <c r="K27" s="3">
         <v>-316200</v>
@@ -1353,25 +1353,25 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-21000</v>
+        <v>-22500</v>
       </c>
       <c r="E29" s="3">
-        <v>-235900</v>
+        <v>-252000</v>
       </c>
       <c r="F29" s="3">
-        <v>933700</v>
+        <v>997200</v>
       </c>
       <c r="G29" s="3">
-        <v>731000</v>
+        <v>780700</v>
       </c>
       <c r="H29" s="3">
-        <v>530500</v>
+        <v>566600</v>
       </c>
       <c r="I29" s="3">
-        <v>210400</v>
+        <v>224800</v>
       </c>
       <c r="J29" s="3">
-        <v>152800</v>
+        <v>163200</v>
       </c>
       <c r="K29" s="3">
         <v>51600</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-57600</v>
+        <v>-61500</v>
       </c>
       <c r="E32" s="3">
-        <v>31000</v>
+        <v>33100</v>
       </c>
       <c r="F32" s="3">
-        <v>-93000</v>
+        <v>-99400</v>
       </c>
       <c r="G32" s="3">
-        <v>63100</v>
+        <v>67400</v>
       </c>
       <c r="H32" s="3">
-        <v>-75300</v>
+        <v>-80400</v>
       </c>
       <c r="I32" s="3">
-        <v>19900</v>
+        <v>21300</v>
       </c>
       <c r="J32" s="3">
-        <v>86400</v>
+        <v>92300</v>
       </c>
       <c r="K32" s="3">
         <v>-339300</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1292600</v>
+        <v>1380400</v>
       </c>
       <c r="E33" s="3">
-        <v>1207300</v>
+        <v>1289400</v>
       </c>
       <c r="F33" s="3">
-        <v>1835300</v>
+        <v>1960100</v>
       </c>
       <c r="G33" s="3">
-        <v>1618200</v>
+        <v>1728200</v>
       </c>
       <c r="H33" s="3">
-        <v>724400</v>
+        <v>773600</v>
       </c>
       <c r="I33" s="3">
-        <v>459700</v>
+        <v>490900</v>
       </c>
       <c r="J33" s="3">
-        <v>1294800</v>
+        <v>1382800</v>
       </c>
       <c r="K33" s="3">
         <v>-264600</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1292600</v>
+        <v>1380400</v>
       </c>
       <c r="E35" s="3">
-        <v>1207300</v>
+        <v>1289400</v>
       </c>
       <c r="F35" s="3">
-        <v>1835300</v>
+        <v>1960100</v>
       </c>
       <c r="G35" s="3">
-        <v>1618200</v>
+        <v>1728200</v>
       </c>
       <c r="H35" s="3">
-        <v>724400</v>
+        <v>773600</v>
       </c>
       <c r="I35" s="3">
-        <v>459700</v>
+        <v>490900</v>
       </c>
       <c r="J35" s="3">
-        <v>1294800</v>
+        <v>1382800</v>
       </c>
       <c r="K35" s="3">
         <v>-264600</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1581500</v>
+        <v>1685600</v>
       </c>
       <c r="E41" s="3">
-        <v>1873300</v>
+        <v>1996700</v>
       </c>
       <c r="F41" s="3">
-        <v>2151900</v>
+        <v>2293600</v>
       </c>
       <c r="G41" s="3">
-        <v>2590300</v>
+        <v>2760900</v>
       </c>
       <c r="H41" s="3">
-        <v>1959900</v>
+        <v>2089000</v>
       </c>
       <c r="I41" s="3">
-        <v>2078700</v>
+        <v>2215600</v>
       </c>
       <c r="J41" s="3">
-        <v>2735700</v>
+        <v>2915800</v>
       </c>
       <c r="K41" s="3">
         <v>4209700</v>
@@ -1685,25 +1685,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E42" s="3">
-        <v>483900</v>
+        <v>515700</v>
       </c>
       <c r="F42" s="3">
-        <v>2200</v>
+        <v>2400</v>
       </c>
       <c r="G42" s="3">
-        <v>112100</v>
+        <v>119500</v>
       </c>
       <c r="H42" s="3">
-        <v>13300</v>
+        <v>14200</v>
       </c>
       <c r="I42" s="3">
-        <v>138700</v>
+        <v>147900</v>
       </c>
       <c r="J42" s="3">
-        <v>11100</v>
+        <v>11800</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>5570100</v>
+        <v>5937000</v>
       </c>
       <c r="E43" s="3">
-        <v>4947500</v>
+        <v>5273400</v>
       </c>
       <c r="F43" s="3">
-        <v>4665600</v>
+        <v>4972900</v>
       </c>
       <c r="G43" s="3">
-        <v>6335800</v>
+        <v>6753200</v>
       </c>
       <c r="H43" s="3">
-        <v>11184600</v>
+        <v>11921300</v>
       </c>
       <c r="I43" s="3">
-        <v>10638500</v>
+        <v>11339300</v>
       </c>
       <c r="J43" s="3">
-        <v>5269300</v>
+        <v>5616400</v>
       </c>
       <c r="K43" s="3">
         <v>10175200</v>
@@ -1751,25 +1751,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3077500</v>
+        <v>3280200</v>
       </c>
       <c r="E44" s="3">
-        <v>2967600</v>
+        <v>3163100</v>
       </c>
       <c r="F44" s="3">
-        <v>2611400</v>
+        <v>2783400</v>
       </c>
       <c r="G44" s="3">
-        <v>3764400</v>
+        <v>4012400</v>
       </c>
       <c r="H44" s="3">
-        <v>7686500</v>
+        <v>8192800</v>
       </c>
       <c r="I44" s="3">
-        <v>7355800</v>
+        <v>7840300</v>
       </c>
       <c r="J44" s="3">
-        <v>3595800</v>
+        <v>3832600</v>
       </c>
       <c r="K44" s="3">
         <v>3837500</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>267500</v>
+        <v>285100</v>
       </c>
       <c r="E45" s="3">
-        <v>350700</v>
+        <v>373800</v>
       </c>
       <c r="F45" s="3">
-        <v>1796800</v>
+        <v>1915100</v>
       </c>
       <c r="G45" s="3">
-        <v>2817800</v>
+        <v>3003400</v>
       </c>
       <c r="H45" s="3">
-        <v>3107400</v>
+        <v>3312100</v>
       </c>
       <c r="I45" s="3">
-        <v>2915400</v>
+        <v>3107500</v>
       </c>
       <c r="J45" s="3">
-        <v>1122000</v>
+        <v>1195900</v>
       </c>
       <c r="K45" s="3">
         <v>937700</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>10497600</v>
+        <v>11189100</v>
       </c>
       <c r="E46" s="3">
-        <v>10623000</v>
+        <v>11322700</v>
       </c>
       <c r="F46" s="3">
-        <v>11227800</v>
+        <v>11967400</v>
       </c>
       <c r="G46" s="3">
-        <v>15620400</v>
+        <v>16649300</v>
       </c>
       <c r="H46" s="3">
-        <v>14086700</v>
+        <v>15014500</v>
       </c>
       <c r="I46" s="3">
-        <v>13751500</v>
+        <v>14657300</v>
       </c>
       <c r="J46" s="3">
-        <v>12733800</v>
+        <v>13572600</v>
       </c>
       <c r="K46" s="3">
         <v>13755700</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>731400</v>
+        <v>779500</v>
       </c>
       <c r="E47" s="3">
-        <v>850100</v>
+        <v>906100</v>
       </c>
       <c r="F47" s="3">
-        <v>953300</v>
+        <v>1016100</v>
       </c>
       <c r="G47" s="3">
-        <v>754700</v>
+        <v>804400</v>
       </c>
       <c r="H47" s="3">
-        <v>955500</v>
+        <v>1018500</v>
       </c>
       <c r="I47" s="3">
-        <v>1570400</v>
+        <v>1673800</v>
       </c>
       <c r="J47" s="3">
-        <v>888900</v>
+        <v>947500</v>
       </c>
       <c r="K47" s="3">
         <v>1787500</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3180700</v>
+        <v>3390200</v>
       </c>
       <c r="E48" s="3">
-        <v>1900000</v>
+        <v>2025100</v>
       </c>
       <c r="F48" s="3">
-        <v>1765700</v>
+        <v>1882000</v>
       </c>
       <c r="G48" s="3">
-        <v>2391600</v>
+        <v>2549100</v>
       </c>
       <c r="H48" s="3">
-        <v>5153900</v>
+        <v>5493400</v>
       </c>
       <c r="I48" s="3">
-        <v>4650100</v>
+        <v>4956400</v>
       </c>
       <c r="J48" s="3">
-        <v>3085200</v>
+        <v>3288500</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>41</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13450800</v>
+        <v>14336700</v>
       </c>
       <c r="E49" s="3">
-        <v>13419700</v>
+        <v>14303600</v>
       </c>
       <c r="F49" s="3">
-        <v>12266600</v>
+        <v>13074600</v>
       </c>
       <c r="G49" s="3">
-        <v>13817000</v>
+        <v>14727100</v>
       </c>
       <c r="H49" s="3">
-        <v>17655800</v>
+        <v>18818800</v>
       </c>
       <c r="I49" s="3">
-        <v>23363500</v>
+        <v>24902400</v>
       </c>
       <c r="J49" s="3">
-        <v>10838300</v>
+        <v>11552200</v>
       </c>
       <c r="K49" s="3">
         <v>15822200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2121900</v>
+        <v>2261700</v>
       </c>
       <c r="E52" s="3">
-        <v>2083100</v>
+        <v>2220300</v>
       </c>
       <c r="F52" s="3">
-        <v>1881100</v>
+        <v>2005000</v>
       </c>
       <c r="G52" s="3">
-        <v>3229500</v>
+        <v>3442200</v>
       </c>
       <c r="H52" s="3">
-        <v>3200700</v>
+        <v>3411500</v>
       </c>
       <c r="I52" s="3">
-        <v>2823300</v>
+        <v>3009300</v>
       </c>
       <c r="J52" s="3">
-        <v>1928800</v>
+        <v>2055900</v>
       </c>
       <c r="K52" s="3">
         <v>4611600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29982400</v>
+        <v>31957200</v>
       </c>
       <c r="E54" s="3">
-        <v>28875900</v>
+        <v>30777900</v>
       </c>
       <c r="F54" s="3">
-        <v>28094600</v>
+        <v>29945100</v>
       </c>
       <c r="G54" s="3">
-        <v>35813200</v>
+        <v>38172200</v>
       </c>
       <c r="H54" s="3">
-        <v>34377200</v>
+        <v>36641500</v>
       </c>
       <c r="I54" s="3">
-        <v>31465000</v>
+        <v>33537600</v>
       </c>
       <c r="J54" s="3">
-        <v>29475200</v>
+        <v>31416600</v>
       </c>
       <c r="K54" s="3">
         <v>31930900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2318400</v>
+        <v>2471100</v>
       </c>
       <c r="E57" s="3">
-        <v>2555900</v>
+        <v>2724200</v>
       </c>
       <c r="F57" s="3">
-        <v>2319500</v>
+        <v>2472300</v>
       </c>
       <c r="G57" s="3">
-        <v>6318100</v>
+        <v>6734200</v>
       </c>
       <c r="H57" s="3">
-        <v>5928600</v>
+        <v>6319100</v>
       </c>
       <c r="I57" s="3">
-        <v>5542300</v>
+        <v>5907400</v>
       </c>
       <c r="J57" s="3">
-        <v>2732300</v>
+        <v>2912300</v>
       </c>
       <c r="K57" s="3">
         <v>6234400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>423900</v>
+        <v>451900</v>
       </c>
       <c r="E58" s="3">
-        <v>763500</v>
+        <v>813800</v>
       </c>
       <c r="F58" s="3">
-        <v>254100</v>
+        <v>270900</v>
       </c>
       <c r="G58" s="3">
-        <v>1759000</v>
+        <v>1874900</v>
       </c>
       <c r="H58" s="3">
-        <v>1847800</v>
+        <v>1969500</v>
       </c>
       <c r="I58" s="3">
-        <v>435000</v>
+        <v>463700</v>
       </c>
       <c r="J58" s="3">
-        <v>657000</v>
+        <v>700300</v>
       </c>
       <c r="K58" s="3">
         <v>1776600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5001900</v>
+        <v>5331300</v>
       </c>
       <c r="E59" s="3">
-        <v>5495700</v>
+        <v>5857700</v>
       </c>
       <c r="F59" s="3">
-        <v>5046300</v>
+        <v>5378600</v>
       </c>
       <c r="G59" s="3">
-        <v>6706500</v>
+        <v>7148300</v>
       </c>
       <c r="H59" s="3">
-        <v>10779500</v>
+        <v>11489500</v>
       </c>
       <c r="I59" s="3">
-        <v>10955900</v>
+        <v>11677600</v>
       </c>
       <c r="J59" s="3">
-        <v>6017300</v>
+        <v>6413700</v>
       </c>
       <c r="K59" s="3">
         <v>12114200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7744200</v>
+        <v>8254300</v>
       </c>
       <c r="E60" s="3">
-        <v>8815100</v>
+        <v>9395800</v>
       </c>
       <c r="F60" s="3">
-        <v>7619900</v>
+        <v>8121800</v>
       </c>
       <c r="G60" s="3">
-        <v>11622900</v>
+        <v>12388500</v>
       </c>
       <c r="H60" s="3">
-        <v>11052500</v>
+        <v>11780500</v>
       </c>
       <c r="I60" s="3">
-        <v>9628600</v>
+        <v>10262800</v>
       </c>
       <c r="J60" s="3">
-        <v>9406700</v>
+        <v>10026300</v>
       </c>
       <c r="K60" s="3">
         <v>10930600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5412500</v>
+        <v>5769000</v>
       </c>
       <c r="E61" s="3">
-        <v>3594600</v>
+        <v>3831400</v>
       </c>
       <c r="F61" s="3">
-        <v>3848800</v>
+        <v>4102300</v>
       </c>
       <c r="G61" s="3">
-        <v>4462500</v>
+        <v>4756400</v>
       </c>
       <c r="H61" s="3">
-        <v>4544600</v>
+        <v>4844000</v>
       </c>
       <c r="I61" s="3">
-        <v>4119600</v>
+        <v>4390900</v>
       </c>
       <c r="J61" s="3">
-        <v>3672300</v>
+        <v>3914200</v>
       </c>
       <c r="K61" s="3">
         <v>4090100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2814500</v>
+        <v>2999800</v>
       </c>
       <c r="E62" s="3">
-        <v>3018700</v>
+        <v>3217500</v>
       </c>
       <c r="F62" s="3">
-        <v>3282800</v>
+        <v>3499000</v>
       </c>
       <c r="G62" s="3">
-        <v>4797700</v>
+        <v>5113700</v>
       </c>
       <c r="H62" s="3">
-        <v>11536400</v>
+        <v>12296200</v>
       </c>
       <c r="I62" s="3">
-        <v>7584400</v>
+        <v>8083900</v>
       </c>
       <c r="J62" s="3">
-        <v>3936500</v>
+        <v>4195700</v>
       </c>
       <c r="K62" s="3">
         <v>9167200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16002200</v>
+        <v>17056200</v>
       </c>
       <c r="E66" s="3">
-        <v>15460600</v>
+        <v>16479000</v>
       </c>
       <c r="F66" s="3">
-        <v>14778100</v>
+        <v>15751500</v>
       </c>
       <c r="G66" s="3">
-        <v>21889700</v>
+        <v>23331500</v>
       </c>
       <c r="H66" s="3">
-        <v>21434700</v>
+        <v>22846500</v>
       </c>
       <c r="I66" s="3">
-        <v>19404900</v>
+        <v>20683000</v>
       </c>
       <c r="J66" s="3">
-        <v>17029900</v>
+        <v>18151600</v>
       </c>
       <c r="K66" s="3">
         <v>19687100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9206900</v>
+        <v>9813300</v>
       </c>
       <c r="E72" s="3">
-        <v>9173600</v>
+        <v>9777900</v>
       </c>
       <c r="F72" s="3">
-        <v>9539800</v>
+        <v>10168200</v>
       </c>
       <c r="G72" s="3">
-        <v>9075900</v>
+        <v>9673800</v>
       </c>
       <c r="H72" s="3">
-        <v>8922800</v>
+        <v>9510500</v>
       </c>
       <c r="I72" s="3">
-        <v>9755100</v>
+        <v>10397700</v>
       </c>
       <c r="J72" s="3">
-        <v>11558600</v>
+        <v>12319900</v>
       </c>
       <c r="K72" s="3">
         <v>11775000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13980200</v>
+        <v>14901000</v>
       </c>
       <c r="E76" s="3">
-        <v>13415300</v>
+        <v>14298900</v>
       </c>
       <c r="F76" s="3">
-        <v>13316500</v>
+        <v>14193600</v>
       </c>
       <c r="G76" s="3">
-        <v>13923600</v>
+        <v>14840700</v>
       </c>
       <c r="H76" s="3">
-        <v>12942500</v>
+        <v>13795000</v>
       </c>
       <c r="I76" s="3">
-        <v>12060200</v>
+        <v>12854600</v>
       </c>
       <c r="J76" s="3">
-        <v>12445300</v>
+        <v>13265000</v>
       </c>
       <c r="K76" s="3">
         <v>12243800</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1292600</v>
+        <v>1380400</v>
       </c>
       <c r="E81" s="3">
-        <v>1207300</v>
+        <v>1289400</v>
       </c>
       <c r="F81" s="3">
-        <v>1835300</v>
+        <v>1960100</v>
       </c>
       <c r="G81" s="3">
-        <v>1618200</v>
+        <v>1728200</v>
       </c>
       <c r="H81" s="3">
-        <v>724400</v>
+        <v>773600</v>
       </c>
       <c r="I81" s="3">
-        <v>459700</v>
+        <v>490900</v>
       </c>
       <c r="J81" s="3">
-        <v>1294800</v>
+        <v>1382800</v>
       </c>
       <c r="K81" s="3">
         <v>-264600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1552900</v>
+        <v>1658400</v>
       </c>
       <c r="E83" s="3">
-        <v>1206200</v>
+        <v>1288200</v>
       </c>
       <c r="F83" s="3">
-        <v>1135300</v>
+        <v>1212500</v>
       </c>
       <c r="G83" s="3">
-        <v>1081000</v>
+        <v>1154500</v>
       </c>
       <c r="H83" s="3">
-        <v>1076600</v>
+        <v>1149800</v>
       </c>
       <c r="I83" s="3">
-        <v>1314700</v>
+        <v>1404100</v>
       </c>
       <c r="J83" s="3">
-        <v>1303600</v>
+        <v>1392300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>41</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2221800</v>
+        <v>2372900</v>
       </c>
       <c r="E89" s="3">
-        <v>2688100</v>
+        <v>2870900</v>
       </c>
       <c r="F89" s="3">
-        <v>3248600</v>
+        <v>3469400</v>
       </c>
       <c r="G89" s="3">
-        <v>3678300</v>
+        <v>3928400</v>
       </c>
       <c r="H89" s="3">
-        <v>1257100</v>
+        <v>1342600</v>
       </c>
       <c r="I89" s="3">
-        <v>1559500</v>
+        <v>1665500</v>
       </c>
       <c r="J89" s="3">
-        <v>934800</v>
+        <v>998400</v>
       </c>
       <c r="K89" s="3">
         <v>2103800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-573700</v>
+        <v>-612700</v>
       </c>
       <c r="E91" s="3">
-        <v>-467400</v>
+        <v>-499200</v>
       </c>
       <c r="F91" s="3">
-        <v>-465200</v>
+        <v>-496800</v>
       </c>
       <c r="G91" s="3">
-        <v>-398700</v>
+        <v>-425800</v>
       </c>
       <c r="H91" s="3">
-        <v>-478500</v>
+        <v>-511000</v>
       </c>
       <c r="I91" s="3">
-        <v>-484000</v>
+        <v>-516900</v>
       </c>
       <c r="J91" s="3">
-        <v>-533900</v>
+        <v>-570200</v>
       </c>
       <c r="K91" s="3">
         <v>-725800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-667900</v>
+        <v>-713300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1645900</v>
+        <v>-1757800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3543200</v>
+        <v>-3784100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1209500</v>
+        <v>-1291700</v>
       </c>
       <c r="H94" s="3">
-        <v>-2051300</v>
+        <v>-2190700</v>
       </c>
       <c r="I94" s="3">
-        <v>-992400</v>
+        <v>-1059900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1006800</v>
+        <v>-1075300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>41</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-501700</v>
+        <v>-535900</v>
       </c>
       <c r="E96" s="3">
-        <v>-444100</v>
+        <v>-474300</v>
       </c>
       <c r="F96" s="3">
-        <v>-425300</v>
+        <v>-454200</v>
       </c>
       <c r="G96" s="3">
-        <v>-365500</v>
+        <v>-390400</v>
       </c>
       <c r="H96" s="3">
-        <v>-330100</v>
+        <v>-352500</v>
       </c>
       <c r="I96" s="3">
-        <v>-323400</v>
+        <v>-345400</v>
       </c>
       <c r="J96" s="3">
-        <v>-301300</v>
+        <v>-321700</v>
       </c>
       <c r="K96" s="3">
         <v>-280000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1844200</v>
+        <v>-1969500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1320300</v>
+        <v>-1410000</v>
       </c>
       <c r="F100" s="3">
-        <v>60900</v>
+        <v>65100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1819800</v>
+        <v>-1943500</v>
       </c>
       <c r="H100" s="3">
-        <v>585900</v>
+        <v>625800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1316900</v>
+        <v>-1406500</v>
       </c>
       <c r="J100" s="3">
-        <v>-1374500</v>
+        <v>-1468000</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>41</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-203800</v>
+        <v>-217700</v>
       </c>
       <c r="G101" s="3">
-        <v>-18800</v>
+        <v>-20100</v>
       </c>
       <c r="H101" s="3">
-        <v>88600</v>
+        <v>94600</v>
       </c>
       <c r="I101" s="3">
-        <v>94100</v>
+        <v>100500</v>
       </c>
       <c r="J101" s="3">
-        <v>-69800</v>
+        <v>-74500</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>41</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-292400</v>
+        <v>-312300</v>
       </c>
       <c r="E102" s="3">
-        <v>-278000</v>
+        <v>-296900</v>
       </c>
       <c r="F102" s="3">
-        <v>-437500</v>
+        <v>-467200</v>
       </c>
       <c r="G102" s="3">
-        <v>630200</v>
+        <v>673100</v>
       </c>
       <c r="H102" s="3">
-        <v>-119600</v>
+        <v>-127800</v>
       </c>
       <c r="I102" s="3">
-        <v>-655700</v>
+        <v>-700300</v>
       </c>
       <c r="J102" s="3">
-        <v>-1516300</v>
+        <v>-1619400</v>
       </c>
       <c r="K102" s="3">
         <v>754300</v>

--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23045300</v>
+        <v>23304400</v>
       </c>
       <c r="E8" s="3">
-        <v>21435300</v>
+        <v>21676300</v>
       </c>
       <c r="F8" s="3">
-        <v>21032000</v>
+        <v>21268400</v>
       </c>
       <c r="G8" s="3">
-        <v>20608500</v>
+        <v>20840200</v>
       </c>
       <c r="H8" s="3">
-        <v>19879800</v>
+        <v>20103300</v>
       </c>
       <c r="I8" s="3">
-        <v>25303400</v>
+        <v>25587900</v>
       </c>
       <c r="J8" s="3">
-        <v>26012000</v>
+        <v>26304400</v>
       </c>
       <c r="K8" s="3">
         <v>25755800</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12272600</v>
+        <v>12410600</v>
       </c>
       <c r="E9" s="3">
-        <v>11318000</v>
+        <v>11445200</v>
       </c>
       <c r="F9" s="3">
-        <v>11355800</v>
+        <v>11483500</v>
       </c>
       <c r="G9" s="3">
-        <v>11218600</v>
+        <v>11344800</v>
       </c>
       <c r="H9" s="3">
-        <v>11348700</v>
+        <v>11476300</v>
       </c>
       <c r="I9" s="3">
-        <v>15596500</v>
+        <v>15771900</v>
       </c>
       <c r="J9" s="3">
-        <v>14967200</v>
+        <v>15135500</v>
       </c>
       <c r="K9" s="3">
         <v>15883700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10772700</v>
+        <v>10893800</v>
       </c>
       <c r="E10" s="3">
-        <v>10117300</v>
+        <v>10231100</v>
       </c>
       <c r="F10" s="3">
-        <v>9676100</v>
+        <v>9784900</v>
       </c>
       <c r="G10" s="3">
-        <v>9389900</v>
+        <v>9495400</v>
       </c>
       <c r="H10" s="3">
-        <v>8531100</v>
+        <v>8627000</v>
       </c>
       <c r="I10" s="3">
-        <v>9706900</v>
+        <v>9816000</v>
       </c>
       <c r="J10" s="3">
-        <v>11044700</v>
+        <v>11168900</v>
       </c>
       <c r="K10" s="3">
         <v>9872100</v>
@@ -831,25 +831,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2050000</v>
+        <v>2073000</v>
       </c>
       <c r="E12" s="3">
-        <v>1990800</v>
+        <v>2013200</v>
       </c>
       <c r="F12" s="3">
-        <v>1964800</v>
+        <v>1986900</v>
       </c>
       <c r="G12" s="3">
-        <v>1974300</v>
+        <v>1996500</v>
       </c>
       <c r="H12" s="3">
-        <v>1847700</v>
+        <v>1868500</v>
       </c>
       <c r="I12" s="3">
-        <v>1934000</v>
+        <v>1955800</v>
       </c>
       <c r="J12" s="3">
-        <v>1962400</v>
+        <v>1984500</v>
       </c>
       <c r="K12" s="3">
         <v>2010400</v>
@@ -897,25 +897,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>727500</v>
+        <v>735700</v>
       </c>
       <c r="E14" s="3">
-        <v>212900</v>
+        <v>215300</v>
       </c>
       <c r="F14" s="3">
-        <v>322900</v>
+        <v>326600</v>
       </c>
       <c r="G14" s="3">
-        <v>29600</v>
+        <v>29900</v>
       </c>
       <c r="H14" s="3">
-        <v>54400</v>
+        <v>55000</v>
       </c>
       <c r="I14" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J14" s="3">
-        <v>45000</v>
+        <v>45500</v>
       </c>
       <c r="K14" s="3">
         <v>8800</v>
@@ -975,25 +975,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>21100600</v>
+        <v>21337800</v>
       </c>
       <c r="E17" s="3">
-        <v>19401900</v>
+        <v>19620100</v>
       </c>
       <c r="F17" s="3">
-        <v>19239900</v>
+        <v>19456200</v>
       </c>
       <c r="G17" s="3">
-        <v>18905100</v>
+        <v>19117700</v>
       </c>
       <c r="H17" s="3">
-        <v>19155900</v>
+        <v>19371300</v>
       </c>
       <c r="I17" s="3">
-        <v>24728500</v>
+        <v>25006600</v>
       </c>
       <c r="J17" s="3">
-        <v>23817700</v>
+        <v>24085500</v>
       </c>
       <c r="K17" s="3">
         <v>25053100</v>
@@ -1008,25 +1008,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1944700</v>
+        <v>1966600</v>
       </c>
       <c r="E18" s="3">
-        <v>2033400</v>
+        <v>2056300</v>
       </c>
       <c r="F18" s="3">
-        <v>1792100</v>
+        <v>1812200</v>
       </c>
       <c r="G18" s="3">
-        <v>1703400</v>
+        <v>1722500</v>
       </c>
       <c r="H18" s="3">
-        <v>723900</v>
+        <v>732100</v>
       </c>
       <c r="I18" s="3">
-        <v>574900</v>
+        <v>581400</v>
       </c>
       <c r="J18" s="3">
-        <v>2194300</v>
+        <v>2219000</v>
       </c>
       <c r="K18" s="3">
         <v>702700</v>
@@ -1056,25 +1056,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>61500</v>
+        <v>62200</v>
       </c>
       <c r="E20" s="3">
-        <v>-33100</v>
+        <v>-33500</v>
       </c>
       <c r="F20" s="3">
-        <v>99400</v>
+        <v>100500</v>
       </c>
       <c r="G20" s="3">
-        <v>-67400</v>
+        <v>-68200</v>
       </c>
       <c r="H20" s="3">
-        <v>80400</v>
+        <v>81300</v>
       </c>
       <c r="I20" s="3">
-        <v>-21300</v>
+        <v>-21500</v>
       </c>
       <c r="J20" s="3">
-        <v>-92300</v>
+        <v>-93300</v>
       </c>
       <c r="K20" s="3">
         <v>339300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3665200</v>
+        <v>3699000</v>
       </c>
       <c r="E21" s="3">
-        <v>3288900</v>
+        <v>3320100</v>
       </c>
       <c r="F21" s="3">
-        <v>3104300</v>
+        <v>3133800</v>
       </c>
       <c r="G21" s="3">
-        <v>2790900</v>
+        <v>2817100</v>
       </c>
       <c r="H21" s="3">
-        <v>1954500</v>
+        <v>1971400</v>
       </c>
       <c r="I21" s="3">
-        <v>1958200</v>
+        <v>1973900</v>
       </c>
       <c r="J21" s="3">
-        <v>3494800</v>
+        <v>3527800</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>41</v>
@@ -1122,25 +1122,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>197500</v>
+        <v>199800</v>
       </c>
       <c r="E22" s="3">
-        <v>222400</v>
+        <v>224900</v>
       </c>
       <c r="F22" s="3">
-        <v>262600</v>
+        <v>265600</v>
       </c>
       <c r="G22" s="3">
-        <v>412800</v>
+        <v>417500</v>
       </c>
       <c r="H22" s="3">
-        <v>415200</v>
+        <v>419900</v>
       </c>
       <c r="I22" s="3">
-        <v>334800</v>
+        <v>338500</v>
       </c>
       <c r="J22" s="3">
-        <v>298100</v>
+        <v>301400</v>
       </c>
       <c r="K22" s="3">
         <v>691700</v>
@@ -1155,25 +1155,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1808700</v>
+        <v>1829000</v>
       </c>
       <c r="E23" s="3">
-        <v>1777900</v>
+        <v>1797900</v>
       </c>
       <c r="F23" s="3">
-        <v>1628900</v>
+        <v>1647200</v>
       </c>
       <c r="G23" s="3">
-        <v>1223100</v>
+        <v>1236900</v>
       </c>
       <c r="H23" s="3">
-        <v>389200</v>
+        <v>393500</v>
       </c>
       <c r="I23" s="3">
-        <v>218800</v>
+        <v>221300</v>
       </c>
       <c r="J23" s="3">
-        <v>1803900</v>
+        <v>1824200</v>
       </c>
       <c r="K23" s="3">
         <v>350300</v>
@@ -1188,25 +1188,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>398600</v>
+        <v>403100</v>
       </c>
       <c r="E24" s="3">
-        <v>228300</v>
+        <v>230900</v>
       </c>
       <c r="F24" s="3">
-        <v>412800</v>
+        <v>417500</v>
       </c>
       <c r="G24" s="3">
-        <v>240100</v>
+        <v>242800</v>
       </c>
       <c r="H24" s="3">
-        <v>199900</v>
+        <v>202200</v>
       </c>
       <c r="I24" s="3">
-        <v>30800</v>
+        <v>31100</v>
       </c>
       <c r="J24" s="3">
-        <v>551200</v>
+        <v>557400</v>
       </c>
       <c r="K24" s="3">
         <v>203100</v>
@@ -1254,25 +1254,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1410000</v>
+        <v>1425900</v>
       </c>
       <c r="E26" s="3">
-        <v>1549600</v>
+        <v>1567000</v>
       </c>
       <c r="F26" s="3">
-        <v>1216000</v>
+        <v>1229700</v>
       </c>
       <c r="G26" s="3">
-        <v>983000</v>
+        <v>994000</v>
       </c>
       <c r="H26" s="3">
-        <v>189300</v>
+        <v>191400</v>
       </c>
       <c r="I26" s="3">
-        <v>188100</v>
+        <v>190200</v>
       </c>
       <c r="J26" s="3">
-        <v>1252700</v>
+        <v>1266800</v>
       </c>
       <c r="K26" s="3">
         <v>147100</v>
@@ -1287,25 +1287,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1402900</v>
+        <v>1418700</v>
       </c>
       <c r="E27" s="3">
-        <v>1541300</v>
+        <v>1558600</v>
       </c>
       <c r="F27" s="3">
-        <v>962900</v>
+        <v>973700</v>
       </c>
       <c r="G27" s="3">
-        <v>947500</v>
+        <v>958200</v>
       </c>
       <c r="H27" s="3">
-        <v>207000</v>
+        <v>209300</v>
       </c>
       <c r="I27" s="3">
-        <v>266200</v>
+        <v>269100</v>
       </c>
       <c r="J27" s="3">
-        <v>1219600</v>
+        <v>1233300</v>
       </c>
       <c r="K27" s="3">
         <v>-316200</v>
@@ -1353,25 +1353,25 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-22500</v>
+        <v>-22700</v>
       </c>
       <c r="E29" s="3">
-        <v>-252000</v>
+        <v>-254800</v>
       </c>
       <c r="F29" s="3">
-        <v>997200</v>
+        <v>1008400</v>
       </c>
       <c r="G29" s="3">
-        <v>780700</v>
+        <v>789500</v>
       </c>
       <c r="H29" s="3">
-        <v>566600</v>
+        <v>573000</v>
       </c>
       <c r="I29" s="3">
-        <v>224800</v>
+        <v>227300</v>
       </c>
       <c r="J29" s="3">
-        <v>163200</v>
+        <v>165100</v>
       </c>
       <c r="K29" s="3">
         <v>51600</v>
@@ -1452,25 +1452,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-61500</v>
+        <v>-62200</v>
       </c>
       <c r="E32" s="3">
-        <v>33100</v>
+        <v>33500</v>
       </c>
       <c r="F32" s="3">
-        <v>-99400</v>
+        <v>-100500</v>
       </c>
       <c r="G32" s="3">
-        <v>67400</v>
+        <v>68200</v>
       </c>
       <c r="H32" s="3">
-        <v>-80400</v>
+        <v>-81300</v>
       </c>
       <c r="I32" s="3">
-        <v>21300</v>
+        <v>21500</v>
       </c>
       <c r="J32" s="3">
-        <v>92300</v>
+        <v>93300</v>
       </c>
       <c r="K32" s="3">
         <v>-339300</v>
@@ -1485,25 +1485,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1380400</v>
+        <v>1396000</v>
       </c>
       <c r="E33" s="3">
-        <v>1289400</v>
+        <v>1303900</v>
       </c>
       <c r="F33" s="3">
-        <v>1960100</v>
+        <v>1982100</v>
       </c>
       <c r="G33" s="3">
-        <v>1728200</v>
+        <v>1747600</v>
       </c>
       <c r="H33" s="3">
-        <v>773600</v>
+        <v>782300</v>
       </c>
       <c r="I33" s="3">
-        <v>490900</v>
+        <v>496400</v>
       </c>
       <c r="J33" s="3">
-        <v>1382800</v>
+        <v>1398400</v>
       </c>
       <c r="K33" s="3">
         <v>-264600</v>
@@ -1551,25 +1551,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1380400</v>
+        <v>1396000</v>
       </c>
       <c r="E35" s="3">
-        <v>1289400</v>
+        <v>1303900</v>
       </c>
       <c r="F35" s="3">
-        <v>1960100</v>
+        <v>1982100</v>
       </c>
       <c r="G35" s="3">
-        <v>1728200</v>
+        <v>1747600</v>
       </c>
       <c r="H35" s="3">
-        <v>773600</v>
+        <v>782300</v>
       </c>
       <c r="I35" s="3">
-        <v>490900</v>
+        <v>496400</v>
       </c>
       <c r="J35" s="3">
-        <v>1382800</v>
+        <v>1398400</v>
       </c>
       <c r="K35" s="3">
         <v>-264600</v>
@@ -1652,25 +1652,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1685600</v>
+        <v>1704600</v>
       </c>
       <c r="E41" s="3">
-        <v>1996700</v>
+        <v>2019200</v>
       </c>
       <c r="F41" s="3">
-        <v>2293600</v>
+        <v>2319400</v>
       </c>
       <c r="G41" s="3">
-        <v>2760900</v>
+        <v>2791900</v>
       </c>
       <c r="H41" s="3">
-        <v>2089000</v>
+        <v>2112500</v>
       </c>
       <c r="I41" s="3">
-        <v>2215600</v>
+        <v>2240500</v>
       </c>
       <c r="J41" s="3">
-        <v>2915800</v>
+        <v>2948600</v>
       </c>
       <c r="K41" s="3">
         <v>4209700</v>
@@ -1688,22 +1688,22 @@
         <v>1200</v>
       </c>
       <c r="E42" s="3">
-        <v>515700</v>
+        <v>521500</v>
       </c>
       <c r="F42" s="3">
         <v>2400</v>
       </c>
       <c r="G42" s="3">
-        <v>119500</v>
+        <v>120800</v>
       </c>
       <c r="H42" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="I42" s="3">
-        <v>147900</v>
+        <v>149500</v>
       </c>
       <c r="J42" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1718,25 +1718,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>5937000</v>
+        <v>6003700</v>
       </c>
       <c r="E43" s="3">
-        <v>5273400</v>
+        <v>5332700</v>
       </c>
       <c r="F43" s="3">
-        <v>4972900</v>
+        <v>5028800</v>
       </c>
       <c r="G43" s="3">
-        <v>6753200</v>
+        <v>6829100</v>
       </c>
       <c r="H43" s="3">
-        <v>11921300</v>
+        <v>12055300</v>
       </c>
       <c r="I43" s="3">
-        <v>11339300</v>
+        <v>11466800</v>
       </c>
       <c r="J43" s="3">
-        <v>5616400</v>
+        <v>5679600</v>
       </c>
       <c r="K43" s="3">
         <v>10175200</v>
@@ -1751,25 +1751,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3280200</v>
+        <v>3317100</v>
       </c>
       <c r="E44" s="3">
-        <v>3163100</v>
+        <v>3198600</v>
       </c>
       <c r="F44" s="3">
-        <v>2783400</v>
+        <v>2814700</v>
       </c>
       <c r="G44" s="3">
-        <v>4012400</v>
+        <v>4057500</v>
       </c>
       <c r="H44" s="3">
-        <v>8192800</v>
+        <v>8284900</v>
       </c>
       <c r="I44" s="3">
-        <v>7840300</v>
+        <v>7928400</v>
       </c>
       <c r="J44" s="3">
-        <v>3832600</v>
+        <v>3875700</v>
       </c>
       <c r="K44" s="3">
         <v>3837500</v>
@@ -1784,25 +1784,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>285100</v>
+        <v>288300</v>
       </c>
       <c r="E45" s="3">
-        <v>373800</v>
+        <v>378000</v>
       </c>
       <c r="F45" s="3">
-        <v>1915100</v>
+        <v>1936600</v>
       </c>
       <c r="G45" s="3">
-        <v>3003400</v>
+        <v>3037200</v>
       </c>
       <c r="H45" s="3">
-        <v>3312100</v>
+        <v>3349400</v>
       </c>
       <c r="I45" s="3">
-        <v>3107500</v>
+        <v>3142400</v>
       </c>
       <c r="J45" s="3">
-        <v>1195900</v>
+        <v>1209400</v>
       </c>
       <c r="K45" s="3">
         <v>937700</v>
@@ -1817,25 +1817,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>11189100</v>
+        <v>11314900</v>
       </c>
       <c r="E46" s="3">
-        <v>11322700</v>
+        <v>11450000</v>
       </c>
       <c r="F46" s="3">
-        <v>11967400</v>
+        <v>12102000</v>
       </c>
       <c r="G46" s="3">
-        <v>16649300</v>
+        <v>16836500</v>
       </c>
       <c r="H46" s="3">
-        <v>15014500</v>
+        <v>15183400</v>
       </c>
       <c r="I46" s="3">
-        <v>14657300</v>
+        <v>14822100</v>
       </c>
       <c r="J46" s="3">
-        <v>13572600</v>
+        <v>13725200</v>
       </c>
       <c r="K46" s="3">
         <v>13755700</v>
@@ -1850,25 +1850,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>779500</v>
+        <v>788300</v>
       </c>
       <c r="E47" s="3">
-        <v>906100</v>
+        <v>916300</v>
       </c>
       <c r="F47" s="3">
-        <v>1016100</v>
+        <v>1027500</v>
       </c>
       <c r="G47" s="3">
-        <v>804400</v>
+        <v>813400</v>
       </c>
       <c r="H47" s="3">
-        <v>1018500</v>
+        <v>1029900</v>
       </c>
       <c r="I47" s="3">
-        <v>1673800</v>
+        <v>1692600</v>
       </c>
       <c r="J47" s="3">
-        <v>947500</v>
+        <v>958200</v>
       </c>
       <c r="K47" s="3">
         <v>1787500</v>
@@ -1883,25 +1883,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3390200</v>
+        <v>3428300</v>
       </c>
       <c r="E48" s="3">
-        <v>2025100</v>
+        <v>2047900</v>
       </c>
       <c r="F48" s="3">
-        <v>1882000</v>
+        <v>1903200</v>
       </c>
       <c r="G48" s="3">
-        <v>2549100</v>
+        <v>2577800</v>
       </c>
       <c r="H48" s="3">
-        <v>5493400</v>
+        <v>5555200</v>
       </c>
       <c r="I48" s="3">
-        <v>4956400</v>
+        <v>5012100</v>
       </c>
       <c r="J48" s="3">
-        <v>3288500</v>
+        <v>3325400</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>41</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14336700</v>
+        <v>14497900</v>
       </c>
       <c r="E49" s="3">
-        <v>14303600</v>
+        <v>14464500</v>
       </c>
       <c r="F49" s="3">
-        <v>13074600</v>
+        <v>13221600</v>
       </c>
       <c r="G49" s="3">
-        <v>14727100</v>
+        <v>14892700</v>
       </c>
       <c r="H49" s="3">
-        <v>18818800</v>
+        <v>19030300</v>
       </c>
       <c r="I49" s="3">
-        <v>24902400</v>
+        <v>25182400</v>
       </c>
       <c r="J49" s="3">
-        <v>11552200</v>
+        <v>11682100</v>
       </c>
       <c r="K49" s="3">
         <v>15822200</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2261700</v>
+        <v>2287100</v>
       </c>
       <c r="E52" s="3">
-        <v>2220300</v>
+        <v>2245300</v>
       </c>
       <c r="F52" s="3">
-        <v>2005000</v>
+        <v>2027600</v>
       </c>
       <c r="G52" s="3">
-        <v>3442200</v>
+        <v>3480900</v>
       </c>
       <c r="H52" s="3">
-        <v>3411500</v>
+        <v>3449800</v>
       </c>
       <c r="I52" s="3">
-        <v>3009300</v>
+        <v>3043100</v>
       </c>
       <c r="J52" s="3">
-        <v>2055900</v>
+        <v>2079000</v>
       </c>
       <c r="K52" s="3">
         <v>4611600</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31957200</v>
+        <v>32316500</v>
       </c>
       <c r="E54" s="3">
-        <v>30777900</v>
+        <v>31123900</v>
       </c>
       <c r="F54" s="3">
-        <v>29945100</v>
+        <v>30281800</v>
       </c>
       <c r="G54" s="3">
-        <v>38172200</v>
+        <v>38601400</v>
       </c>
       <c r="H54" s="3">
-        <v>36641500</v>
+        <v>37053500</v>
       </c>
       <c r="I54" s="3">
-        <v>33537600</v>
+        <v>33914700</v>
       </c>
       <c r="J54" s="3">
-        <v>31416600</v>
+        <v>31769900</v>
       </c>
       <c r="K54" s="3">
         <v>31930900</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2471100</v>
+        <v>2498900</v>
       </c>
       <c r="E57" s="3">
-        <v>2724200</v>
+        <v>2754800</v>
       </c>
       <c r="F57" s="3">
-        <v>2472300</v>
+        <v>2500100</v>
       </c>
       <c r="G57" s="3">
-        <v>6734200</v>
+        <v>6810000</v>
       </c>
       <c r="H57" s="3">
-        <v>6319100</v>
+        <v>6390100</v>
       </c>
       <c r="I57" s="3">
-        <v>5907400</v>
+        <v>5973800</v>
       </c>
       <c r="J57" s="3">
-        <v>2912300</v>
+        <v>2945000</v>
       </c>
       <c r="K57" s="3">
         <v>6234400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>451900</v>
+        <v>456900</v>
       </c>
       <c r="E58" s="3">
-        <v>813800</v>
+        <v>823000</v>
       </c>
       <c r="F58" s="3">
-        <v>270900</v>
+        <v>273900</v>
       </c>
       <c r="G58" s="3">
-        <v>1874900</v>
+        <v>1896000</v>
       </c>
       <c r="H58" s="3">
-        <v>1969500</v>
+        <v>1991700</v>
       </c>
       <c r="I58" s="3">
-        <v>463700</v>
+        <v>468900</v>
       </c>
       <c r="J58" s="3">
-        <v>700300</v>
+        <v>708200</v>
       </c>
       <c r="K58" s="3">
         <v>1776600</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5331300</v>
+        <v>5391300</v>
       </c>
       <c r="E59" s="3">
-        <v>5857700</v>
+        <v>5923600</v>
       </c>
       <c r="F59" s="3">
-        <v>5378600</v>
+        <v>5439100</v>
       </c>
       <c r="G59" s="3">
-        <v>7148300</v>
+        <v>7228600</v>
       </c>
       <c r="H59" s="3">
-        <v>11489500</v>
+        <v>11618700</v>
       </c>
       <c r="I59" s="3">
-        <v>11677600</v>
+        <v>11808900</v>
       </c>
       <c r="J59" s="3">
-        <v>6413700</v>
+        <v>6485800</v>
       </c>
       <c r="K59" s="3">
         <v>12114200</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8254300</v>
+        <v>8347100</v>
       </c>
       <c r="E60" s="3">
-        <v>9395800</v>
+        <v>9501400</v>
       </c>
       <c r="F60" s="3">
-        <v>8121800</v>
+        <v>8213100</v>
       </c>
       <c r="G60" s="3">
-        <v>12388500</v>
+        <v>12527800</v>
       </c>
       <c r="H60" s="3">
-        <v>11780500</v>
+        <v>11913000</v>
       </c>
       <c r="I60" s="3">
-        <v>10262800</v>
+        <v>10378200</v>
       </c>
       <c r="J60" s="3">
-        <v>10026300</v>
+        <v>10139000</v>
       </c>
       <c r="K60" s="3">
         <v>10930600</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5769000</v>
+        <v>5833900</v>
       </c>
       <c r="E61" s="3">
-        <v>3831400</v>
+        <v>3874500</v>
       </c>
       <c r="F61" s="3">
-        <v>4102300</v>
+        <v>4148400</v>
       </c>
       <c r="G61" s="3">
-        <v>4756400</v>
+        <v>4809900</v>
       </c>
       <c r="H61" s="3">
-        <v>4844000</v>
+        <v>4898400</v>
       </c>
       <c r="I61" s="3">
-        <v>4390900</v>
+        <v>4440300</v>
       </c>
       <c r="J61" s="3">
-        <v>3914200</v>
+        <v>3958200</v>
       </c>
       <c r="K61" s="3">
         <v>4090100</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2999800</v>
+        <v>3033600</v>
       </c>
       <c r="E62" s="3">
-        <v>3217500</v>
+        <v>3253700</v>
       </c>
       <c r="F62" s="3">
-        <v>3499000</v>
+        <v>3538400</v>
       </c>
       <c r="G62" s="3">
-        <v>5113700</v>
+        <v>5171200</v>
       </c>
       <c r="H62" s="3">
-        <v>12296200</v>
+        <v>12434500</v>
       </c>
       <c r="I62" s="3">
-        <v>8083900</v>
+        <v>8174800</v>
       </c>
       <c r="J62" s="3">
-        <v>4195700</v>
+        <v>4242900</v>
       </c>
       <c r="K62" s="3">
         <v>9167200</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17056200</v>
+        <v>17248000</v>
       </c>
       <c r="E66" s="3">
-        <v>16479000</v>
+        <v>16664300</v>
       </c>
       <c r="F66" s="3">
-        <v>15751500</v>
+        <v>15928600</v>
       </c>
       <c r="G66" s="3">
-        <v>23331500</v>
+        <v>23593800</v>
       </c>
       <c r="H66" s="3">
-        <v>22846500</v>
+        <v>23103400</v>
       </c>
       <c r="I66" s="3">
-        <v>20683000</v>
+        <v>20915600</v>
       </c>
       <c r="J66" s="3">
-        <v>18151600</v>
+        <v>18355700</v>
       </c>
       <c r="K66" s="3">
         <v>19687100</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9813300</v>
+        <v>9923700</v>
       </c>
       <c r="E72" s="3">
-        <v>9777900</v>
+        <v>9887800</v>
       </c>
       <c r="F72" s="3">
-        <v>10168200</v>
+        <v>10282500</v>
       </c>
       <c r="G72" s="3">
-        <v>9673800</v>
+        <v>9782500</v>
       </c>
       <c r="H72" s="3">
-        <v>9510500</v>
+        <v>9617400</v>
       </c>
       <c r="I72" s="3">
-        <v>10397700</v>
+        <v>10514600</v>
       </c>
       <c r="J72" s="3">
-        <v>12319900</v>
+        <v>12458400</v>
       </c>
       <c r="K72" s="3">
         <v>11775000</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14901000</v>
+        <v>15068500</v>
       </c>
       <c r="E76" s="3">
-        <v>14298900</v>
+        <v>14459700</v>
       </c>
       <c r="F76" s="3">
-        <v>14193600</v>
+        <v>14353200</v>
       </c>
       <c r="G76" s="3">
-        <v>14840700</v>
+        <v>15007500</v>
       </c>
       <c r="H76" s="3">
-        <v>13795000</v>
+        <v>13950100</v>
       </c>
       <c r="I76" s="3">
-        <v>12854600</v>
+        <v>12999100</v>
       </c>
       <c r="J76" s="3">
-        <v>13265000</v>
+        <v>13414200</v>
       </c>
       <c r="K76" s="3">
         <v>12243800</v>
@@ -2857,25 +2857,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1380400</v>
+        <v>1396000</v>
       </c>
       <c r="E81" s="3">
-        <v>1289400</v>
+        <v>1303900</v>
       </c>
       <c r="F81" s="3">
-        <v>1960100</v>
+        <v>1982100</v>
       </c>
       <c r="G81" s="3">
-        <v>1728200</v>
+        <v>1747600</v>
       </c>
       <c r="H81" s="3">
-        <v>773600</v>
+        <v>782300</v>
       </c>
       <c r="I81" s="3">
-        <v>490900</v>
+        <v>496400</v>
       </c>
       <c r="J81" s="3">
-        <v>1382800</v>
+        <v>1398400</v>
       </c>
       <c r="K81" s="3">
         <v>-264600</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1658400</v>
+        <v>1677100</v>
       </c>
       <c r="E83" s="3">
-        <v>1288200</v>
+        <v>1302700</v>
       </c>
       <c r="F83" s="3">
-        <v>1212500</v>
+        <v>1226100</v>
       </c>
       <c r="G83" s="3">
-        <v>1154500</v>
+        <v>1167500</v>
       </c>
       <c r="H83" s="3">
-        <v>1149800</v>
+        <v>1162700</v>
       </c>
       <c r="I83" s="3">
-        <v>1404100</v>
+        <v>1419900</v>
       </c>
       <c r="J83" s="3">
-        <v>1392300</v>
+        <v>1407900</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>41</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2372900</v>
+        <v>2399600</v>
       </c>
       <c r="E89" s="3">
-        <v>2870900</v>
+        <v>2903200</v>
       </c>
       <c r="F89" s="3">
-        <v>3469400</v>
+        <v>3508500</v>
       </c>
       <c r="G89" s="3">
-        <v>3928400</v>
+        <v>3972600</v>
       </c>
       <c r="H89" s="3">
-        <v>1342600</v>
+        <v>1357700</v>
       </c>
       <c r="I89" s="3">
-        <v>1665500</v>
+        <v>1684200</v>
       </c>
       <c r="J89" s="3">
-        <v>998400</v>
+        <v>1009600</v>
       </c>
       <c r="K89" s="3">
         <v>2103800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-612700</v>
+        <v>-619600</v>
       </c>
       <c r="E91" s="3">
-        <v>-499200</v>
+        <v>-504800</v>
       </c>
       <c r="F91" s="3">
-        <v>-496800</v>
+        <v>-502400</v>
       </c>
       <c r="G91" s="3">
-        <v>-425800</v>
+        <v>-430600</v>
       </c>
       <c r="H91" s="3">
-        <v>-511000</v>
+        <v>-516800</v>
       </c>
       <c r="I91" s="3">
-        <v>-516900</v>
+        <v>-522700</v>
       </c>
       <c r="J91" s="3">
-        <v>-570200</v>
+        <v>-576600</v>
       </c>
       <c r="K91" s="3">
         <v>-725800</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-713300</v>
+        <v>-721300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1757800</v>
+        <v>-1777600</v>
       </c>
       <c r="F94" s="3">
-        <v>-3784100</v>
+        <v>-3826600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1291700</v>
+        <v>-1306300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2190700</v>
+        <v>-2215400</v>
       </c>
       <c r="I94" s="3">
-        <v>-1059900</v>
+        <v>-1071800</v>
       </c>
       <c r="J94" s="3">
-        <v>-1075300</v>
+        <v>-1087300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>41</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-535900</v>
+        <v>-541900</v>
       </c>
       <c r="E96" s="3">
-        <v>-474300</v>
+        <v>-479700</v>
       </c>
       <c r="F96" s="3">
-        <v>-454200</v>
+        <v>-459300</v>
       </c>
       <c r="G96" s="3">
-        <v>-390400</v>
+        <v>-394700</v>
       </c>
       <c r="H96" s="3">
-        <v>-352500</v>
+        <v>-356500</v>
       </c>
       <c r="I96" s="3">
-        <v>-345400</v>
+        <v>-349300</v>
       </c>
       <c r="J96" s="3">
-        <v>-321700</v>
+        <v>-325400</v>
       </c>
       <c r="K96" s="3">
         <v>-280000</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1969500</v>
+        <v>-1991700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1410000</v>
+        <v>-1425900</v>
       </c>
       <c r="F100" s="3">
-        <v>65100</v>
+        <v>65800</v>
       </c>
       <c r="G100" s="3">
-        <v>-1943500</v>
+        <v>-1965400</v>
       </c>
       <c r="H100" s="3">
-        <v>625800</v>
+        <v>632800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1406500</v>
+        <v>-1422300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1468000</v>
+        <v>-1484500</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>41</v>
@@ -3469,19 +3469,19 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-217700</v>
+        <v>-220100</v>
       </c>
       <c r="G101" s="3">
-        <v>-20100</v>
+        <v>-20300</v>
       </c>
       <c r="H101" s="3">
-        <v>94600</v>
+        <v>95700</v>
       </c>
       <c r="I101" s="3">
-        <v>100500</v>
+        <v>101700</v>
       </c>
       <c r="J101" s="3">
-        <v>-74500</v>
+        <v>-75400</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>41</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-312300</v>
+        <v>-315800</v>
       </c>
       <c r="E102" s="3">
-        <v>-296900</v>
+        <v>-300200</v>
       </c>
       <c r="F102" s="3">
-        <v>-467200</v>
+        <v>-472500</v>
       </c>
       <c r="G102" s="3">
-        <v>673100</v>
+        <v>680600</v>
       </c>
       <c r="H102" s="3">
-        <v>-127800</v>
+        <v>-129200</v>
       </c>
       <c r="I102" s="3">
-        <v>-700300</v>
+        <v>-708200</v>
       </c>
       <c r="J102" s="3">
-        <v>-1619400</v>
+        <v>-1637600</v>
       </c>
       <c r="K102" s="3">
         <v>754300</v>

--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23304400</v>
+        <v>22981000</v>
       </c>
       <c r="E8" s="3">
-        <v>21676300</v>
+        <v>22918600</v>
       </c>
       <c r="F8" s="3">
-        <v>21268400</v>
+        <v>21317500</v>
       </c>
       <c r="G8" s="3">
-        <v>20840200</v>
+        <v>20916400</v>
       </c>
       <c r="H8" s="3">
-        <v>20103300</v>
+        <v>20495200</v>
       </c>
       <c r="I8" s="3">
-        <v>25587900</v>
+        <v>19770600</v>
       </c>
       <c r="J8" s="3">
+        <v>25164400</v>
+      </c>
+      <c r="K8" s="3">
         <v>26304400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25755800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24640600</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12410600</v>
+        <v>12458100</v>
       </c>
       <c r="E9" s="3">
-        <v>11445200</v>
+        <v>12205200</v>
       </c>
       <c r="F9" s="3">
-        <v>11483500</v>
+        <v>11255800</v>
       </c>
       <c r="G9" s="3">
-        <v>11344800</v>
+        <v>11293400</v>
       </c>
       <c r="H9" s="3">
-        <v>11476300</v>
+        <v>11157000</v>
       </c>
       <c r="I9" s="3">
-        <v>15771900</v>
+        <v>11286400</v>
       </c>
       <c r="J9" s="3">
+        <v>15510800</v>
+      </c>
+      <c r="K9" s="3">
         <v>15135500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15883700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>14944900</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10893800</v>
+        <v>10522900</v>
       </c>
       <c r="E10" s="3">
-        <v>10231100</v>
+        <v>10713500</v>
       </c>
       <c r="F10" s="3">
-        <v>9784900</v>
+        <v>10061700</v>
       </c>
       <c r="G10" s="3">
-        <v>9495400</v>
+        <v>9623000</v>
       </c>
       <c r="H10" s="3">
-        <v>8627000</v>
+        <v>9338300</v>
       </c>
       <c r="I10" s="3">
-        <v>9816000</v>
+        <v>8484200</v>
       </c>
       <c r="J10" s="3">
+        <v>9653500</v>
+      </c>
+      <c r="K10" s="3">
         <v>11168900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9872100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9695700</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,41 +837,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2073000</v>
+        <v>2097500</v>
       </c>
       <c r="E12" s="3">
-        <v>2013200</v>
+        <v>2038700</v>
       </c>
       <c r="F12" s="3">
-        <v>1986900</v>
+        <v>1979900</v>
       </c>
       <c r="G12" s="3">
-        <v>1996500</v>
+        <v>1954000</v>
       </c>
       <c r="H12" s="3">
-        <v>1868500</v>
+        <v>1963400</v>
       </c>
       <c r="I12" s="3">
-        <v>1955800</v>
+        <v>1837500</v>
       </c>
       <c r="J12" s="3">
+        <v>1923400</v>
+      </c>
+      <c r="K12" s="3">
         <v>1984500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2010400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1884000</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -890,42 +906,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>735700</v>
+        <v>683500</v>
       </c>
       <c r="E14" s="3">
-        <v>215300</v>
+        <v>723500</v>
       </c>
       <c r="F14" s="3">
-        <v>326600</v>
+        <v>211800</v>
       </c>
       <c r="G14" s="3">
-        <v>29900</v>
+        <v>321200</v>
       </c>
       <c r="H14" s="3">
-        <v>55000</v>
+        <v>29400</v>
       </c>
       <c r="I14" s="3">
-        <v>3600</v>
+        <v>54100</v>
       </c>
       <c r="J14" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K14" s="3">
         <v>45500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>8800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1630400</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>21337800</v>
+        <v>21167000</v>
       </c>
       <c r="E17" s="3">
-        <v>19620100</v>
+        <v>20984600</v>
       </c>
       <c r="F17" s="3">
-        <v>19456200</v>
+        <v>19295300</v>
       </c>
       <c r="G17" s="3">
-        <v>19117700</v>
+        <v>19134100</v>
       </c>
       <c r="H17" s="3">
-        <v>19371300</v>
+        <v>18801200</v>
       </c>
       <c r="I17" s="3">
-        <v>25006600</v>
+        <v>19050600</v>
       </c>
       <c r="J17" s="3">
+        <v>24592600</v>
+      </c>
+      <c r="K17" s="3">
         <v>24085500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>25053100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25242800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1966600</v>
+        <v>1814000</v>
       </c>
       <c r="E18" s="3">
-        <v>2056300</v>
+        <v>1934000</v>
       </c>
       <c r="F18" s="3">
-        <v>1812200</v>
+        <v>2022200</v>
       </c>
       <c r="G18" s="3">
-        <v>1722500</v>
+        <v>1782200</v>
       </c>
       <c r="H18" s="3">
-        <v>732100</v>
+        <v>1694000</v>
       </c>
       <c r="I18" s="3">
-        <v>581400</v>
+        <v>720000</v>
       </c>
       <c r="J18" s="3">
+        <v>571700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2219000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>702700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-602200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>62200</v>
+        <v>120000</v>
       </c>
       <c r="E20" s="3">
-        <v>-33500</v>
+        <v>61200</v>
       </c>
       <c r="F20" s="3">
-        <v>100500</v>
+        <v>-32900</v>
       </c>
       <c r="G20" s="3">
-        <v>-68200</v>
+        <v>98800</v>
       </c>
       <c r="H20" s="3">
-        <v>81300</v>
+        <v>-67100</v>
       </c>
       <c r="I20" s="3">
-        <v>-21500</v>
+        <v>80000</v>
       </c>
       <c r="J20" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-93300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>339300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>355700</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3699000</v>
+        <v>3729400</v>
       </c>
       <c r="E21" s="3">
-        <v>3320100</v>
+        <v>3651200</v>
       </c>
       <c r="F21" s="3">
-        <v>3133800</v>
+        <v>3275600</v>
       </c>
       <c r="G21" s="3">
-        <v>2817100</v>
+        <v>3091800</v>
       </c>
       <c r="H21" s="3">
-        <v>1971400</v>
+        <v>2779800</v>
       </c>
       <c r="I21" s="3">
-        <v>1973900</v>
+        <v>1948100</v>
       </c>
       <c r="J21" s="3">
+        <v>1952600</v>
+      </c>
+      <c r="K21" s="3">
         <v>3527800</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1398000</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>199800</v>
+        <v>181200</v>
       </c>
       <c r="E22" s="3">
-        <v>224900</v>
+        <v>196500</v>
       </c>
       <c r="F22" s="3">
-        <v>265600</v>
+        <v>221200</v>
       </c>
       <c r="G22" s="3">
-        <v>417500</v>
+        <v>261200</v>
       </c>
       <c r="H22" s="3">
-        <v>419900</v>
+        <v>410600</v>
       </c>
       <c r="I22" s="3">
-        <v>338500</v>
+        <v>412900</v>
       </c>
       <c r="J22" s="3">
+        <v>332900</v>
+      </c>
+      <c r="K22" s="3">
         <v>301400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>691700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>704300</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1829000</v>
+        <v>1752800</v>
       </c>
       <c r="E23" s="3">
-        <v>1797900</v>
+        <v>1798700</v>
       </c>
       <c r="F23" s="3">
-        <v>1647200</v>
+        <v>1768100</v>
       </c>
       <c r="G23" s="3">
-        <v>1236900</v>
+        <v>1619900</v>
       </c>
       <c r="H23" s="3">
-        <v>393500</v>
+        <v>1216400</v>
       </c>
       <c r="I23" s="3">
-        <v>221300</v>
+        <v>387000</v>
       </c>
       <c r="J23" s="3">
+        <v>217600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1824200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>350300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-950800</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>403100</v>
+        <v>334100</v>
       </c>
       <c r="E24" s="3">
-        <v>230900</v>
+        <v>396400</v>
       </c>
       <c r="F24" s="3">
-        <v>417500</v>
+        <v>227000</v>
       </c>
       <c r="G24" s="3">
-        <v>242800</v>
+        <v>410600</v>
       </c>
       <c r="H24" s="3">
-        <v>202200</v>
+        <v>238800</v>
       </c>
       <c r="I24" s="3">
-        <v>31100</v>
+        <v>198800</v>
       </c>
       <c r="J24" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K24" s="3">
         <v>557400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>203100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>294600</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1425900</v>
+        <v>1418700</v>
       </c>
       <c r="E26" s="3">
-        <v>1567000</v>
+        <v>1402300</v>
       </c>
       <c r="F26" s="3">
-        <v>1229700</v>
+        <v>1541100</v>
       </c>
       <c r="G26" s="3">
-        <v>994000</v>
+        <v>1209300</v>
       </c>
       <c r="H26" s="3">
-        <v>191400</v>
+        <v>977600</v>
       </c>
       <c r="I26" s="3">
-        <v>190200</v>
+        <v>188200</v>
       </c>
       <c r="J26" s="3">
+        <v>187000</v>
+      </c>
+      <c r="K26" s="3">
         <v>1266800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>147100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1245400</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1418700</v>
+        <v>1408200</v>
       </c>
       <c r="E27" s="3">
-        <v>1558600</v>
+        <v>1395200</v>
       </c>
       <c r="F27" s="3">
-        <v>973700</v>
+        <v>1532800</v>
       </c>
       <c r="G27" s="3">
-        <v>958200</v>
+        <v>957600</v>
       </c>
       <c r="H27" s="3">
-        <v>209300</v>
+        <v>942300</v>
       </c>
       <c r="I27" s="3">
-        <v>269100</v>
+        <v>205900</v>
       </c>
       <c r="J27" s="3">
+        <v>264700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1233300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-316200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1234800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1346,42 +1403,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-22700</v>
+        <v>-11800</v>
       </c>
       <c r="E29" s="3">
-        <v>-254800</v>
+        <v>-22400</v>
       </c>
       <c r="F29" s="3">
-        <v>1008400</v>
+        <v>-250600</v>
       </c>
       <c r="G29" s="3">
-        <v>789500</v>
+        <v>991700</v>
       </c>
       <c r="H29" s="3">
-        <v>573000</v>
+        <v>776400</v>
       </c>
       <c r="I29" s="3">
-        <v>227300</v>
+        <v>563500</v>
       </c>
       <c r="J29" s="3">
+        <v>223500</v>
+      </c>
+      <c r="K29" s="3">
         <v>165100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>51600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-481300</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-62200</v>
+        <v>-120000</v>
       </c>
       <c r="E32" s="3">
-        <v>33500</v>
+        <v>-61200</v>
       </c>
       <c r="F32" s="3">
-        <v>-100500</v>
+        <v>32900</v>
       </c>
       <c r="G32" s="3">
-        <v>68200</v>
+        <v>-98800</v>
       </c>
       <c r="H32" s="3">
-        <v>-81300</v>
+        <v>67100</v>
       </c>
       <c r="I32" s="3">
-        <v>21500</v>
+        <v>-80000</v>
       </c>
       <c r="J32" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K32" s="3">
         <v>93300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-339300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-355700</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1396000</v>
+        <v>1396400</v>
       </c>
       <c r="E33" s="3">
-        <v>1303900</v>
+        <v>1372900</v>
       </c>
       <c r="F33" s="3">
-        <v>1982100</v>
+        <v>1282300</v>
       </c>
       <c r="G33" s="3">
-        <v>1747600</v>
+        <v>1949300</v>
       </c>
       <c r="H33" s="3">
-        <v>782300</v>
+        <v>1718700</v>
       </c>
       <c r="I33" s="3">
-        <v>496400</v>
+        <v>769400</v>
       </c>
       <c r="J33" s="3">
+        <v>488200</v>
+      </c>
+      <c r="K33" s="3">
         <v>1398400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-264600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1716100</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1396000</v>
+        <v>1396400</v>
       </c>
       <c r="E35" s="3">
-        <v>1303900</v>
+        <v>1372900</v>
       </c>
       <c r="F35" s="3">
-        <v>1982100</v>
+        <v>1282300</v>
       </c>
       <c r="G35" s="3">
-        <v>1747600</v>
+        <v>1949300</v>
       </c>
       <c r="H35" s="3">
-        <v>782300</v>
+        <v>1718700</v>
       </c>
       <c r="I35" s="3">
-        <v>496400</v>
+        <v>769400</v>
       </c>
       <c r="J35" s="3">
+        <v>488200</v>
+      </c>
+      <c r="K35" s="3">
         <v>1398400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-264600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1716100</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1704600</v>
+        <v>3795100</v>
       </c>
       <c r="E41" s="3">
-        <v>2019200</v>
+        <v>1676400</v>
       </c>
       <c r="F41" s="3">
-        <v>2319400</v>
+        <v>1985800</v>
       </c>
       <c r="G41" s="3">
-        <v>2791900</v>
+        <v>2281000</v>
       </c>
       <c r="H41" s="3">
-        <v>2112500</v>
+        <v>2745700</v>
       </c>
       <c r="I41" s="3">
-        <v>2240500</v>
+        <v>2077500</v>
       </c>
       <c r="J41" s="3">
+        <v>2203400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2948600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4209700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3694000</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>1200</v>
       </c>
-      <c r="E42" s="3">
-        <v>521500</v>
-      </c>
       <c r="F42" s="3">
+        <v>512900</v>
+      </c>
+      <c r="G42" s="3">
         <v>2400</v>
       </c>
-      <c r="G42" s="3">
-        <v>120800</v>
-      </c>
       <c r="H42" s="3">
-        <v>14400</v>
+        <v>118800</v>
       </c>
       <c r="I42" s="3">
-        <v>149500</v>
+        <v>14100</v>
       </c>
       <c r="J42" s="3">
+        <v>147000</v>
+      </c>
+      <c r="K42" s="3">
         <v>12000</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>6003700</v>
+        <v>5365600</v>
       </c>
       <c r="E43" s="3">
-        <v>5332700</v>
+        <v>5904400</v>
       </c>
       <c r="F43" s="3">
-        <v>5028800</v>
+        <v>5244400</v>
       </c>
       <c r="G43" s="3">
-        <v>6829100</v>
+        <v>4945600</v>
       </c>
       <c r="H43" s="3">
-        <v>12055300</v>
+        <v>6716100</v>
       </c>
       <c r="I43" s="3">
-        <v>11466800</v>
+        <v>11855800</v>
       </c>
       <c r="J43" s="3">
+        <v>11277000</v>
+      </c>
+      <c r="K43" s="3">
         <v>5679600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10175200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5857300</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3317100</v>
+        <v>3521000</v>
       </c>
       <c r="E44" s="3">
-        <v>3198600</v>
+        <v>3262200</v>
       </c>
       <c r="F44" s="3">
-        <v>2814700</v>
+        <v>3145700</v>
       </c>
       <c r="G44" s="3">
-        <v>4057500</v>
+        <v>2768100</v>
       </c>
       <c r="H44" s="3">
-        <v>8284900</v>
+        <v>3990300</v>
       </c>
       <c r="I44" s="3">
-        <v>7928400</v>
+        <v>8147700</v>
       </c>
       <c r="J44" s="3">
+        <v>7797200</v>
+      </c>
+      <c r="K44" s="3">
         <v>3875700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3837500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4255100</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>288300</v>
+        <v>525900</v>
       </c>
       <c r="E45" s="3">
-        <v>378000</v>
+        <v>283500</v>
       </c>
       <c r="F45" s="3">
-        <v>1936600</v>
+        <v>371700</v>
       </c>
       <c r="G45" s="3">
-        <v>3037200</v>
+        <v>1904600</v>
       </c>
       <c r="H45" s="3">
-        <v>3349400</v>
+        <v>2986900</v>
       </c>
       <c r="I45" s="3">
-        <v>3142400</v>
+        <v>3293900</v>
       </c>
       <c r="J45" s="3">
+        <v>3090400</v>
+      </c>
+      <c r="K45" s="3">
         <v>1209400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>937700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1327600</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>11314900</v>
+        <v>13207400</v>
       </c>
       <c r="E46" s="3">
-        <v>11450000</v>
+        <v>11127600</v>
       </c>
       <c r="F46" s="3">
-        <v>12102000</v>
+        <v>11260500</v>
       </c>
       <c r="G46" s="3">
-        <v>16836500</v>
+        <v>11901600</v>
       </c>
       <c r="H46" s="3">
-        <v>15183400</v>
+        <v>16557800</v>
       </c>
       <c r="I46" s="3">
-        <v>14822100</v>
+        <v>14932000</v>
       </c>
       <c r="J46" s="3">
+        <v>14576800</v>
+      </c>
+      <c r="K46" s="3">
         <v>13725200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13755700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15133900</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>788300</v>
+        <v>1058800</v>
       </c>
       <c r="E47" s="3">
-        <v>916300</v>
+        <v>775200</v>
       </c>
       <c r="F47" s="3">
-        <v>1027500</v>
+        <v>901100</v>
       </c>
       <c r="G47" s="3">
-        <v>813400</v>
+        <v>1010500</v>
       </c>
       <c r="H47" s="3">
-        <v>1029900</v>
+        <v>800000</v>
       </c>
       <c r="I47" s="3">
-        <v>1692600</v>
+        <v>1012900</v>
       </c>
       <c r="J47" s="3">
+        <v>1664600</v>
+      </c>
+      <c r="K47" s="3">
         <v>958200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1787500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>644400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3428300</v>
+        <v>3155100</v>
       </c>
       <c r="E48" s="3">
-        <v>2047900</v>
+        <v>3371600</v>
       </c>
       <c r="F48" s="3">
-        <v>1903200</v>
+        <v>2014000</v>
       </c>
       <c r="G48" s="3">
-        <v>2577800</v>
+        <v>1871700</v>
       </c>
       <c r="H48" s="3">
-        <v>5555200</v>
+        <v>2535100</v>
       </c>
       <c r="I48" s="3">
-        <v>5012100</v>
+        <v>5463200</v>
       </c>
       <c r="J48" s="3">
+        <v>4929100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3325400</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="L48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3537900</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14497900</v>
+        <v>12953300</v>
       </c>
       <c r="E49" s="3">
-        <v>14464500</v>
+        <v>14258000</v>
       </c>
       <c r="F49" s="3">
-        <v>13221600</v>
+        <v>14225000</v>
       </c>
       <c r="G49" s="3">
-        <v>14892700</v>
+        <v>13002700</v>
       </c>
       <c r="H49" s="3">
-        <v>19030300</v>
+        <v>14646200</v>
       </c>
       <c r="I49" s="3">
-        <v>25182400</v>
+        <v>18715300</v>
       </c>
       <c r="J49" s="3">
+        <v>24765600</v>
+      </c>
+      <c r="K49" s="3">
         <v>11682100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15822200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12926000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2287100</v>
+        <v>2226900</v>
       </c>
       <c r="E52" s="3">
-        <v>2245300</v>
+        <v>2249300</v>
       </c>
       <c r="F52" s="3">
-        <v>2027600</v>
+        <v>2208100</v>
       </c>
       <c r="G52" s="3">
-        <v>3480900</v>
+        <v>1994000</v>
       </c>
       <c r="H52" s="3">
-        <v>3449800</v>
+        <v>3423300</v>
       </c>
       <c r="I52" s="3">
-        <v>3043100</v>
+        <v>3392700</v>
       </c>
       <c r="J52" s="3">
+        <v>2992800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2079000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>4611600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2261900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32316500</v>
+        <v>32601600</v>
       </c>
       <c r="E54" s="3">
-        <v>31123900</v>
+        <v>31781600</v>
       </c>
       <c r="F54" s="3">
-        <v>30281800</v>
+        <v>30608800</v>
       </c>
       <c r="G54" s="3">
-        <v>38601400</v>
+        <v>29780600</v>
       </c>
       <c r="H54" s="3">
-        <v>37053500</v>
+        <v>37962400</v>
       </c>
       <c r="I54" s="3">
-        <v>33914700</v>
+        <v>36440200</v>
       </c>
       <c r="J54" s="3">
+        <v>33353300</v>
+      </c>
+      <c r="K54" s="3">
         <v>31769900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31930900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34504100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2498900</v>
+        <v>2492800</v>
       </c>
       <c r="E57" s="3">
-        <v>2754800</v>
+        <v>2457500</v>
       </c>
       <c r="F57" s="3">
-        <v>2500100</v>
+        <v>2709200</v>
       </c>
       <c r="G57" s="3">
-        <v>6810000</v>
+        <v>2458700</v>
       </c>
       <c r="H57" s="3">
-        <v>6390100</v>
+        <v>6697200</v>
       </c>
       <c r="I57" s="3">
-        <v>5973800</v>
+        <v>6284300</v>
       </c>
       <c r="J57" s="3">
+        <v>5874900</v>
+      </c>
+      <c r="K57" s="3">
         <v>2945000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6234400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3927600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>456900</v>
+        <v>423500</v>
       </c>
       <c r="E58" s="3">
-        <v>823000</v>
+        <v>449400</v>
       </c>
       <c r="F58" s="3">
-        <v>273900</v>
+        <v>809400</v>
       </c>
       <c r="G58" s="3">
-        <v>1896000</v>
+        <v>269400</v>
       </c>
       <c r="H58" s="3">
-        <v>1991700</v>
+        <v>1864600</v>
       </c>
       <c r="I58" s="3">
-        <v>468900</v>
+        <v>1958700</v>
       </c>
       <c r="J58" s="3">
+        <v>461100</v>
+      </c>
+      <c r="K58" s="3">
         <v>708200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1776600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>683200</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5391300</v>
+        <v>6183200</v>
       </c>
       <c r="E59" s="3">
-        <v>5923600</v>
+        <v>5302000</v>
       </c>
       <c r="F59" s="3">
-        <v>5439100</v>
+        <v>5825500</v>
       </c>
       <c r="G59" s="3">
-        <v>7228600</v>
+        <v>5349100</v>
       </c>
       <c r="H59" s="3">
-        <v>11618700</v>
+        <v>7109000</v>
       </c>
       <c r="I59" s="3">
-        <v>11808900</v>
+        <v>11426400</v>
       </c>
       <c r="J59" s="3">
+        <v>11613400</v>
+      </c>
+      <c r="K59" s="3">
         <v>6485800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>12114200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6873800</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8347100</v>
+        <v>9099500</v>
       </c>
       <c r="E60" s="3">
-        <v>9501400</v>
+        <v>8208900</v>
       </c>
       <c r="F60" s="3">
-        <v>8213100</v>
+        <v>9344100</v>
       </c>
       <c r="G60" s="3">
-        <v>12527800</v>
+        <v>8077200</v>
       </c>
       <c r="H60" s="3">
-        <v>11913000</v>
+        <v>12320400</v>
       </c>
       <c r="I60" s="3">
-        <v>10378200</v>
+        <v>11715800</v>
       </c>
       <c r="J60" s="3">
+        <v>10206400</v>
+      </c>
+      <c r="K60" s="3">
         <v>10139000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10930600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11484600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5833900</v>
+        <v>6578400</v>
       </c>
       <c r="E61" s="3">
-        <v>3874500</v>
+        <v>5737300</v>
       </c>
       <c r="F61" s="3">
-        <v>4148400</v>
+        <v>3810400</v>
       </c>
       <c r="G61" s="3">
-        <v>4809900</v>
+        <v>4079800</v>
       </c>
       <c r="H61" s="3">
-        <v>4898400</v>
+        <v>4730300</v>
       </c>
       <c r="I61" s="3">
-        <v>4440300</v>
+        <v>4817400</v>
       </c>
       <c r="J61" s="3">
+        <v>4366800</v>
+      </c>
+      <c r="K61" s="3">
         <v>3958200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4090100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3847700</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3033600</v>
+        <v>2923400</v>
       </c>
       <c r="E62" s="3">
-        <v>3253700</v>
+        <v>2983400</v>
       </c>
       <c r="F62" s="3">
-        <v>3538400</v>
+        <v>3199800</v>
       </c>
       <c r="G62" s="3">
-        <v>5171200</v>
+        <v>3479800</v>
       </c>
       <c r="H62" s="3">
-        <v>12434500</v>
+        <v>5085600</v>
       </c>
       <c r="I62" s="3">
-        <v>8174800</v>
+        <v>12228700</v>
       </c>
       <c r="J62" s="3">
+        <v>8039500</v>
+      </c>
+      <c r="K62" s="3">
         <v>4242900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9167200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4675300</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17248000</v>
+        <v>18637700</v>
       </c>
       <c r="E66" s="3">
-        <v>16664300</v>
+        <v>16962500</v>
       </c>
       <c r="F66" s="3">
-        <v>15928600</v>
+        <v>16388400</v>
       </c>
       <c r="G66" s="3">
-        <v>23593800</v>
+        <v>15664900</v>
       </c>
       <c r="H66" s="3">
-        <v>23103400</v>
+        <v>23203300</v>
       </c>
       <c r="I66" s="3">
-        <v>20915600</v>
+        <v>22721000</v>
       </c>
       <c r="J66" s="3">
+        <v>20569400</v>
+      </c>
+      <c r="K66" s="3">
         <v>18355700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19687100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20047500</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9923700</v>
+        <v>9208900</v>
       </c>
       <c r="E72" s="3">
-        <v>9887800</v>
+        <v>9759400</v>
       </c>
       <c r="F72" s="3">
-        <v>10282500</v>
+        <v>9724100</v>
       </c>
       <c r="G72" s="3">
-        <v>9782500</v>
+        <v>10112300</v>
       </c>
       <c r="H72" s="3">
-        <v>9617400</v>
+        <v>9620600</v>
       </c>
       <c r="I72" s="3">
-        <v>10514600</v>
+        <v>9458300</v>
       </c>
       <c r="J72" s="3">
+        <v>10340600</v>
+      </c>
+      <c r="K72" s="3">
         <v>12458400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11775000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>15116300</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15068500</v>
+        <v>13963900</v>
       </c>
       <c r="E76" s="3">
-        <v>14459700</v>
+        <v>14819100</v>
       </c>
       <c r="F76" s="3">
-        <v>14353200</v>
+        <v>14220300</v>
       </c>
       <c r="G76" s="3">
-        <v>15007500</v>
+        <v>14115600</v>
       </c>
       <c r="H76" s="3">
-        <v>13950100</v>
+        <v>14759100</v>
       </c>
       <c r="I76" s="3">
-        <v>12999100</v>
+        <v>13719200</v>
       </c>
       <c r="J76" s="3">
+        <v>12783900</v>
+      </c>
+      <c r="K76" s="3">
         <v>13414200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12243800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14456600</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1396000</v>
+        <v>1396400</v>
       </c>
       <c r="E81" s="3">
-        <v>1303900</v>
+        <v>1372900</v>
       </c>
       <c r="F81" s="3">
-        <v>1982100</v>
+        <v>1282300</v>
       </c>
       <c r="G81" s="3">
-        <v>1747600</v>
+        <v>1949300</v>
       </c>
       <c r="H81" s="3">
-        <v>782300</v>
+        <v>1718700</v>
       </c>
       <c r="I81" s="3">
-        <v>496400</v>
+        <v>769400</v>
       </c>
       <c r="J81" s="3">
+        <v>488200</v>
+      </c>
+      <c r="K81" s="3">
         <v>1398400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-264600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1716100</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1677100</v>
+        <v>1788100</v>
       </c>
       <c r="E83" s="3">
-        <v>1302700</v>
+        <v>1649300</v>
       </c>
       <c r="F83" s="3">
-        <v>1226100</v>
+        <v>1281100</v>
       </c>
       <c r="G83" s="3">
-        <v>1167500</v>
+        <v>1205800</v>
       </c>
       <c r="H83" s="3">
-        <v>1162700</v>
+        <v>1148200</v>
       </c>
       <c r="I83" s="3">
-        <v>1419900</v>
+        <v>1143500</v>
       </c>
       <c r="J83" s="3">
+        <v>1396400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1407900</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1643300</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2399600</v>
+        <v>3163300</v>
       </c>
       <c r="E89" s="3">
-        <v>2903200</v>
+        <v>2359900</v>
       </c>
       <c r="F89" s="3">
-        <v>3508500</v>
+        <v>2855100</v>
       </c>
       <c r="G89" s="3">
-        <v>3972600</v>
+        <v>3450400</v>
       </c>
       <c r="H89" s="3">
-        <v>1357700</v>
+        <v>3906800</v>
       </c>
       <c r="I89" s="3">
-        <v>1684200</v>
+        <v>1335200</v>
       </c>
       <c r="J89" s="3">
+        <v>1656400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1009600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2103800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>563400</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-619600</v>
+        <v>-603500</v>
       </c>
       <c r="E91" s="3">
-        <v>-504800</v>
+        <v>-609400</v>
       </c>
       <c r="F91" s="3">
-        <v>-502400</v>
+        <v>-496400</v>
       </c>
       <c r="G91" s="3">
-        <v>-430600</v>
+        <v>-494100</v>
       </c>
       <c r="H91" s="3">
-        <v>-516800</v>
+        <v>-423500</v>
       </c>
       <c r="I91" s="3">
-        <v>-522700</v>
+        <v>-508200</v>
       </c>
       <c r="J91" s="3">
+        <v>-514100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-576600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-725800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1156200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-721300</v>
+        <v>-1548100</v>
       </c>
       <c r="E94" s="3">
-        <v>-1777600</v>
+        <v>-709400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3826600</v>
+        <v>-1748100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1306300</v>
+        <v>-3763300</v>
       </c>
       <c r="H94" s="3">
-        <v>-2215400</v>
+        <v>-1284600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1071800</v>
+        <v>-2178700</v>
       </c>
       <c r="J94" s="3">
+        <v>-1054100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1087300</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1606900</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-541900</v>
+        <v>-1200</v>
       </c>
       <c r="E96" s="3">
-        <v>-479700</v>
+        <v>-532900</v>
       </c>
       <c r="F96" s="3">
-        <v>-459300</v>
+        <v>-471700</v>
       </c>
       <c r="G96" s="3">
-        <v>-394700</v>
+        <v>-451700</v>
       </c>
       <c r="H96" s="3">
-        <v>-356500</v>
+        <v>-388200</v>
       </c>
       <c r="I96" s="3">
-        <v>-349300</v>
+        <v>-350600</v>
       </c>
       <c r="J96" s="3">
+        <v>-343500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-325400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-280000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-304000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1991700</v>
+        <v>568200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1425900</v>
+        <v>-1958700</v>
       </c>
       <c r="F100" s="3">
-        <v>65800</v>
+        <v>-1402300</v>
       </c>
       <c r="G100" s="3">
-        <v>-1965400</v>
+        <v>64700</v>
       </c>
       <c r="H100" s="3">
-        <v>632800</v>
+        <v>-1932800</v>
       </c>
       <c r="I100" s="3">
-        <v>-1422300</v>
+        <v>622300</v>
       </c>
       <c r="J100" s="3">
+        <v>-1398700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1484500</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2101100</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2400</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>-220100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-20300</v>
+        <v>-216500</v>
       </c>
       <c r="H101" s="3">
-        <v>95700</v>
+        <v>-20000</v>
       </c>
       <c r="I101" s="3">
-        <v>101700</v>
+        <v>94100</v>
       </c>
       <c r="J101" s="3">
+        <v>100000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-75400</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8200</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-315800</v>
+        <v>2118700</v>
       </c>
       <c r="E102" s="3">
-        <v>-300200</v>
+        <v>-310600</v>
       </c>
       <c r="F102" s="3">
-        <v>-472500</v>
+        <v>-295300</v>
       </c>
       <c r="G102" s="3">
-        <v>680600</v>
+        <v>-464700</v>
       </c>
       <c r="H102" s="3">
-        <v>-129200</v>
+        <v>669400</v>
       </c>
       <c r="I102" s="3">
-        <v>-708200</v>
+        <v>-127100</v>
       </c>
       <c r="J102" s="3">
+        <v>-696400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1637600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>754300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3152900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22981000</v>
+        <v>23930200</v>
       </c>
       <c r="E8" s="3">
-        <v>22918600</v>
+        <v>23865300</v>
       </c>
       <c r="F8" s="3">
-        <v>21317500</v>
+        <v>22198000</v>
       </c>
       <c r="G8" s="3">
-        <v>20916400</v>
+        <v>21780300</v>
       </c>
       <c r="H8" s="3">
-        <v>20495200</v>
+        <v>21341800</v>
       </c>
       <c r="I8" s="3">
-        <v>19770600</v>
+        <v>20587200</v>
       </c>
       <c r="J8" s="3">
-        <v>25164400</v>
+        <v>26203800</v>
       </c>
       <c r="K8" s="3">
         <v>26304400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12458100</v>
+        <v>12972600</v>
       </c>
       <c r="E9" s="3">
-        <v>12205200</v>
+        <v>12709300</v>
       </c>
       <c r="F9" s="3">
-        <v>11255800</v>
+        <v>11720700</v>
       </c>
       <c r="G9" s="3">
-        <v>11293400</v>
+        <v>11759900</v>
       </c>
       <c r="H9" s="3">
-        <v>11157000</v>
+        <v>11617800</v>
       </c>
       <c r="I9" s="3">
-        <v>11286400</v>
+        <v>11752600</v>
       </c>
       <c r="J9" s="3">
-        <v>15510800</v>
+        <v>16151500</v>
       </c>
       <c r="K9" s="3">
         <v>15135500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10522900</v>
+        <v>10957500</v>
       </c>
       <c r="E10" s="3">
-        <v>10713500</v>
+        <v>11156000</v>
       </c>
       <c r="F10" s="3">
-        <v>10061700</v>
+        <v>10477300</v>
       </c>
       <c r="G10" s="3">
-        <v>9623000</v>
+        <v>10020400</v>
       </c>
       <c r="H10" s="3">
-        <v>9338300</v>
+        <v>9724000</v>
       </c>
       <c r="I10" s="3">
-        <v>8484200</v>
+        <v>8834600</v>
       </c>
       <c r="J10" s="3">
-        <v>9653500</v>
+        <v>10052300</v>
       </c>
       <c r="K10" s="3">
         <v>11168900</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2097500</v>
+        <v>2184200</v>
       </c>
       <c r="E12" s="3">
-        <v>2038700</v>
+        <v>2122900</v>
       </c>
       <c r="F12" s="3">
-        <v>1979900</v>
+        <v>2061700</v>
       </c>
       <c r="G12" s="3">
-        <v>1954000</v>
+        <v>2034700</v>
       </c>
       <c r="H12" s="3">
-        <v>1963400</v>
+        <v>2044500</v>
       </c>
       <c r="I12" s="3">
-        <v>1837500</v>
+        <v>1913400</v>
       </c>
       <c r="J12" s="3">
-        <v>1923400</v>
+        <v>2002900</v>
       </c>
       <c r="K12" s="3">
         <v>1984500</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>683500</v>
+        <v>711700</v>
       </c>
       <c r="E14" s="3">
-        <v>723500</v>
+        <v>753400</v>
       </c>
       <c r="F14" s="3">
-        <v>211800</v>
+        <v>220500</v>
       </c>
       <c r="G14" s="3">
-        <v>321200</v>
+        <v>334400</v>
       </c>
       <c r="H14" s="3">
-        <v>29400</v>
+        <v>30600</v>
       </c>
       <c r="I14" s="3">
-        <v>54100</v>
+        <v>56300</v>
       </c>
       <c r="J14" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="K14" s="3">
         <v>45500</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>21167000</v>
+        <v>22041200</v>
       </c>
       <c r="E17" s="3">
-        <v>20984600</v>
+        <v>21851400</v>
       </c>
       <c r="F17" s="3">
-        <v>19295300</v>
+        <v>20092300</v>
       </c>
       <c r="G17" s="3">
-        <v>19134100</v>
+        <v>19924500</v>
       </c>
       <c r="H17" s="3">
-        <v>18801200</v>
+        <v>19577800</v>
       </c>
       <c r="I17" s="3">
-        <v>19050600</v>
+        <v>19837500</v>
       </c>
       <c r="J17" s="3">
-        <v>24592600</v>
+        <v>25608400</v>
       </c>
       <c r="K17" s="3">
         <v>24085500</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1814000</v>
+        <v>1888900</v>
       </c>
       <c r="E18" s="3">
-        <v>1934000</v>
+        <v>2013900</v>
       </c>
       <c r="F18" s="3">
-        <v>2022200</v>
+        <v>2105800</v>
       </c>
       <c r="G18" s="3">
-        <v>1782200</v>
+        <v>1855900</v>
       </c>
       <c r="H18" s="3">
-        <v>1694000</v>
+        <v>1764000</v>
       </c>
       <c r="I18" s="3">
-        <v>720000</v>
+        <v>749700</v>
       </c>
       <c r="J18" s="3">
-        <v>571700</v>
+        <v>595300</v>
       </c>
       <c r="K18" s="3">
         <v>2219000</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>120000</v>
+        <v>124900</v>
       </c>
       <c r="E20" s="3">
-        <v>61200</v>
+        <v>63700</v>
       </c>
       <c r="F20" s="3">
-        <v>-32900</v>
+        <v>-34300</v>
       </c>
       <c r="G20" s="3">
-        <v>98800</v>
+        <v>102900</v>
       </c>
       <c r="H20" s="3">
-        <v>-67100</v>
+        <v>-69800</v>
       </c>
       <c r="I20" s="3">
-        <v>80000</v>
+        <v>83300</v>
       </c>
       <c r="J20" s="3">
-        <v>-21200</v>
+        <v>-22000</v>
       </c>
       <c r="K20" s="3">
         <v>-93300</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3729400</v>
+        <v>3870500</v>
       </c>
       <c r="E21" s="3">
-        <v>3651200</v>
+        <v>3790100</v>
       </c>
       <c r="F21" s="3">
-        <v>3275600</v>
+        <v>3401700</v>
       </c>
       <c r="G21" s="3">
-        <v>3091800</v>
+        <v>3210800</v>
       </c>
       <c r="H21" s="3">
-        <v>2779800</v>
+        <v>2886300</v>
       </c>
       <c r="I21" s="3">
-        <v>1948100</v>
+        <v>2020300</v>
       </c>
       <c r="J21" s="3">
-        <v>1952600</v>
+        <v>2023200</v>
       </c>
       <c r="K21" s="3">
         <v>3527800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>181200</v>
+        <v>188600</v>
       </c>
       <c r="E22" s="3">
-        <v>196500</v>
+        <v>204600</v>
       </c>
       <c r="F22" s="3">
-        <v>221200</v>
+        <v>230300</v>
       </c>
       <c r="G22" s="3">
-        <v>261200</v>
+        <v>271900</v>
       </c>
       <c r="H22" s="3">
-        <v>410600</v>
+        <v>427500</v>
       </c>
       <c r="I22" s="3">
-        <v>412900</v>
+        <v>430000</v>
       </c>
       <c r="J22" s="3">
-        <v>332900</v>
+        <v>346700</v>
       </c>
       <c r="K22" s="3">
         <v>301400</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1752800</v>
+        <v>1825200</v>
       </c>
       <c r="E23" s="3">
-        <v>1798700</v>
+        <v>1873000</v>
       </c>
       <c r="F23" s="3">
-        <v>1768100</v>
+        <v>1841200</v>
       </c>
       <c r="G23" s="3">
-        <v>1619900</v>
+        <v>1686800</v>
       </c>
       <c r="H23" s="3">
-        <v>1216400</v>
+        <v>1266600</v>
       </c>
       <c r="I23" s="3">
-        <v>387000</v>
+        <v>403000</v>
       </c>
       <c r="J23" s="3">
-        <v>217600</v>
+        <v>226600</v>
       </c>
       <c r="K23" s="3">
         <v>1824200</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>334100</v>
+        <v>347900</v>
       </c>
       <c r="E24" s="3">
-        <v>396400</v>
+        <v>412800</v>
       </c>
       <c r="F24" s="3">
-        <v>227000</v>
+        <v>236400</v>
       </c>
       <c r="G24" s="3">
-        <v>410600</v>
+        <v>427500</v>
       </c>
       <c r="H24" s="3">
-        <v>238800</v>
+        <v>248700</v>
       </c>
       <c r="I24" s="3">
-        <v>198800</v>
+        <v>207000</v>
       </c>
       <c r="J24" s="3">
-        <v>30600</v>
+        <v>31800</v>
       </c>
       <c r="K24" s="3">
         <v>557400</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1418700</v>
+        <v>1477300</v>
       </c>
       <c r="E26" s="3">
-        <v>1402300</v>
+        <v>1460200</v>
       </c>
       <c r="F26" s="3">
-        <v>1541100</v>
+        <v>1604700</v>
       </c>
       <c r="G26" s="3">
-        <v>1209300</v>
+        <v>1259300</v>
       </c>
       <c r="H26" s="3">
-        <v>977600</v>
+        <v>1018000</v>
       </c>
       <c r="I26" s="3">
-        <v>188200</v>
+        <v>196000</v>
       </c>
       <c r="J26" s="3">
-        <v>187000</v>
+        <v>194800</v>
       </c>
       <c r="K26" s="3">
         <v>1266800</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1408200</v>
+        <v>1466300</v>
       </c>
       <c r="E27" s="3">
-        <v>1395200</v>
+        <v>1452800</v>
       </c>
       <c r="F27" s="3">
-        <v>1532800</v>
+        <v>1596200</v>
       </c>
       <c r="G27" s="3">
-        <v>957600</v>
+        <v>997100</v>
       </c>
       <c r="H27" s="3">
-        <v>942300</v>
+        <v>981200</v>
       </c>
       <c r="I27" s="3">
-        <v>205900</v>
+        <v>214400</v>
       </c>
       <c r="J27" s="3">
-        <v>264700</v>
+        <v>275600</v>
       </c>
       <c r="K27" s="3">
         <v>1233300</v>
@@ -1413,25 +1413,25 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-11800</v>
+        <v>-12200</v>
       </c>
       <c r="E29" s="3">
-        <v>-22400</v>
+        <v>-23300</v>
       </c>
       <c r="F29" s="3">
-        <v>-250600</v>
+        <v>-260900</v>
       </c>
       <c r="G29" s="3">
-        <v>991700</v>
+        <v>1032700</v>
       </c>
       <c r="H29" s="3">
-        <v>776400</v>
+        <v>808500</v>
       </c>
       <c r="I29" s="3">
-        <v>563500</v>
+        <v>586800</v>
       </c>
       <c r="J29" s="3">
-        <v>223500</v>
+        <v>232700</v>
       </c>
       <c r="K29" s="3">
         <v>165100</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-120000</v>
+        <v>-124900</v>
       </c>
       <c r="E32" s="3">
-        <v>-61200</v>
+        <v>-63700</v>
       </c>
       <c r="F32" s="3">
-        <v>32900</v>
+        <v>34300</v>
       </c>
       <c r="G32" s="3">
-        <v>-98800</v>
+        <v>-102900</v>
       </c>
       <c r="H32" s="3">
-        <v>67100</v>
+        <v>69800</v>
       </c>
       <c r="I32" s="3">
-        <v>-80000</v>
+        <v>-83300</v>
       </c>
       <c r="J32" s="3">
-        <v>21200</v>
+        <v>22000</v>
       </c>
       <c r="K32" s="3">
         <v>93300</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1396400</v>
+        <v>1454100</v>
       </c>
       <c r="E33" s="3">
-        <v>1372900</v>
+        <v>1429600</v>
       </c>
       <c r="F33" s="3">
-        <v>1282300</v>
+        <v>1335200</v>
       </c>
       <c r="G33" s="3">
-        <v>1949300</v>
+        <v>2029800</v>
       </c>
       <c r="H33" s="3">
-        <v>1718700</v>
+        <v>1789700</v>
       </c>
       <c r="I33" s="3">
-        <v>769400</v>
+        <v>801100</v>
       </c>
       <c r="J33" s="3">
-        <v>488200</v>
+        <v>508400</v>
       </c>
       <c r="K33" s="3">
         <v>1398400</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1396400</v>
+        <v>1454100</v>
       </c>
       <c r="E35" s="3">
-        <v>1372900</v>
+        <v>1429600</v>
       </c>
       <c r="F35" s="3">
-        <v>1282300</v>
+        <v>1335200</v>
       </c>
       <c r="G35" s="3">
-        <v>1949300</v>
+        <v>2029800</v>
       </c>
       <c r="H35" s="3">
-        <v>1718700</v>
+        <v>1789700</v>
       </c>
       <c r="I35" s="3">
-        <v>769400</v>
+        <v>801100</v>
       </c>
       <c r="J35" s="3">
-        <v>488200</v>
+        <v>508400</v>
       </c>
       <c r="K35" s="3">
         <v>1398400</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3795100</v>
+        <v>3951800</v>
       </c>
       <c r="E41" s="3">
-        <v>1676400</v>
+        <v>1745600</v>
       </c>
       <c r="F41" s="3">
-        <v>1985800</v>
+        <v>2067800</v>
       </c>
       <c r="G41" s="3">
-        <v>2281000</v>
+        <v>2375300</v>
       </c>
       <c r="H41" s="3">
-        <v>2745700</v>
+        <v>2859100</v>
       </c>
       <c r="I41" s="3">
-        <v>2077500</v>
+        <v>2163300</v>
       </c>
       <c r="J41" s="3">
-        <v>2203400</v>
+        <v>2294400</v>
       </c>
       <c r="K41" s="3">
         <v>2948600</v>
@@ -1780,19 +1780,19 @@
         <v>1200</v>
       </c>
       <c r="F42" s="3">
-        <v>512900</v>
+        <v>534100</v>
       </c>
       <c r="G42" s="3">
         <v>2400</v>
       </c>
       <c r="H42" s="3">
-        <v>118800</v>
+        <v>123700</v>
       </c>
       <c r="I42" s="3">
-        <v>14100</v>
+        <v>14700</v>
       </c>
       <c r="J42" s="3">
-        <v>147000</v>
+        <v>153100</v>
       </c>
       <c r="K42" s="3">
         <v>12000</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>5365600</v>
+        <v>5587200</v>
       </c>
       <c r="E43" s="3">
-        <v>5904400</v>
+        <v>6148200</v>
       </c>
       <c r="F43" s="3">
-        <v>5244400</v>
+        <v>5461000</v>
       </c>
       <c r="G43" s="3">
-        <v>4945600</v>
+        <v>5149900</v>
       </c>
       <c r="H43" s="3">
-        <v>6716100</v>
+        <v>6993500</v>
       </c>
       <c r="I43" s="3">
-        <v>11855800</v>
+        <v>12345400</v>
       </c>
       <c r="J43" s="3">
-        <v>11277000</v>
+        <v>11742800</v>
       </c>
       <c r="K43" s="3">
         <v>5679600</v>
@@ -1846,25 +1846,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3521000</v>
+        <v>3666400</v>
       </c>
       <c r="E44" s="3">
-        <v>3262200</v>
+        <v>3396900</v>
       </c>
       <c r="F44" s="3">
-        <v>3145700</v>
+        <v>3275600</v>
       </c>
       <c r="G44" s="3">
-        <v>2768100</v>
+        <v>2882400</v>
       </c>
       <c r="H44" s="3">
-        <v>3990300</v>
+        <v>4155200</v>
       </c>
       <c r="I44" s="3">
-        <v>8147700</v>
+        <v>8484300</v>
       </c>
       <c r="J44" s="3">
-        <v>7797200</v>
+        <v>8119200</v>
       </c>
       <c r="K44" s="3">
         <v>3875700</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>525900</v>
+        <v>547600</v>
       </c>
       <c r="E45" s="3">
-        <v>283500</v>
+        <v>295200</v>
       </c>
       <c r="F45" s="3">
-        <v>371700</v>
+        <v>387100</v>
       </c>
       <c r="G45" s="3">
-        <v>1904600</v>
+        <v>1983300</v>
       </c>
       <c r="H45" s="3">
-        <v>2986900</v>
+        <v>3110200</v>
       </c>
       <c r="I45" s="3">
-        <v>3293900</v>
+        <v>3430000</v>
       </c>
       <c r="J45" s="3">
-        <v>3090400</v>
+        <v>3218000</v>
       </c>
       <c r="K45" s="3">
         <v>1209400</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>13207400</v>
+        <v>13753000</v>
       </c>
       <c r="E46" s="3">
-        <v>11127600</v>
+        <v>11587200</v>
       </c>
       <c r="F46" s="3">
-        <v>11260500</v>
+        <v>11725600</v>
       </c>
       <c r="G46" s="3">
-        <v>11901600</v>
+        <v>12393200</v>
       </c>
       <c r="H46" s="3">
-        <v>16557800</v>
+        <v>17241700</v>
       </c>
       <c r="I46" s="3">
-        <v>14932000</v>
+        <v>15548800</v>
       </c>
       <c r="J46" s="3">
-        <v>14576800</v>
+        <v>15178900</v>
       </c>
       <c r="K46" s="3">
         <v>13725200</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1058800</v>
+        <v>1102500</v>
       </c>
       <c r="E47" s="3">
-        <v>775200</v>
+        <v>807300</v>
       </c>
       <c r="F47" s="3">
-        <v>901100</v>
+        <v>938300</v>
       </c>
       <c r="G47" s="3">
-        <v>1010500</v>
+        <v>1052300</v>
       </c>
       <c r="H47" s="3">
-        <v>800000</v>
+        <v>833000</v>
       </c>
       <c r="I47" s="3">
-        <v>1012900</v>
+        <v>1054700</v>
       </c>
       <c r="J47" s="3">
-        <v>1664600</v>
+        <v>1733400</v>
       </c>
       <c r="K47" s="3">
         <v>958200</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3155100</v>
+        <v>3285400</v>
       </c>
       <c r="E48" s="3">
-        <v>3371600</v>
+        <v>3510800</v>
       </c>
       <c r="F48" s="3">
-        <v>2014000</v>
+        <v>2097200</v>
       </c>
       <c r="G48" s="3">
-        <v>1871700</v>
+        <v>1949000</v>
       </c>
       <c r="H48" s="3">
-        <v>2535100</v>
+        <v>2639900</v>
       </c>
       <c r="I48" s="3">
-        <v>5463200</v>
+        <v>5688900</v>
       </c>
       <c r="J48" s="3">
-        <v>4929100</v>
+        <v>5132700</v>
       </c>
       <c r="K48" s="3">
         <v>3325400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12953300</v>
+        <v>13488400</v>
       </c>
       <c r="E49" s="3">
-        <v>14258000</v>
+        <v>14846900</v>
       </c>
       <c r="F49" s="3">
-        <v>14225000</v>
+        <v>14812600</v>
       </c>
       <c r="G49" s="3">
-        <v>13002700</v>
+        <v>13539800</v>
       </c>
       <c r="H49" s="3">
-        <v>14646200</v>
+        <v>15251100</v>
       </c>
       <c r="I49" s="3">
-        <v>18715300</v>
+        <v>19488400</v>
       </c>
       <c r="J49" s="3">
-        <v>24765600</v>
+        <v>25788500</v>
       </c>
       <c r="K49" s="3">
         <v>11682100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2226900</v>
+        <v>2318900</v>
       </c>
       <c r="E52" s="3">
-        <v>2249300</v>
+        <v>2342200</v>
       </c>
       <c r="F52" s="3">
-        <v>2208100</v>
+        <v>2299300</v>
       </c>
       <c r="G52" s="3">
-        <v>1994000</v>
+        <v>2076400</v>
       </c>
       <c r="H52" s="3">
-        <v>3423300</v>
+        <v>3564700</v>
       </c>
       <c r="I52" s="3">
-        <v>3392700</v>
+        <v>3532900</v>
       </c>
       <c r="J52" s="3">
-        <v>2992800</v>
+        <v>3116400</v>
       </c>
       <c r="K52" s="3">
         <v>2079000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32601600</v>
+        <v>33948100</v>
       </c>
       <c r="E54" s="3">
-        <v>31781600</v>
+        <v>33094300</v>
       </c>
       <c r="F54" s="3">
-        <v>30608800</v>
+        <v>31873000</v>
       </c>
       <c r="G54" s="3">
-        <v>29780600</v>
+        <v>31010600</v>
       </c>
       <c r="H54" s="3">
-        <v>37962400</v>
+        <v>39530400</v>
       </c>
       <c r="I54" s="3">
-        <v>36440200</v>
+        <v>37945300</v>
       </c>
       <c r="J54" s="3">
-        <v>33353300</v>
+        <v>34730900</v>
       </c>
       <c r="K54" s="3">
         <v>31769900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2492800</v>
+        <v>2595800</v>
       </c>
       <c r="E57" s="3">
-        <v>2457500</v>
+        <v>2559000</v>
       </c>
       <c r="F57" s="3">
-        <v>2709200</v>
+        <v>2821200</v>
       </c>
       <c r="G57" s="3">
-        <v>2458700</v>
+        <v>2560200</v>
       </c>
       <c r="H57" s="3">
-        <v>6697200</v>
+        <v>6973900</v>
       </c>
       <c r="I57" s="3">
-        <v>6284300</v>
+        <v>6543900</v>
       </c>
       <c r="J57" s="3">
-        <v>5874900</v>
+        <v>6117600</v>
       </c>
       <c r="K57" s="3">
         <v>2945000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>423500</v>
+        <v>441000</v>
       </c>
       <c r="E58" s="3">
-        <v>449400</v>
+        <v>467900</v>
       </c>
       <c r="F58" s="3">
-        <v>809400</v>
+        <v>842800</v>
       </c>
       <c r="G58" s="3">
-        <v>269400</v>
+        <v>280500</v>
       </c>
       <c r="H58" s="3">
-        <v>1864600</v>
+        <v>1941600</v>
       </c>
       <c r="I58" s="3">
-        <v>1958700</v>
+        <v>2039600</v>
       </c>
       <c r="J58" s="3">
-        <v>461100</v>
+        <v>480200</v>
       </c>
       <c r="K58" s="3">
         <v>708200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6183200</v>
+        <v>6438500</v>
       </c>
       <c r="E59" s="3">
-        <v>5302000</v>
+        <v>5521000</v>
       </c>
       <c r="F59" s="3">
-        <v>5825500</v>
+        <v>6066200</v>
       </c>
       <c r="G59" s="3">
-        <v>5349100</v>
+        <v>5570000</v>
       </c>
       <c r="H59" s="3">
-        <v>7109000</v>
+        <v>7402600</v>
       </c>
       <c r="I59" s="3">
-        <v>11426400</v>
+        <v>11898300</v>
       </c>
       <c r="J59" s="3">
-        <v>11613400</v>
+        <v>12093100</v>
       </c>
       <c r="K59" s="3">
         <v>6485800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9099500</v>
+        <v>9475300</v>
       </c>
       <c r="E60" s="3">
-        <v>8208900</v>
+        <v>8548000</v>
       </c>
       <c r="F60" s="3">
-        <v>9344100</v>
+        <v>9730100</v>
       </c>
       <c r="G60" s="3">
-        <v>8077200</v>
+        <v>8410800</v>
       </c>
       <c r="H60" s="3">
-        <v>12320400</v>
+        <v>12829300</v>
       </c>
       <c r="I60" s="3">
-        <v>11715800</v>
+        <v>12199700</v>
       </c>
       <c r="J60" s="3">
-        <v>10206400</v>
+        <v>10628000</v>
       </c>
       <c r="K60" s="3">
         <v>10139000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6578400</v>
+        <v>6850100</v>
       </c>
       <c r="E61" s="3">
-        <v>5737300</v>
+        <v>5974300</v>
       </c>
       <c r="F61" s="3">
-        <v>3810400</v>
+        <v>3967700</v>
       </c>
       <c r="G61" s="3">
-        <v>4079800</v>
+        <v>4248300</v>
       </c>
       <c r="H61" s="3">
-        <v>4730300</v>
+        <v>4925700</v>
       </c>
       <c r="I61" s="3">
-        <v>4817400</v>
+        <v>5016300</v>
       </c>
       <c r="J61" s="3">
-        <v>4366800</v>
+        <v>4547200</v>
       </c>
       <c r="K61" s="3">
         <v>3958200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2923400</v>
+        <v>3044100</v>
       </c>
       <c r="E62" s="3">
-        <v>2983400</v>
+        <v>3106600</v>
       </c>
       <c r="F62" s="3">
-        <v>3199800</v>
+        <v>3332000</v>
       </c>
       <c r="G62" s="3">
-        <v>3479800</v>
+        <v>3623500</v>
       </c>
       <c r="H62" s="3">
-        <v>5085600</v>
+        <v>5295600</v>
       </c>
       <c r="I62" s="3">
-        <v>12228700</v>
+        <v>12733800</v>
       </c>
       <c r="J62" s="3">
-        <v>8039500</v>
+        <v>8371600</v>
       </c>
       <c r="K62" s="3">
         <v>4242900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18637700</v>
+        <v>19407500</v>
       </c>
       <c r="E66" s="3">
-        <v>16962500</v>
+        <v>17663100</v>
       </c>
       <c r="F66" s="3">
-        <v>16388400</v>
+        <v>17065300</v>
       </c>
       <c r="G66" s="3">
-        <v>15664900</v>
+        <v>16312000</v>
       </c>
       <c r="H66" s="3">
-        <v>23203300</v>
+        <v>24161700</v>
       </c>
       <c r="I66" s="3">
-        <v>22721000</v>
+        <v>23659500</v>
       </c>
       <c r="J66" s="3">
-        <v>20569400</v>
+        <v>21419000</v>
       </c>
       <c r="K66" s="3">
         <v>18355700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9208900</v>
+        <v>9589200</v>
       </c>
       <c r="E72" s="3">
-        <v>9759400</v>
+        <v>10162500</v>
       </c>
       <c r="F72" s="3">
-        <v>9724100</v>
+        <v>10125800</v>
       </c>
       <c r="G72" s="3">
-        <v>10112300</v>
+        <v>10530000</v>
       </c>
       <c r="H72" s="3">
-        <v>9620600</v>
+        <v>10018000</v>
       </c>
       <c r="I72" s="3">
-        <v>9458300</v>
+        <v>9848900</v>
       </c>
       <c r="J72" s="3">
-        <v>10340600</v>
+        <v>10767700</v>
       </c>
       <c r="K72" s="3">
         <v>12458400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13963900</v>
+        <v>14540600</v>
       </c>
       <c r="E76" s="3">
-        <v>14819100</v>
+        <v>15431200</v>
       </c>
       <c r="F76" s="3">
-        <v>14220300</v>
+        <v>14807700</v>
       </c>
       <c r="G76" s="3">
-        <v>14115600</v>
+        <v>14698700</v>
       </c>
       <c r="H76" s="3">
-        <v>14759100</v>
+        <v>15368700</v>
       </c>
       <c r="I76" s="3">
-        <v>13719200</v>
+        <v>14285800</v>
       </c>
       <c r="J76" s="3">
-        <v>12783900</v>
+        <v>13312000</v>
       </c>
       <c r="K76" s="3">
         <v>13414200</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1396400</v>
+        <v>1454100</v>
       </c>
       <c r="E81" s="3">
-        <v>1372900</v>
+        <v>1429600</v>
       </c>
       <c r="F81" s="3">
-        <v>1282300</v>
+        <v>1335200</v>
       </c>
       <c r="G81" s="3">
-        <v>1949300</v>
+        <v>2029800</v>
       </c>
       <c r="H81" s="3">
-        <v>1718700</v>
+        <v>1789700</v>
       </c>
       <c r="I81" s="3">
-        <v>769400</v>
+        <v>801100</v>
       </c>
       <c r="J81" s="3">
-        <v>488200</v>
+        <v>508400</v>
       </c>
       <c r="K81" s="3">
         <v>1398400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1788100</v>
+        <v>1862000</v>
       </c>
       <c r="E83" s="3">
-        <v>1649300</v>
+        <v>1717400</v>
       </c>
       <c r="F83" s="3">
-        <v>1281100</v>
+        <v>1334000</v>
       </c>
       <c r="G83" s="3">
-        <v>1205800</v>
+        <v>1255600</v>
       </c>
       <c r="H83" s="3">
-        <v>1148200</v>
+        <v>1195600</v>
       </c>
       <c r="I83" s="3">
-        <v>1143500</v>
+        <v>1190700</v>
       </c>
       <c r="J83" s="3">
-        <v>1396400</v>
+        <v>1454100</v>
       </c>
       <c r="K83" s="3">
         <v>1407900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3163300</v>
+        <v>3294000</v>
       </c>
       <c r="E89" s="3">
-        <v>2359900</v>
+        <v>2457300</v>
       </c>
       <c r="F89" s="3">
-        <v>2855100</v>
+        <v>2973100</v>
       </c>
       <c r="G89" s="3">
-        <v>3450400</v>
+        <v>3592900</v>
       </c>
       <c r="H89" s="3">
-        <v>3906800</v>
+        <v>4068200</v>
       </c>
       <c r="I89" s="3">
-        <v>1335200</v>
+        <v>1390400</v>
       </c>
       <c r="J89" s="3">
-        <v>1656400</v>
+        <v>1724800</v>
       </c>
       <c r="K89" s="3">
         <v>1009600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-603500</v>
+        <v>-628400</v>
       </c>
       <c r="E91" s="3">
-        <v>-609400</v>
+        <v>-634500</v>
       </c>
       <c r="F91" s="3">
-        <v>-496400</v>
+        <v>-516900</v>
       </c>
       <c r="G91" s="3">
-        <v>-494100</v>
+        <v>-514500</v>
       </c>
       <c r="H91" s="3">
-        <v>-423500</v>
+        <v>-441000</v>
       </c>
       <c r="I91" s="3">
-        <v>-508200</v>
+        <v>-529200</v>
       </c>
       <c r="J91" s="3">
-        <v>-514100</v>
+        <v>-535300</v>
       </c>
       <c r="K91" s="3">
         <v>-576600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1548100</v>
+        <v>-1612100</v>
       </c>
       <c r="E94" s="3">
-        <v>-709400</v>
+        <v>-738700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1748100</v>
+        <v>-1820300</v>
       </c>
       <c r="G94" s="3">
-        <v>-3763300</v>
+        <v>-3918700</v>
       </c>
       <c r="H94" s="3">
-        <v>-1284600</v>
+        <v>-1337700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2178700</v>
+        <v>-2268700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1054100</v>
+        <v>-1097600</v>
       </c>
       <c r="K94" s="3">
         <v>-1087300</v>
@@ -3534,22 +3534,22 @@
         <v>-1200</v>
       </c>
       <c r="E96" s="3">
-        <v>-532900</v>
+        <v>-554900</v>
       </c>
       <c r="F96" s="3">
-        <v>-471700</v>
+        <v>-491200</v>
       </c>
       <c r="G96" s="3">
-        <v>-451700</v>
+        <v>-470400</v>
       </c>
       <c r="H96" s="3">
-        <v>-388200</v>
+        <v>-404200</v>
       </c>
       <c r="I96" s="3">
-        <v>-350600</v>
+        <v>-365000</v>
       </c>
       <c r="J96" s="3">
-        <v>-343500</v>
+        <v>-357700</v>
       </c>
       <c r="K96" s="3">
         <v>-325400</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>568200</v>
+        <v>591700</v>
       </c>
       <c r="E100" s="3">
-        <v>-1958700</v>
+        <v>-2039600</v>
       </c>
       <c r="F100" s="3">
-        <v>-1402300</v>
+        <v>-1460200</v>
       </c>
       <c r="G100" s="3">
-        <v>64700</v>
+        <v>67400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1932800</v>
+        <v>-2012700</v>
       </c>
       <c r="I100" s="3">
-        <v>622300</v>
+        <v>648000</v>
       </c>
       <c r="J100" s="3">
-        <v>-1398700</v>
+        <v>-1456500</v>
       </c>
       <c r="K100" s="3">
         <v>-1484500</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-64700</v>
+        <v>-67400</v>
       </c>
       <c r="E101" s="3">
         <v>-2400</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-216500</v>
+        <v>-225400</v>
       </c>
       <c r="H101" s="3">
-        <v>-20000</v>
+        <v>-20800</v>
       </c>
       <c r="I101" s="3">
-        <v>94100</v>
+        <v>98000</v>
       </c>
       <c r="J101" s="3">
-        <v>100000</v>
+        <v>104100</v>
       </c>
       <c r="K101" s="3">
         <v>-75400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2118700</v>
+        <v>2206200</v>
       </c>
       <c r="E102" s="3">
-        <v>-310600</v>
+        <v>-323400</v>
       </c>
       <c r="F102" s="3">
-        <v>-295300</v>
+        <v>-307500</v>
       </c>
       <c r="G102" s="3">
-        <v>-464700</v>
+        <v>-483900</v>
       </c>
       <c r="H102" s="3">
-        <v>669400</v>
+        <v>697000</v>
       </c>
       <c r="I102" s="3">
-        <v>-127100</v>
+        <v>-132300</v>
       </c>
       <c r="J102" s="3">
-        <v>-696400</v>
+        <v>-725200</v>
       </c>
       <c r="K102" s="3">
         <v>-1637600</v>

--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>23930200</v>
+        <v>22805400</v>
       </c>
       <c r="E8" s="3">
-        <v>23865300</v>
+        <v>22743500</v>
       </c>
       <c r="F8" s="3">
-        <v>22198000</v>
+        <v>21154600</v>
       </c>
       <c r="G8" s="3">
-        <v>21780300</v>
+        <v>20756500</v>
       </c>
       <c r="H8" s="3">
-        <v>21341800</v>
+        <v>20338600</v>
       </c>
       <c r="I8" s="3">
-        <v>20587200</v>
+        <v>19619500</v>
       </c>
       <c r="J8" s="3">
-        <v>26203800</v>
+        <v>24972100</v>
       </c>
       <c r="K8" s="3">
         <v>26304400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12972600</v>
+        <v>12362900</v>
       </c>
       <c r="E9" s="3">
-        <v>12709300</v>
+        <v>12111900</v>
       </c>
       <c r="F9" s="3">
-        <v>11720700</v>
+        <v>11169800</v>
       </c>
       <c r="G9" s="3">
-        <v>11759900</v>
+        <v>11207100</v>
       </c>
       <c r="H9" s="3">
-        <v>11617800</v>
+        <v>11071700</v>
       </c>
       <c r="I9" s="3">
-        <v>11752600</v>
+        <v>11200100</v>
       </c>
       <c r="J9" s="3">
-        <v>16151500</v>
+        <v>15392300</v>
       </c>
       <c r="K9" s="3">
         <v>15135500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10957500</v>
+        <v>10442500</v>
       </c>
       <c r="E10" s="3">
-        <v>11156000</v>
+        <v>10631600</v>
       </c>
       <c r="F10" s="3">
-        <v>10477300</v>
+        <v>9984900</v>
       </c>
       <c r="G10" s="3">
-        <v>10020400</v>
+        <v>9549400</v>
       </c>
       <c r="H10" s="3">
-        <v>9724000</v>
+        <v>9266900</v>
       </c>
       <c r="I10" s="3">
-        <v>8834600</v>
+        <v>8419400</v>
       </c>
       <c r="J10" s="3">
-        <v>10052300</v>
+        <v>9579800</v>
       </c>
       <c r="K10" s="3">
         <v>11168900</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2184200</v>
+        <v>2081500</v>
       </c>
       <c r="E12" s="3">
-        <v>2122900</v>
+        <v>2023100</v>
       </c>
       <c r="F12" s="3">
-        <v>2061700</v>
+        <v>1964800</v>
       </c>
       <c r="G12" s="3">
-        <v>2034700</v>
+        <v>1939100</v>
       </c>
       <c r="H12" s="3">
-        <v>2044500</v>
+        <v>1948400</v>
       </c>
       <c r="I12" s="3">
-        <v>1913400</v>
+        <v>1823500</v>
       </c>
       <c r="J12" s="3">
-        <v>2002900</v>
+        <v>1908700</v>
       </c>
       <c r="K12" s="3">
         <v>1984500</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>711700</v>
+        <v>678300</v>
       </c>
       <c r="E14" s="3">
-        <v>753400</v>
+        <v>718000</v>
       </c>
       <c r="F14" s="3">
-        <v>220500</v>
+        <v>210100</v>
       </c>
       <c r="G14" s="3">
-        <v>334400</v>
+        <v>318700</v>
       </c>
       <c r="H14" s="3">
-        <v>30600</v>
+        <v>29200</v>
       </c>
       <c r="I14" s="3">
-        <v>56300</v>
+        <v>53700</v>
       </c>
       <c r="J14" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="K14" s="3">
         <v>45500</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>22041200</v>
+        <v>21005200</v>
       </c>
       <c r="E17" s="3">
-        <v>21851400</v>
+        <v>20824300</v>
       </c>
       <c r="F17" s="3">
-        <v>20092300</v>
+        <v>19147900</v>
       </c>
       <c r="G17" s="3">
-        <v>19924500</v>
+        <v>18987900</v>
       </c>
       <c r="H17" s="3">
-        <v>19577800</v>
+        <v>18657500</v>
       </c>
       <c r="I17" s="3">
-        <v>19837500</v>
+        <v>18905000</v>
       </c>
       <c r="J17" s="3">
-        <v>25608400</v>
+        <v>24404700</v>
       </c>
       <c r="K17" s="3">
         <v>24085500</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1888900</v>
+        <v>1800100</v>
       </c>
       <c r="E18" s="3">
-        <v>2013900</v>
+        <v>1919200</v>
       </c>
       <c r="F18" s="3">
-        <v>2105800</v>
+        <v>2006800</v>
       </c>
       <c r="G18" s="3">
-        <v>1855900</v>
+        <v>1768600</v>
       </c>
       <c r="H18" s="3">
-        <v>1764000</v>
+        <v>1681100</v>
       </c>
       <c r="I18" s="3">
-        <v>749700</v>
+        <v>714500</v>
       </c>
       <c r="J18" s="3">
-        <v>595300</v>
+        <v>567400</v>
       </c>
       <c r="K18" s="3">
         <v>2219000</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>124900</v>
+        <v>119100</v>
       </c>
       <c r="E20" s="3">
-        <v>63700</v>
+        <v>60700</v>
       </c>
       <c r="F20" s="3">
-        <v>-34300</v>
+        <v>-32700</v>
       </c>
       <c r="G20" s="3">
-        <v>102900</v>
+        <v>98100</v>
       </c>
       <c r="H20" s="3">
-        <v>-69800</v>
+        <v>-66500</v>
       </c>
       <c r="I20" s="3">
-        <v>83300</v>
+        <v>79400</v>
       </c>
       <c r="J20" s="3">
-        <v>-22000</v>
+        <v>-21000</v>
       </c>
       <c r="K20" s="3">
         <v>-93300</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3870500</v>
+        <v>3699100</v>
       </c>
       <c r="E21" s="3">
-        <v>3790100</v>
+        <v>3621700</v>
       </c>
       <c r="F21" s="3">
-        <v>3401700</v>
+        <v>3249300</v>
       </c>
       <c r="G21" s="3">
-        <v>3210800</v>
+        <v>3067000</v>
       </c>
       <c r="H21" s="3">
-        <v>2886300</v>
+        <v>2757400</v>
       </c>
       <c r="I21" s="3">
-        <v>2020300</v>
+        <v>1932100</v>
       </c>
       <c r="J21" s="3">
-        <v>2023200</v>
+        <v>1936300</v>
       </c>
       <c r="K21" s="3">
         <v>3527800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>188600</v>
+        <v>179800</v>
       </c>
       <c r="E22" s="3">
-        <v>204600</v>
+        <v>195000</v>
       </c>
       <c r="F22" s="3">
-        <v>230300</v>
+        <v>219500</v>
       </c>
       <c r="G22" s="3">
-        <v>271900</v>
+        <v>259200</v>
       </c>
       <c r="H22" s="3">
-        <v>427500</v>
+        <v>407400</v>
       </c>
       <c r="I22" s="3">
-        <v>430000</v>
+        <v>409800</v>
       </c>
       <c r="J22" s="3">
-        <v>346700</v>
+        <v>330400</v>
       </c>
       <c r="K22" s="3">
         <v>301400</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1825200</v>
+        <v>1739400</v>
       </c>
       <c r="E23" s="3">
-        <v>1873000</v>
+        <v>1785000</v>
       </c>
       <c r="F23" s="3">
-        <v>1841200</v>
+        <v>1754600</v>
       </c>
       <c r="G23" s="3">
-        <v>1686800</v>
+        <v>1607500</v>
       </c>
       <c r="H23" s="3">
-        <v>1266600</v>
+        <v>1207100</v>
       </c>
       <c r="I23" s="3">
-        <v>403000</v>
+        <v>384100</v>
       </c>
       <c r="J23" s="3">
-        <v>226600</v>
+        <v>216000</v>
       </c>
       <c r="K23" s="3">
         <v>1824200</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>347900</v>
+        <v>331500</v>
       </c>
       <c r="E24" s="3">
-        <v>412800</v>
+        <v>393400</v>
       </c>
       <c r="F24" s="3">
-        <v>236400</v>
+        <v>225300</v>
       </c>
       <c r="G24" s="3">
-        <v>427500</v>
+        <v>407400</v>
       </c>
       <c r="H24" s="3">
-        <v>248700</v>
+        <v>237000</v>
       </c>
       <c r="I24" s="3">
-        <v>207000</v>
+        <v>197300</v>
       </c>
       <c r="J24" s="3">
-        <v>31800</v>
+        <v>30400</v>
       </c>
       <c r="K24" s="3">
         <v>557400</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1477300</v>
+        <v>1407900</v>
       </c>
       <c r="E26" s="3">
-        <v>1460200</v>
+        <v>1391600</v>
       </c>
       <c r="F26" s="3">
-        <v>1604700</v>
+        <v>1529300</v>
       </c>
       <c r="G26" s="3">
-        <v>1259300</v>
+        <v>1200100</v>
       </c>
       <c r="H26" s="3">
-        <v>1018000</v>
+        <v>970100</v>
       </c>
       <c r="I26" s="3">
-        <v>196000</v>
+        <v>186800</v>
       </c>
       <c r="J26" s="3">
-        <v>194800</v>
+        <v>185600</v>
       </c>
       <c r="K26" s="3">
         <v>1266800</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1466300</v>
+        <v>1397400</v>
       </c>
       <c r="E27" s="3">
-        <v>1452800</v>
+        <v>1384500</v>
       </c>
       <c r="F27" s="3">
-        <v>1596200</v>
+        <v>1521100</v>
       </c>
       <c r="G27" s="3">
-        <v>997100</v>
+        <v>950300</v>
       </c>
       <c r="H27" s="3">
-        <v>981200</v>
+        <v>935100</v>
       </c>
       <c r="I27" s="3">
-        <v>214400</v>
+        <v>204300</v>
       </c>
       <c r="J27" s="3">
-        <v>275600</v>
+        <v>262700</v>
       </c>
       <c r="K27" s="3">
         <v>1233300</v>
@@ -1413,25 +1413,25 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-12200</v>
+        <v>-11700</v>
       </c>
       <c r="E29" s="3">
-        <v>-23300</v>
+        <v>-22200</v>
       </c>
       <c r="F29" s="3">
-        <v>-260900</v>
+        <v>-248700</v>
       </c>
       <c r="G29" s="3">
-        <v>1032700</v>
+        <v>984100</v>
       </c>
       <c r="H29" s="3">
-        <v>808500</v>
+        <v>770500</v>
       </c>
       <c r="I29" s="3">
-        <v>586800</v>
+        <v>559200</v>
       </c>
       <c r="J29" s="3">
-        <v>232700</v>
+        <v>221800</v>
       </c>
       <c r="K29" s="3">
         <v>165100</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-124900</v>
+        <v>-119100</v>
       </c>
       <c r="E32" s="3">
-        <v>-63700</v>
+        <v>-60700</v>
       </c>
       <c r="F32" s="3">
-        <v>34300</v>
+        <v>32700</v>
       </c>
       <c r="G32" s="3">
-        <v>-102900</v>
+        <v>-98100</v>
       </c>
       <c r="H32" s="3">
-        <v>69800</v>
+        <v>66500</v>
       </c>
       <c r="I32" s="3">
-        <v>-83300</v>
+        <v>-79400</v>
       </c>
       <c r="J32" s="3">
-        <v>22000</v>
+        <v>21000</v>
       </c>
       <c r="K32" s="3">
         <v>93300</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1454100</v>
+        <v>1385700</v>
       </c>
       <c r="E33" s="3">
-        <v>1429600</v>
+        <v>1362400</v>
       </c>
       <c r="F33" s="3">
-        <v>1335200</v>
+        <v>1272500</v>
       </c>
       <c r="G33" s="3">
-        <v>2029800</v>
+        <v>1934400</v>
       </c>
       <c r="H33" s="3">
-        <v>1789700</v>
+        <v>1705600</v>
       </c>
       <c r="I33" s="3">
-        <v>801100</v>
+        <v>763500</v>
       </c>
       <c r="J33" s="3">
-        <v>508400</v>
+        <v>484500</v>
       </c>
       <c r="K33" s="3">
         <v>1398400</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1454100</v>
+        <v>1385700</v>
       </c>
       <c r="E35" s="3">
-        <v>1429600</v>
+        <v>1362400</v>
       </c>
       <c r="F35" s="3">
-        <v>1335200</v>
+        <v>1272500</v>
       </c>
       <c r="G35" s="3">
-        <v>2029800</v>
+        <v>1934400</v>
       </c>
       <c r="H35" s="3">
-        <v>1789700</v>
+        <v>1705600</v>
       </c>
       <c r="I35" s="3">
-        <v>801100</v>
+        <v>763500</v>
       </c>
       <c r="J35" s="3">
-        <v>508400</v>
+        <v>484500</v>
       </c>
       <c r="K35" s="3">
         <v>1398400</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3951800</v>
+        <v>3766100</v>
       </c>
       <c r="E41" s="3">
-        <v>1745600</v>
+        <v>1663600</v>
       </c>
       <c r="F41" s="3">
-        <v>2067800</v>
+        <v>1970600</v>
       </c>
       <c r="G41" s="3">
-        <v>2375300</v>
+        <v>2263600</v>
       </c>
       <c r="H41" s="3">
-        <v>2859100</v>
+        <v>2724700</v>
       </c>
       <c r="I41" s="3">
-        <v>2163300</v>
+        <v>2061600</v>
       </c>
       <c r="J41" s="3">
-        <v>2294400</v>
+        <v>2186600</v>
       </c>
       <c r="K41" s="3">
         <v>2948600</v>
@@ -1780,19 +1780,19 @@
         <v>1200</v>
       </c>
       <c r="F42" s="3">
-        <v>534100</v>
+        <v>509000</v>
       </c>
       <c r="G42" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H42" s="3">
-        <v>123700</v>
+        <v>117900</v>
       </c>
       <c r="I42" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="J42" s="3">
-        <v>153100</v>
+        <v>145900</v>
       </c>
       <c r="K42" s="3">
         <v>12000</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>5587200</v>
+        <v>5324600</v>
       </c>
       <c r="E43" s="3">
-        <v>6148200</v>
+        <v>5859200</v>
       </c>
       <c r="F43" s="3">
-        <v>5461000</v>
+        <v>5204300</v>
       </c>
       <c r="G43" s="3">
-        <v>5149900</v>
+        <v>4907800</v>
       </c>
       <c r="H43" s="3">
-        <v>6993500</v>
+        <v>6664700</v>
       </c>
       <c r="I43" s="3">
-        <v>12345400</v>
+        <v>11765200</v>
       </c>
       <c r="J43" s="3">
-        <v>11742800</v>
+        <v>11190800</v>
       </c>
       <c r="K43" s="3">
         <v>5679600</v>
@@ -1846,25 +1846,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3666400</v>
+        <v>3494100</v>
       </c>
       <c r="E44" s="3">
-        <v>3396900</v>
+        <v>3237200</v>
       </c>
       <c r="F44" s="3">
-        <v>3275600</v>
+        <v>3121700</v>
       </c>
       <c r="G44" s="3">
-        <v>2882400</v>
+        <v>2746900</v>
       </c>
       <c r="H44" s="3">
-        <v>4155200</v>
+        <v>3959900</v>
       </c>
       <c r="I44" s="3">
-        <v>8484300</v>
+        <v>8085500</v>
       </c>
       <c r="J44" s="3">
-        <v>8119200</v>
+        <v>7737600</v>
       </c>
       <c r="K44" s="3">
         <v>3875700</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>547600</v>
+        <v>521800</v>
       </c>
       <c r="E45" s="3">
-        <v>295200</v>
+        <v>281300</v>
       </c>
       <c r="F45" s="3">
-        <v>387100</v>
+        <v>368900</v>
       </c>
       <c r="G45" s="3">
-        <v>1983300</v>
+        <v>1890000</v>
       </c>
       <c r="H45" s="3">
-        <v>3110200</v>
+        <v>2964100</v>
       </c>
       <c r="I45" s="3">
-        <v>3430000</v>
+        <v>3268700</v>
       </c>
       <c r="J45" s="3">
-        <v>3218000</v>
+        <v>3066800</v>
       </c>
       <c r="K45" s="3">
         <v>1209400</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>13753000</v>
+        <v>13106500</v>
       </c>
       <c r="E46" s="3">
-        <v>11587200</v>
+        <v>11042500</v>
       </c>
       <c r="F46" s="3">
-        <v>11725600</v>
+        <v>11174400</v>
       </c>
       <c r="G46" s="3">
-        <v>12393200</v>
+        <v>11810700</v>
       </c>
       <c r="H46" s="3">
-        <v>17241700</v>
+        <v>16431300</v>
       </c>
       <c r="I46" s="3">
-        <v>15548800</v>
+        <v>14817900</v>
       </c>
       <c r="J46" s="3">
-        <v>15178900</v>
+        <v>14465400</v>
       </c>
       <c r="K46" s="3">
         <v>13725200</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1102500</v>
+        <v>1050700</v>
       </c>
       <c r="E47" s="3">
-        <v>807300</v>
+        <v>769300</v>
       </c>
       <c r="F47" s="3">
-        <v>938300</v>
+        <v>894200</v>
       </c>
       <c r="G47" s="3">
-        <v>1052300</v>
+        <v>1002800</v>
       </c>
       <c r="H47" s="3">
-        <v>833000</v>
+        <v>793800</v>
       </c>
       <c r="I47" s="3">
-        <v>1054700</v>
+        <v>1005100</v>
       </c>
       <c r="J47" s="3">
-        <v>1733400</v>
+        <v>1651900</v>
       </c>
       <c r="K47" s="3">
         <v>958200</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3285400</v>
+        <v>3131000</v>
       </c>
       <c r="E48" s="3">
-        <v>3510800</v>
+        <v>3345800</v>
       </c>
       <c r="F48" s="3">
-        <v>2097200</v>
+        <v>1998600</v>
       </c>
       <c r="G48" s="3">
-        <v>1949000</v>
+        <v>1857300</v>
       </c>
       <c r="H48" s="3">
-        <v>2639900</v>
+        <v>2515800</v>
       </c>
       <c r="I48" s="3">
-        <v>5688900</v>
+        <v>5421500</v>
       </c>
       <c r="J48" s="3">
-        <v>5132700</v>
+        <v>4891400</v>
       </c>
       <c r="K48" s="3">
         <v>3325400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13488400</v>
+        <v>12854400</v>
       </c>
       <c r="E49" s="3">
-        <v>14846900</v>
+        <v>14149000</v>
       </c>
       <c r="F49" s="3">
-        <v>14812600</v>
+        <v>14116300</v>
       </c>
       <c r="G49" s="3">
-        <v>13539800</v>
+        <v>12903400</v>
       </c>
       <c r="H49" s="3">
-        <v>15251100</v>
+        <v>14534300</v>
       </c>
       <c r="I49" s="3">
-        <v>19488400</v>
+        <v>18572300</v>
       </c>
       <c r="J49" s="3">
-        <v>25788500</v>
+        <v>24576300</v>
       </c>
       <c r="K49" s="3">
         <v>11682100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2318900</v>
+        <v>2209900</v>
       </c>
       <c r="E52" s="3">
-        <v>2342200</v>
+        <v>2232100</v>
       </c>
       <c r="F52" s="3">
-        <v>2299300</v>
+        <v>2191200</v>
       </c>
       <c r="G52" s="3">
-        <v>2076400</v>
+        <v>1978800</v>
       </c>
       <c r="H52" s="3">
-        <v>3564700</v>
+        <v>3397200</v>
       </c>
       <c r="I52" s="3">
-        <v>3532900</v>
+        <v>3366800</v>
       </c>
       <c r="J52" s="3">
-        <v>3116400</v>
+        <v>2969900</v>
       </c>
       <c r="K52" s="3">
         <v>2079000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33948100</v>
+        <v>32352400</v>
       </c>
       <c r="E54" s="3">
-        <v>33094300</v>
+        <v>31538700</v>
       </c>
       <c r="F54" s="3">
-        <v>31873000</v>
+        <v>30374800</v>
       </c>
       <c r="G54" s="3">
-        <v>31010600</v>
+        <v>29553000</v>
       </c>
       <c r="H54" s="3">
-        <v>39530400</v>
+        <v>37672300</v>
       </c>
       <c r="I54" s="3">
-        <v>37945300</v>
+        <v>36161700</v>
       </c>
       <c r="J54" s="3">
-        <v>34730900</v>
+        <v>33098400</v>
       </c>
       <c r="K54" s="3">
         <v>31769900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2595800</v>
+        <v>2473700</v>
       </c>
       <c r="E57" s="3">
-        <v>2559000</v>
+        <v>2438700</v>
       </c>
       <c r="F57" s="3">
-        <v>2821200</v>
+        <v>2688500</v>
       </c>
       <c r="G57" s="3">
-        <v>2560200</v>
+        <v>2439900</v>
       </c>
       <c r="H57" s="3">
-        <v>6973900</v>
+        <v>6646100</v>
       </c>
       <c r="I57" s="3">
-        <v>6543900</v>
+        <v>6236300</v>
       </c>
       <c r="J57" s="3">
-        <v>6117600</v>
+        <v>5830000</v>
       </c>
       <c r="K57" s="3">
         <v>2945000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>441000</v>
+        <v>420300</v>
       </c>
       <c r="E58" s="3">
-        <v>467900</v>
+        <v>446000</v>
       </c>
       <c r="F58" s="3">
-        <v>842800</v>
+        <v>803200</v>
       </c>
       <c r="G58" s="3">
-        <v>280500</v>
+        <v>267300</v>
       </c>
       <c r="H58" s="3">
-        <v>1941600</v>
+        <v>1850300</v>
       </c>
       <c r="I58" s="3">
-        <v>2039600</v>
+        <v>1943700</v>
       </c>
       <c r="J58" s="3">
-        <v>480200</v>
+        <v>457600</v>
       </c>
       <c r="K58" s="3">
         <v>708200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6438500</v>
+        <v>6135900</v>
       </c>
       <c r="E59" s="3">
-        <v>5521000</v>
+        <v>5261500</v>
       </c>
       <c r="F59" s="3">
-        <v>6066200</v>
+        <v>5781000</v>
       </c>
       <c r="G59" s="3">
-        <v>5570000</v>
+        <v>5308200</v>
       </c>
       <c r="H59" s="3">
-        <v>7402600</v>
+        <v>7054700</v>
       </c>
       <c r="I59" s="3">
-        <v>11898300</v>
+        <v>11339100</v>
       </c>
       <c r="J59" s="3">
-        <v>12093100</v>
+        <v>11524700</v>
       </c>
       <c r="K59" s="3">
         <v>6485800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9475300</v>
+        <v>9029900</v>
       </c>
       <c r="E60" s="3">
-        <v>8548000</v>
+        <v>8146200</v>
       </c>
       <c r="F60" s="3">
-        <v>9730100</v>
+        <v>9272700</v>
       </c>
       <c r="G60" s="3">
-        <v>8410800</v>
+        <v>8015400</v>
       </c>
       <c r="H60" s="3">
-        <v>12829300</v>
+        <v>12226300</v>
       </c>
       <c r="I60" s="3">
-        <v>12199700</v>
+        <v>11626200</v>
       </c>
       <c r="J60" s="3">
-        <v>10628000</v>
+        <v>10128400</v>
       </c>
       <c r="K60" s="3">
         <v>10139000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6850100</v>
+        <v>6528200</v>
       </c>
       <c r="E61" s="3">
-        <v>5974300</v>
+        <v>5693500</v>
       </c>
       <c r="F61" s="3">
-        <v>3967700</v>
+        <v>3781200</v>
       </c>
       <c r="G61" s="3">
-        <v>4248300</v>
+        <v>4048600</v>
       </c>
       <c r="H61" s="3">
-        <v>4925700</v>
+        <v>4694200</v>
       </c>
       <c r="I61" s="3">
-        <v>5016300</v>
+        <v>4780500</v>
       </c>
       <c r="J61" s="3">
-        <v>4547200</v>
+        <v>4333400</v>
       </c>
       <c r="K61" s="3">
         <v>3958200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3044100</v>
+        <v>2901000</v>
       </c>
       <c r="E62" s="3">
-        <v>3106600</v>
+        <v>2960600</v>
       </c>
       <c r="F62" s="3">
-        <v>3332000</v>
+        <v>3175400</v>
       </c>
       <c r="G62" s="3">
-        <v>3623500</v>
+        <v>3453200</v>
       </c>
       <c r="H62" s="3">
-        <v>5295600</v>
+        <v>5046700</v>
       </c>
       <c r="I62" s="3">
-        <v>12733800</v>
+        <v>12135200</v>
       </c>
       <c r="J62" s="3">
-        <v>8371600</v>
+        <v>7978100</v>
       </c>
       <c r="K62" s="3">
         <v>4242900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19407500</v>
+        <v>18495300</v>
       </c>
       <c r="E66" s="3">
-        <v>17663100</v>
+        <v>16832900</v>
       </c>
       <c r="F66" s="3">
-        <v>17065300</v>
+        <v>16263200</v>
       </c>
       <c r="G66" s="3">
-        <v>16312000</v>
+        <v>15545200</v>
       </c>
       <c r="H66" s="3">
-        <v>24161700</v>
+        <v>23026000</v>
       </c>
       <c r="I66" s="3">
-        <v>23659500</v>
+        <v>22547400</v>
       </c>
       <c r="J66" s="3">
-        <v>21419000</v>
+        <v>20412200</v>
       </c>
       <c r="K66" s="3">
         <v>18355700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9589200</v>
+        <v>9138500</v>
       </c>
       <c r="E72" s="3">
-        <v>10162500</v>
+        <v>9684800</v>
       </c>
       <c r="F72" s="3">
-        <v>10125800</v>
+        <v>9649800</v>
       </c>
       <c r="G72" s="3">
-        <v>10530000</v>
+        <v>10035100</v>
       </c>
       <c r="H72" s="3">
-        <v>10018000</v>
+        <v>9547100</v>
       </c>
       <c r="I72" s="3">
-        <v>9848900</v>
+        <v>9386000</v>
       </c>
       <c r="J72" s="3">
-        <v>10767700</v>
+        <v>10261500</v>
       </c>
       <c r="K72" s="3">
         <v>12458400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14540600</v>
+        <v>13857200</v>
       </c>
       <c r="E76" s="3">
-        <v>15431200</v>
+        <v>14705900</v>
       </c>
       <c r="F76" s="3">
-        <v>14807700</v>
+        <v>14111700</v>
       </c>
       <c r="G76" s="3">
-        <v>14698700</v>
+        <v>14007800</v>
       </c>
       <c r="H76" s="3">
-        <v>15368700</v>
+        <v>14646300</v>
       </c>
       <c r="I76" s="3">
-        <v>14285800</v>
+        <v>13614300</v>
       </c>
       <c r="J76" s="3">
-        <v>13312000</v>
+        <v>12686200</v>
       </c>
       <c r="K76" s="3">
         <v>13414200</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1454100</v>
+        <v>1385700</v>
       </c>
       <c r="E81" s="3">
-        <v>1429600</v>
+        <v>1362400</v>
       </c>
       <c r="F81" s="3">
-        <v>1335200</v>
+        <v>1272500</v>
       </c>
       <c r="G81" s="3">
-        <v>2029800</v>
+        <v>1934400</v>
       </c>
       <c r="H81" s="3">
-        <v>1789700</v>
+        <v>1705600</v>
       </c>
       <c r="I81" s="3">
-        <v>801100</v>
+        <v>763500</v>
       </c>
       <c r="J81" s="3">
-        <v>508400</v>
+        <v>484500</v>
       </c>
       <c r="K81" s="3">
         <v>1398400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1862000</v>
+        <v>1774500</v>
       </c>
       <c r="E83" s="3">
-        <v>1717400</v>
+        <v>1636700</v>
       </c>
       <c r="F83" s="3">
-        <v>1334000</v>
+        <v>1271300</v>
       </c>
       <c r="G83" s="3">
-        <v>1255600</v>
+        <v>1196600</v>
       </c>
       <c r="H83" s="3">
-        <v>1195600</v>
+        <v>1139400</v>
       </c>
       <c r="I83" s="3">
-        <v>1190700</v>
+        <v>1134700</v>
       </c>
       <c r="J83" s="3">
-        <v>1454100</v>
+        <v>1385700</v>
       </c>
       <c r="K83" s="3">
         <v>1407900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3294000</v>
+        <v>3139200</v>
       </c>
       <c r="E89" s="3">
-        <v>2457300</v>
+        <v>2341800</v>
       </c>
       <c r="F89" s="3">
-        <v>2973100</v>
+        <v>2833300</v>
       </c>
       <c r="G89" s="3">
-        <v>3592900</v>
+        <v>3424000</v>
       </c>
       <c r="H89" s="3">
-        <v>4068200</v>
+        <v>3877000</v>
       </c>
       <c r="I89" s="3">
-        <v>1390400</v>
+        <v>1325000</v>
       </c>
       <c r="J89" s="3">
-        <v>1724800</v>
+        <v>1643700</v>
       </c>
       <c r="K89" s="3">
         <v>1009600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-628400</v>
+        <v>-598900</v>
       </c>
       <c r="E91" s="3">
-        <v>-634500</v>
+        <v>-604700</v>
       </c>
       <c r="F91" s="3">
-        <v>-516900</v>
+        <v>-492600</v>
       </c>
       <c r="G91" s="3">
-        <v>-514500</v>
+        <v>-490300</v>
       </c>
       <c r="H91" s="3">
-        <v>-441000</v>
+        <v>-420300</v>
       </c>
       <c r="I91" s="3">
-        <v>-529200</v>
+        <v>-504300</v>
       </c>
       <c r="J91" s="3">
-        <v>-535300</v>
+        <v>-510200</v>
       </c>
       <c r="K91" s="3">
         <v>-576600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1612100</v>
+        <v>-1536300</v>
       </c>
       <c r="E94" s="3">
-        <v>-738700</v>
+        <v>-703900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1820300</v>
+        <v>-1734800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3918700</v>
+        <v>-3734500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1337700</v>
+        <v>-1274800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2268700</v>
+        <v>-2162000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1097600</v>
+        <v>-1046000</v>
       </c>
       <c r="K94" s="3">
         <v>-1087300</v>
@@ -3534,22 +3534,22 @@
         <v>-1200</v>
       </c>
       <c r="E96" s="3">
-        <v>-554900</v>
+        <v>-528800</v>
       </c>
       <c r="F96" s="3">
-        <v>-491200</v>
+        <v>-468100</v>
       </c>
       <c r="G96" s="3">
-        <v>-470400</v>
+        <v>-448300</v>
       </c>
       <c r="H96" s="3">
-        <v>-404200</v>
+        <v>-385200</v>
       </c>
       <c r="I96" s="3">
-        <v>-365000</v>
+        <v>-347900</v>
       </c>
       <c r="J96" s="3">
-        <v>-357700</v>
+        <v>-340900</v>
       </c>
       <c r="K96" s="3">
         <v>-325400</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>591700</v>
+        <v>563900</v>
       </c>
       <c r="E100" s="3">
-        <v>-2039600</v>
+        <v>-1943700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1460200</v>
+        <v>-1391600</v>
       </c>
       <c r="G100" s="3">
-        <v>67400</v>
+        <v>64200</v>
       </c>
       <c r="H100" s="3">
-        <v>-2012700</v>
+        <v>-1918100</v>
       </c>
       <c r="I100" s="3">
-        <v>648000</v>
+        <v>617600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1456500</v>
+        <v>-1388100</v>
       </c>
       <c r="K100" s="3">
         <v>-1484500</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-67400</v>
+        <v>-64200</v>
       </c>
       <c r="E101" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-225400</v>
+        <v>-214800</v>
       </c>
       <c r="H101" s="3">
-        <v>-20800</v>
+        <v>-19800</v>
       </c>
       <c r="I101" s="3">
-        <v>98000</v>
+        <v>93400</v>
       </c>
       <c r="J101" s="3">
-        <v>104100</v>
+        <v>99200</v>
       </c>
       <c r="K101" s="3">
         <v>-75400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2206200</v>
+        <v>2102500</v>
       </c>
       <c r="E102" s="3">
-        <v>-323400</v>
+        <v>-308200</v>
       </c>
       <c r="F102" s="3">
-        <v>-307500</v>
+        <v>-293000</v>
       </c>
       <c r="G102" s="3">
-        <v>-483900</v>
+        <v>-461100</v>
       </c>
       <c r="H102" s="3">
-        <v>697000</v>
+        <v>664300</v>
       </c>
       <c r="I102" s="3">
-        <v>-132300</v>
+        <v>-126100</v>
       </c>
       <c r="J102" s="3">
-        <v>-725200</v>
+        <v>-691100</v>
       </c>
       <c r="K102" s="3">
         <v>-1637600</v>

--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22805400</v>
+        <v>22057000</v>
       </c>
       <c r="E8" s="3">
-        <v>22743500</v>
+        <v>21997100</v>
       </c>
       <c r="F8" s="3">
-        <v>21154600</v>
+        <v>20460400</v>
       </c>
       <c r="G8" s="3">
-        <v>20756500</v>
+        <v>20075400</v>
       </c>
       <c r="H8" s="3">
-        <v>20338600</v>
+        <v>19671200</v>
       </c>
       <c r="I8" s="3">
-        <v>19619500</v>
+        <v>18975700</v>
       </c>
       <c r="J8" s="3">
-        <v>24972100</v>
+        <v>24152600</v>
       </c>
       <c r="K8" s="3">
         <v>26304400</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12362900</v>
+        <v>11957200</v>
       </c>
       <c r="E9" s="3">
-        <v>12111900</v>
+        <v>11714400</v>
       </c>
       <c r="F9" s="3">
-        <v>11169800</v>
+        <v>10803200</v>
       </c>
       <c r="G9" s="3">
-        <v>11207100</v>
+        <v>10839400</v>
       </c>
       <c r="H9" s="3">
-        <v>11071700</v>
+        <v>10708400</v>
       </c>
       <c r="I9" s="3">
-        <v>11200100</v>
+        <v>10832600</v>
       </c>
       <c r="J9" s="3">
-        <v>15392300</v>
+        <v>14887200</v>
       </c>
       <c r="K9" s="3">
         <v>15135500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10442500</v>
+        <v>10099800</v>
       </c>
       <c r="E10" s="3">
-        <v>10631600</v>
+        <v>10282700</v>
       </c>
       <c r="F10" s="3">
-        <v>9984900</v>
+        <v>9657200</v>
       </c>
       <c r="G10" s="3">
-        <v>9549400</v>
+        <v>9236000</v>
       </c>
       <c r="H10" s="3">
-        <v>9266900</v>
+        <v>8962800</v>
       </c>
       <c r="I10" s="3">
-        <v>8419400</v>
+        <v>8143100</v>
       </c>
       <c r="J10" s="3">
-        <v>9579800</v>
+        <v>9265400</v>
       </c>
       <c r="K10" s="3">
         <v>11168900</v>
@@ -844,25 +844,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2081500</v>
+        <v>2013200</v>
       </c>
       <c r="E12" s="3">
-        <v>2023100</v>
+        <v>1956700</v>
       </c>
       <c r="F12" s="3">
-        <v>1964800</v>
+        <v>1900300</v>
       </c>
       <c r="G12" s="3">
-        <v>1939100</v>
+        <v>1875400</v>
       </c>
       <c r="H12" s="3">
-        <v>1948400</v>
+        <v>1884500</v>
       </c>
       <c r="I12" s="3">
-        <v>1823500</v>
+        <v>1763700</v>
       </c>
       <c r="J12" s="3">
-        <v>1908700</v>
+        <v>1846100</v>
       </c>
       <c r="K12" s="3">
         <v>1984500</v>
@@ -916,25 +916,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>678300</v>
+        <v>656000</v>
       </c>
       <c r="E14" s="3">
-        <v>718000</v>
+        <v>694400</v>
       </c>
       <c r="F14" s="3">
-        <v>210100</v>
+        <v>203200</v>
       </c>
       <c r="G14" s="3">
-        <v>318700</v>
+        <v>308200</v>
       </c>
       <c r="H14" s="3">
-        <v>29200</v>
+        <v>28200</v>
       </c>
       <c r="I14" s="3">
-        <v>53700</v>
+        <v>51900</v>
       </c>
       <c r="J14" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K14" s="3">
         <v>45500</v>
@@ -1001,25 +1001,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>21005200</v>
+        <v>20315900</v>
       </c>
       <c r="E17" s="3">
-        <v>20824300</v>
+        <v>20140900</v>
       </c>
       <c r="F17" s="3">
-        <v>19147900</v>
+        <v>18519500</v>
       </c>
       <c r="G17" s="3">
-        <v>18987900</v>
+        <v>18364800</v>
       </c>
       <c r="H17" s="3">
-        <v>18657500</v>
+        <v>18045300</v>
       </c>
       <c r="I17" s="3">
-        <v>18905000</v>
+        <v>18284600</v>
       </c>
       <c r="J17" s="3">
-        <v>24404700</v>
+        <v>23603800</v>
       </c>
       <c r="K17" s="3">
         <v>24085500</v>
@@ -1037,25 +1037,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1800100</v>
+        <v>1741100</v>
       </c>
       <c r="E18" s="3">
-        <v>1919200</v>
+        <v>1856200</v>
       </c>
       <c r="F18" s="3">
-        <v>2006800</v>
+        <v>1940900</v>
       </c>
       <c r="G18" s="3">
-        <v>1768600</v>
+        <v>1710600</v>
       </c>
       <c r="H18" s="3">
-        <v>1681100</v>
+        <v>1625900</v>
       </c>
       <c r="I18" s="3">
-        <v>714500</v>
+        <v>691000</v>
       </c>
       <c r="J18" s="3">
-        <v>567400</v>
+        <v>548700</v>
       </c>
       <c r="K18" s="3">
         <v>2219000</v>
@@ -1089,25 +1089,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>119100</v>
+        <v>115200</v>
       </c>
       <c r="E20" s="3">
-        <v>60700</v>
+        <v>58700</v>
       </c>
       <c r="F20" s="3">
-        <v>-32700</v>
+        <v>-31600</v>
       </c>
       <c r="G20" s="3">
-        <v>98100</v>
+        <v>94800</v>
       </c>
       <c r="H20" s="3">
-        <v>-66500</v>
+        <v>-64400</v>
       </c>
       <c r="I20" s="3">
-        <v>79400</v>
+        <v>76800</v>
       </c>
       <c r="J20" s="3">
-        <v>-21000</v>
+        <v>-20300</v>
       </c>
       <c r="K20" s="3">
         <v>-93300</v>
@@ -1125,25 +1125,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3699100</v>
+        <v>3576400</v>
       </c>
       <c r="E21" s="3">
-        <v>3621700</v>
+        <v>3501600</v>
       </c>
       <c r="F21" s="3">
-        <v>3249300</v>
+        <v>3141700</v>
       </c>
       <c r="G21" s="3">
-        <v>3067000</v>
+        <v>2965400</v>
       </c>
       <c r="H21" s="3">
-        <v>2757400</v>
+        <v>2666100</v>
       </c>
       <c r="I21" s="3">
-        <v>1932100</v>
+        <v>1867800</v>
       </c>
       <c r="J21" s="3">
-        <v>1936300</v>
+        <v>1871700</v>
       </c>
       <c r="K21" s="3">
         <v>3527800</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>179800</v>
+        <v>173900</v>
       </c>
       <c r="E22" s="3">
-        <v>195000</v>
+        <v>188600</v>
       </c>
       <c r="F22" s="3">
-        <v>219500</v>
+        <v>212300</v>
       </c>
       <c r="G22" s="3">
-        <v>259200</v>
+        <v>250700</v>
       </c>
       <c r="H22" s="3">
-        <v>407400</v>
+        <v>394100</v>
       </c>
       <c r="I22" s="3">
-        <v>409800</v>
+        <v>396300</v>
       </c>
       <c r="J22" s="3">
-        <v>330400</v>
+        <v>319500</v>
       </c>
       <c r="K22" s="3">
         <v>301400</v>
@@ -1197,25 +1197,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1739400</v>
+        <v>1682400</v>
       </c>
       <c r="E23" s="3">
-        <v>1785000</v>
+        <v>1726400</v>
       </c>
       <c r="F23" s="3">
-        <v>1754600</v>
+        <v>1697000</v>
       </c>
       <c r="G23" s="3">
-        <v>1607500</v>
+        <v>1554800</v>
       </c>
       <c r="H23" s="3">
-        <v>1207100</v>
+        <v>1167500</v>
       </c>
       <c r="I23" s="3">
-        <v>384100</v>
+        <v>371500</v>
       </c>
       <c r="J23" s="3">
-        <v>216000</v>
+        <v>208900</v>
       </c>
       <c r="K23" s="3">
         <v>1824200</v>
@@ -1233,25 +1233,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>331500</v>
+        <v>320700</v>
       </c>
       <c r="E24" s="3">
-        <v>393400</v>
+        <v>380500</v>
       </c>
       <c r="F24" s="3">
-        <v>225300</v>
+        <v>217900</v>
       </c>
       <c r="G24" s="3">
-        <v>407400</v>
+        <v>394100</v>
       </c>
       <c r="H24" s="3">
-        <v>237000</v>
+        <v>229200</v>
       </c>
       <c r="I24" s="3">
-        <v>197300</v>
+        <v>190800</v>
       </c>
       <c r="J24" s="3">
-        <v>30400</v>
+        <v>29400</v>
       </c>
       <c r="K24" s="3">
         <v>557400</v>
@@ -1305,25 +1305,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1407900</v>
+        <v>1361700</v>
       </c>
       <c r="E26" s="3">
-        <v>1391600</v>
+        <v>1345900</v>
       </c>
       <c r="F26" s="3">
-        <v>1529300</v>
+        <v>1479100</v>
       </c>
       <c r="G26" s="3">
-        <v>1200100</v>
+        <v>1160700</v>
       </c>
       <c r="H26" s="3">
-        <v>970100</v>
+        <v>938300</v>
       </c>
       <c r="I26" s="3">
-        <v>186800</v>
+        <v>180700</v>
       </c>
       <c r="J26" s="3">
-        <v>185600</v>
+        <v>179500</v>
       </c>
       <c r="K26" s="3">
         <v>1266800</v>
@@ -1341,25 +1341,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1397400</v>
+        <v>1351500</v>
       </c>
       <c r="E27" s="3">
-        <v>1384500</v>
+        <v>1339100</v>
       </c>
       <c r="F27" s="3">
-        <v>1521100</v>
+        <v>1471200</v>
       </c>
       <c r="G27" s="3">
-        <v>950300</v>
+        <v>919100</v>
       </c>
       <c r="H27" s="3">
-        <v>935100</v>
+        <v>904400</v>
       </c>
       <c r="I27" s="3">
-        <v>204300</v>
+        <v>197600</v>
       </c>
       <c r="J27" s="3">
-        <v>262700</v>
+        <v>254000</v>
       </c>
       <c r="K27" s="3">
         <v>1233300</v>
@@ -1413,25 +1413,25 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-11700</v>
+        <v>-11300</v>
       </c>
       <c r="E29" s="3">
-        <v>-22200</v>
+        <v>-21500</v>
       </c>
       <c r="F29" s="3">
-        <v>-248700</v>
+        <v>-240500</v>
       </c>
       <c r="G29" s="3">
-        <v>984100</v>
+        <v>951800</v>
       </c>
       <c r="H29" s="3">
-        <v>770500</v>
+        <v>745200</v>
       </c>
       <c r="I29" s="3">
-        <v>559200</v>
+        <v>540800</v>
       </c>
       <c r="J29" s="3">
-        <v>221800</v>
+        <v>214500</v>
       </c>
       <c r="K29" s="3">
         <v>165100</v>
@@ -1521,25 +1521,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-119100</v>
+        <v>-115200</v>
       </c>
       <c r="E32" s="3">
-        <v>-60700</v>
+        <v>-58700</v>
       </c>
       <c r="F32" s="3">
-        <v>32700</v>
+        <v>31600</v>
       </c>
       <c r="G32" s="3">
-        <v>-98100</v>
+        <v>-94800</v>
       </c>
       <c r="H32" s="3">
-        <v>66500</v>
+        <v>64400</v>
       </c>
       <c r="I32" s="3">
-        <v>-79400</v>
+        <v>-76800</v>
       </c>
       <c r="J32" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="K32" s="3">
         <v>93300</v>
@@ -1557,25 +1557,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1385700</v>
+        <v>1340200</v>
       </c>
       <c r="E33" s="3">
-        <v>1362400</v>
+        <v>1317700</v>
       </c>
       <c r="F33" s="3">
-        <v>1272500</v>
+        <v>1230700</v>
       </c>
       <c r="G33" s="3">
-        <v>1934400</v>
+        <v>1870900</v>
       </c>
       <c r="H33" s="3">
-        <v>1705600</v>
+        <v>1649600</v>
       </c>
       <c r="I33" s="3">
-        <v>763500</v>
+        <v>738400</v>
       </c>
       <c r="J33" s="3">
-        <v>484500</v>
+        <v>468600</v>
       </c>
       <c r="K33" s="3">
         <v>1398400</v>
@@ -1629,25 +1629,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1385700</v>
+        <v>1340200</v>
       </c>
       <c r="E35" s="3">
-        <v>1362400</v>
+        <v>1317700</v>
       </c>
       <c r="F35" s="3">
-        <v>1272500</v>
+        <v>1230700</v>
       </c>
       <c r="G35" s="3">
-        <v>1934400</v>
+        <v>1870900</v>
       </c>
       <c r="H35" s="3">
-        <v>1705600</v>
+        <v>1649600</v>
       </c>
       <c r="I35" s="3">
-        <v>763500</v>
+        <v>738400</v>
       </c>
       <c r="J35" s="3">
-        <v>484500</v>
+        <v>468600</v>
       </c>
       <c r="K35" s="3">
         <v>1398400</v>
@@ -1738,25 +1738,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3766100</v>
+        <v>3642500</v>
       </c>
       <c r="E41" s="3">
-        <v>1663600</v>
+        <v>1609000</v>
       </c>
       <c r="F41" s="3">
-        <v>1970600</v>
+        <v>1905900</v>
       </c>
       <c r="G41" s="3">
-        <v>2263600</v>
+        <v>2189300</v>
       </c>
       <c r="H41" s="3">
-        <v>2724700</v>
+        <v>2635300</v>
       </c>
       <c r="I41" s="3">
-        <v>2061600</v>
+        <v>1994000</v>
       </c>
       <c r="J41" s="3">
-        <v>2186600</v>
+        <v>2114800</v>
       </c>
       <c r="K41" s="3">
         <v>2948600</v>
@@ -1777,22 +1777,22 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F42" s="3">
-        <v>509000</v>
+        <v>492300</v>
       </c>
       <c r="G42" s="3">
         <v>2300</v>
       </c>
       <c r="H42" s="3">
-        <v>117900</v>
+        <v>114000</v>
       </c>
       <c r="I42" s="3">
-        <v>14000</v>
+        <v>13500</v>
       </c>
       <c r="J42" s="3">
-        <v>145900</v>
+        <v>141100</v>
       </c>
       <c r="K42" s="3">
         <v>12000</v>
@@ -1810,25 +1810,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>5324600</v>
+        <v>5149800</v>
       </c>
       <c r="E43" s="3">
-        <v>5859200</v>
+        <v>5667000</v>
       </c>
       <c r="F43" s="3">
-        <v>5204300</v>
+        <v>5033500</v>
       </c>
       <c r="G43" s="3">
-        <v>4907800</v>
+        <v>4746700</v>
       </c>
       <c r="H43" s="3">
-        <v>6664700</v>
+        <v>6446000</v>
       </c>
       <c r="I43" s="3">
-        <v>11765200</v>
+        <v>11379100</v>
       </c>
       <c r="J43" s="3">
-        <v>11190800</v>
+        <v>10823600</v>
       </c>
       <c r="K43" s="3">
         <v>5679600</v>
@@ -1846,25 +1846,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3494100</v>
+        <v>3379400</v>
       </c>
       <c r="E44" s="3">
-        <v>3237200</v>
+        <v>3131000</v>
       </c>
       <c r="F44" s="3">
-        <v>3121700</v>
+        <v>3019200</v>
       </c>
       <c r="G44" s="3">
-        <v>2746900</v>
+        <v>2656800</v>
       </c>
       <c r="H44" s="3">
-        <v>3959900</v>
+        <v>3829900</v>
       </c>
       <c r="I44" s="3">
-        <v>8085500</v>
+        <v>7820100</v>
       </c>
       <c r="J44" s="3">
-        <v>7737600</v>
+        <v>7483700</v>
       </c>
       <c r="K44" s="3">
         <v>3875700</v>
@@ -1882,25 +1882,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>521800</v>
+        <v>504700</v>
       </c>
       <c r="E45" s="3">
-        <v>281300</v>
+        <v>272100</v>
       </c>
       <c r="F45" s="3">
-        <v>368900</v>
+        <v>356800</v>
       </c>
       <c r="G45" s="3">
-        <v>1890000</v>
+        <v>1828000</v>
       </c>
       <c r="H45" s="3">
-        <v>2964100</v>
+        <v>2866800</v>
       </c>
       <c r="I45" s="3">
-        <v>3268700</v>
+        <v>3161500</v>
       </c>
       <c r="J45" s="3">
-        <v>3066800</v>
+        <v>2966100</v>
       </c>
       <c r="K45" s="3">
         <v>1209400</v>
@@ -1918,25 +1918,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>13106500</v>
+        <v>12676400</v>
       </c>
       <c r="E46" s="3">
-        <v>11042500</v>
+        <v>10680200</v>
       </c>
       <c r="F46" s="3">
-        <v>11174400</v>
+        <v>10807700</v>
       </c>
       <c r="G46" s="3">
-        <v>11810700</v>
+        <v>11423100</v>
       </c>
       <c r="H46" s="3">
-        <v>16431300</v>
+        <v>15892100</v>
       </c>
       <c r="I46" s="3">
-        <v>14817900</v>
+        <v>14331700</v>
       </c>
       <c r="J46" s="3">
-        <v>14465400</v>
+        <v>13990700</v>
       </c>
       <c r="K46" s="3">
         <v>13725200</v>
@@ -1954,25 +1954,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1050700</v>
+        <v>1016200</v>
       </c>
       <c r="E47" s="3">
-        <v>769300</v>
+        <v>744100</v>
       </c>
       <c r="F47" s="3">
-        <v>894200</v>
+        <v>864900</v>
       </c>
       <c r="G47" s="3">
-        <v>1002800</v>
+        <v>969900</v>
       </c>
       <c r="H47" s="3">
-        <v>793800</v>
+        <v>767800</v>
       </c>
       <c r="I47" s="3">
-        <v>1005100</v>
+        <v>972200</v>
       </c>
       <c r="J47" s="3">
-        <v>1651900</v>
+        <v>1597700</v>
       </c>
       <c r="K47" s="3">
         <v>958200</v>
@@ -1990,25 +1990,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3131000</v>
+        <v>3028200</v>
       </c>
       <c r="E48" s="3">
-        <v>3345800</v>
+        <v>3236000</v>
       </c>
       <c r="F48" s="3">
-        <v>1998600</v>
+        <v>1933000</v>
       </c>
       <c r="G48" s="3">
-        <v>1857300</v>
+        <v>1796400</v>
       </c>
       <c r="H48" s="3">
-        <v>2515800</v>
+        <v>2433200</v>
       </c>
       <c r="I48" s="3">
-        <v>5421500</v>
+        <v>5243500</v>
       </c>
       <c r="J48" s="3">
-        <v>4891400</v>
+        <v>4730900</v>
       </c>
       <c r="K48" s="3">
         <v>3325400</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12854400</v>
+        <v>12432500</v>
       </c>
       <c r="E49" s="3">
-        <v>14149000</v>
+        <v>13684700</v>
       </c>
       <c r="F49" s="3">
-        <v>14116300</v>
+        <v>13653100</v>
       </c>
       <c r="G49" s="3">
-        <v>12903400</v>
+        <v>12479900</v>
       </c>
       <c r="H49" s="3">
-        <v>14534300</v>
+        <v>14057300</v>
       </c>
       <c r="I49" s="3">
-        <v>18572300</v>
+        <v>17962900</v>
       </c>
       <c r="J49" s="3">
-        <v>24576300</v>
+        <v>23769800</v>
       </c>
       <c r="K49" s="3">
         <v>11682100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2209900</v>
+        <v>2137400</v>
       </c>
       <c r="E52" s="3">
-        <v>2232100</v>
+        <v>2158800</v>
       </c>
       <c r="F52" s="3">
-        <v>2191200</v>
+        <v>2119300</v>
       </c>
       <c r="G52" s="3">
-        <v>1978800</v>
+        <v>1913800</v>
       </c>
       <c r="H52" s="3">
-        <v>3397200</v>
+        <v>3285700</v>
       </c>
       <c r="I52" s="3">
-        <v>3366800</v>
+        <v>3256300</v>
       </c>
       <c r="J52" s="3">
-        <v>2969900</v>
+        <v>2872400</v>
       </c>
       <c r="K52" s="3">
         <v>2079000</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32352400</v>
+        <v>31290700</v>
       </c>
       <c r="E54" s="3">
-        <v>31538700</v>
+        <v>30503800</v>
       </c>
       <c r="F54" s="3">
-        <v>30374800</v>
+        <v>29378100</v>
       </c>
       <c r="G54" s="3">
-        <v>29553000</v>
+        <v>28583200</v>
       </c>
       <c r="H54" s="3">
-        <v>37672300</v>
+        <v>36436100</v>
       </c>
       <c r="I54" s="3">
-        <v>36161700</v>
+        <v>34975000</v>
       </c>
       <c r="J54" s="3">
-        <v>33098400</v>
+        <v>32012200</v>
       </c>
       <c r="K54" s="3">
         <v>31769900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2473700</v>
+        <v>2392600</v>
       </c>
       <c r="E57" s="3">
-        <v>2438700</v>
+        <v>2358700</v>
       </c>
       <c r="F57" s="3">
-        <v>2688500</v>
+        <v>2600300</v>
       </c>
       <c r="G57" s="3">
-        <v>2439900</v>
+        <v>2359800</v>
       </c>
       <c r="H57" s="3">
-        <v>6646100</v>
+        <v>6428000</v>
       </c>
       <c r="I57" s="3">
-        <v>6236300</v>
+        <v>6031700</v>
       </c>
       <c r="J57" s="3">
-        <v>5830000</v>
+        <v>5638700</v>
       </c>
       <c r="K57" s="3">
         <v>2945000</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>420300</v>
+        <v>406500</v>
       </c>
       <c r="E58" s="3">
-        <v>446000</v>
+        <v>431300</v>
       </c>
       <c r="F58" s="3">
-        <v>803200</v>
+        <v>776800</v>
       </c>
       <c r="G58" s="3">
-        <v>267300</v>
+        <v>258600</v>
       </c>
       <c r="H58" s="3">
-        <v>1850300</v>
+        <v>1789600</v>
       </c>
       <c r="I58" s="3">
-        <v>1943700</v>
+        <v>1880000</v>
       </c>
       <c r="J58" s="3">
-        <v>457600</v>
+        <v>442600</v>
       </c>
       <c r="K58" s="3">
         <v>708200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6135900</v>
+        <v>5934500</v>
       </c>
       <c r="E59" s="3">
-        <v>5261500</v>
+        <v>5088900</v>
       </c>
       <c r="F59" s="3">
-        <v>5781000</v>
+        <v>5591300</v>
       </c>
       <c r="G59" s="3">
-        <v>5308200</v>
+        <v>5134000</v>
       </c>
       <c r="H59" s="3">
-        <v>7054700</v>
+        <v>6823200</v>
       </c>
       <c r="I59" s="3">
-        <v>11339100</v>
+        <v>10966900</v>
       </c>
       <c r="J59" s="3">
-        <v>11524700</v>
+        <v>11146500</v>
       </c>
       <c r="K59" s="3">
         <v>6485800</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>9029900</v>
+        <v>8733600</v>
       </c>
       <c r="E60" s="3">
-        <v>8146200</v>
+        <v>7878900</v>
       </c>
       <c r="F60" s="3">
-        <v>9272700</v>
+        <v>8968400</v>
       </c>
       <c r="G60" s="3">
-        <v>8015400</v>
+        <v>7752400</v>
       </c>
       <c r="H60" s="3">
-        <v>12226300</v>
+        <v>11825100</v>
       </c>
       <c r="I60" s="3">
-        <v>11626200</v>
+        <v>11244700</v>
       </c>
       <c r="J60" s="3">
-        <v>10128400</v>
+        <v>9796100</v>
       </c>
       <c r="K60" s="3">
         <v>10139000</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6528200</v>
+        <v>6313900</v>
       </c>
       <c r="E61" s="3">
-        <v>5693500</v>
+        <v>5506600</v>
       </c>
       <c r="F61" s="3">
-        <v>3781200</v>
+        <v>3657200</v>
       </c>
       <c r="G61" s="3">
-        <v>4048600</v>
+        <v>3915700</v>
       </c>
       <c r="H61" s="3">
-        <v>4694200</v>
+        <v>4540100</v>
       </c>
       <c r="I61" s="3">
-        <v>4780500</v>
+        <v>4623700</v>
       </c>
       <c r="J61" s="3">
-        <v>4333400</v>
+        <v>4191200</v>
       </c>
       <c r="K61" s="3">
         <v>3958200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2901000</v>
+        <v>2805800</v>
       </c>
       <c r="E62" s="3">
-        <v>2960600</v>
+        <v>2863400</v>
       </c>
       <c r="F62" s="3">
-        <v>3175400</v>
+        <v>3071200</v>
       </c>
       <c r="G62" s="3">
-        <v>3453200</v>
+        <v>3339900</v>
       </c>
       <c r="H62" s="3">
-        <v>5046700</v>
+        <v>4881100</v>
       </c>
       <c r="I62" s="3">
-        <v>12135200</v>
+        <v>11737000</v>
       </c>
       <c r="J62" s="3">
-        <v>7978100</v>
+        <v>7716300</v>
       </c>
       <c r="K62" s="3">
         <v>4242900</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18495300</v>
+        <v>17888300</v>
       </c>
       <c r="E66" s="3">
-        <v>16832900</v>
+        <v>16280500</v>
       </c>
       <c r="F66" s="3">
-        <v>16263200</v>
+        <v>15729500</v>
       </c>
       <c r="G66" s="3">
-        <v>15545200</v>
+        <v>15035100</v>
       </c>
       <c r="H66" s="3">
-        <v>23026000</v>
+        <v>22270400</v>
       </c>
       <c r="I66" s="3">
-        <v>22547400</v>
+        <v>21807400</v>
       </c>
       <c r="J66" s="3">
-        <v>20412200</v>
+        <v>19742300</v>
       </c>
       <c r="K66" s="3">
         <v>18355700</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9138500</v>
+        <v>8838600</v>
       </c>
       <c r="E72" s="3">
-        <v>9684800</v>
+        <v>9367000</v>
       </c>
       <c r="F72" s="3">
-        <v>9649800</v>
+        <v>9333100</v>
       </c>
       <c r="G72" s="3">
-        <v>10035100</v>
+        <v>9705700</v>
       </c>
       <c r="H72" s="3">
-        <v>9547100</v>
+        <v>9233800</v>
       </c>
       <c r="I72" s="3">
-        <v>9386000</v>
+        <v>9078000</v>
       </c>
       <c r="J72" s="3">
-        <v>10261500</v>
+        <v>9924800</v>
       </c>
       <c r="K72" s="3">
         <v>12458400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13857200</v>
+        <v>13402400</v>
       </c>
       <c r="E76" s="3">
-        <v>14705900</v>
+        <v>14223300</v>
       </c>
       <c r="F76" s="3">
-        <v>14111700</v>
+        <v>13648600</v>
       </c>
       <c r="G76" s="3">
-        <v>14007800</v>
+        <v>13548100</v>
       </c>
       <c r="H76" s="3">
-        <v>14646300</v>
+        <v>14165700</v>
       </c>
       <c r="I76" s="3">
-        <v>13614300</v>
+        <v>13167600</v>
       </c>
       <c r="J76" s="3">
-        <v>12686200</v>
+        <v>12269900</v>
       </c>
       <c r="K76" s="3">
         <v>13414200</v>
@@ -3051,25 +3051,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1385700</v>
+        <v>1340200</v>
       </c>
       <c r="E81" s="3">
-        <v>1362400</v>
+        <v>1317700</v>
       </c>
       <c r="F81" s="3">
-        <v>1272500</v>
+        <v>1230700</v>
       </c>
       <c r="G81" s="3">
-        <v>1934400</v>
+        <v>1870900</v>
       </c>
       <c r="H81" s="3">
-        <v>1705600</v>
+        <v>1649600</v>
       </c>
       <c r="I81" s="3">
-        <v>763500</v>
+        <v>738400</v>
       </c>
       <c r="J81" s="3">
-        <v>484500</v>
+        <v>468600</v>
       </c>
       <c r="K81" s="3">
         <v>1398400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1774500</v>
+        <v>1716200</v>
       </c>
       <c r="E83" s="3">
-        <v>1636700</v>
+        <v>1583000</v>
       </c>
       <c r="F83" s="3">
-        <v>1271300</v>
+        <v>1229600</v>
       </c>
       <c r="G83" s="3">
-        <v>1196600</v>
+        <v>1157300</v>
       </c>
       <c r="H83" s="3">
-        <v>1139400</v>
+        <v>1102000</v>
       </c>
       <c r="I83" s="3">
-        <v>1134700</v>
+        <v>1097500</v>
       </c>
       <c r="J83" s="3">
-        <v>1385700</v>
+        <v>1340200</v>
       </c>
       <c r="K83" s="3">
         <v>1407900</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3139200</v>
+        <v>3036100</v>
       </c>
       <c r="E89" s="3">
-        <v>2341800</v>
+        <v>2265000</v>
       </c>
       <c r="F89" s="3">
-        <v>2833300</v>
+        <v>2740300</v>
       </c>
       <c r="G89" s="3">
-        <v>3424000</v>
+        <v>3311700</v>
       </c>
       <c r="H89" s="3">
-        <v>3877000</v>
+        <v>3749700</v>
       </c>
       <c r="I89" s="3">
-        <v>1325000</v>
+        <v>1281500</v>
       </c>
       <c r="J89" s="3">
-        <v>1643700</v>
+        <v>1589800</v>
       </c>
       <c r="K89" s="3">
         <v>1009600</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-598900</v>
+        <v>-579200</v>
       </c>
       <c r="E91" s="3">
-        <v>-604700</v>
+        <v>-584900</v>
       </c>
       <c r="F91" s="3">
-        <v>-492600</v>
+        <v>-476500</v>
       </c>
       <c r="G91" s="3">
-        <v>-490300</v>
+        <v>-474200</v>
       </c>
       <c r="H91" s="3">
-        <v>-420300</v>
+        <v>-406500</v>
       </c>
       <c r="I91" s="3">
-        <v>-504300</v>
+        <v>-487800</v>
       </c>
       <c r="J91" s="3">
-        <v>-510200</v>
+        <v>-493400</v>
       </c>
       <c r="K91" s="3">
         <v>-576600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1536300</v>
+        <v>-1485900</v>
       </c>
       <c r="E94" s="3">
-        <v>-703900</v>
+        <v>-680800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1734800</v>
+        <v>-1677800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3734500</v>
+        <v>-3612000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1274800</v>
+        <v>-1233000</v>
       </c>
       <c r="I94" s="3">
-        <v>-2162000</v>
+        <v>-2091100</v>
       </c>
       <c r="J94" s="3">
-        <v>-1046000</v>
+        <v>-1011700</v>
       </c>
       <c r="K94" s="3">
         <v>-1087300</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="E96" s="3">
-        <v>-528800</v>
+        <v>-511500</v>
       </c>
       <c r="F96" s="3">
-        <v>-468100</v>
+        <v>-452800</v>
       </c>
       <c r="G96" s="3">
-        <v>-448300</v>
+        <v>-433600</v>
       </c>
       <c r="H96" s="3">
-        <v>-385200</v>
+        <v>-372600</v>
       </c>
       <c r="I96" s="3">
-        <v>-347900</v>
+        <v>-336500</v>
       </c>
       <c r="J96" s="3">
-        <v>-340900</v>
+        <v>-329700</v>
       </c>
       <c r="K96" s="3">
         <v>-325400</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>563900</v>
+        <v>545400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1943700</v>
+        <v>-1880000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1391600</v>
+        <v>-1345900</v>
       </c>
       <c r="G100" s="3">
-        <v>64200</v>
+        <v>62100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1918100</v>
+        <v>-1855100</v>
       </c>
       <c r="I100" s="3">
-        <v>617600</v>
+        <v>597300</v>
       </c>
       <c r="J100" s="3">
-        <v>-1388100</v>
+        <v>-1342500</v>
       </c>
       <c r="K100" s="3">
         <v>-1484500</v>
@@ -3711,7 +3711,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-64200</v>
+        <v>-62100</v>
       </c>
       <c r="E101" s="3">
         <v>-2300</v>
@@ -3720,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-214800</v>
+        <v>-207800</v>
       </c>
       <c r="H101" s="3">
-        <v>-19800</v>
+        <v>-19200</v>
       </c>
       <c r="I101" s="3">
-        <v>93400</v>
+        <v>90300</v>
       </c>
       <c r="J101" s="3">
-        <v>99200</v>
+        <v>96000</v>
       </c>
       <c r="K101" s="3">
         <v>-75400</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2102500</v>
+        <v>2033500</v>
       </c>
       <c r="E102" s="3">
-        <v>-308200</v>
+        <v>-298100</v>
       </c>
       <c r="F102" s="3">
-        <v>-293000</v>
+        <v>-283400</v>
       </c>
       <c r="G102" s="3">
-        <v>-461100</v>
+        <v>-446000</v>
       </c>
       <c r="H102" s="3">
-        <v>664300</v>
+        <v>642500</v>
       </c>
       <c r="I102" s="3">
-        <v>-126100</v>
+        <v>-121900</v>
       </c>
       <c r="J102" s="3">
-        <v>-691100</v>
+        <v>-668400</v>
       </c>
       <c r="K102" s="3">
         <v>-1637600</v>

--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>22057000</v>
+        <v>18715700</v>
       </c>
       <c r="E8" s="3">
-        <v>21997100</v>
+        <v>18886900</v>
       </c>
       <c r="F8" s="3">
-        <v>20460400</v>
+        <v>18705800</v>
       </c>
       <c r="G8" s="3">
-        <v>20075400</v>
+        <v>19768400</v>
       </c>
       <c r="H8" s="3">
-        <v>19671200</v>
+        <v>19396400</v>
       </c>
       <c r="I8" s="3">
-        <v>18975700</v>
+        <v>19005800</v>
       </c>
       <c r="J8" s="3">
+        <v>18333800</v>
+      </c>
+      <c r="K8" s="3">
         <v>24152600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>26304400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>25755800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24640600</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11957200</v>
+        <v>10794600</v>
       </c>
       <c r="E9" s="3">
-        <v>11714400</v>
+        <v>10167300</v>
       </c>
       <c r="F9" s="3">
-        <v>10803200</v>
+        <v>21408000</v>
       </c>
       <c r="G9" s="3">
-        <v>10839400</v>
+        <v>10437800</v>
       </c>
       <c r="H9" s="3">
-        <v>10708400</v>
+        <v>10472700</v>
       </c>
       <c r="I9" s="3">
-        <v>10832600</v>
+        <v>10346200</v>
       </c>
       <c r="J9" s="3">
+        <v>10466200</v>
+      </c>
+      <c r="K9" s="3">
         <v>14887200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>15135500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15883700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>14944900</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>10099800</v>
+        <v>7921100</v>
       </c>
       <c r="E10" s="3">
-        <v>10282700</v>
+        <v>8719600</v>
       </c>
       <c r="F10" s="3">
-        <v>9657200</v>
+        <v>-2702200</v>
       </c>
       <c r="G10" s="3">
-        <v>9236000</v>
+        <v>9330600</v>
       </c>
       <c r="H10" s="3">
-        <v>8962800</v>
+        <v>8923600</v>
       </c>
       <c r="I10" s="3">
-        <v>8143100</v>
+        <v>8659600</v>
       </c>
       <c r="J10" s="3">
+        <v>7867600</v>
+      </c>
+      <c r="K10" s="3">
         <v>9265400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>11168900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9872100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9695700</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2013200</v>
+        <v>1860000</v>
       </c>
       <c r="E12" s="3">
-        <v>1956700</v>
+        <v>1844700</v>
       </c>
       <c r="F12" s="3">
-        <v>1900300</v>
+        <v>3843300</v>
       </c>
       <c r="G12" s="3">
-        <v>1875400</v>
+        <v>1836000</v>
       </c>
       <c r="H12" s="3">
-        <v>1884500</v>
+        <v>1812000</v>
       </c>
       <c r="I12" s="3">
-        <v>1763700</v>
+        <v>1820700</v>
       </c>
       <c r="J12" s="3">
+        <v>1704000</v>
+      </c>
+      <c r="K12" s="3">
         <v>1846100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1984500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2010400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1884000</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -909,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>656000</v>
+        <v>462500</v>
       </c>
       <c r="E14" s="3">
-        <v>694400</v>
+        <v>633800</v>
       </c>
       <c r="F14" s="3">
-        <v>203200</v>
+        <v>669800</v>
       </c>
       <c r="G14" s="3">
-        <v>308200</v>
+        <v>196400</v>
       </c>
       <c r="H14" s="3">
-        <v>28200</v>
+        <v>297800</v>
       </c>
       <c r="I14" s="3">
-        <v>51900</v>
+        <v>27300</v>
       </c>
       <c r="J14" s="3">
+        <v>50200</v>
+      </c>
+      <c r="K14" s="3">
         <v>3400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>45500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>8800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1630400</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -981,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>20315900</v>
+        <v>18112400</v>
       </c>
       <c r="E17" s="3">
-        <v>20140900</v>
+        <v>17508000</v>
       </c>
       <c r="F17" s="3">
-        <v>18519500</v>
+        <v>17215700</v>
       </c>
       <c r="G17" s="3">
-        <v>18364800</v>
+        <v>17893100</v>
       </c>
       <c r="H17" s="3">
-        <v>18045300</v>
+        <v>17743700</v>
       </c>
       <c r="I17" s="3">
-        <v>18284600</v>
+        <v>17434900</v>
       </c>
       <c r="J17" s="3">
+        <v>17666200</v>
+      </c>
+      <c r="K17" s="3">
         <v>23603800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>24085500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>25053100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25242800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>1741100</v>
+        <v>603300</v>
       </c>
       <c r="E18" s="3">
-        <v>1856200</v>
+        <v>1378900</v>
       </c>
       <c r="F18" s="3">
-        <v>1940900</v>
+        <v>1490200</v>
       </c>
       <c r="G18" s="3">
-        <v>1710600</v>
+        <v>1875300</v>
       </c>
       <c r="H18" s="3">
-        <v>1625900</v>
+        <v>1652700</v>
       </c>
       <c r="I18" s="3">
-        <v>691000</v>
+        <v>1570900</v>
       </c>
       <c r="J18" s="3">
+        <v>667600</v>
+      </c>
+      <c r="K18" s="3">
         <v>548700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2219000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>702700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-602200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>115200</v>
+        <v>112400</v>
       </c>
       <c r="E20" s="3">
-        <v>58700</v>
+        <v>110200</v>
       </c>
       <c r="F20" s="3">
-        <v>-31600</v>
+        <v>75300</v>
       </c>
       <c r="G20" s="3">
-        <v>94800</v>
+        <v>-30500</v>
       </c>
       <c r="H20" s="3">
-        <v>-64400</v>
+        <v>91600</v>
       </c>
       <c r="I20" s="3">
-        <v>76800</v>
+        <v>-62200</v>
       </c>
       <c r="J20" s="3">
+        <v>74200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-20300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-93300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>339300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>355700</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>3576400</v>
+        <v>2180900</v>
       </c>
       <c r="E21" s="3">
-        <v>3501600</v>
+        <v>3108300</v>
       </c>
       <c r="F21" s="3">
-        <v>3141700</v>
+        <v>3052800</v>
       </c>
       <c r="G21" s="3">
-        <v>2965400</v>
+        <v>3050800</v>
       </c>
       <c r="H21" s="3">
-        <v>2666100</v>
+        <v>2879600</v>
       </c>
       <c r="I21" s="3">
-        <v>1867800</v>
+        <v>2589700</v>
       </c>
       <c r="J21" s="3">
+        <v>1818300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1871700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3527800</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1398000</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>173900</v>
+        <v>160400</v>
       </c>
       <c r="E22" s="3">
-        <v>188600</v>
+        <v>168000</v>
       </c>
       <c r="F22" s="3">
-        <v>212300</v>
+        <v>204000</v>
       </c>
       <c r="G22" s="3">
-        <v>250700</v>
+        <v>205100</v>
       </c>
       <c r="H22" s="3">
-        <v>394100</v>
+        <v>242200</v>
       </c>
       <c r="I22" s="3">
-        <v>396300</v>
+        <v>380700</v>
       </c>
       <c r="J22" s="3">
+        <v>382900</v>
+      </c>
+      <c r="K22" s="3">
         <v>319500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>301400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>691700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>704300</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1682400</v>
+        <v>555300</v>
       </c>
       <c r="E23" s="3">
-        <v>1726400</v>
+        <v>1321100</v>
       </c>
       <c r="F23" s="3">
-        <v>1697000</v>
+        <v>1361500</v>
       </c>
       <c r="G23" s="3">
-        <v>1554800</v>
+        <v>1639600</v>
       </c>
       <c r="H23" s="3">
-        <v>1167500</v>
+        <v>1502200</v>
       </c>
       <c r="I23" s="3">
-        <v>371500</v>
+        <v>1128000</v>
       </c>
       <c r="J23" s="3">
+        <v>358900</v>
+      </c>
+      <c r="K23" s="3">
         <v>208900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1824200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>350300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-950800</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>320700</v>
+        <v>-112400</v>
       </c>
       <c r="E24" s="3">
-        <v>380500</v>
+        <v>231300</v>
       </c>
       <c r="F24" s="3">
-        <v>217900</v>
+        <v>281500</v>
       </c>
       <c r="G24" s="3">
-        <v>394100</v>
+        <v>210500</v>
       </c>
       <c r="H24" s="3">
-        <v>229200</v>
+        <v>380700</v>
       </c>
       <c r="I24" s="3">
-        <v>190800</v>
+        <v>221500</v>
       </c>
       <c r="J24" s="3">
+        <v>184400</v>
+      </c>
+      <c r="K24" s="3">
         <v>29400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>557400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>203100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>294600</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>1361700</v>
+        <v>667600</v>
       </c>
       <c r="E26" s="3">
-        <v>1345900</v>
+        <v>1089800</v>
       </c>
       <c r="F26" s="3">
-        <v>1479100</v>
+        <v>1080000</v>
       </c>
       <c r="G26" s="3">
-        <v>1160700</v>
+        <v>1429100</v>
       </c>
       <c r="H26" s="3">
-        <v>938300</v>
+        <v>1121500</v>
       </c>
       <c r="I26" s="3">
-        <v>180700</v>
+        <v>906500</v>
       </c>
       <c r="J26" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K26" s="3">
         <v>179500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1266800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>147100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1245400</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>1351500</v>
+        <v>663300</v>
       </c>
       <c r="E27" s="3">
-        <v>1339100</v>
+        <v>1080000</v>
       </c>
       <c r="F27" s="3">
-        <v>1471200</v>
+        <v>1073500</v>
       </c>
       <c r="G27" s="3">
-        <v>919100</v>
+        <v>1421500</v>
       </c>
       <c r="H27" s="3">
-        <v>904400</v>
+        <v>888000</v>
       </c>
       <c r="I27" s="3">
-        <v>197600</v>
+        <v>873800</v>
       </c>
       <c r="J27" s="3">
+        <v>190900</v>
+      </c>
+      <c r="K27" s="3">
         <v>254000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1233300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-316200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1234800</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1406,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>-11300</v>
+        <v>2957500</v>
       </c>
       <c r="E29" s="3">
-        <v>-21500</v>
+        <v>213800</v>
       </c>
       <c r="F29" s="3">
-        <v>-240500</v>
+        <v>199600</v>
       </c>
       <c r="G29" s="3">
-        <v>951800</v>
+        <v>-232400</v>
       </c>
       <c r="H29" s="3">
-        <v>745200</v>
+        <v>919600</v>
       </c>
       <c r="I29" s="3">
-        <v>540800</v>
+        <v>720000</v>
       </c>
       <c r="J29" s="3">
+        <v>522500</v>
+      </c>
+      <c r="K29" s="3">
         <v>214500</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>165100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>51600</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-481300</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-115200</v>
+        <v>-112400</v>
       </c>
       <c r="E32" s="3">
-        <v>-58700</v>
+        <v>-110200</v>
       </c>
       <c r="F32" s="3">
-        <v>31600</v>
+        <v>-75300</v>
       </c>
       <c r="G32" s="3">
-        <v>-94800</v>
+        <v>30500</v>
       </c>
       <c r="H32" s="3">
-        <v>64400</v>
+        <v>-91600</v>
       </c>
       <c r="I32" s="3">
-        <v>-76800</v>
+        <v>62200</v>
       </c>
       <c r="J32" s="3">
+        <v>-74200</v>
+      </c>
+      <c r="K32" s="3">
         <v>20300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>93300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-339300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-355700</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>1340200</v>
+        <v>3620700</v>
       </c>
       <c r="E33" s="3">
-        <v>1317700</v>
+        <v>1293800</v>
       </c>
       <c r="F33" s="3">
-        <v>1230700</v>
+        <v>1273100</v>
       </c>
       <c r="G33" s="3">
-        <v>1870900</v>
+        <v>1189100</v>
       </c>
       <c r="H33" s="3">
-        <v>1649600</v>
+        <v>1807600</v>
       </c>
       <c r="I33" s="3">
-        <v>738400</v>
+        <v>1593800</v>
       </c>
       <c r="J33" s="3">
+        <v>713500</v>
+      </c>
+      <c r="K33" s="3">
         <v>468600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1398400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-264600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1716100</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>1340200</v>
+        <v>3620700</v>
       </c>
       <c r="E35" s="3">
-        <v>1317700</v>
+        <v>1293800</v>
       </c>
       <c r="F35" s="3">
-        <v>1230700</v>
+        <v>1273100</v>
       </c>
       <c r="G35" s="3">
-        <v>1870900</v>
+        <v>1189100</v>
       </c>
       <c r="H35" s="3">
-        <v>1649600</v>
+        <v>1807600</v>
       </c>
       <c r="I35" s="3">
-        <v>738400</v>
+        <v>1593800</v>
       </c>
       <c r="J35" s="3">
+        <v>713500</v>
+      </c>
+      <c r="K35" s="3">
         <v>468600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1398400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-264600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1716100</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>3642500</v>
+        <v>2512400</v>
       </c>
       <c r="E41" s="3">
-        <v>1609000</v>
+        <v>3519300</v>
       </c>
       <c r="F41" s="3">
-        <v>1905900</v>
+        <v>1554500</v>
       </c>
       <c r="G41" s="3">
-        <v>2189300</v>
+        <v>1841500</v>
       </c>
       <c r="H41" s="3">
-        <v>2635300</v>
+        <v>2115300</v>
       </c>
       <c r="I41" s="3">
-        <v>1994000</v>
+        <v>2546200</v>
       </c>
       <c r="J41" s="3">
+        <v>1926500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2114800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2948600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4209700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3694000</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>1100</v>
       </c>
-      <c r="F42" s="3">
-        <v>492300</v>
-      </c>
       <c r="G42" s="3">
-        <v>2300</v>
+        <v>475600</v>
       </c>
       <c r="H42" s="3">
-        <v>114000</v>
+        <v>2200</v>
       </c>
       <c r="I42" s="3">
-        <v>13500</v>
+        <v>110200</v>
       </c>
       <c r="J42" s="3">
+        <v>13100</v>
+      </c>
+      <c r="K42" s="3">
         <v>141100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>12000</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>5149800</v>
+        <v>4677800</v>
       </c>
       <c r="E43" s="3">
-        <v>5667000</v>
+        <v>4975600</v>
       </c>
       <c r="F43" s="3">
-        <v>5033500</v>
+        <v>5475300</v>
       </c>
       <c r="G43" s="3">
-        <v>4746700</v>
+        <v>4863300</v>
       </c>
       <c r="H43" s="3">
-        <v>6446000</v>
+        <v>4586200</v>
       </c>
       <c r="I43" s="3">
-        <v>11379100</v>
+        <v>6228000</v>
       </c>
       <c r="J43" s="3">
+        <v>10994200</v>
+      </c>
+      <c r="K43" s="3">
         <v>10823600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5679600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>10175200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5857300</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3379400</v>
+        <v>3763600</v>
       </c>
       <c r="E44" s="3">
-        <v>3131000</v>
+        <v>3265100</v>
       </c>
       <c r="F44" s="3">
-        <v>3019200</v>
+        <v>3025100</v>
       </c>
       <c r="G44" s="3">
-        <v>2656800</v>
+        <v>2917100</v>
       </c>
       <c r="H44" s="3">
-        <v>3829900</v>
+        <v>2566900</v>
       </c>
       <c r="I44" s="3">
-        <v>7820100</v>
+        <v>3700400</v>
       </c>
       <c r="J44" s="3">
+        <v>7555600</v>
+      </c>
+      <c r="K44" s="3">
         <v>7483700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3875700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3837500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4255100</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>504700</v>
+        <v>331600</v>
       </c>
       <c r="E45" s="3">
-        <v>272100</v>
+        <v>487600</v>
       </c>
       <c r="F45" s="3">
-        <v>356800</v>
+        <v>262900</v>
       </c>
       <c r="G45" s="3">
-        <v>1828000</v>
+        <v>344700</v>
       </c>
       <c r="H45" s="3">
-        <v>2866800</v>
+        <v>1766200</v>
       </c>
       <c r="I45" s="3">
-        <v>3161500</v>
+        <v>2769800</v>
       </c>
       <c r="J45" s="3">
+        <v>3054500</v>
+      </c>
+      <c r="K45" s="3">
         <v>2966100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1209400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>937700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1327600</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>12676400</v>
+        <v>11287600</v>
       </c>
       <c r="E46" s="3">
-        <v>10680200</v>
+        <v>12247600</v>
       </c>
       <c r="F46" s="3">
-        <v>10807700</v>
+        <v>10318900</v>
       </c>
       <c r="G46" s="3">
-        <v>11423100</v>
+        <v>10442200</v>
       </c>
       <c r="H46" s="3">
-        <v>15892100</v>
+        <v>11036700</v>
       </c>
       <c r="I46" s="3">
-        <v>14331700</v>
+        <v>15354600</v>
       </c>
       <c r="J46" s="3">
+        <v>13846900</v>
+      </c>
+      <c r="K46" s="3">
         <v>13990700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13725200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13755700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>15133900</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1016200</v>
+        <v>1396400</v>
       </c>
       <c r="E47" s="3">
-        <v>744100</v>
+        <v>981800</v>
       </c>
       <c r="F47" s="3">
-        <v>864900</v>
+        <v>718900</v>
       </c>
       <c r="G47" s="3">
-        <v>969900</v>
+        <v>835600</v>
       </c>
       <c r="H47" s="3">
-        <v>767800</v>
+        <v>937100</v>
       </c>
       <c r="I47" s="3">
-        <v>972200</v>
+        <v>741800</v>
       </c>
       <c r="J47" s="3">
+        <v>939300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1597700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>958200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1787500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>644400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>3028200</v>
+        <v>2944400</v>
       </c>
       <c r="E48" s="3">
-        <v>3236000</v>
+        <v>2925800</v>
       </c>
       <c r="F48" s="3">
-        <v>1933000</v>
+        <v>3126500</v>
       </c>
       <c r="G48" s="3">
-        <v>1796400</v>
+        <v>1867600</v>
       </c>
       <c r="H48" s="3">
-        <v>2433200</v>
+        <v>1735600</v>
       </c>
       <c r="I48" s="3">
-        <v>5243500</v>
+        <v>2350900</v>
       </c>
       <c r="J48" s="3">
+        <v>5066200</v>
+      </c>
+      <c r="K48" s="3">
         <v>4730900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3325400</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="M48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3537900</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12432500</v>
+        <v>15585800</v>
       </c>
       <c r="E49" s="3">
-        <v>13684700</v>
+        <v>12012000</v>
       </c>
       <c r="F49" s="3">
-        <v>13653100</v>
+        <v>13221800</v>
       </c>
       <c r="G49" s="3">
-        <v>12479900</v>
+        <v>13191300</v>
       </c>
       <c r="H49" s="3">
-        <v>14057300</v>
+        <v>12057800</v>
       </c>
       <c r="I49" s="3">
-        <v>17962900</v>
+        <v>13581800</v>
       </c>
       <c r="J49" s="3">
+        <v>17355300</v>
+      </c>
+      <c r="K49" s="3">
         <v>23769800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>11682100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15822200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12926000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2137400</v>
+        <v>2561500</v>
       </c>
       <c r="E52" s="3">
-        <v>2158800</v>
+        <v>2065100</v>
       </c>
       <c r="F52" s="3">
-        <v>2119300</v>
+        <v>2085800</v>
       </c>
       <c r="G52" s="3">
-        <v>1913800</v>
+        <v>2047600</v>
       </c>
       <c r="H52" s="3">
-        <v>3285700</v>
+        <v>1849100</v>
       </c>
       <c r="I52" s="3">
-        <v>3256300</v>
+        <v>3174500</v>
       </c>
       <c r="J52" s="3">
+        <v>3146200</v>
+      </c>
+      <c r="K52" s="3">
         <v>2872400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2079000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4611600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2261900</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31290700</v>
+        <v>33775700</v>
       </c>
       <c r="E54" s="3">
-        <v>30503800</v>
+        <v>30232400</v>
       </c>
       <c r="F54" s="3">
-        <v>29378100</v>
+        <v>29472000</v>
       </c>
       <c r="G54" s="3">
-        <v>28583200</v>
+        <v>28384400</v>
       </c>
       <c r="H54" s="3">
-        <v>36436100</v>
+        <v>27616400</v>
       </c>
       <c r="I54" s="3">
-        <v>34975000</v>
+        <v>35203700</v>
       </c>
       <c r="J54" s="3">
+        <v>33792000</v>
+      </c>
+      <c r="K54" s="3">
         <v>32012200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31769900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31930900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34504100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2392600</v>
+        <v>2042200</v>
       </c>
       <c r="E57" s="3">
-        <v>2358700</v>
+        <v>2311600</v>
       </c>
       <c r="F57" s="3">
-        <v>2600300</v>
+        <v>2278900</v>
       </c>
       <c r="G57" s="3">
-        <v>2359800</v>
+        <v>2512400</v>
       </c>
       <c r="H57" s="3">
-        <v>6428000</v>
+        <v>2280000</v>
       </c>
       <c r="I57" s="3">
-        <v>6031700</v>
+        <v>6210600</v>
       </c>
       <c r="J57" s="3">
+        <v>5827600</v>
+      </c>
+      <c r="K57" s="3">
         <v>5638700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2945000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6234400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3927600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>406500</v>
+        <v>338200</v>
       </c>
       <c r="E58" s="3">
-        <v>431300</v>
+        <v>392700</v>
       </c>
       <c r="F58" s="3">
-        <v>776800</v>
+        <v>416700</v>
       </c>
       <c r="G58" s="3">
-        <v>258600</v>
+        <v>750500</v>
       </c>
       <c r="H58" s="3">
-        <v>1789600</v>
+        <v>249800</v>
       </c>
       <c r="I58" s="3">
-        <v>1880000</v>
+        <v>1729100</v>
       </c>
       <c r="J58" s="3">
+        <v>1816400</v>
+      </c>
+      <c r="K58" s="3">
         <v>442600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>708200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1776600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>683200</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5934500</v>
+        <v>5746900</v>
       </c>
       <c r="E59" s="3">
-        <v>5088900</v>
+        <v>5733800</v>
       </c>
       <c r="F59" s="3">
-        <v>5591300</v>
+        <v>4916700</v>
       </c>
       <c r="G59" s="3">
-        <v>5134000</v>
+        <v>5402200</v>
       </c>
       <c r="H59" s="3">
-        <v>6823200</v>
+        <v>4960400</v>
       </c>
       <c r="I59" s="3">
-        <v>10966900</v>
+        <v>6592400</v>
       </c>
       <c r="J59" s="3">
+        <v>10596000</v>
+      </c>
+      <c r="K59" s="3">
         <v>11146500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6485800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>12114200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6873800</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8733600</v>
+        <v>8127300</v>
       </c>
       <c r="E60" s="3">
-        <v>7878900</v>
+        <v>8438200</v>
       </c>
       <c r="F60" s="3">
-        <v>8968400</v>
+        <v>7612400</v>
       </c>
       <c r="G60" s="3">
-        <v>7752400</v>
+        <v>8665100</v>
       </c>
       <c r="H60" s="3">
-        <v>11825100</v>
+        <v>7490200</v>
       </c>
       <c r="I60" s="3">
-        <v>11244700</v>
+        <v>11425100</v>
       </c>
       <c r="J60" s="3">
+        <v>10864400</v>
+      </c>
+      <c r="K60" s="3">
         <v>9796100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10139000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10930600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11484600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6313900</v>
+        <v>6256400</v>
       </c>
       <c r="E61" s="3">
-        <v>5506600</v>
+        <v>6100400</v>
       </c>
       <c r="F61" s="3">
-        <v>3657200</v>
+        <v>5320400</v>
       </c>
       <c r="G61" s="3">
-        <v>3915700</v>
+        <v>3533500</v>
       </c>
       <c r="H61" s="3">
-        <v>4540100</v>
+        <v>3783300</v>
       </c>
       <c r="I61" s="3">
-        <v>4623700</v>
+        <v>4386500</v>
       </c>
       <c r="J61" s="3">
+        <v>4467300</v>
+      </c>
+      <c r="K61" s="3">
         <v>4191200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3958200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4090100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3847700</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2805800</v>
+        <v>3601100</v>
       </c>
       <c r="E62" s="3">
-        <v>2863400</v>
+        <v>2710900</v>
       </c>
       <c r="F62" s="3">
-        <v>3071200</v>
+        <v>2766500</v>
       </c>
       <c r="G62" s="3">
-        <v>3339900</v>
+        <v>2967300</v>
       </c>
       <c r="H62" s="3">
-        <v>4881100</v>
+        <v>3226900</v>
       </c>
       <c r="I62" s="3">
-        <v>11737000</v>
+        <v>4716000</v>
       </c>
       <c r="J62" s="3">
+        <v>11340000</v>
+      </c>
+      <c r="K62" s="3">
         <v>7716300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4242900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9167200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4675300</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17888300</v>
+        <v>18024000</v>
       </c>
       <c r="E66" s="3">
-        <v>16280500</v>
+        <v>17283300</v>
       </c>
       <c r="F66" s="3">
-        <v>15729500</v>
+        <v>15729800</v>
       </c>
       <c r="G66" s="3">
-        <v>15035100</v>
+        <v>15197500</v>
       </c>
       <c r="H66" s="3">
-        <v>22270400</v>
+        <v>14526600</v>
       </c>
       <c r="I66" s="3">
-        <v>21807400</v>
+        <v>21517100</v>
       </c>
       <c r="J66" s="3">
+        <v>21069800</v>
+      </c>
+      <c r="K66" s="3">
         <v>19742300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18355700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19687100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20047500</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>8838600</v>
+        <v>10193500</v>
       </c>
       <c r="E72" s="3">
-        <v>9367000</v>
+        <v>8539600</v>
       </c>
       <c r="F72" s="3">
-        <v>9333100</v>
+        <v>9050200</v>
       </c>
       <c r="G72" s="3">
-        <v>9705700</v>
+        <v>9017500</v>
       </c>
       <c r="H72" s="3">
-        <v>9233800</v>
+        <v>9377500</v>
       </c>
       <c r="I72" s="3">
-        <v>9078000</v>
+        <v>8921500</v>
       </c>
       <c r="J72" s="3">
+        <v>8770900</v>
+      </c>
+      <c r="K72" s="3">
         <v>9924800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12458400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11775000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15116300</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>13402400</v>
+        <v>15751600</v>
       </c>
       <c r="E76" s="3">
-        <v>14223300</v>
+        <v>12949100</v>
       </c>
       <c r="F76" s="3">
-        <v>13648600</v>
+        <v>13742200</v>
       </c>
       <c r="G76" s="3">
-        <v>13548100</v>
+        <v>13186900</v>
       </c>
       <c r="H76" s="3">
-        <v>14165700</v>
+        <v>13089800</v>
       </c>
       <c r="I76" s="3">
-        <v>13167600</v>
+        <v>13686600</v>
       </c>
       <c r="J76" s="3">
+        <v>12722200</v>
+      </c>
+      <c r="K76" s="3">
         <v>12269900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13414200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12243800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14456600</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>1340200</v>
+        <v>3620700</v>
       </c>
       <c r="E81" s="3">
-        <v>1317700</v>
+        <v>1293800</v>
       </c>
       <c r="F81" s="3">
-        <v>1230700</v>
+        <v>1273100</v>
       </c>
       <c r="G81" s="3">
-        <v>1870900</v>
+        <v>1189100</v>
       </c>
       <c r="H81" s="3">
-        <v>1649600</v>
+        <v>1807600</v>
       </c>
       <c r="I81" s="3">
-        <v>738400</v>
+        <v>1593800</v>
       </c>
       <c r="J81" s="3">
+        <v>713500</v>
+      </c>
+      <c r="K81" s="3">
         <v>468600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1398400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-264600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1716100</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1716200</v>
+        <v>1443300</v>
       </c>
       <c r="E83" s="3">
-        <v>1583000</v>
+        <v>1594900</v>
       </c>
       <c r="F83" s="3">
-        <v>1229600</v>
+        <v>1465100</v>
       </c>
       <c r="G83" s="3">
-        <v>1157300</v>
+        <v>1188000</v>
       </c>
       <c r="H83" s="3">
-        <v>1102000</v>
+        <v>1118200</v>
       </c>
       <c r="I83" s="3">
-        <v>1097500</v>
+        <v>1064700</v>
       </c>
       <c r="J83" s="3">
+        <v>1060400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1340200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1407900</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1643300</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3036100</v>
+        <v>5489500</v>
       </c>
       <c r="E89" s="3">
-        <v>2265000</v>
+        <v>2880000</v>
       </c>
       <c r="F89" s="3">
-        <v>2740300</v>
+        <v>2084700</v>
       </c>
       <c r="G89" s="3">
-        <v>3311700</v>
+        <v>2647600</v>
       </c>
       <c r="H89" s="3">
-        <v>3749700</v>
+        <v>3199600</v>
       </c>
       <c r="I89" s="3">
-        <v>1281500</v>
+        <v>3622900</v>
       </c>
       <c r="J89" s="3">
+        <v>1238200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1589800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1009600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2103800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>563400</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-579200</v>
+        <v>-433100</v>
       </c>
       <c r="E91" s="3">
-        <v>-584900</v>
+        <v>-529100</v>
       </c>
       <c r="F91" s="3">
-        <v>-476500</v>
+        <v>-530200</v>
       </c>
       <c r="G91" s="3">
-        <v>-474200</v>
+        <v>-460400</v>
       </c>
       <c r="H91" s="3">
-        <v>-406500</v>
+        <v>-458200</v>
       </c>
       <c r="I91" s="3">
-        <v>-487800</v>
+        <v>-392700</v>
       </c>
       <c r="J91" s="3">
+        <v>-471300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-493400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-576600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-725800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1156200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1485900</v>
+        <v>-4005800</v>
       </c>
       <c r="E94" s="3">
-        <v>-680800</v>
+        <v>-1382200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1677800</v>
+        <v>-558500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3612000</v>
+        <v>-1621100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1233000</v>
+        <v>-3489800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2091100</v>
+        <v>-1191300</v>
       </c>
       <c r="J94" s="3">
+        <v>-2020400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1011700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1087300</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1606900</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-525800</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1100</v>
       </c>
-      <c r="E96" s="3">
-        <v>-511500</v>
-      </c>
       <c r="F96" s="3">
-        <v>-452800</v>
+        <v>-494200</v>
       </c>
       <c r="G96" s="3">
-        <v>-433600</v>
+        <v>-437500</v>
       </c>
       <c r="H96" s="3">
-        <v>-372600</v>
+        <v>-418900</v>
       </c>
       <c r="I96" s="3">
-        <v>-336500</v>
+        <v>-360000</v>
       </c>
       <c r="J96" s="3">
+        <v>-325100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-329700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-325400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-280000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-304000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>545400</v>
+        <v>-2560400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1880000</v>
+        <v>526900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1345900</v>
+        <v>-1810900</v>
       </c>
       <c r="G100" s="3">
-        <v>62100</v>
+        <v>-1300400</v>
       </c>
       <c r="H100" s="3">
-        <v>-1855100</v>
+        <v>60000</v>
       </c>
       <c r="I100" s="3">
-        <v>597300</v>
+        <v>-1792400</v>
       </c>
       <c r="J100" s="3">
+        <v>577100</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1342500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1484500</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2101100</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-62100</v>
+        <v>70900</v>
       </c>
       <c r="E101" s="3">
-        <v>-2300</v>
+        <v>-60000</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="G101" s="3">
-        <v>-207800</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-19200</v>
+        <v>-200700</v>
       </c>
       <c r="I101" s="3">
-        <v>90300</v>
+        <v>-18500</v>
       </c>
       <c r="J101" s="3">
+        <v>87300</v>
+      </c>
+      <c r="K101" s="3">
         <v>96000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-75400</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8200</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>2033500</v>
+        <v>-1005800</v>
       </c>
       <c r="E102" s="3">
-        <v>-298100</v>
+        <v>1964700</v>
       </c>
       <c r="F102" s="3">
-        <v>-283400</v>
+        <v>-286900</v>
       </c>
       <c r="G102" s="3">
-        <v>-446000</v>
+        <v>-273800</v>
       </c>
       <c r="H102" s="3">
-        <v>642500</v>
+        <v>-430900</v>
       </c>
       <c r="I102" s="3">
-        <v>-121900</v>
+        <v>620700</v>
       </c>
       <c r="J102" s="3">
+        <v>-117800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-668400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1637600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>754300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3152900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18715700</v>
+        <v>17806200</v>
       </c>
       <c r="E8" s="3">
-        <v>18886900</v>
+        <v>17969200</v>
       </c>
       <c r="F8" s="3">
-        <v>18705800</v>
+        <v>17796900</v>
       </c>
       <c r="G8" s="3">
-        <v>19768400</v>
+        <v>18807800</v>
       </c>
       <c r="H8" s="3">
-        <v>19396400</v>
+        <v>18453900</v>
       </c>
       <c r="I8" s="3">
-        <v>19005800</v>
+        <v>18082300</v>
       </c>
       <c r="J8" s="3">
-        <v>18333800</v>
+        <v>17442900</v>
       </c>
       <c r="K8" s="3">
         <v>24152600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10794600</v>
+        <v>10270000</v>
       </c>
       <c r="E9" s="3">
-        <v>10167300</v>
+        <v>9673200</v>
       </c>
       <c r="F9" s="3">
-        <v>21408000</v>
+        <v>20367700</v>
       </c>
       <c r="G9" s="3">
-        <v>10437800</v>
+        <v>9930600</v>
       </c>
       <c r="H9" s="3">
-        <v>10472700</v>
+        <v>9963800</v>
       </c>
       <c r="I9" s="3">
-        <v>10346200</v>
+        <v>9843400</v>
       </c>
       <c r="J9" s="3">
-        <v>10466200</v>
+        <v>9957600</v>
       </c>
       <c r="K9" s="3">
         <v>14887200</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7921100</v>
+        <v>7536200</v>
       </c>
       <c r="E10" s="3">
-        <v>8719600</v>
+        <v>8295900</v>
       </c>
       <c r="F10" s="3">
-        <v>-2702200</v>
+        <v>-2570900</v>
       </c>
       <c r="G10" s="3">
-        <v>9330600</v>
+        <v>8877200</v>
       </c>
       <c r="H10" s="3">
-        <v>8923600</v>
+        <v>8490000</v>
       </c>
       <c r="I10" s="3">
-        <v>8659600</v>
+        <v>8238900</v>
       </c>
       <c r="J10" s="3">
-        <v>7867600</v>
+        <v>7485300</v>
       </c>
       <c r="K10" s="3">
         <v>9265400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1860000</v>
+        <v>1769600</v>
       </c>
       <c r="E12" s="3">
-        <v>1844700</v>
+        <v>1755100</v>
       </c>
       <c r="F12" s="3">
-        <v>3843300</v>
+        <v>3656500</v>
       </c>
       <c r="G12" s="3">
-        <v>1836000</v>
+        <v>1746800</v>
       </c>
       <c r="H12" s="3">
-        <v>1812000</v>
+        <v>1724000</v>
       </c>
       <c r="I12" s="3">
-        <v>1820700</v>
+        <v>1732300</v>
       </c>
       <c r="J12" s="3">
-        <v>1704000</v>
+        <v>1621200</v>
       </c>
       <c r="K12" s="3">
         <v>1846100</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>462500</v>
+        <v>440100</v>
       </c>
       <c r="E14" s="3">
-        <v>633800</v>
+        <v>603000</v>
       </c>
       <c r="F14" s="3">
-        <v>669800</v>
+        <v>637300</v>
       </c>
       <c r="G14" s="3">
-        <v>196400</v>
+        <v>186800</v>
       </c>
       <c r="H14" s="3">
-        <v>297800</v>
+        <v>283300</v>
       </c>
       <c r="I14" s="3">
-        <v>27300</v>
+        <v>25900</v>
       </c>
       <c r="J14" s="3">
-        <v>50200</v>
+        <v>47700</v>
       </c>
       <c r="K14" s="3">
         <v>3400</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>18112400</v>
+        <v>17232300</v>
       </c>
       <c r="E17" s="3">
-        <v>17508000</v>
+        <v>16657300</v>
       </c>
       <c r="F17" s="3">
-        <v>17215700</v>
+        <v>16379100</v>
       </c>
       <c r="G17" s="3">
-        <v>17893100</v>
+        <v>17023600</v>
       </c>
       <c r="H17" s="3">
-        <v>17743700</v>
+        <v>16881400</v>
       </c>
       <c r="I17" s="3">
-        <v>17434900</v>
+        <v>16587700</v>
       </c>
       <c r="J17" s="3">
-        <v>17666200</v>
+        <v>16807800</v>
       </c>
       <c r="K17" s="3">
         <v>23603800</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>603300</v>
+        <v>574000</v>
       </c>
       <c r="E18" s="3">
-        <v>1378900</v>
+        <v>1311900</v>
       </c>
       <c r="F18" s="3">
-        <v>1490200</v>
+        <v>1417800</v>
       </c>
       <c r="G18" s="3">
-        <v>1875300</v>
+        <v>1784200</v>
       </c>
       <c r="H18" s="3">
-        <v>1652700</v>
+        <v>1572400</v>
       </c>
       <c r="I18" s="3">
-        <v>1570900</v>
+        <v>1494600</v>
       </c>
       <c r="J18" s="3">
-        <v>667600</v>
+        <v>635200</v>
       </c>
       <c r="K18" s="3">
         <v>548700</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>112400</v>
+        <v>106900</v>
       </c>
       <c r="E20" s="3">
-        <v>110200</v>
+        <v>104800</v>
       </c>
       <c r="F20" s="3">
-        <v>75300</v>
+        <v>71600</v>
       </c>
       <c r="G20" s="3">
-        <v>-30500</v>
+        <v>-29100</v>
       </c>
       <c r="H20" s="3">
-        <v>91600</v>
+        <v>87200</v>
       </c>
       <c r="I20" s="3">
-        <v>-62200</v>
+        <v>-59200</v>
       </c>
       <c r="J20" s="3">
-        <v>74200</v>
+        <v>70600</v>
       </c>
       <c r="K20" s="3">
         <v>-20300</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2180900</v>
+        <v>2071500</v>
       </c>
       <c r="E21" s="3">
-        <v>3108300</v>
+        <v>2953400</v>
       </c>
       <c r="F21" s="3">
-        <v>3052800</v>
+        <v>2901000</v>
       </c>
       <c r="G21" s="3">
-        <v>3050800</v>
+        <v>2899700</v>
       </c>
       <c r="H21" s="3">
-        <v>2879600</v>
+        <v>2737000</v>
       </c>
       <c r="I21" s="3">
-        <v>2589700</v>
+        <v>2461300</v>
       </c>
       <c r="J21" s="3">
-        <v>1818300</v>
+        <v>1727400</v>
       </c>
       <c r="K21" s="3">
         <v>1871700</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>160400</v>
+        <v>152600</v>
       </c>
       <c r="E22" s="3">
-        <v>168000</v>
+        <v>159800</v>
       </c>
       <c r="F22" s="3">
-        <v>204000</v>
+        <v>194100</v>
       </c>
       <c r="G22" s="3">
-        <v>205100</v>
+        <v>195100</v>
       </c>
       <c r="H22" s="3">
-        <v>242200</v>
+        <v>230400</v>
       </c>
       <c r="I22" s="3">
-        <v>380700</v>
+        <v>362200</v>
       </c>
       <c r="J22" s="3">
-        <v>382900</v>
+        <v>364300</v>
       </c>
       <c r="K22" s="3">
         <v>319500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>555300</v>
+        <v>528300</v>
       </c>
       <c r="E23" s="3">
-        <v>1321100</v>
+        <v>1256900</v>
       </c>
       <c r="F23" s="3">
-        <v>1361500</v>
+        <v>1295300</v>
       </c>
       <c r="G23" s="3">
-        <v>1639600</v>
+        <v>1560000</v>
       </c>
       <c r="H23" s="3">
-        <v>1502200</v>
+        <v>1429200</v>
       </c>
       <c r="I23" s="3">
-        <v>1128000</v>
+        <v>1073200</v>
       </c>
       <c r="J23" s="3">
-        <v>358900</v>
+        <v>341500</v>
       </c>
       <c r="K23" s="3">
         <v>208900</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-112400</v>
+        <v>-106900</v>
       </c>
       <c r="E24" s="3">
-        <v>231300</v>
+        <v>220000</v>
       </c>
       <c r="F24" s="3">
-        <v>281500</v>
+        <v>267800</v>
       </c>
       <c r="G24" s="3">
-        <v>210500</v>
+        <v>200300</v>
       </c>
       <c r="H24" s="3">
-        <v>380700</v>
+        <v>362200</v>
       </c>
       <c r="I24" s="3">
-        <v>221500</v>
+        <v>210700</v>
       </c>
       <c r="J24" s="3">
-        <v>184400</v>
+        <v>175400</v>
       </c>
       <c r="K24" s="3">
         <v>29400</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>667600</v>
+        <v>635200</v>
       </c>
       <c r="E26" s="3">
-        <v>1089800</v>
+        <v>1036900</v>
       </c>
       <c r="F26" s="3">
-        <v>1080000</v>
+        <v>1027500</v>
       </c>
       <c r="G26" s="3">
-        <v>1429100</v>
+        <v>1359600</v>
       </c>
       <c r="H26" s="3">
-        <v>1121500</v>
+        <v>1067000</v>
       </c>
       <c r="I26" s="3">
-        <v>906500</v>
+        <v>862500</v>
       </c>
       <c r="J26" s="3">
-        <v>174500</v>
+        <v>166100</v>
       </c>
       <c r="K26" s="3">
         <v>179500</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>663300</v>
+        <v>631000</v>
       </c>
       <c r="E27" s="3">
-        <v>1080000</v>
+        <v>1027500</v>
       </c>
       <c r="F27" s="3">
-        <v>1073500</v>
+        <v>1021300</v>
       </c>
       <c r="G27" s="3">
-        <v>1421500</v>
+        <v>1352400</v>
       </c>
       <c r="H27" s="3">
-        <v>888000</v>
+        <v>844900</v>
       </c>
       <c r="I27" s="3">
-        <v>873800</v>
+        <v>831400</v>
       </c>
       <c r="J27" s="3">
-        <v>190900</v>
+        <v>181600</v>
       </c>
       <c r="K27" s="3">
         <v>254000</v>
@@ -1473,25 +1473,25 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>2957500</v>
+        <v>2813700</v>
       </c>
       <c r="E29" s="3">
-        <v>213800</v>
+        <v>203400</v>
       </c>
       <c r="F29" s="3">
-        <v>199600</v>
+        <v>189900</v>
       </c>
       <c r="G29" s="3">
-        <v>-232400</v>
+        <v>-221100</v>
       </c>
       <c r="H29" s="3">
-        <v>919600</v>
+        <v>874900</v>
       </c>
       <c r="I29" s="3">
-        <v>720000</v>
+        <v>685000</v>
       </c>
       <c r="J29" s="3">
-        <v>522500</v>
+        <v>497200</v>
       </c>
       <c r="K29" s="3">
         <v>214500</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-112400</v>
+        <v>-106900</v>
       </c>
       <c r="E32" s="3">
-        <v>-110200</v>
+        <v>-104800</v>
       </c>
       <c r="F32" s="3">
-        <v>-75300</v>
+        <v>-71600</v>
       </c>
       <c r="G32" s="3">
-        <v>30500</v>
+        <v>29100</v>
       </c>
       <c r="H32" s="3">
-        <v>-91600</v>
+        <v>-87200</v>
       </c>
       <c r="I32" s="3">
-        <v>62200</v>
+        <v>59200</v>
       </c>
       <c r="J32" s="3">
-        <v>-74200</v>
+        <v>-70600</v>
       </c>
       <c r="K32" s="3">
         <v>20300</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>3620700</v>
+        <v>3444800</v>
       </c>
       <c r="E33" s="3">
-        <v>1293800</v>
+        <v>1230900</v>
       </c>
       <c r="F33" s="3">
-        <v>1273100</v>
+        <v>1211200</v>
       </c>
       <c r="G33" s="3">
-        <v>1189100</v>
+        <v>1131300</v>
       </c>
       <c r="H33" s="3">
-        <v>1807600</v>
+        <v>1719800</v>
       </c>
       <c r="I33" s="3">
-        <v>1593800</v>
+        <v>1516400</v>
       </c>
       <c r="J33" s="3">
-        <v>713500</v>
+        <v>678800</v>
       </c>
       <c r="K33" s="3">
         <v>468600</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>3620700</v>
+        <v>3444800</v>
       </c>
       <c r="E35" s="3">
-        <v>1293800</v>
+        <v>1230900</v>
       </c>
       <c r="F35" s="3">
-        <v>1273100</v>
+        <v>1211200</v>
       </c>
       <c r="G35" s="3">
-        <v>1189100</v>
+        <v>1131300</v>
       </c>
       <c r="H35" s="3">
-        <v>1807600</v>
+        <v>1719800</v>
       </c>
       <c r="I35" s="3">
-        <v>1593800</v>
+        <v>1516400</v>
       </c>
       <c r="J35" s="3">
-        <v>713500</v>
+        <v>678800</v>
       </c>
       <c r="K35" s="3">
         <v>468600</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2512400</v>
+        <v>2390300</v>
       </c>
       <c r="E41" s="3">
-        <v>3519300</v>
+        <v>3348300</v>
       </c>
       <c r="F41" s="3">
-        <v>1554500</v>
+        <v>1479000</v>
       </c>
       <c r="G41" s="3">
-        <v>1841500</v>
+        <v>1752000</v>
       </c>
       <c r="H41" s="3">
-        <v>2115300</v>
+        <v>2012500</v>
       </c>
       <c r="I41" s="3">
-        <v>2546200</v>
+        <v>2422500</v>
       </c>
       <c r="J41" s="3">
-        <v>1926500</v>
+        <v>1832900</v>
       </c>
       <c r="K41" s="3">
         <v>2114800</v>
@@ -1863,25 +1863,25 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G42" s="3">
-        <v>475600</v>
+        <v>452500</v>
       </c>
       <c r="H42" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="I42" s="3">
-        <v>110200</v>
+        <v>104800</v>
       </c>
       <c r="J42" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="K42" s="3">
         <v>141100</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>4677800</v>
+        <v>4450500</v>
       </c>
       <c r="E43" s="3">
-        <v>4975600</v>
+        <v>4733900</v>
       </c>
       <c r="F43" s="3">
-        <v>5475300</v>
+        <v>5209200</v>
       </c>
       <c r="G43" s="3">
-        <v>4863300</v>
+        <v>4627000</v>
       </c>
       <c r="H43" s="3">
-        <v>4586200</v>
+        <v>4363300</v>
       </c>
       <c r="I43" s="3">
-        <v>6228000</v>
+        <v>5925400</v>
       </c>
       <c r="J43" s="3">
-        <v>10994200</v>
+        <v>10460000</v>
       </c>
       <c r="K43" s="3">
         <v>10823600</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3763600</v>
+        <v>3580800</v>
       </c>
       <c r="E44" s="3">
-        <v>3265100</v>
+        <v>3106400</v>
       </c>
       <c r="F44" s="3">
-        <v>3025100</v>
+        <v>2878100</v>
       </c>
       <c r="G44" s="3">
-        <v>2917100</v>
+        <v>2775300</v>
       </c>
       <c r="H44" s="3">
-        <v>2566900</v>
+        <v>2442200</v>
       </c>
       <c r="I44" s="3">
-        <v>3700400</v>
+        <v>3520600</v>
       </c>
       <c r="J44" s="3">
-        <v>7555600</v>
+        <v>7188500</v>
       </c>
       <c r="K44" s="3">
         <v>7483700</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>331600</v>
+        <v>315500</v>
       </c>
       <c r="E45" s="3">
-        <v>487600</v>
+        <v>463900</v>
       </c>
       <c r="F45" s="3">
-        <v>262900</v>
+        <v>250100</v>
       </c>
       <c r="G45" s="3">
-        <v>344700</v>
+        <v>328000</v>
       </c>
       <c r="H45" s="3">
-        <v>1766200</v>
+        <v>1680400</v>
       </c>
       <c r="I45" s="3">
-        <v>2769800</v>
+        <v>2635200</v>
       </c>
       <c r="J45" s="3">
-        <v>3054500</v>
+        <v>2906100</v>
       </c>
       <c r="K45" s="3">
         <v>2966100</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>11287600</v>
+        <v>10739200</v>
       </c>
       <c r="E46" s="3">
-        <v>12247600</v>
+        <v>11652500</v>
       </c>
       <c r="F46" s="3">
-        <v>10318900</v>
+        <v>9817500</v>
       </c>
       <c r="G46" s="3">
-        <v>10442200</v>
+        <v>9934800</v>
       </c>
       <c r="H46" s="3">
-        <v>11036700</v>
+        <v>10500400</v>
       </c>
       <c r="I46" s="3">
-        <v>15354600</v>
+        <v>14608400</v>
       </c>
       <c r="J46" s="3">
-        <v>13846900</v>
+        <v>13174100</v>
       </c>
       <c r="K46" s="3">
         <v>13990700</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1396400</v>
+        <v>1328500</v>
       </c>
       <c r="E47" s="3">
-        <v>981800</v>
+        <v>934100</v>
       </c>
       <c r="F47" s="3">
-        <v>718900</v>
+        <v>684000</v>
       </c>
       <c r="G47" s="3">
-        <v>835600</v>
+        <v>795000</v>
       </c>
       <c r="H47" s="3">
-        <v>937100</v>
+        <v>891600</v>
       </c>
       <c r="I47" s="3">
-        <v>741800</v>
+        <v>705800</v>
       </c>
       <c r="J47" s="3">
-        <v>939300</v>
+        <v>893600</v>
       </c>
       <c r="K47" s="3">
         <v>1597700</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2944400</v>
+        <v>2801300</v>
       </c>
       <c r="E48" s="3">
-        <v>2925800</v>
+        <v>2783600</v>
       </c>
       <c r="F48" s="3">
-        <v>3126500</v>
+        <v>2974600</v>
       </c>
       <c r="G48" s="3">
-        <v>1867600</v>
+        <v>1776900</v>
       </c>
       <c r="H48" s="3">
-        <v>1735600</v>
+        <v>1651300</v>
       </c>
       <c r="I48" s="3">
-        <v>2350900</v>
+        <v>2236700</v>
       </c>
       <c r="J48" s="3">
-        <v>5066200</v>
+        <v>4820000</v>
       </c>
       <c r="K48" s="3">
         <v>4730900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15585800</v>
+        <v>14828500</v>
       </c>
       <c r="E49" s="3">
-        <v>12012000</v>
+        <v>11428300</v>
       </c>
       <c r="F49" s="3">
-        <v>13221800</v>
+        <v>12579300</v>
       </c>
       <c r="G49" s="3">
-        <v>13191300</v>
+        <v>12550300</v>
       </c>
       <c r="H49" s="3">
-        <v>12057800</v>
+        <v>11471900</v>
       </c>
       <c r="I49" s="3">
-        <v>13581800</v>
+        <v>12921900</v>
       </c>
       <c r="J49" s="3">
-        <v>17355300</v>
+        <v>16512000</v>
       </c>
       <c r="K49" s="3">
         <v>23769800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2561500</v>
+        <v>2437000</v>
       </c>
       <c r="E52" s="3">
-        <v>2065100</v>
+        <v>1964700</v>
       </c>
       <c r="F52" s="3">
-        <v>2085800</v>
+        <v>1984500</v>
       </c>
       <c r="G52" s="3">
-        <v>2047600</v>
+        <v>1948100</v>
       </c>
       <c r="H52" s="3">
-        <v>1849100</v>
+        <v>1759200</v>
       </c>
       <c r="I52" s="3">
-        <v>3174500</v>
+        <v>3020300</v>
       </c>
       <c r="J52" s="3">
-        <v>3146200</v>
+        <v>2993300</v>
       </c>
       <c r="K52" s="3">
         <v>2872400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33775700</v>
+        <v>32134400</v>
       </c>
       <c r="E54" s="3">
-        <v>30232400</v>
+        <v>28763300</v>
       </c>
       <c r="F54" s="3">
-        <v>29472000</v>
+        <v>28039900</v>
       </c>
       <c r="G54" s="3">
-        <v>28384400</v>
+        <v>27005100</v>
       </c>
       <c r="H54" s="3">
-        <v>27616400</v>
+        <v>26274400</v>
       </c>
       <c r="I54" s="3">
-        <v>35203700</v>
+        <v>33493000</v>
       </c>
       <c r="J54" s="3">
-        <v>33792000</v>
+        <v>32150000</v>
       </c>
       <c r="K54" s="3">
         <v>32012200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2042200</v>
+        <v>1942900</v>
       </c>
       <c r="E57" s="3">
-        <v>2311600</v>
+        <v>2199300</v>
       </c>
       <c r="F57" s="3">
-        <v>2278900</v>
+        <v>2168200</v>
       </c>
       <c r="G57" s="3">
-        <v>2512400</v>
+        <v>2390300</v>
       </c>
       <c r="H57" s="3">
-        <v>2280000</v>
+        <v>2169200</v>
       </c>
       <c r="I57" s="3">
-        <v>6210600</v>
+        <v>5908800</v>
       </c>
       <c r="J57" s="3">
-        <v>5827600</v>
+        <v>5544500</v>
       </c>
       <c r="K57" s="3">
         <v>5638700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>338200</v>
+        <v>321700</v>
       </c>
       <c r="E58" s="3">
-        <v>392700</v>
+        <v>373600</v>
       </c>
       <c r="F58" s="3">
-        <v>416700</v>
+        <v>396500</v>
       </c>
       <c r="G58" s="3">
-        <v>750500</v>
+        <v>714100</v>
       </c>
       <c r="H58" s="3">
-        <v>249800</v>
+        <v>237700</v>
       </c>
       <c r="I58" s="3">
-        <v>1729100</v>
+        <v>1645100</v>
       </c>
       <c r="J58" s="3">
-        <v>1816400</v>
+        <v>1728100</v>
       </c>
       <c r="K58" s="3">
         <v>442600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5746900</v>
+        <v>5467700</v>
       </c>
       <c r="E59" s="3">
-        <v>5733800</v>
+        <v>5455200</v>
       </c>
       <c r="F59" s="3">
-        <v>4916700</v>
+        <v>4677800</v>
       </c>
       <c r="G59" s="3">
-        <v>5402200</v>
+        <v>5139700</v>
       </c>
       <c r="H59" s="3">
-        <v>4960400</v>
+        <v>4719300</v>
       </c>
       <c r="I59" s="3">
-        <v>6592400</v>
+        <v>6272000</v>
       </c>
       <c r="J59" s="3">
-        <v>10596000</v>
+        <v>10081100</v>
       </c>
       <c r="K59" s="3">
         <v>11146500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8127300</v>
+        <v>7732400</v>
       </c>
       <c r="E60" s="3">
-        <v>8438200</v>
+        <v>8028200</v>
       </c>
       <c r="F60" s="3">
-        <v>7612400</v>
+        <v>7242500</v>
       </c>
       <c r="G60" s="3">
-        <v>8665100</v>
+        <v>8244000</v>
       </c>
       <c r="H60" s="3">
-        <v>7490200</v>
+        <v>7126200</v>
       </c>
       <c r="I60" s="3">
-        <v>11425100</v>
+        <v>10869900</v>
       </c>
       <c r="J60" s="3">
-        <v>10864400</v>
+        <v>10336400</v>
       </c>
       <c r="K60" s="3">
         <v>9796100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>6256400</v>
+        <v>5952400</v>
       </c>
       <c r="E61" s="3">
-        <v>6100400</v>
+        <v>5803900</v>
       </c>
       <c r="F61" s="3">
-        <v>5320400</v>
+        <v>5061800</v>
       </c>
       <c r="G61" s="3">
-        <v>3533500</v>
+        <v>3361800</v>
       </c>
       <c r="H61" s="3">
-        <v>3783300</v>
+        <v>3599400</v>
       </c>
       <c r="I61" s="3">
-        <v>4386500</v>
+        <v>4173400</v>
       </c>
       <c r="J61" s="3">
-        <v>4467300</v>
+        <v>4250200</v>
       </c>
       <c r="K61" s="3">
         <v>4191200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3601100</v>
+        <v>3426100</v>
       </c>
       <c r="E62" s="3">
-        <v>2710900</v>
+        <v>2579200</v>
       </c>
       <c r="F62" s="3">
-        <v>2766500</v>
+        <v>2632100</v>
       </c>
       <c r="G62" s="3">
-        <v>2967300</v>
+        <v>2823100</v>
       </c>
       <c r="H62" s="3">
-        <v>3226900</v>
+        <v>3070100</v>
       </c>
       <c r="I62" s="3">
-        <v>4716000</v>
+        <v>4486800</v>
       </c>
       <c r="J62" s="3">
-        <v>11340000</v>
+        <v>10789000</v>
       </c>
       <c r="K62" s="3">
         <v>7716300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18024000</v>
+        <v>17148200</v>
       </c>
       <c r="E66" s="3">
-        <v>17283300</v>
+        <v>16443400</v>
       </c>
       <c r="F66" s="3">
-        <v>15729800</v>
+        <v>14965500</v>
       </c>
       <c r="G66" s="3">
-        <v>15197500</v>
+        <v>14459000</v>
       </c>
       <c r="H66" s="3">
-        <v>14526600</v>
+        <v>13820700</v>
       </c>
       <c r="I66" s="3">
-        <v>21517100</v>
+        <v>20471500</v>
       </c>
       <c r="J66" s="3">
-        <v>21069800</v>
+        <v>20046000</v>
       </c>
       <c r="K66" s="3">
         <v>19742300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10193500</v>
+        <v>9698100</v>
       </c>
       <c r="E72" s="3">
-        <v>8539600</v>
+        <v>8124700</v>
       </c>
       <c r="F72" s="3">
-        <v>9050200</v>
+        <v>8610400</v>
       </c>
       <c r="G72" s="3">
-        <v>9017500</v>
+        <v>8579300</v>
       </c>
       <c r="H72" s="3">
-        <v>9377500</v>
+        <v>8921800</v>
       </c>
       <c r="I72" s="3">
-        <v>8921500</v>
+        <v>8487900</v>
       </c>
       <c r="J72" s="3">
-        <v>8770900</v>
+        <v>8344700</v>
       </c>
       <c r="K72" s="3">
         <v>9924800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15751600</v>
+        <v>14986200</v>
       </c>
       <c r="E76" s="3">
-        <v>12949100</v>
+        <v>12319900</v>
       </c>
       <c r="F76" s="3">
-        <v>13742200</v>
+        <v>13074400</v>
       </c>
       <c r="G76" s="3">
-        <v>13186900</v>
+        <v>12546100</v>
       </c>
       <c r="H76" s="3">
-        <v>13089800</v>
+        <v>12453800</v>
       </c>
       <c r="I76" s="3">
-        <v>13686600</v>
+        <v>13021500</v>
       </c>
       <c r="J76" s="3">
-        <v>12722200</v>
+        <v>12104000</v>
       </c>
       <c r="K76" s="3">
         <v>12269900</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>3620700</v>
+        <v>3444800</v>
       </c>
       <c r="E81" s="3">
-        <v>1293800</v>
+        <v>1230900</v>
       </c>
       <c r="F81" s="3">
-        <v>1273100</v>
+        <v>1211200</v>
       </c>
       <c r="G81" s="3">
-        <v>1189100</v>
+        <v>1131300</v>
       </c>
       <c r="H81" s="3">
-        <v>1807600</v>
+        <v>1719800</v>
       </c>
       <c r="I81" s="3">
-        <v>1593800</v>
+        <v>1516400</v>
       </c>
       <c r="J81" s="3">
-        <v>713500</v>
+        <v>678800</v>
       </c>
       <c r="K81" s="3">
         <v>468600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1443300</v>
+        <v>1373100</v>
       </c>
       <c r="E83" s="3">
-        <v>1594900</v>
+        <v>1517400</v>
       </c>
       <c r="F83" s="3">
-        <v>1465100</v>
+        <v>1393900</v>
       </c>
       <c r="G83" s="3">
-        <v>1188000</v>
+        <v>1130300</v>
       </c>
       <c r="H83" s="3">
-        <v>1118200</v>
+        <v>1063800</v>
       </c>
       <c r="I83" s="3">
-        <v>1064700</v>
+        <v>1013000</v>
       </c>
       <c r="J83" s="3">
-        <v>1060400</v>
+        <v>1008800</v>
       </c>
       <c r="K83" s="3">
         <v>1340200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5489500</v>
+        <v>5222700</v>
       </c>
       <c r="E89" s="3">
-        <v>2880000</v>
+        <v>2740100</v>
       </c>
       <c r="F89" s="3">
-        <v>2084700</v>
+        <v>1983400</v>
       </c>
       <c r="G89" s="3">
-        <v>2647600</v>
+        <v>2519000</v>
       </c>
       <c r="H89" s="3">
-        <v>3199600</v>
+        <v>3044200</v>
       </c>
       <c r="I89" s="3">
-        <v>3622900</v>
+        <v>3446900</v>
       </c>
       <c r="J89" s="3">
-        <v>1238200</v>
+        <v>1178000</v>
       </c>
       <c r="K89" s="3">
         <v>1589800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-433100</v>
+        <v>-412000</v>
       </c>
       <c r="E91" s="3">
-        <v>-529100</v>
+        <v>-503400</v>
       </c>
       <c r="F91" s="3">
-        <v>-530200</v>
+        <v>-504400</v>
       </c>
       <c r="G91" s="3">
-        <v>-460400</v>
+        <v>-438000</v>
       </c>
       <c r="H91" s="3">
-        <v>-458200</v>
+        <v>-435900</v>
       </c>
       <c r="I91" s="3">
-        <v>-392700</v>
+        <v>-373600</v>
       </c>
       <c r="J91" s="3">
-        <v>-471300</v>
+        <v>-448400</v>
       </c>
       <c r="K91" s="3">
         <v>-493400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4005800</v>
+        <v>-3811200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1382200</v>
+        <v>-1315000</v>
       </c>
       <c r="F94" s="3">
-        <v>-558500</v>
+        <v>-531400</v>
       </c>
       <c r="G94" s="3">
-        <v>-1621100</v>
+        <v>-1542300</v>
       </c>
       <c r="H94" s="3">
-        <v>-3489800</v>
+        <v>-3320200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1191300</v>
+        <v>-1133400</v>
       </c>
       <c r="J94" s="3">
-        <v>-2020400</v>
+        <v>-1922200</v>
       </c>
       <c r="K94" s="3">
         <v>-1011700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-525800</v>
+        <v>-500300</v>
       </c>
       <c r="E96" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="F96" s="3">
-        <v>-494200</v>
+        <v>-470200</v>
       </c>
       <c r="G96" s="3">
-        <v>-437500</v>
+        <v>-416200</v>
       </c>
       <c r="H96" s="3">
-        <v>-418900</v>
+        <v>-398600</v>
       </c>
       <c r="I96" s="3">
-        <v>-360000</v>
+        <v>-342500</v>
       </c>
       <c r="J96" s="3">
-        <v>-325100</v>
+        <v>-309300</v>
       </c>
       <c r="K96" s="3">
         <v>-329700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2560400</v>
+        <v>-2436000</v>
       </c>
       <c r="E100" s="3">
-        <v>526900</v>
+        <v>501300</v>
       </c>
       <c r="F100" s="3">
-        <v>-1810900</v>
+        <v>-1722900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1300400</v>
+        <v>-1237200</v>
       </c>
       <c r="H100" s="3">
-        <v>60000</v>
+        <v>57100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1792400</v>
+        <v>-1705300</v>
       </c>
       <c r="J100" s="3">
-        <v>577100</v>
+        <v>549000</v>
       </c>
       <c r="K100" s="3">
         <v>-1342500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>70900</v>
+        <v>67500</v>
       </c>
       <c r="E101" s="3">
-        <v>-60000</v>
+        <v>-57100</v>
       </c>
       <c r="F101" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-200700</v>
+        <v>-191000</v>
       </c>
       <c r="I101" s="3">
-        <v>-18500</v>
+        <v>-17600</v>
       </c>
       <c r="J101" s="3">
-        <v>87300</v>
+        <v>83000</v>
       </c>
       <c r="K101" s="3">
         <v>96000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1005800</v>
+        <v>-956900</v>
       </c>
       <c r="E102" s="3">
-        <v>1964700</v>
+        <v>1869300</v>
       </c>
       <c r="F102" s="3">
-        <v>-286900</v>
+        <v>-273000</v>
       </c>
       <c r="G102" s="3">
-        <v>-273800</v>
+        <v>-260500</v>
       </c>
       <c r="H102" s="3">
-        <v>-430900</v>
+        <v>-410000</v>
       </c>
       <c r="I102" s="3">
-        <v>620700</v>
+        <v>590600</v>
       </c>
       <c r="J102" s="3">
-        <v>-117800</v>
+        <v>-112100</v>
       </c>
       <c r="K102" s="3">
         <v>-668400</v>

--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17806200</v>
+        <v>17111400</v>
       </c>
       <c r="E8" s="3">
-        <v>17969200</v>
+        <v>17268000</v>
       </c>
       <c r="F8" s="3">
-        <v>17796900</v>
+        <v>17102400</v>
       </c>
       <c r="G8" s="3">
-        <v>18807800</v>
+        <v>18073900</v>
       </c>
       <c r="H8" s="3">
-        <v>18453900</v>
+        <v>17733800</v>
       </c>
       <c r="I8" s="3">
-        <v>18082300</v>
+        <v>17376700</v>
       </c>
       <c r="J8" s="3">
-        <v>17442900</v>
+        <v>16762300</v>
       </c>
       <c r="K8" s="3">
         <v>24152600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10270000</v>
+        <v>9869300</v>
       </c>
       <c r="E9" s="3">
-        <v>9673200</v>
+        <v>9295800</v>
       </c>
       <c r="F9" s="3">
-        <v>20367700</v>
+        <v>19573000</v>
       </c>
       <c r="G9" s="3">
-        <v>9930600</v>
+        <v>9543100</v>
       </c>
       <c r="H9" s="3">
-        <v>9963800</v>
+        <v>9575000</v>
       </c>
       <c r="I9" s="3">
-        <v>9843400</v>
+        <v>9459300</v>
       </c>
       <c r="J9" s="3">
-        <v>9957600</v>
+        <v>9569100</v>
       </c>
       <c r="K9" s="3">
         <v>14887200</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7536200</v>
+        <v>7242100</v>
       </c>
       <c r="E10" s="3">
-        <v>8295900</v>
+        <v>7972200</v>
       </c>
       <c r="F10" s="3">
-        <v>-2570900</v>
+        <v>-2470600</v>
       </c>
       <c r="G10" s="3">
-        <v>8877200</v>
+        <v>8530800</v>
       </c>
       <c r="H10" s="3">
-        <v>8490000</v>
+        <v>8158700</v>
       </c>
       <c r="I10" s="3">
-        <v>8238900</v>
+        <v>7917400</v>
       </c>
       <c r="J10" s="3">
-        <v>7485300</v>
+        <v>7193200</v>
       </c>
       <c r="K10" s="3">
         <v>9265400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1769600</v>
+        <v>1700600</v>
       </c>
       <c r="E12" s="3">
-        <v>1755100</v>
+        <v>1686600</v>
       </c>
       <c r="F12" s="3">
-        <v>3656500</v>
+        <v>3513800</v>
       </c>
       <c r="G12" s="3">
-        <v>1746800</v>
+        <v>1678600</v>
       </c>
       <c r="H12" s="3">
-        <v>1724000</v>
+        <v>1656700</v>
       </c>
       <c r="I12" s="3">
-        <v>1732300</v>
+        <v>1664700</v>
       </c>
       <c r="J12" s="3">
-        <v>1621200</v>
+        <v>1557900</v>
       </c>
       <c r="K12" s="3">
         <v>1846100</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>440100</v>
+        <v>422900</v>
       </c>
       <c r="E14" s="3">
-        <v>603000</v>
+        <v>579500</v>
       </c>
       <c r="F14" s="3">
-        <v>637300</v>
+        <v>612400</v>
       </c>
       <c r="G14" s="3">
-        <v>186800</v>
+        <v>179500</v>
       </c>
       <c r="H14" s="3">
-        <v>283300</v>
+        <v>272300</v>
       </c>
       <c r="I14" s="3">
-        <v>25900</v>
+        <v>24900</v>
       </c>
       <c r="J14" s="3">
-        <v>47700</v>
+        <v>45900</v>
       </c>
       <c r="K14" s="3">
         <v>3400</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>17232300</v>
+        <v>16559800</v>
       </c>
       <c r="E17" s="3">
-        <v>16657300</v>
+        <v>16007300</v>
       </c>
       <c r="F17" s="3">
-        <v>16379100</v>
+        <v>15740000</v>
       </c>
       <c r="G17" s="3">
-        <v>17023600</v>
+        <v>16359400</v>
       </c>
       <c r="H17" s="3">
-        <v>16881400</v>
+        <v>16222700</v>
       </c>
       <c r="I17" s="3">
-        <v>16587700</v>
+        <v>15940400</v>
       </c>
       <c r="J17" s="3">
-        <v>16807800</v>
+        <v>16151900</v>
       </c>
       <c r="K17" s="3">
         <v>23603800</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>574000</v>
+        <v>551600</v>
       </c>
       <c r="E18" s="3">
-        <v>1311900</v>
+        <v>1260700</v>
       </c>
       <c r="F18" s="3">
-        <v>1417800</v>
+        <v>1362400</v>
       </c>
       <c r="G18" s="3">
-        <v>1784200</v>
+        <v>1714500</v>
       </c>
       <c r="H18" s="3">
-        <v>1572400</v>
+        <v>1511100</v>
       </c>
       <c r="I18" s="3">
-        <v>1494600</v>
+        <v>1436300</v>
       </c>
       <c r="J18" s="3">
-        <v>635200</v>
+        <v>610400</v>
       </c>
       <c r="K18" s="3">
         <v>548700</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>106900</v>
+        <v>102700</v>
       </c>
       <c r="E20" s="3">
-        <v>104800</v>
+        <v>100700</v>
       </c>
       <c r="F20" s="3">
-        <v>71600</v>
+        <v>68800</v>
       </c>
       <c r="G20" s="3">
-        <v>-29100</v>
+        <v>-27900</v>
       </c>
       <c r="H20" s="3">
-        <v>87200</v>
+        <v>83800</v>
       </c>
       <c r="I20" s="3">
-        <v>-59200</v>
+        <v>-56900</v>
       </c>
       <c r="J20" s="3">
-        <v>70600</v>
+        <v>67800</v>
       </c>
       <c r="K20" s="3">
         <v>-20300</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>2071500</v>
+        <v>1972700</v>
       </c>
       <c r="E21" s="3">
-        <v>2953400</v>
+        <v>2818300</v>
       </c>
       <c r="F21" s="3">
-        <v>2901000</v>
+        <v>2769600</v>
       </c>
       <c r="G21" s="3">
-        <v>2899700</v>
+        <v>2771800</v>
       </c>
       <c r="H21" s="3">
-        <v>2737000</v>
+        <v>2616300</v>
       </c>
       <c r="I21" s="3">
-        <v>2461300</v>
+        <v>2352000</v>
       </c>
       <c r="J21" s="3">
-        <v>1727400</v>
+        <v>1646800</v>
       </c>
       <c r="K21" s="3">
         <v>1871700</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>152600</v>
+        <v>146600</v>
       </c>
       <c r="E22" s="3">
-        <v>159800</v>
+        <v>153600</v>
       </c>
       <c r="F22" s="3">
-        <v>194100</v>
+        <v>186500</v>
       </c>
       <c r="G22" s="3">
-        <v>195100</v>
+        <v>187500</v>
       </c>
       <c r="H22" s="3">
-        <v>230400</v>
+        <v>221400</v>
       </c>
       <c r="I22" s="3">
-        <v>362200</v>
+        <v>348100</v>
       </c>
       <c r="J22" s="3">
-        <v>364300</v>
+        <v>350100</v>
       </c>
       <c r="K22" s="3">
         <v>319500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>528300</v>
+        <v>507700</v>
       </c>
       <c r="E23" s="3">
-        <v>1256900</v>
+        <v>1207900</v>
       </c>
       <c r="F23" s="3">
-        <v>1295300</v>
+        <v>1244800</v>
       </c>
       <c r="G23" s="3">
-        <v>1560000</v>
+        <v>1499100</v>
       </c>
       <c r="H23" s="3">
-        <v>1429200</v>
+        <v>1373400</v>
       </c>
       <c r="I23" s="3">
-        <v>1073200</v>
+        <v>1031300</v>
       </c>
       <c r="J23" s="3">
-        <v>341500</v>
+        <v>328100</v>
       </c>
       <c r="K23" s="3">
         <v>208900</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-106900</v>
+        <v>-102700</v>
       </c>
       <c r="E24" s="3">
-        <v>220000</v>
+        <v>211400</v>
       </c>
       <c r="F24" s="3">
-        <v>267800</v>
+        <v>257300</v>
       </c>
       <c r="G24" s="3">
-        <v>200300</v>
+        <v>192500</v>
       </c>
       <c r="H24" s="3">
-        <v>362200</v>
+        <v>348100</v>
       </c>
       <c r="I24" s="3">
-        <v>210700</v>
+        <v>202500</v>
       </c>
       <c r="J24" s="3">
-        <v>175400</v>
+        <v>168600</v>
       </c>
       <c r="K24" s="3">
         <v>29400</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>635200</v>
+        <v>610400</v>
       </c>
       <c r="E26" s="3">
-        <v>1036900</v>
+        <v>996400</v>
       </c>
       <c r="F26" s="3">
-        <v>1027500</v>
+        <v>987400</v>
       </c>
       <c r="G26" s="3">
-        <v>1359600</v>
+        <v>1306600</v>
       </c>
       <c r="H26" s="3">
-        <v>1067000</v>
+        <v>1025300</v>
       </c>
       <c r="I26" s="3">
-        <v>862500</v>
+        <v>828800</v>
       </c>
       <c r="J26" s="3">
-        <v>166100</v>
+        <v>159600</v>
       </c>
       <c r="K26" s="3">
         <v>179500</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>631000</v>
+        <v>606400</v>
       </c>
       <c r="E27" s="3">
-        <v>1027500</v>
+        <v>987400</v>
       </c>
       <c r="F27" s="3">
-        <v>1021300</v>
+        <v>981400</v>
       </c>
       <c r="G27" s="3">
-        <v>1352400</v>
+        <v>1299600</v>
       </c>
       <c r="H27" s="3">
-        <v>844900</v>
+        <v>811900</v>
       </c>
       <c r="I27" s="3">
-        <v>831400</v>
+        <v>798900</v>
       </c>
       <c r="J27" s="3">
-        <v>181600</v>
+        <v>174500</v>
       </c>
       <c r="K27" s="3">
         <v>254000</v>
@@ -1473,25 +1473,25 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>2813700</v>
+        <v>2704000</v>
       </c>
       <c r="E29" s="3">
-        <v>203400</v>
+        <v>195500</v>
       </c>
       <c r="F29" s="3">
-        <v>189900</v>
+        <v>182500</v>
       </c>
       <c r="G29" s="3">
-        <v>-221100</v>
+        <v>-212400</v>
       </c>
       <c r="H29" s="3">
-        <v>874900</v>
+        <v>840800</v>
       </c>
       <c r="I29" s="3">
-        <v>685000</v>
+        <v>658300</v>
       </c>
       <c r="J29" s="3">
-        <v>497200</v>
+        <v>477800</v>
       </c>
       <c r="K29" s="3">
         <v>214500</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-106900</v>
+        <v>-102700</v>
       </c>
       <c r="E32" s="3">
-        <v>-104800</v>
+        <v>-100700</v>
       </c>
       <c r="F32" s="3">
-        <v>-71600</v>
+        <v>-68800</v>
       </c>
       <c r="G32" s="3">
-        <v>29100</v>
+        <v>27900</v>
       </c>
       <c r="H32" s="3">
-        <v>-87200</v>
+        <v>-83800</v>
       </c>
       <c r="I32" s="3">
-        <v>59200</v>
+        <v>56900</v>
       </c>
       <c r="J32" s="3">
-        <v>-70600</v>
+        <v>-67800</v>
       </c>
       <c r="K32" s="3">
         <v>20300</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>3444800</v>
+        <v>3310400</v>
       </c>
       <c r="E33" s="3">
-        <v>1230900</v>
+        <v>1182900</v>
       </c>
       <c r="F33" s="3">
-        <v>1211200</v>
+        <v>1164000</v>
       </c>
       <c r="G33" s="3">
-        <v>1131300</v>
+        <v>1087200</v>
       </c>
       <c r="H33" s="3">
-        <v>1719800</v>
+        <v>1652700</v>
       </c>
       <c r="I33" s="3">
-        <v>1516400</v>
+        <v>1457200</v>
       </c>
       <c r="J33" s="3">
-        <v>678800</v>
+        <v>652300</v>
       </c>
       <c r="K33" s="3">
         <v>468600</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>3444800</v>
+        <v>3310400</v>
       </c>
       <c r="E35" s="3">
-        <v>1230900</v>
+        <v>1182900</v>
       </c>
       <c r="F35" s="3">
-        <v>1211200</v>
+        <v>1164000</v>
       </c>
       <c r="G35" s="3">
-        <v>1131300</v>
+        <v>1087200</v>
       </c>
       <c r="H35" s="3">
-        <v>1719800</v>
+        <v>1652700</v>
       </c>
       <c r="I35" s="3">
-        <v>1516400</v>
+        <v>1457200</v>
       </c>
       <c r="J35" s="3">
-        <v>678800</v>
+        <v>652300</v>
       </c>
       <c r="K35" s="3">
         <v>468600</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2390300</v>
+        <v>2297000</v>
       </c>
       <c r="E41" s="3">
-        <v>3348300</v>
+        <v>3217600</v>
       </c>
       <c r="F41" s="3">
-        <v>1479000</v>
+        <v>1421300</v>
       </c>
       <c r="G41" s="3">
-        <v>1752000</v>
+        <v>1683600</v>
       </c>
       <c r="H41" s="3">
-        <v>2012500</v>
+        <v>1934000</v>
       </c>
       <c r="I41" s="3">
-        <v>2422500</v>
+        <v>2327900</v>
       </c>
       <c r="J41" s="3">
-        <v>1832900</v>
+        <v>1761400</v>
       </c>
       <c r="K41" s="3">
         <v>2114800</v>
@@ -1863,7 +1863,7 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1872,16 +1872,16 @@
         <v>1000</v>
       </c>
       <c r="G42" s="3">
-        <v>452500</v>
+        <v>434900</v>
       </c>
       <c r="H42" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="I42" s="3">
-        <v>104800</v>
+        <v>100700</v>
       </c>
       <c r="J42" s="3">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="K42" s="3">
         <v>141100</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>4450500</v>
+        <v>4276900</v>
       </c>
       <c r="E43" s="3">
-        <v>4733900</v>
+        <v>4549100</v>
       </c>
       <c r="F43" s="3">
-        <v>5209200</v>
+        <v>5006000</v>
       </c>
       <c r="G43" s="3">
-        <v>4627000</v>
+        <v>4446400</v>
       </c>
       <c r="H43" s="3">
-        <v>4363300</v>
+        <v>4193100</v>
       </c>
       <c r="I43" s="3">
-        <v>5925400</v>
+        <v>5694200</v>
       </c>
       <c r="J43" s="3">
-        <v>10460000</v>
+        <v>10051800</v>
       </c>
       <c r="K43" s="3">
         <v>10823600</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3580800</v>
+        <v>3441000</v>
       </c>
       <c r="E44" s="3">
-        <v>3106400</v>
+        <v>2985200</v>
       </c>
       <c r="F44" s="3">
-        <v>2878100</v>
+        <v>2765800</v>
       </c>
       <c r="G44" s="3">
-        <v>2775300</v>
+        <v>2667000</v>
       </c>
       <c r="H44" s="3">
-        <v>2442200</v>
+        <v>2346900</v>
       </c>
       <c r="I44" s="3">
-        <v>3520600</v>
+        <v>3383200</v>
       </c>
       <c r="J44" s="3">
-        <v>7188500</v>
+        <v>6908000</v>
       </c>
       <c r="K44" s="3">
         <v>7483700</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>315500</v>
+        <v>303200</v>
       </c>
       <c r="E45" s="3">
-        <v>463900</v>
+        <v>445800</v>
       </c>
       <c r="F45" s="3">
-        <v>250100</v>
+        <v>240400</v>
       </c>
       <c r="G45" s="3">
-        <v>328000</v>
+        <v>315200</v>
       </c>
       <c r="H45" s="3">
-        <v>1680400</v>
+        <v>1614800</v>
       </c>
       <c r="I45" s="3">
-        <v>2635200</v>
+        <v>2532400</v>
       </c>
       <c r="J45" s="3">
-        <v>2906100</v>
+        <v>2792700</v>
       </c>
       <c r="K45" s="3">
         <v>2966100</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>10739200</v>
+        <v>10320100</v>
       </c>
       <c r="E46" s="3">
-        <v>11652500</v>
+        <v>11197800</v>
       </c>
       <c r="F46" s="3">
-        <v>9817500</v>
+        <v>9434400</v>
       </c>
       <c r="G46" s="3">
-        <v>9934800</v>
+        <v>9547100</v>
       </c>
       <c r="H46" s="3">
-        <v>10500400</v>
+        <v>10090700</v>
       </c>
       <c r="I46" s="3">
-        <v>14608400</v>
+        <v>14038400</v>
       </c>
       <c r="J46" s="3">
-        <v>13174100</v>
+        <v>12660000</v>
       </c>
       <c r="K46" s="3">
         <v>13990700</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1328500</v>
+        <v>1276700</v>
       </c>
       <c r="E47" s="3">
-        <v>934100</v>
+        <v>897700</v>
       </c>
       <c r="F47" s="3">
-        <v>684000</v>
+        <v>657300</v>
       </c>
       <c r="G47" s="3">
-        <v>795000</v>
+        <v>764000</v>
       </c>
       <c r="H47" s="3">
-        <v>891600</v>
+        <v>856800</v>
       </c>
       <c r="I47" s="3">
-        <v>705800</v>
+        <v>678200</v>
       </c>
       <c r="J47" s="3">
-        <v>893600</v>
+        <v>858800</v>
       </c>
       <c r="K47" s="3">
         <v>1597700</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2801300</v>
+        <v>2692000</v>
       </c>
       <c r="E48" s="3">
-        <v>2783600</v>
+        <v>2675000</v>
       </c>
       <c r="F48" s="3">
-        <v>2974600</v>
+        <v>2858500</v>
       </c>
       <c r="G48" s="3">
-        <v>1776900</v>
+        <v>1707500</v>
       </c>
       <c r="H48" s="3">
-        <v>1651300</v>
+        <v>1586900</v>
       </c>
       <c r="I48" s="3">
-        <v>2236700</v>
+        <v>2149400</v>
       </c>
       <c r="J48" s="3">
-        <v>4820000</v>
+        <v>4631900</v>
       </c>
       <c r="K48" s="3">
         <v>4730900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14828500</v>
+        <v>14249900</v>
       </c>
       <c r="E49" s="3">
-        <v>11428300</v>
+        <v>10982400</v>
       </c>
       <c r="F49" s="3">
-        <v>12579300</v>
+        <v>12088500</v>
       </c>
       <c r="G49" s="3">
-        <v>12550300</v>
+        <v>12060600</v>
       </c>
       <c r="H49" s="3">
-        <v>11471900</v>
+        <v>11024300</v>
       </c>
       <c r="I49" s="3">
-        <v>12921900</v>
+        <v>12417600</v>
       </c>
       <c r="J49" s="3">
-        <v>16512000</v>
+        <v>15867600</v>
       </c>
       <c r="K49" s="3">
         <v>23769800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2437000</v>
+        <v>2341900</v>
       </c>
       <c r="E52" s="3">
-        <v>1964700</v>
+        <v>1888100</v>
       </c>
       <c r="F52" s="3">
-        <v>1984500</v>
+        <v>1907000</v>
       </c>
       <c r="G52" s="3">
-        <v>1948100</v>
+        <v>1872100</v>
       </c>
       <c r="H52" s="3">
-        <v>1759200</v>
+        <v>1690600</v>
       </c>
       <c r="I52" s="3">
-        <v>3020300</v>
+        <v>2902400</v>
       </c>
       <c r="J52" s="3">
-        <v>2993300</v>
+        <v>2876500</v>
       </c>
       <c r="K52" s="3">
         <v>2872400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32134400</v>
+        <v>30880500</v>
       </c>
       <c r="E54" s="3">
-        <v>28763300</v>
+        <v>27640900</v>
       </c>
       <c r="F54" s="3">
-        <v>28039900</v>
+        <v>26945800</v>
       </c>
       <c r="G54" s="3">
-        <v>27005100</v>
+        <v>25951400</v>
       </c>
       <c r="H54" s="3">
-        <v>26274400</v>
+        <v>25249200</v>
       </c>
       <c r="I54" s="3">
-        <v>33493000</v>
+        <v>32186100</v>
       </c>
       <c r="J54" s="3">
-        <v>32150000</v>
+        <v>30895500</v>
       </c>
       <c r="K54" s="3">
         <v>32012200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1942900</v>
+        <v>1867100</v>
       </c>
       <c r="E57" s="3">
-        <v>2199300</v>
+        <v>2113500</v>
       </c>
       <c r="F57" s="3">
-        <v>2168200</v>
+        <v>2083600</v>
       </c>
       <c r="G57" s="3">
-        <v>2390300</v>
+        <v>2297000</v>
       </c>
       <c r="H57" s="3">
-        <v>2169200</v>
+        <v>2084600</v>
       </c>
       <c r="I57" s="3">
-        <v>5908800</v>
+        <v>5678200</v>
       </c>
       <c r="J57" s="3">
-        <v>5544500</v>
+        <v>5328100</v>
       </c>
       <c r="K57" s="3">
         <v>5638700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>321700</v>
+        <v>309200</v>
       </c>
       <c r="E58" s="3">
-        <v>373600</v>
+        <v>359100</v>
       </c>
       <c r="F58" s="3">
-        <v>396500</v>
+        <v>381000</v>
       </c>
       <c r="G58" s="3">
-        <v>714100</v>
+        <v>686200</v>
       </c>
       <c r="H58" s="3">
-        <v>237700</v>
+        <v>228400</v>
       </c>
       <c r="I58" s="3">
-        <v>1645100</v>
+        <v>1580900</v>
       </c>
       <c r="J58" s="3">
-        <v>1728100</v>
+        <v>1660700</v>
       </c>
       <c r="K58" s="3">
         <v>442600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5467700</v>
+        <v>5254300</v>
       </c>
       <c r="E59" s="3">
-        <v>5455200</v>
+        <v>5242300</v>
       </c>
       <c r="F59" s="3">
-        <v>4677800</v>
+        <v>4495300</v>
       </c>
       <c r="G59" s="3">
-        <v>5139700</v>
+        <v>4939100</v>
       </c>
       <c r="H59" s="3">
-        <v>4719300</v>
+        <v>4535200</v>
       </c>
       <c r="I59" s="3">
-        <v>6272000</v>
+        <v>6027300</v>
       </c>
       <c r="J59" s="3">
-        <v>10081100</v>
+        <v>9687700</v>
       </c>
       <c r="K59" s="3">
         <v>11146500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7732400</v>
+        <v>7430600</v>
       </c>
       <c r="E60" s="3">
-        <v>8028200</v>
+        <v>7714900</v>
       </c>
       <c r="F60" s="3">
-        <v>7242500</v>
+        <v>6959900</v>
       </c>
       <c r="G60" s="3">
-        <v>8244000</v>
+        <v>7922300</v>
       </c>
       <c r="H60" s="3">
-        <v>7126200</v>
+        <v>6848100</v>
       </c>
       <c r="I60" s="3">
-        <v>10869900</v>
+        <v>10445800</v>
       </c>
       <c r="J60" s="3">
-        <v>10336400</v>
+        <v>9933100</v>
       </c>
       <c r="K60" s="3">
         <v>9796100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5952400</v>
+        <v>5720100</v>
       </c>
       <c r="E61" s="3">
-        <v>5803900</v>
+        <v>5577500</v>
       </c>
       <c r="F61" s="3">
-        <v>5061800</v>
+        <v>4864300</v>
       </c>
       <c r="G61" s="3">
-        <v>3361800</v>
+        <v>3230600</v>
       </c>
       <c r="H61" s="3">
-        <v>3599400</v>
+        <v>3459000</v>
       </c>
       <c r="I61" s="3">
-        <v>4173400</v>
+        <v>4010500</v>
       </c>
       <c r="J61" s="3">
-        <v>4250200</v>
+        <v>4084400</v>
       </c>
       <c r="K61" s="3">
         <v>4191200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3426100</v>
+        <v>3292400</v>
       </c>
       <c r="E62" s="3">
-        <v>2579200</v>
+        <v>2478500</v>
       </c>
       <c r="F62" s="3">
-        <v>2632100</v>
+        <v>2529400</v>
       </c>
       <c r="G62" s="3">
-        <v>2823100</v>
+        <v>2712900</v>
       </c>
       <c r="H62" s="3">
-        <v>3070100</v>
+        <v>2950300</v>
       </c>
       <c r="I62" s="3">
-        <v>4486800</v>
+        <v>4311800</v>
       </c>
       <c r="J62" s="3">
-        <v>10789000</v>
+        <v>10368000</v>
       </c>
       <c r="K62" s="3">
         <v>7716300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>17148200</v>
+        <v>16479000</v>
       </c>
       <c r="E66" s="3">
-        <v>16443400</v>
+        <v>15801800</v>
       </c>
       <c r="F66" s="3">
-        <v>14965500</v>
+        <v>14381500</v>
       </c>
       <c r="G66" s="3">
-        <v>14459000</v>
+        <v>13894800</v>
       </c>
       <c r="H66" s="3">
-        <v>13820700</v>
+        <v>13281400</v>
       </c>
       <c r="I66" s="3">
-        <v>20471500</v>
+        <v>19672700</v>
       </c>
       <c r="J66" s="3">
-        <v>20046000</v>
+        <v>19263800</v>
       </c>
       <c r="K66" s="3">
         <v>19742300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9698100</v>
+        <v>9319700</v>
       </c>
       <c r="E72" s="3">
-        <v>8124700</v>
+        <v>7807600</v>
       </c>
       <c r="F72" s="3">
-        <v>8610400</v>
+        <v>8274400</v>
       </c>
       <c r="G72" s="3">
-        <v>8579300</v>
+        <v>8244500</v>
       </c>
       <c r="H72" s="3">
-        <v>8921800</v>
+        <v>8573700</v>
       </c>
       <c r="I72" s="3">
-        <v>8487900</v>
+        <v>8156700</v>
       </c>
       <c r="J72" s="3">
-        <v>8344700</v>
+        <v>8019100</v>
       </c>
       <c r="K72" s="3">
         <v>9924800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14986200</v>
+        <v>14401500</v>
       </c>
       <c r="E76" s="3">
-        <v>12319900</v>
+        <v>11839100</v>
       </c>
       <c r="F76" s="3">
-        <v>13074400</v>
+        <v>12564200</v>
       </c>
       <c r="G76" s="3">
-        <v>12546100</v>
+        <v>12056600</v>
       </c>
       <c r="H76" s="3">
-        <v>12453800</v>
+        <v>11967800</v>
       </c>
       <c r="I76" s="3">
-        <v>13021500</v>
+        <v>12513400</v>
       </c>
       <c r="J76" s="3">
-        <v>12104000</v>
+        <v>11631700</v>
       </c>
       <c r="K76" s="3">
         <v>12269900</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>3444800</v>
+        <v>3310400</v>
       </c>
       <c r="E81" s="3">
-        <v>1230900</v>
+        <v>1182900</v>
       </c>
       <c r="F81" s="3">
-        <v>1211200</v>
+        <v>1164000</v>
       </c>
       <c r="G81" s="3">
-        <v>1131300</v>
+        <v>1087200</v>
       </c>
       <c r="H81" s="3">
-        <v>1719800</v>
+        <v>1652700</v>
       </c>
       <c r="I81" s="3">
-        <v>1516400</v>
+        <v>1457200</v>
       </c>
       <c r="J81" s="3">
-        <v>678800</v>
+        <v>652300</v>
       </c>
       <c r="K81" s="3">
         <v>468600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1373100</v>
+        <v>1319600</v>
       </c>
       <c r="E83" s="3">
-        <v>1517400</v>
+        <v>1458200</v>
       </c>
       <c r="F83" s="3">
-        <v>1393900</v>
+        <v>1339500</v>
       </c>
       <c r="G83" s="3">
-        <v>1130300</v>
+        <v>1086200</v>
       </c>
       <c r="H83" s="3">
-        <v>1063800</v>
+        <v>1022300</v>
       </c>
       <c r="I83" s="3">
-        <v>1013000</v>
+        <v>973500</v>
       </c>
       <c r="J83" s="3">
-        <v>1008800</v>
+        <v>969500</v>
       </c>
       <c r="K83" s="3">
         <v>1340200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5222700</v>
+        <v>5018900</v>
       </c>
       <c r="E89" s="3">
-        <v>2740100</v>
+        <v>2633100</v>
       </c>
       <c r="F89" s="3">
-        <v>1983400</v>
+        <v>1906000</v>
       </c>
       <c r="G89" s="3">
-        <v>2519000</v>
+        <v>2420700</v>
       </c>
       <c r="H89" s="3">
-        <v>3044200</v>
+        <v>2925400</v>
       </c>
       <c r="I89" s="3">
-        <v>3446900</v>
+        <v>3312400</v>
       </c>
       <c r="J89" s="3">
-        <v>1178000</v>
+        <v>1132000</v>
       </c>
       <c r="K89" s="3">
         <v>1589800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-412000</v>
+        <v>-396000</v>
       </c>
       <c r="E91" s="3">
-        <v>-503400</v>
+        <v>-483700</v>
       </c>
       <c r="F91" s="3">
-        <v>-504400</v>
+        <v>-484700</v>
       </c>
       <c r="G91" s="3">
-        <v>-438000</v>
+        <v>-420900</v>
       </c>
       <c r="H91" s="3">
-        <v>-435900</v>
+        <v>-418900</v>
       </c>
       <c r="I91" s="3">
-        <v>-373600</v>
+        <v>-359100</v>
       </c>
       <c r="J91" s="3">
-        <v>-448400</v>
+        <v>-430900</v>
       </c>
       <c r="K91" s="3">
         <v>-493400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3811200</v>
+        <v>-3662500</v>
       </c>
       <c r="E94" s="3">
-        <v>-1315000</v>
+        <v>-1263700</v>
       </c>
       <c r="F94" s="3">
-        <v>-531400</v>
+        <v>-510700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1542300</v>
+        <v>-1482100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3320200</v>
+        <v>-3190700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1133400</v>
+        <v>-1089200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1922200</v>
+        <v>-1847200</v>
       </c>
       <c r="K94" s="3">
         <v>-1011700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-500300</v>
+        <v>-480700</v>
       </c>
       <c r="E96" s="3">
         <v>-1000</v>
       </c>
       <c r="F96" s="3">
-        <v>-470200</v>
+        <v>-451800</v>
       </c>
       <c r="G96" s="3">
-        <v>-416200</v>
+        <v>-400000</v>
       </c>
       <c r="H96" s="3">
-        <v>-398600</v>
+        <v>-383000</v>
       </c>
       <c r="I96" s="3">
-        <v>-342500</v>
+        <v>-329100</v>
       </c>
       <c r="J96" s="3">
-        <v>-309300</v>
+        <v>-297200</v>
       </c>
       <c r="K96" s="3">
         <v>-329700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2436000</v>
+        <v>-2340900</v>
       </c>
       <c r="E100" s="3">
-        <v>501300</v>
+        <v>481700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1722900</v>
+        <v>-1655700</v>
       </c>
       <c r="G100" s="3">
-        <v>-1237200</v>
+        <v>-1188900</v>
       </c>
       <c r="H100" s="3">
-        <v>57100</v>
+        <v>54900</v>
       </c>
       <c r="I100" s="3">
-        <v>-1705300</v>
+        <v>-1638700</v>
       </c>
       <c r="J100" s="3">
-        <v>549000</v>
+        <v>527600</v>
       </c>
       <c r="K100" s="3">
         <v>-1342500</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>67500</v>
+        <v>64800</v>
       </c>
       <c r="E101" s="3">
-        <v>-57100</v>
+        <v>-54900</v>
       </c>
       <c r="F101" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-191000</v>
+        <v>-183500</v>
       </c>
       <c r="I101" s="3">
-        <v>-17600</v>
+        <v>-17000</v>
       </c>
       <c r="J101" s="3">
-        <v>83000</v>
+        <v>79800</v>
       </c>
       <c r="K101" s="3">
         <v>96000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-956900</v>
+        <v>-919600</v>
       </c>
       <c r="E102" s="3">
-        <v>1869300</v>
+        <v>1796300</v>
       </c>
       <c r="F102" s="3">
-        <v>-273000</v>
+        <v>-262300</v>
       </c>
       <c r="G102" s="3">
-        <v>-260500</v>
+        <v>-250300</v>
       </c>
       <c r="H102" s="3">
-        <v>-410000</v>
+        <v>-394000</v>
       </c>
       <c r="I102" s="3">
-        <v>590600</v>
+        <v>567500</v>
       </c>
       <c r="J102" s="3">
-        <v>-112100</v>
+        <v>-107700</v>
       </c>
       <c r="K102" s="3">
         <v>-668400</v>

--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17111400</v>
+        <v>17512800</v>
       </c>
       <c r="E8" s="3">
-        <v>17268000</v>
+        <v>17673100</v>
       </c>
       <c r="F8" s="3">
-        <v>17102400</v>
+        <v>17503700</v>
       </c>
       <c r="G8" s="3">
-        <v>18073900</v>
+        <v>18497900</v>
       </c>
       <c r="H8" s="3">
-        <v>17733800</v>
+        <v>18149800</v>
       </c>
       <c r="I8" s="3">
-        <v>17376700</v>
+        <v>17784400</v>
       </c>
       <c r="J8" s="3">
-        <v>16762300</v>
+        <v>17155600</v>
       </c>
       <c r="K8" s="3">
         <v>24152600</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9869300</v>
+        <v>10100800</v>
       </c>
       <c r="E9" s="3">
-        <v>9295800</v>
+        <v>9513900</v>
       </c>
       <c r="F9" s="3">
-        <v>19573000</v>
+        <v>20032200</v>
       </c>
       <c r="G9" s="3">
-        <v>9543100</v>
+        <v>9767000</v>
       </c>
       <c r="H9" s="3">
-        <v>9575000</v>
+        <v>9799700</v>
       </c>
       <c r="I9" s="3">
-        <v>9459300</v>
+        <v>9681300</v>
       </c>
       <c r="J9" s="3">
-        <v>9569100</v>
+        <v>9793600</v>
       </c>
       <c r="K9" s="3">
         <v>14887200</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7242100</v>
+        <v>7412000</v>
       </c>
       <c r="E10" s="3">
-        <v>7972200</v>
+        <v>8159300</v>
       </c>
       <c r="F10" s="3">
-        <v>-2470600</v>
+        <v>-2528500</v>
       </c>
       <c r="G10" s="3">
-        <v>8530800</v>
+        <v>8730900</v>
       </c>
       <c r="H10" s="3">
-        <v>8158700</v>
+        <v>8350100</v>
       </c>
       <c r="I10" s="3">
-        <v>7917400</v>
+        <v>8103100</v>
       </c>
       <c r="J10" s="3">
-        <v>7193200</v>
+        <v>7362000</v>
       </c>
       <c r="K10" s="3">
         <v>9265400</v>
@@ -857,25 +857,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1700600</v>
+        <v>1740500</v>
       </c>
       <c r="E12" s="3">
-        <v>1686600</v>
+        <v>1726200</v>
       </c>
       <c r="F12" s="3">
-        <v>3513800</v>
+        <v>3596300</v>
       </c>
       <c r="G12" s="3">
-        <v>1678600</v>
+        <v>1718000</v>
       </c>
       <c r="H12" s="3">
-        <v>1656700</v>
+        <v>1695500</v>
       </c>
       <c r="I12" s="3">
-        <v>1664700</v>
+        <v>1703700</v>
       </c>
       <c r="J12" s="3">
-        <v>1557900</v>
+        <v>1594500</v>
       </c>
       <c r="K12" s="3">
         <v>1846100</v>
@@ -935,25 +935,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>422900</v>
+        <v>432800</v>
       </c>
       <c r="E14" s="3">
-        <v>579500</v>
+        <v>593100</v>
       </c>
       <c r="F14" s="3">
-        <v>612400</v>
+        <v>626800</v>
       </c>
       <c r="G14" s="3">
-        <v>179500</v>
+        <v>183700</v>
       </c>
       <c r="H14" s="3">
-        <v>272300</v>
+        <v>278700</v>
       </c>
       <c r="I14" s="3">
-        <v>24900</v>
+        <v>25500</v>
       </c>
       <c r="J14" s="3">
-        <v>45900</v>
+        <v>47000</v>
       </c>
       <c r="K14" s="3">
         <v>3400</v>
@@ -1027,25 +1027,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>16559800</v>
+        <v>16948300</v>
       </c>
       <c r="E17" s="3">
-        <v>16007300</v>
+        <v>16382800</v>
       </c>
       <c r="F17" s="3">
-        <v>15740000</v>
+        <v>16109200</v>
       </c>
       <c r="G17" s="3">
-        <v>16359400</v>
+        <v>16743200</v>
       </c>
       <c r="H17" s="3">
-        <v>16222700</v>
+        <v>16603300</v>
       </c>
       <c r="I17" s="3">
-        <v>15940400</v>
+        <v>16314400</v>
       </c>
       <c r="J17" s="3">
-        <v>16151900</v>
+        <v>16530800</v>
       </c>
       <c r="K17" s="3">
         <v>23603800</v>
@@ -1066,25 +1066,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>551600</v>
+        <v>564500</v>
       </c>
       <c r="E18" s="3">
-        <v>1260700</v>
+        <v>1290300</v>
       </c>
       <c r="F18" s="3">
-        <v>1362400</v>
+        <v>1394400</v>
       </c>
       <c r="G18" s="3">
-        <v>1714500</v>
+        <v>1754800</v>
       </c>
       <c r="H18" s="3">
-        <v>1511100</v>
+        <v>1546500</v>
       </c>
       <c r="I18" s="3">
-        <v>1436300</v>
+        <v>1470000</v>
       </c>
       <c r="J18" s="3">
-        <v>610400</v>
+        <v>624700</v>
       </c>
       <c r="K18" s="3">
         <v>548700</v>
@@ -1122,25 +1122,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>102700</v>
+        <v>105100</v>
       </c>
       <c r="E20" s="3">
-        <v>100700</v>
+        <v>103100</v>
       </c>
       <c r="F20" s="3">
-        <v>68800</v>
+        <v>70400</v>
       </c>
       <c r="G20" s="3">
-        <v>-27900</v>
+        <v>-28600</v>
       </c>
       <c r="H20" s="3">
-        <v>83800</v>
+        <v>85700</v>
       </c>
       <c r="I20" s="3">
-        <v>-56900</v>
+        <v>-58200</v>
       </c>
       <c r="J20" s="3">
-        <v>67800</v>
+        <v>69400</v>
       </c>
       <c r="K20" s="3">
         <v>-20300</v>
@@ -1161,25 +1161,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1972700</v>
+        <v>1994100</v>
       </c>
       <c r="E21" s="3">
-        <v>2818300</v>
+        <v>2857000</v>
       </c>
       <c r="F21" s="3">
-        <v>2769600</v>
+        <v>2809300</v>
       </c>
       <c r="G21" s="3">
-        <v>2771800</v>
+        <v>2816400</v>
       </c>
       <c r="H21" s="3">
-        <v>2616300</v>
+        <v>2658400</v>
       </c>
       <c r="I21" s="3">
-        <v>2352000</v>
+        <v>2388800</v>
       </c>
       <c r="J21" s="3">
-        <v>1646800</v>
+        <v>1667200</v>
       </c>
       <c r="K21" s="3">
         <v>1871700</v>
@@ -1200,25 +1200,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>146600</v>
+        <v>150100</v>
       </c>
       <c r="E22" s="3">
-        <v>153600</v>
+        <v>157200</v>
       </c>
       <c r="F22" s="3">
-        <v>186500</v>
+        <v>190900</v>
       </c>
       <c r="G22" s="3">
-        <v>187500</v>
+        <v>191900</v>
       </c>
       <c r="H22" s="3">
-        <v>221400</v>
+        <v>226600</v>
       </c>
       <c r="I22" s="3">
-        <v>348100</v>
+        <v>356300</v>
       </c>
       <c r="J22" s="3">
-        <v>350100</v>
+        <v>358300</v>
       </c>
       <c r="K22" s="3">
         <v>319500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>507700</v>
+        <v>519600</v>
       </c>
       <c r="E23" s="3">
-        <v>1207900</v>
+        <v>1236200</v>
       </c>
       <c r="F23" s="3">
-        <v>1244800</v>
+        <v>1274000</v>
       </c>
       <c r="G23" s="3">
-        <v>1499100</v>
+        <v>1534300</v>
       </c>
       <c r="H23" s="3">
-        <v>1373400</v>
+        <v>1405600</v>
       </c>
       <c r="I23" s="3">
-        <v>1031300</v>
+        <v>1055500</v>
       </c>
       <c r="J23" s="3">
-        <v>328100</v>
+        <v>335800</v>
       </c>
       <c r="K23" s="3">
         <v>208900</v>
@@ -1278,25 +1278,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-102700</v>
+        <v>-105100</v>
       </c>
       <c r="E24" s="3">
-        <v>211400</v>
+        <v>216400</v>
       </c>
       <c r="F24" s="3">
-        <v>257300</v>
+        <v>263400</v>
       </c>
       <c r="G24" s="3">
-        <v>192500</v>
+        <v>197000</v>
       </c>
       <c r="H24" s="3">
-        <v>348100</v>
+        <v>356300</v>
       </c>
       <c r="I24" s="3">
-        <v>202500</v>
+        <v>207200</v>
       </c>
       <c r="J24" s="3">
-        <v>168600</v>
+        <v>172500</v>
       </c>
       <c r="K24" s="3">
         <v>29400</v>
@@ -1356,25 +1356,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>610400</v>
+        <v>624700</v>
       </c>
       <c r="E26" s="3">
-        <v>996400</v>
+        <v>1019800</v>
       </c>
       <c r="F26" s="3">
-        <v>987400</v>
+        <v>1010600</v>
       </c>
       <c r="G26" s="3">
-        <v>1306600</v>
+        <v>1337200</v>
       </c>
       <c r="H26" s="3">
-        <v>1025300</v>
+        <v>1049400</v>
       </c>
       <c r="I26" s="3">
-        <v>828800</v>
+        <v>848300</v>
       </c>
       <c r="J26" s="3">
-        <v>159600</v>
+        <v>163300</v>
       </c>
       <c r="K26" s="3">
         <v>179500</v>
@@ -1395,25 +1395,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>606400</v>
+        <v>620600</v>
       </c>
       <c r="E27" s="3">
-        <v>987400</v>
+        <v>1010600</v>
       </c>
       <c r="F27" s="3">
-        <v>981400</v>
+        <v>1004500</v>
       </c>
       <c r="G27" s="3">
-        <v>1299600</v>
+        <v>1330100</v>
       </c>
       <c r="H27" s="3">
-        <v>811900</v>
+        <v>830900</v>
       </c>
       <c r="I27" s="3">
-        <v>798900</v>
+        <v>817700</v>
       </c>
       <c r="J27" s="3">
-        <v>174500</v>
+        <v>178600</v>
       </c>
       <c r="K27" s="3">
         <v>254000</v>
@@ -1473,25 +1473,25 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>2704000</v>
+        <v>2767400</v>
       </c>
       <c r="E29" s="3">
-        <v>195500</v>
+        <v>200100</v>
       </c>
       <c r="F29" s="3">
-        <v>182500</v>
+        <v>186800</v>
       </c>
       <c r="G29" s="3">
-        <v>-212400</v>
+        <v>-217400</v>
       </c>
       <c r="H29" s="3">
-        <v>840800</v>
+        <v>860500</v>
       </c>
       <c r="I29" s="3">
-        <v>658300</v>
+        <v>673700</v>
       </c>
       <c r="J29" s="3">
-        <v>477800</v>
+        <v>489000</v>
       </c>
       <c r="K29" s="3">
         <v>214500</v>
@@ -1590,25 +1590,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-102700</v>
+        <v>-105100</v>
       </c>
       <c r="E32" s="3">
-        <v>-100700</v>
+        <v>-103100</v>
       </c>
       <c r="F32" s="3">
-        <v>-68800</v>
+        <v>-70400</v>
       </c>
       <c r="G32" s="3">
-        <v>27900</v>
+        <v>28600</v>
       </c>
       <c r="H32" s="3">
-        <v>-83800</v>
+        <v>-85700</v>
       </c>
       <c r="I32" s="3">
-        <v>56900</v>
+        <v>58200</v>
       </c>
       <c r="J32" s="3">
-        <v>-67800</v>
+        <v>-69400</v>
       </c>
       <c r="K32" s="3">
         <v>20300</v>
@@ -1629,25 +1629,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>3310400</v>
+        <v>3388000</v>
       </c>
       <c r="E33" s="3">
-        <v>1182900</v>
+        <v>1210700</v>
       </c>
       <c r="F33" s="3">
-        <v>1164000</v>
+        <v>1191300</v>
       </c>
       <c r="G33" s="3">
-        <v>1087200</v>
+        <v>1112700</v>
       </c>
       <c r="H33" s="3">
-        <v>1652700</v>
+        <v>1691500</v>
       </c>
       <c r="I33" s="3">
-        <v>1457200</v>
+        <v>1491400</v>
       </c>
       <c r="J33" s="3">
-        <v>652300</v>
+        <v>667600</v>
       </c>
       <c r="K33" s="3">
         <v>468600</v>
@@ -1707,25 +1707,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>3310400</v>
+        <v>3388000</v>
       </c>
       <c r="E35" s="3">
-        <v>1182900</v>
+        <v>1210700</v>
       </c>
       <c r="F35" s="3">
-        <v>1164000</v>
+        <v>1191300</v>
       </c>
       <c r="G35" s="3">
-        <v>1087200</v>
+        <v>1112700</v>
       </c>
       <c r="H35" s="3">
-        <v>1652700</v>
+        <v>1691500</v>
       </c>
       <c r="I35" s="3">
-        <v>1457200</v>
+        <v>1491400</v>
       </c>
       <c r="J35" s="3">
-        <v>652300</v>
+        <v>667600</v>
       </c>
       <c r="K35" s="3">
         <v>468600</v>
@@ -1824,25 +1824,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2297000</v>
+        <v>2350900</v>
       </c>
       <c r="E41" s="3">
-        <v>3217600</v>
+        <v>3293100</v>
       </c>
       <c r="F41" s="3">
-        <v>1421300</v>
+        <v>1454600</v>
       </c>
       <c r="G41" s="3">
-        <v>1683600</v>
+        <v>1723100</v>
       </c>
       <c r="H41" s="3">
-        <v>1934000</v>
+        <v>1979300</v>
       </c>
       <c r="I41" s="3">
-        <v>2327900</v>
+        <v>2382500</v>
       </c>
       <c r="J41" s="3">
-        <v>1761400</v>
+        <v>1802700</v>
       </c>
       <c r="K41" s="3">
         <v>2114800</v>
@@ -1872,16 +1872,16 @@
         <v>1000</v>
       </c>
       <c r="G42" s="3">
-        <v>434900</v>
+        <v>445100</v>
       </c>
       <c r="H42" s="3">
         <v>2000</v>
       </c>
       <c r="I42" s="3">
-        <v>100700</v>
+        <v>103100</v>
       </c>
       <c r="J42" s="3">
-        <v>12000</v>
+        <v>12200</v>
       </c>
       <c r="K42" s="3">
         <v>141100</v>
@@ -1902,25 +1902,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>4276900</v>
+        <v>4377200</v>
       </c>
       <c r="E43" s="3">
-        <v>4549100</v>
+        <v>4655900</v>
       </c>
       <c r="F43" s="3">
-        <v>5006000</v>
+        <v>5123400</v>
       </c>
       <c r="G43" s="3">
-        <v>4446400</v>
+        <v>4550700</v>
       </c>
       <c r="H43" s="3">
-        <v>4193100</v>
+        <v>4291400</v>
       </c>
       <c r="I43" s="3">
-        <v>5694200</v>
+        <v>5827700</v>
       </c>
       <c r="J43" s="3">
-        <v>10051800</v>
+        <v>10287600</v>
       </c>
       <c r="K43" s="3">
         <v>10823600</v>
@@ -1941,25 +1941,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3441000</v>
+        <v>3521800</v>
       </c>
       <c r="E44" s="3">
-        <v>2985200</v>
+        <v>3055300</v>
       </c>
       <c r="F44" s="3">
-        <v>2765800</v>
+        <v>2830700</v>
       </c>
       <c r="G44" s="3">
-        <v>2667000</v>
+        <v>2729600</v>
       </c>
       <c r="H44" s="3">
-        <v>2346900</v>
+        <v>2401900</v>
       </c>
       <c r="I44" s="3">
-        <v>3383200</v>
+        <v>3462600</v>
       </c>
       <c r="J44" s="3">
-        <v>6908000</v>
+        <v>7070100</v>
       </c>
       <c r="K44" s="3">
         <v>7483700</v>
@@ -1980,25 +1980,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>303200</v>
+        <v>310300</v>
       </c>
       <c r="E45" s="3">
-        <v>445800</v>
+        <v>456300</v>
       </c>
       <c r="F45" s="3">
-        <v>240400</v>
+        <v>246000</v>
       </c>
       <c r="G45" s="3">
-        <v>315200</v>
+        <v>322600</v>
       </c>
       <c r="H45" s="3">
-        <v>1614800</v>
+        <v>1652700</v>
       </c>
       <c r="I45" s="3">
-        <v>2532400</v>
+        <v>2591800</v>
       </c>
       <c r="J45" s="3">
-        <v>2792700</v>
+        <v>2858200</v>
       </c>
       <c r="K45" s="3">
         <v>2966100</v>
@@ -2019,25 +2019,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>10320100</v>
+        <v>10562200</v>
       </c>
       <c r="E46" s="3">
-        <v>11197800</v>
+        <v>11460500</v>
       </c>
       <c r="F46" s="3">
-        <v>9434400</v>
+        <v>9655700</v>
       </c>
       <c r="G46" s="3">
-        <v>9547100</v>
+        <v>9771100</v>
       </c>
       <c r="H46" s="3">
-        <v>10090700</v>
+        <v>10327400</v>
       </c>
       <c r="I46" s="3">
-        <v>14038400</v>
+        <v>14367800</v>
       </c>
       <c r="J46" s="3">
-        <v>12660000</v>
+        <v>12957000</v>
       </c>
       <c r="K46" s="3">
         <v>13990700</v>
@@ -2058,25 +2058,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1276700</v>
+        <v>1306600</v>
       </c>
       <c r="E47" s="3">
-        <v>897700</v>
+        <v>918700</v>
       </c>
       <c r="F47" s="3">
-        <v>657300</v>
+        <v>672700</v>
       </c>
       <c r="G47" s="3">
-        <v>764000</v>
+        <v>781900</v>
       </c>
       <c r="H47" s="3">
-        <v>856800</v>
+        <v>876900</v>
       </c>
       <c r="I47" s="3">
-        <v>678200</v>
+        <v>694100</v>
       </c>
       <c r="J47" s="3">
-        <v>858800</v>
+        <v>878900</v>
       </c>
       <c r="K47" s="3">
         <v>1597700</v>
@@ -2097,25 +2097,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2692000</v>
+        <v>2755100</v>
       </c>
       <c r="E48" s="3">
-        <v>2675000</v>
+        <v>2737800</v>
       </c>
       <c r="F48" s="3">
-        <v>2858500</v>
+        <v>2925600</v>
       </c>
       <c r="G48" s="3">
-        <v>1707500</v>
+        <v>1747600</v>
       </c>
       <c r="H48" s="3">
-        <v>1586900</v>
+        <v>1624100</v>
       </c>
       <c r="I48" s="3">
-        <v>2149400</v>
+        <v>2199800</v>
       </c>
       <c r="J48" s="3">
-        <v>4631900</v>
+        <v>4740600</v>
       </c>
       <c r="K48" s="3">
         <v>4730900</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14249900</v>
+        <v>14584200</v>
       </c>
       <c r="E49" s="3">
-        <v>10982400</v>
+        <v>11240000</v>
       </c>
       <c r="F49" s="3">
-        <v>12088500</v>
+        <v>12372100</v>
       </c>
       <c r="G49" s="3">
-        <v>12060600</v>
+        <v>12343500</v>
       </c>
       <c r="H49" s="3">
-        <v>11024300</v>
+        <v>11282900</v>
       </c>
       <c r="I49" s="3">
-        <v>12417600</v>
+        <v>12709000</v>
       </c>
       <c r="J49" s="3">
-        <v>15867600</v>
+        <v>16239900</v>
       </c>
       <c r="K49" s="3">
         <v>23769800</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2341900</v>
+        <v>2396800</v>
       </c>
       <c r="E52" s="3">
-        <v>1888100</v>
+        <v>1932400</v>
       </c>
       <c r="F52" s="3">
-        <v>1907000</v>
+        <v>1951800</v>
       </c>
       <c r="G52" s="3">
-        <v>1872100</v>
+        <v>1916000</v>
       </c>
       <c r="H52" s="3">
-        <v>1690600</v>
+        <v>1730300</v>
       </c>
       <c r="I52" s="3">
-        <v>2902400</v>
+        <v>2970500</v>
       </c>
       <c r="J52" s="3">
-        <v>2876500</v>
+        <v>2944000</v>
       </c>
       <c r="K52" s="3">
         <v>2872400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>30880500</v>
+        <v>31605000</v>
       </c>
       <c r="E54" s="3">
-        <v>27640900</v>
+        <v>28289400</v>
       </c>
       <c r="F54" s="3">
-        <v>26945800</v>
+        <v>27577900</v>
       </c>
       <c r="G54" s="3">
-        <v>25951400</v>
+        <v>26560200</v>
       </c>
       <c r="H54" s="3">
-        <v>25249200</v>
+        <v>25841600</v>
       </c>
       <c r="I54" s="3">
-        <v>32186100</v>
+        <v>32941200</v>
       </c>
       <c r="J54" s="3">
-        <v>30895500</v>
+        <v>31620300</v>
       </c>
       <c r="K54" s="3">
         <v>32012200</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1867100</v>
+        <v>1910900</v>
       </c>
       <c r="E57" s="3">
-        <v>2113500</v>
+        <v>2163100</v>
       </c>
       <c r="F57" s="3">
-        <v>2083600</v>
+        <v>2132500</v>
       </c>
       <c r="G57" s="3">
-        <v>2297000</v>
+        <v>2350900</v>
       </c>
       <c r="H57" s="3">
-        <v>2084600</v>
+        <v>2133500</v>
       </c>
       <c r="I57" s="3">
-        <v>5678200</v>
+        <v>5811400</v>
       </c>
       <c r="J57" s="3">
-        <v>5328100</v>
+        <v>5453100</v>
       </c>
       <c r="K57" s="3">
         <v>5638700</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>309200</v>
+        <v>316400</v>
       </c>
       <c r="E58" s="3">
-        <v>359100</v>
+        <v>367500</v>
       </c>
       <c r="F58" s="3">
-        <v>381000</v>
+        <v>389900</v>
       </c>
       <c r="G58" s="3">
-        <v>686200</v>
+        <v>702300</v>
       </c>
       <c r="H58" s="3">
-        <v>228400</v>
+        <v>233800</v>
       </c>
       <c r="I58" s="3">
-        <v>1580900</v>
+        <v>1618000</v>
       </c>
       <c r="J58" s="3">
-        <v>1660700</v>
+        <v>1699600</v>
       </c>
       <c r="K58" s="3">
         <v>442600</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5254300</v>
+        <v>5377600</v>
       </c>
       <c r="E59" s="3">
-        <v>5242300</v>
+        <v>5365300</v>
       </c>
       <c r="F59" s="3">
-        <v>4495300</v>
+        <v>4600700</v>
       </c>
       <c r="G59" s="3">
-        <v>4939100</v>
+        <v>5055000</v>
       </c>
       <c r="H59" s="3">
-        <v>4535200</v>
+        <v>4641600</v>
       </c>
       <c r="I59" s="3">
-        <v>6027300</v>
+        <v>6168700</v>
       </c>
       <c r="J59" s="3">
-        <v>9687700</v>
+        <v>9915000</v>
       </c>
       <c r="K59" s="3">
         <v>11146500</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7430600</v>
+        <v>7605000</v>
       </c>
       <c r="E60" s="3">
-        <v>7714900</v>
+        <v>7895900</v>
       </c>
       <c r="F60" s="3">
-        <v>6959900</v>
+        <v>7123100</v>
       </c>
       <c r="G60" s="3">
-        <v>7922300</v>
+        <v>8108200</v>
       </c>
       <c r="H60" s="3">
-        <v>6848100</v>
+        <v>7008800</v>
       </c>
       <c r="I60" s="3">
-        <v>10445800</v>
+        <v>10690800</v>
       </c>
       <c r="J60" s="3">
-        <v>9933100</v>
+        <v>10166100</v>
       </c>
       <c r="K60" s="3">
         <v>9796100</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5720100</v>
+        <v>5854300</v>
       </c>
       <c r="E61" s="3">
-        <v>5577500</v>
+        <v>5708300</v>
       </c>
       <c r="F61" s="3">
-        <v>4864300</v>
+        <v>4978400</v>
       </c>
       <c r="G61" s="3">
-        <v>3230600</v>
+        <v>3306400</v>
       </c>
       <c r="H61" s="3">
-        <v>3459000</v>
+        <v>3540100</v>
       </c>
       <c r="I61" s="3">
-        <v>4010500</v>
+        <v>4104600</v>
       </c>
       <c r="J61" s="3">
-        <v>4084400</v>
+        <v>4180200</v>
       </c>
       <c r="K61" s="3">
         <v>4191200</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3292400</v>
+        <v>3369700</v>
       </c>
       <c r="E62" s="3">
-        <v>2478500</v>
+        <v>2536700</v>
       </c>
       <c r="F62" s="3">
-        <v>2529400</v>
+        <v>2588700</v>
       </c>
       <c r="G62" s="3">
-        <v>2712900</v>
+        <v>2776600</v>
       </c>
       <c r="H62" s="3">
-        <v>2950300</v>
+        <v>3019500</v>
       </c>
       <c r="I62" s="3">
-        <v>4311800</v>
+        <v>4412900</v>
       </c>
       <c r="J62" s="3">
-        <v>10368000</v>
+        <v>10611200</v>
       </c>
       <c r="K62" s="3">
         <v>7716300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16479000</v>
+        <v>16865700</v>
       </c>
       <c r="E66" s="3">
-        <v>15801800</v>
+        <v>16172500</v>
       </c>
       <c r="F66" s="3">
-        <v>14381500</v>
+        <v>14718900</v>
       </c>
       <c r="G66" s="3">
-        <v>13894800</v>
+        <v>14220800</v>
       </c>
       <c r="H66" s="3">
-        <v>13281400</v>
+        <v>13593000</v>
       </c>
       <c r="I66" s="3">
-        <v>19672700</v>
+        <v>20134300</v>
       </c>
       <c r="J66" s="3">
-        <v>19263800</v>
+        <v>19715700</v>
       </c>
       <c r="K66" s="3">
         <v>19742300</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9319700</v>
+        <v>9538400</v>
       </c>
       <c r="E72" s="3">
-        <v>7807600</v>
+        <v>7990800</v>
       </c>
       <c r="F72" s="3">
-        <v>8274400</v>
+        <v>8468600</v>
       </c>
       <c r="G72" s="3">
-        <v>8244500</v>
+        <v>8437900</v>
       </c>
       <c r="H72" s="3">
-        <v>8573700</v>
+        <v>8774800</v>
       </c>
       <c r="I72" s="3">
-        <v>8156700</v>
+        <v>8348100</v>
       </c>
       <c r="J72" s="3">
-        <v>8019100</v>
+        <v>8207200</v>
       </c>
       <c r="K72" s="3">
         <v>9924800</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14401500</v>
+        <v>14739300</v>
       </c>
       <c r="E76" s="3">
-        <v>11839100</v>
+        <v>12116900</v>
       </c>
       <c r="F76" s="3">
-        <v>12564200</v>
+        <v>12859000</v>
       </c>
       <c r="G76" s="3">
-        <v>12056600</v>
+        <v>12339400</v>
       </c>
       <c r="H76" s="3">
-        <v>11967800</v>
+        <v>12248600</v>
       </c>
       <c r="I76" s="3">
-        <v>12513400</v>
+        <v>12807000</v>
       </c>
       <c r="J76" s="3">
-        <v>11631700</v>
+        <v>11904600</v>
       </c>
       <c r="K76" s="3">
         <v>12269900</v>
@@ -3245,25 +3245,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>3310400</v>
+        <v>3388000</v>
       </c>
       <c r="E81" s="3">
-        <v>1182900</v>
+        <v>1210700</v>
       </c>
       <c r="F81" s="3">
-        <v>1164000</v>
+        <v>1191300</v>
       </c>
       <c r="G81" s="3">
-        <v>1087200</v>
+        <v>1112700</v>
       </c>
       <c r="H81" s="3">
-        <v>1652700</v>
+        <v>1691500</v>
       </c>
       <c r="I81" s="3">
-        <v>1457200</v>
+        <v>1491400</v>
       </c>
       <c r="J81" s="3">
-        <v>652300</v>
+        <v>667600</v>
       </c>
       <c r="K81" s="3">
         <v>468600</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1319600</v>
+        <v>1350500</v>
       </c>
       <c r="E83" s="3">
-        <v>1458200</v>
+        <v>1492400</v>
       </c>
       <c r="F83" s="3">
-        <v>1339500</v>
+        <v>1370900</v>
       </c>
       <c r="G83" s="3">
-        <v>1086200</v>
+        <v>1111700</v>
       </c>
       <c r="H83" s="3">
-        <v>1022300</v>
+        <v>1046300</v>
       </c>
       <c r="I83" s="3">
-        <v>973500</v>
+        <v>996300</v>
       </c>
       <c r="J83" s="3">
-        <v>969500</v>
+        <v>992200</v>
       </c>
       <c r="K83" s="3">
         <v>1340200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5018900</v>
+        <v>5136700</v>
       </c>
       <c r="E89" s="3">
-        <v>2633100</v>
+        <v>2694900</v>
       </c>
       <c r="F89" s="3">
-        <v>1906000</v>
+        <v>1950700</v>
       </c>
       <c r="G89" s="3">
-        <v>2420700</v>
+        <v>2477500</v>
       </c>
       <c r="H89" s="3">
-        <v>2925400</v>
+        <v>2994000</v>
       </c>
       <c r="I89" s="3">
-        <v>3312400</v>
+        <v>3390100</v>
       </c>
       <c r="J89" s="3">
-        <v>1132000</v>
+        <v>1158600</v>
       </c>
       <c r="K89" s="3">
         <v>1589800</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-396000</v>
+        <v>-405300</v>
       </c>
       <c r="E91" s="3">
-        <v>-483700</v>
+        <v>-495100</v>
       </c>
       <c r="F91" s="3">
-        <v>-484700</v>
+        <v>-496100</v>
       </c>
       <c r="G91" s="3">
-        <v>-420900</v>
+        <v>-430800</v>
       </c>
       <c r="H91" s="3">
-        <v>-418900</v>
+        <v>-428700</v>
       </c>
       <c r="I91" s="3">
-        <v>-359100</v>
+        <v>-367500</v>
       </c>
       <c r="J91" s="3">
-        <v>-430900</v>
+        <v>-441000</v>
       </c>
       <c r="K91" s="3">
         <v>-493400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3662500</v>
+        <v>-3748400</v>
       </c>
       <c r="E94" s="3">
-        <v>-1263700</v>
+        <v>-1293400</v>
       </c>
       <c r="F94" s="3">
-        <v>-510700</v>
+        <v>-522600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1482100</v>
+        <v>-1516900</v>
       </c>
       <c r="H94" s="3">
-        <v>-3190700</v>
+        <v>-3265500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1089200</v>
+        <v>-1114700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1847200</v>
+        <v>-1890500</v>
       </c>
       <c r="K94" s="3">
         <v>-1011700</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-480700</v>
+        <v>-492000</v>
       </c>
       <c r="E96" s="3">
         <v>-1000</v>
       </c>
       <c r="F96" s="3">
-        <v>-451800</v>
+        <v>-462400</v>
       </c>
       <c r="G96" s="3">
-        <v>-400000</v>
+        <v>-409300</v>
       </c>
       <c r="H96" s="3">
-        <v>-383000</v>
+        <v>-392000</v>
       </c>
       <c r="I96" s="3">
-        <v>-329100</v>
+        <v>-336900</v>
       </c>
       <c r="J96" s="3">
-        <v>-297200</v>
+        <v>-304200</v>
       </c>
       <c r="K96" s="3">
         <v>-329700</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2340900</v>
+        <v>-2395800</v>
       </c>
       <c r="E100" s="3">
-        <v>481700</v>
+        <v>493000</v>
       </c>
       <c r="F100" s="3">
-        <v>-1655700</v>
+        <v>-1694500</v>
       </c>
       <c r="G100" s="3">
-        <v>-1188900</v>
+        <v>-1216800</v>
       </c>
       <c r="H100" s="3">
-        <v>54900</v>
+        <v>56100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1638700</v>
+        <v>-1677200</v>
       </c>
       <c r="J100" s="3">
-        <v>527600</v>
+        <v>540000</v>
       </c>
       <c r="K100" s="3">
         <v>-1342500</v>
@@ -3959,10 +3959,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>64800</v>
+        <v>66400</v>
       </c>
       <c r="E101" s="3">
-        <v>-54900</v>
+        <v>-56100</v>
       </c>
       <c r="F101" s="3">
         <v>-2000</v>
@@ -3971,13 +3971,13 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>-183500</v>
+        <v>-187800</v>
       </c>
       <c r="I101" s="3">
-        <v>-17000</v>
+        <v>-17400</v>
       </c>
       <c r="J101" s="3">
-        <v>79800</v>
+        <v>81700</v>
       </c>
       <c r="K101" s="3">
         <v>96000</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-919600</v>
+        <v>-941200</v>
       </c>
       <c r="E102" s="3">
-        <v>1796300</v>
+        <v>1838500</v>
       </c>
       <c r="F102" s="3">
-        <v>-262300</v>
+        <v>-268500</v>
       </c>
       <c r="G102" s="3">
-        <v>-250300</v>
+        <v>-256200</v>
       </c>
       <c r="H102" s="3">
-        <v>-394000</v>
+        <v>-403200</v>
       </c>
       <c r="I102" s="3">
-        <v>567500</v>
+        <v>580800</v>
       </c>
       <c r="J102" s="3">
-        <v>-107700</v>
+        <v>-110200</v>
       </c>
       <c r="K102" s="3">
         <v>-668400</v>

--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17512800</v>
+        <v>18861000</v>
       </c>
       <c r="E8" s="3">
-        <v>17673100</v>
+        <v>18151000</v>
       </c>
       <c r="F8" s="3">
-        <v>17503700</v>
+        <v>18317200</v>
       </c>
       <c r="G8" s="3">
-        <v>18497900</v>
+        <v>18141500</v>
       </c>
       <c r="H8" s="3">
-        <v>18149800</v>
+        <v>19172000</v>
       </c>
       <c r="I8" s="3">
-        <v>17784400</v>
+        <v>18811200</v>
       </c>
       <c r="J8" s="3">
+        <v>18432500</v>
+      </c>
+      <c r="K8" s="3">
         <v>17155600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24152600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>26304400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>25755800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>24640600</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10100800</v>
+        <v>11209500</v>
       </c>
       <c r="E9" s="3">
-        <v>9513900</v>
+        <v>10468900</v>
       </c>
       <c r="F9" s="3">
-        <v>20032200</v>
+        <v>9860600</v>
       </c>
       <c r="G9" s="3">
-        <v>9767000</v>
+        <v>20762200</v>
       </c>
       <c r="H9" s="3">
-        <v>9799700</v>
+        <v>10122900</v>
       </c>
       <c r="I9" s="3">
-        <v>9681300</v>
+        <v>10156800</v>
       </c>
       <c r="J9" s="3">
+        <v>10034100</v>
+      </c>
+      <c r="K9" s="3">
         <v>9793600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>14887200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>15135500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>15883700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>14944900</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7412000</v>
+        <v>7651500</v>
       </c>
       <c r="E10" s="3">
-        <v>8159300</v>
+        <v>7682100</v>
       </c>
       <c r="F10" s="3">
-        <v>-2528500</v>
+        <v>8456600</v>
       </c>
       <c r="G10" s="3">
-        <v>8730900</v>
+        <v>-2620700</v>
       </c>
       <c r="H10" s="3">
-        <v>8350100</v>
+        <v>9049100</v>
       </c>
       <c r="I10" s="3">
-        <v>8103100</v>
+        <v>8654400</v>
       </c>
       <c r="J10" s="3">
+        <v>8398400</v>
+      </c>
+      <c r="K10" s="3">
         <v>7362000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9265400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>11168900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9872100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9695700</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,47 +863,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1740500</v>
+        <v>2225000</v>
       </c>
       <c r="E12" s="3">
-        <v>1726200</v>
+        <v>1803900</v>
       </c>
       <c r="F12" s="3">
-        <v>3596300</v>
+        <v>1789100</v>
       </c>
       <c r="G12" s="3">
-        <v>1718000</v>
+        <v>3727300</v>
       </c>
       <c r="H12" s="3">
-        <v>1695500</v>
+        <v>1780600</v>
       </c>
       <c r="I12" s="3">
-        <v>1703700</v>
+        <v>1757300</v>
       </c>
       <c r="J12" s="3">
+        <v>1765800</v>
+      </c>
+      <c r="K12" s="3">
         <v>1594500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1846100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1984500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2010400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1884000</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -928,48 +944,54 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>432800</v>
+        <v>1471700</v>
       </c>
       <c r="E14" s="3">
-        <v>593100</v>
+        <v>448600</v>
       </c>
       <c r="F14" s="3">
-        <v>626800</v>
+        <v>614700</v>
       </c>
       <c r="G14" s="3">
-        <v>183700</v>
+        <v>649600</v>
       </c>
       <c r="H14" s="3">
-        <v>278700</v>
+        <v>190400</v>
       </c>
       <c r="I14" s="3">
-        <v>25500</v>
+        <v>288800</v>
       </c>
       <c r="J14" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K14" s="3">
         <v>47000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>45500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>8800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1630400</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1006,9 +1028,12 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>16948300</v>
+        <v>20478600</v>
       </c>
       <c r="E17" s="3">
-        <v>16382800</v>
+        <v>17566000</v>
       </c>
       <c r="F17" s="3">
-        <v>16109200</v>
+        <v>16979800</v>
       </c>
       <c r="G17" s="3">
-        <v>16743200</v>
+        <v>16696300</v>
       </c>
       <c r="H17" s="3">
-        <v>16603300</v>
+        <v>17353300</v>
       </c>
       <c r="I17" s="3">
-        <v>16314400</v>
+        <v>17208400</v>
       </c>
       <c r="J17" s="3">
+        <v>16909000</v>
+      </c>
+      <c r="K17" s="3">
         <v>16530800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23603800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>24085500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>25053100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>25242800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>564500</v>
+        <v>-1617700</v>
       </c>
       <c r="E18" s="3">
-        <v>1290300</v>
+        <v>585100</v>
       </c>
       <c r="F18" s="3">
-        <v>1394400</v>
+        <v>1337300</v>
       </c>
       <c r="G18" s="3">
-        <v>1754800</v>
+        <v>1445200</v>
       </c>
       <c r="H18" s="3">
-        <v>1546500</v>
+        <v>1818700</v>
       </c>
       <c r="I18" s="3">
-        <v>1470000</v>
+        <v>1602900</v>
       </c>
       <c r="J18" s="3">
+        <v>1523500</v>
+      </c>
+      <c r="K18" s="3">
         <v>624700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>548700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2219000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>702700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-602200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>105100</v>
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
-        <v>103100</v>
+        <v>109000</v>
       </c>
       <c r="F20" s="3">
-        <v>70400</v>
+        <v>106900</v>
       </c>
       <c r="G20" s="3">
-        <v>-28600</v>
+        <v>73000</v>
       </c>
       <c r="H20" s="3">
-        <v>85700</v>
+        <v>-29600</v>
       </c>
       <c r="I20" s="3">
-        <v>-58200</v>
+        <v>88900</v>
       </c>
       <c r="J20" s="3">
+        <v>-60300</v>
+      </c>
+      <c r="K20" s="3">
         <v>69400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-93300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>339300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>355700</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>1994100</v>
+        <v>69400</v>
       </c>
       <c r="E21" s="3">
-        <v>2857000</v>
+        <v>2089000</v>
       </c>
       <c r="F21" s="3">
-        <v>2809300</v>
+        <v>2985700</v>
       </c>
       <c r="G21" s="3">
-        <v>2816400</v>
+        <v>2934300</v>
       </c>
       <c r="H21" s="3">
-        <v>2658400</v>
+        <v>2937300</v>
       </c>
       <c r="I21" s="3">
-        <v>2388800</v>
+        <v>2772500</v>
       </c>
       <c r="J21" s="3">
+        <v>2492300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1667200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1871700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3527800</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1398000</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>150100</v>
+        <v>211600</v>
       </c>
       <c r="E22" s="3">
-        <v>157200</v>
+        <v>155500</v>
       </c>
       <c r="F22" s="3">
-        <v>190900</v>
+        <v>162900</v>
       </c>
       <c r="G22" s="3">
-        <v>191900</v>
+        <v>197800</v>
       </c>
       <c r="H22" s="3">
-        <v>226600</v>
+        <v>198900</v>
       </c>
       <c r="I22" s="3">
-        <v>356300</v>
+        <v>234900</v>
       </c>
       <c r="J22" s="3">
+        <v>369200</v>
+      </c>
+      <c r="K22" s="3">
         <v>358300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>319500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>301400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>691700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>704300</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>519600</v>
+        <v>-1831400</v>
       </c>
       <c r="E23" s="3">
-        <v>1236200</v>
+        <v>538500</v>
       </c>
       <c r="F23" s="3">
-        <v>1274000</v>
+        <v>1281200</v>
       </c>
       <c r="G23" s="3">
-        <v>1534300</v>
+        <v>1320400</v>
       </c>
       <c r="H23" s="3">
-        <v>1405600</v>
+        <v>1590200</v>
       </c>
       <c r="I23" s="3">
-        <v>1055500</v>
+        <v>1456900</v>
       </c>
       <c r="J23" s="3">
+        <v>1094000</v>
+      </c>
+      <c r="K23" s="3">
         <v>335800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>208900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1824200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>350300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-950800</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-105100</v>
+        <v>-119600</v>
       </c>
       <c r="E24" s="3">
-        <v>216400</v>
+        <v>-109000</v>
       </c>
       <c r="F24" s="3">
-        <v>263400</v>
+        <v>224300</v>
       </c>
       <c r="G24" s="3">
-        <v>197000</v>
+        <v>273000</v>
       </c>
       <c r="H24" s="3">
-        <v>356300</v>
+        <v>204200</v>
       </c>
       <c r="I24" s="3">
-        <v>207200</v>
+        <v>369200</v>
       </c>
       <c r="J24" s="3">
+        <v>214800</v>
+      </c>
+      <c r="K24" s="3">
         <v>172500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>29400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>557400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>203100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>294600</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>624700</v>
+        <v>-1711800</v>
       </c>
       <c r="E26" s="3">
-        <v>1019800</v>
+        <v>647500</v>
       </c>
       <c r="F26" s="3">
-        <v>1010600</v>
+        <v>1056900</v>
       </c>
       <c r="G26" s="3">
-        <v>1337200</v>
+        <v>1047400</v>
       </c>
       <c r="H26" s="3">
-        <v>1049400</v>
+        <v>1386000</v>
       </c>
       <c r="I26" s="3">
-        <v>848300</v>
+        <v>1087600</v>
       </c>
       <c r="J26" s="3">
+        <v>879200</v>
+      </c>
+      <c r="K26" s="3">
         <v>163300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>179500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1266800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>147100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1245400</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>620600</v>
+        <v>-1715000</v>
       </c>
       <c r="E27" s="3">
-        <v>1010600</v>
+        <v>643300</v>
       </c>
       <c r="F27" s="3">
-        <v>1004500</v>
+        <v>1047400</v>
       </c>
       <c r="G27" s="3">
-        <v>1330100</v>
+        <v>1041100</v>
       </c>
       <c r="H27" s="3">
-        <v>830900</v>
+        <v>1378600</v>
       </c>
       <c r="I27" s="3">
-        <v>817700</v>
+        <v>861200</v>
       </c>
       <c r="J27" s="3">
+        <v>847500</v>
+      </c>
+      <c r="K27" s="3">
         <v>178600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>254000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1233300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-316200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1234800</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1466,48 +1523,54 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>2767400</v>
+        <v>13800</v>
       </c>
       <c r="E29" s="3">
-        <v>200100</v>
+        <v>2868200</v>
       </c>
       <c r="F29" s="3">
-        <v>186800</v>
+        <v>207400</v>
       </c>
       <c r="G29" s="3">
-        <v>-217400</v>
+        <v>193600</v>
       </c>
       <c r="H29" s="3">
-        <v>860500</v>
+        <v>-225400</v>
       </c>
       <c r="I29" s="3">
-        <v>673700</v>
+        <v>891900</v>
       </c>
       <c r="J29" s="3">
+        <v>698300</v>
+      </c>
+      <c r="K29" s="3">
         <v>489000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>214500</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>165100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>51600</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-481300</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>-105100</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
-        <v>-103100</v>
+        <v>-109000</v>
       </c>
       <c r="F32" s="3">
-        <v>-70400</v>
+        <v>-106900</v>
       </c>
       <c r="G32" s="3">
-        <v>28600</v>
+        <v>-73000</v>
       </c>
       <c r="H32" s="3">
-        <v>-85700</v>
+        <v>29600</v>
       </c>
       <c r="I32" s="3">
-        <v>58200</v>
+        <v>-88900</v>
       </c>
       <c r="J32" s="3">
+        <v>60300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-69400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>93300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-339300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-355700</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>3388000</v>
+        <v>-1701300</v>
       </c>
       <c r="E33" s="3">
-        <v>1210700</v>
+        <v>3511500</v>
       </c>
       <c r="F33" s="3">
-        <v>1191300</v>
+        <v>1254800</v>
       </c>
       <c r="G33" s="3">
-        <v>1112700</v>
+        <v>1234700</v>
       </c>
       <c r="H33" s="3">
-        <v>1691500</v>
+        <v>1153200</v>
       </c>
       <c r="I33" s="3">
-        <v>1491400</v>
+        <v>1753100</v>
       </c>
       <c r="J33" s="3">
+        <v>1545700</v>
+      </c>
+      <c r="K33" s="3">
         <v>667600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>468600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1398400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-264600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1716100</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>3388000</v>
+        <v>-1701300</v>
       </c>
       <c r="E35" s="3">
-        <v>1210700</v>
+        <v>3511500</v>
       </c>
       <c r="F35" s="3">
-        <v>1191300</v>
+        <v>1254800</v>
       </c>
       <c r="G35" s="3">
-        <v>1112700</v>
+        <v>1234700</v>
       </c>
       <c r="H35" s="3">
-        <v>1691500</v>
+        <v>1153200</v>
       </c>
       <c r="I35" s="3">
-        <v>1491400</v>
+        <v>1753100</v>
       </c>
       <c r="J35" s="3">
+        <v>1545700</v>
+      </c>
+      <c r="K35" s="3">
         <v>667600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>468600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1398400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-264600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1716100</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>2350900</v>
+        <v>1240000</v>
       </c>
       <c r="E41" s="3">
-        <v>3293100</v>
+        <v>2436600</v>
       </c>
       <c r="F41" s="3">
-        <v>1454600</v>
+        <v>3413100</v>
       </c>
       <c r="G41" s="3">
-        <v>1723100</v>
+        <v>1507700</v>
       </c>
       <c r="H41" s="3">
-        <v>1979300</v>
+        <v>1785900</v>
       </c>
       <c r="I41" s="3">
-        <v>2382500</v>
+        <v>2051500</v>
       </c>
       <c r="J41" s="3">
+        <v>2469400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1802700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2114800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2948600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4209700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3694000</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>2000</v>
+        <v>11600</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="F42" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>445100</v>
+        <v>1100</v>
       </c>
       <c r="H42" s="3">
-        <v>2000</v>
+        <v>461300</v>
       </c>
       <c r="I42" s="3">
-        <v>103100</v>
+        <v>2100</v>
       </c>
       <c r="J42" s="3">
+        <v>106900</v>
+      </c>
+      <c r="K42" s="3">
         <v>12200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>141100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>12000</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>4377200</v>
+        <v>4922900</v>
       </c>
       <c r="E43" s="3">
-        <v>4655900</v>
+        <v>4536700</v>
       </c>
       <c r="F43" s="3">
-        <v>5123400</v>
+        <v>4825500</v>
       </c>
       <c r="G43" s="3">
-        <v>4550700</v>
+        <v>5310100</v>
       </c>
       <c r="H43" s="3">
-        <v>4291400</v>
+        <v>4716600</v>
       </c>
       <c r="I43" s="3">
-        <v>5827700</v>
+        <v>4447800</v>
       </c>
       <c r="J43" s="3">
+        <v>6040100</v>
+      </c>
+      <c r="K43" s="3">
         <v>10287600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10823600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5679600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>10175200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5857300</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>3521800</v>
+        <v>4283800</v>
       </c>
       <c r="E44" s="3">
-        <v>3055300</v>
+        <v>3650100</v>
       </c>
       <c r="F44" s="3">
-        <v>2830700</v>
+        <v>3166600</v>
       </c>
       <c r="G44" s="3">
-        <v>2729600</v>
+        <v>2933800</v>
       </c>
       <c r="H44" s="3">
-        <v>2401900</v>
+        <v>2829100</v>
       </c>
       <c r="I44" s="3">
-        <v>3462600</v>
+        <v>2489500</v>
       </c>
       <c r="J44" s="3">
+        <v>3588700</v>
+      </c>
+      <c r="K44" s="3">
         <v>7070100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>7483700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3875700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>3837500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4255100</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>310300</v>
+        <v>395700</v>
       </c>
       <c r="E45" s="3">
-        <v>456300</v>
+        <v>321600</v>
       </c>
       <c r="F45" s="3">
-        <v>246000</v>
+        <v>472900</v>
       </c>
       <c r="G45" s="3">
-        <v>322600</v>
+        <v>255000</v>
       </c>
       <c r="H45" s="3">
-        <v>1652700</v>
+        <v>334300</v>
       </c>
       <c r="I45" s="3">
-        <v>2591800</v>
+        <v>1712900</v>
       </c>
       <c r="J45" s="3">
+        <v>2686300</v>
+      </c>
+      <c r="K45" s="3">
         <v>2858200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2966100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1209400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>937700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1327600</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>10562200</v>
+        <v>10854000</v>
       </c>
       <c r="E46" s="3">
-        <v>11460500</v>
+        <v>10947100</v>
       </c>
       <c r="F46" s="3">
-        <v>9655700</v>
+        <v>11878200</v>
       </c>
       <c r="G46" s="3">
-        <v>9771100</v>
+        <v>10007600</v>
       </c>
       <c r="H46" s="3">
-        <v>10327400</v>
+        <v>10127200</v>
       </c>
       <c r="I46" s="3">
-        <v>14367800</v>
+        <v>10703800</v>
       </c>
       <c r="J46" s="3">
+        <v>14891400</v>
+      </c>
+      <c r="K46" s="3">
         <v>12957000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13990700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13725200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13755700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>15133900</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1306600</v>
+        <v>1561600</v>
       </c>
       <c r="E47" s="3">
-        <v>918700</v>
+        <v>1354200</v>
       </c>
       <c r="F47" s="3">
-        <v>672700</v>
+        <v>952200</v>
       </c>
       <c r="G47" s="3">
-        <v>781900</v>
+        <v>697200</v>
       </c>
       <c r="H47" s="3">
-        <v>876900</v>
+        <v>810400</v>
       </c>
       <c r="I47" s="3">
-        <v>694100</v>
+        <v>908800</v>
       </c>
       <c r="J47" s="3">
+        <v>719400</v>
+      </c>
+      <c r="K47" s="3">
         <v>878900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1597700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>958200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1787500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>644400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2755100</v>
+        <v>2791000</v>
       </c>
       <c r="E48" s="3">
-        <v>2737800</v>
+        <v>2855500</v>
       </c>
       <c r="F48" s="3">
-        <v>2925600</v>
+        <v>2837600</v>
       </c>
       <c r="G48" s="3">
-        <v>1747600</v>
+        <v>3032200</v>
       </c>
       <c r="H48" s="3">
-        <v>1624100</v>
+        <v>1811300</v>
       </c>
       <c r="I48" s="3">
-        <v>2199800</v>
+        <v>1683300</v>
       </c>
       <c r="J48" s="3">
+        <v>2280000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4740600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4730900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3325400</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="N48" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3537900</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14584200</v>
+        <v>14562300</v>
       </c>
       <c r="E49" s="3">
-        <v>11240000</v>
+        <v>15115600</v>
       </c>
       <c r="F49" s="3">
-        <v>12372100</v>
+        <v>11649600</v>
       </c>
       <c r="G49" s="3">
-        <v>12343500</v>
+        <v>12823000</v>
       </c>
       <c r="H49" s="3">
-        <v>11282900</v>
+        <v>12793300</v>
       </c>
       <c r="I49" s="3">
-        <v>12709000</v>
+        <v>11694100</v>
       </c>
       <c r="J49" s="3">
+        <v>13172100</v>
+      </c>
+      <c r="K49" s="3">
         <v>16239900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>23769800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>11682100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15822200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12926000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2396800</v>
+        <v>2699000</v>
       </c>
       <c r="E52" s="3">
-        <v>1932400</v>
+        <v>2484200</v>
       </c>
       <c r="F52" s="3">
-        <v>1951800</v>
+        <v>2002800</v>
       </c>
       <c r="G52" s="3">
-        <v>1916000</v>
+        <v>2022900</v>
       </c>
       <c r="H52" s="3">
-        <v>1730300</v>
+        <v>1985900</v>
       </c>
       <c r="I52" s="3">
-        <v>2970500</v>
+        <v>1793300</v>
       </c>
       <c r="J52" s="3">
+        <v>3078800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2944000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2872400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2079000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4611600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2261900</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>31605000</v>
+        <v>32467900</v>
       </c>
       <c r="E54" s="3">
-        <v>28289400</v>
+        <v>32756700</v>
       </c>
       <c r="F54" s="3">
-        <v>27577900</v>
+        <v>29320400</v>
       </c>
       <c r="G54" s="3">
-        <v>26560200</v>
+        <v>28582900</v>
       </c>
       <c r="H54" s="3">
-        <v>25841600</v>
+        <v>27528100</v>
       </c>
       <c r="I54" s="3">
-        <v>32941200</v>
+        <v>26783300</v>
       </c>
       <c r="J54" s="3">
+        <v>34141700</v>
+      </c>
+      <c r="K54" s="3">
         <v>31620300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32012200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31769900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>31930900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>34504100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1910900</v>
+        <v>2082100</v>
       </c>
       <c r="E57" s="3">
-        <v>2163100</v>
+        <v>1980600</v>
       </c>
       <c r="F57" s="3">
-        <v>2132500</v>
+        <v>2241900</v>
       </c>
       <c r="G57" s="3">
-        <v>2350900</v>
+        <v>2210200</v>
       </c>
       <c r="H57" s="3">
-        <v>2133500</v>
+        <v>2436600</v>
       </c>
       <c r="I57" s="3">
-        <v>5811400</v>
+        <v>2211200</v>
       </c>
       <c r="J57" s="3">
+        <v>6023200</v>
+      </c>
+      <c r="K57" s="3">
         <v>5453100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5638700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2945000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6234400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3927600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>316400</v>
+        <v>343900</v>
       </c>
       <c r="E58" s="3">
-        <v>367500</v>
+        <v>328000</v>
       </c>
       <c r="F58" s="3">
-        <v>389900</v>
+        <v>380900</v>
       </c>
       <c r="G58" s="3">
-        <v>702300</v>
+        <v>404200</v>
       </c>
       <c r="H58" s="3">
-        <v>233800</v>
+        <v>727900</v>
       </c>
       <c r="I58" s="3">
-        <v>1618000</v>
+        <v>242300</v>
       </c>
       <c r="J58" s="3">
+        <v>1676900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1699600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>442600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>708200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1776600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>683200</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5377600</v>
+        <v>5968200</v>
       </c>
       <c r="E59" s="3">
-        <v>5365300</v>
+        <v>5573500</v>
       </c>
       <c r="F59" s="3">
-        <v>4600700</v>
+        <v>5560800</v>
       </c>
       <c r="G59" s="3">
-        <v>5055000</v>
+        <v>4768400</v>
       </c>
       <c r="H59" s="3">
-        <v>4641600</v>
+        <v>5239200</v>
       </c>
       <c r="I59" s="3">
-        <v>6168700</v>
+        <v>4810700</v>
       </c>
       <c r="J59" s="3">
+        <v>6393500</v>
+      </c>
+      <c r="K59" s="3">
         <v>9915000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11146500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6485800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>12114200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6873800</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7605000</v>
+        <v>8394200</v>
       </c>
       <c r="E60" s="3">
-        <v>7895900</v>
+        <v>7882100</v>
       </c>
       <c r="F60" s="3">
-        <v>7123100</v>
+        <v>8183600</v>
       </c>
       <c r="G60" s="3">
-        <v>8108200</v>
+        <v>7382700</v>
       </c>
       <c r="H60" s="3">
-        <v>7008800</v>
+        <v>8403700</v>
       </c>
       <c r="I60" s="3">
-        <v>10690800</v>
+        <v>7264200</v>
       </c>
       <c r="J60" s="3">
+        <v>11080400</v>
+      </c>
+      <c r="K60" s="3">
         <v>10166100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9796100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10139000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10930600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11484600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5854300</v>
+        <v>7425000</v>
       </c>
       <c r="E61" s="3">
-        <v>5708300</v>
+        <v>6067600</v>
       </c>
       <c r="F61" s="3">
-        <v>4978400</v>
+        <v>5916300</v>
       </c>
       <c r="G61" s="3">
-        <v>3306400</v>
+        <v>5159900</v>
       </c>
       <c r="H61" s="3">
-        <v>3540100</v>
+        <v>3426900</v>
       </c>
       <c r="I61" s="3">
-        <v>4104600</v>
+        <v>3669100</v>
       </c>
       <c r="J61" s="3">
+        <v>4254200</v>
+      </c>
+      <c r="K61" s="3">
         <v>4180200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4191200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3958200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4090100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3847700</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3369700</v>
+        <v>2595300</v>
       </c>
       <c r="E62" s="3">
-        <v>2536700</v>
+        <v>3492500</v>
       </c>
       <c r="F62" s="3">
-        <v>2588700</v>
+        <v>2629100</v>
       </c>
       <c r="G62" s="3">
-        <v>2776600</v>
+        <v>2683100</v>
       </c>
       <c r="H62" s="3">
-        <v>3019500</v>
+        <v>2877800</v>
       </c>
       <c r="I62" s="3">
-        <v>4412900</v>
+        <v>3129600</v>
       </c>
       <c r="J62" s="3">
+        <v>4573700</v>
+      </c>
+      <c r="K62" s="3">
         <v>10611200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7716300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4242900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9167200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4675300</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>16865700</v>
+        <v>18450500</v>
       </c>
       <c r="E66" s="3">
-        <v>16172500</v>
+        <v>17480300</v>
       </c>
       <c r="F66" s="3">
-        <v>14718900</v>
+        <v>16761900</v>
       </c>
       <c r="G66" s="3">
-        <v>14220800</v>
+        <v>15255300</v>
       </c>
       <c r="H66" s="3">
-        <v>13593000</v>
+        <v>14739000</v>
       </c>
       <c r="I66" s="3">
-        <v>20134300</v>
+        <v>14088300</v>
       </c>
       <c r="J66" s="3">
+        <v>20868000</v>
+      </c>
+      <c r="K66" s="3">
         <v>19715700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19742300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>18355700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19687100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20047500</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9538400</v>
+        <v>7228300</v>
       </c>
       <c r="E72" s="3">
-        <v>7990800</v>
+        <v>9886000</v>
       </c>
       <c r="F72" s="3">
-        <v>8468600</v>
+        <v>8282000</v>
       </c>
       <c r="G72" s="3">
-        <v>8437900</v>
+        <v>8777200</v>
       </c>
       <c r="H72" s="3">
-        <v>8774800</v>
+        <v>8745400</v>
       </c>
       <c r="I72" s="3">
-        <v>8348100</v>
+        <v>9094600</v>
       </c>
       <c r="J72" s="3">
+        <v>8652300</v>
+      </c>
+      <c r="K72" s="3">
         <v>8207200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9924800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12458400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11775000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15116300</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14739300</v>
+        <v>14017400</v>
       </c>
       <c r="E76" s="3">
-        <v>12116900</v>
+        <v>15276500</v>
       </c>
       <c r="F76" s="3">
-        <v>12859000</v>
+        <v>12558500</v>
       </c>
       <c r="G76" s="3">
-        <v>12339400</v>
+        <v>13327600</v>
       </c>
       <c r="H76" s="3">
-        <v>12248600</v>
+        <v>12789100</v>
       </c>
       <c r="I76" s="3">
-        <v>12807000</v>
+        <v>12694900</v>
       </c>
       <c r="J76" s="3">
+        <v>13273700</v>
+      </c>
+      <c r="K76" s="3">
         <v>11904600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12269900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13414200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12243800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14456600</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>3388000</v>
+        <v>-1701300</v>
       </c>
       <c r="E81" s="3">
-        <v>1210700</v>
+        <v>3511500</v>
       </c>
       <c r="F81" s="3">
-        <v>1191300</v>
+        <v>1254800</v>
       </c>
       <c r="G81" s="3">
-        <v>1112700</v>
+        <v>1234700</v>
       </c>
       <c r="H81" s="3">
-        <v>1691500</v>
+        <v>1153200</v>
       </c>
       <c r="I81" s="3">
-        <v>1491400</v>
+        <v>1753100</v>
       </c>
       <c r="J81" s="3">
+        <v>1545700</v>
+      </c>
+      <c r="K81" s="3">
         <v>667600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>468600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1398400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-264600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1716100</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1350500</v>
+        <v>1694900</v>
       </c>
       <c r="E83" s="3">
-        <v>1492400</v>
+        <v>1399700</v>
       </c>
       <c r="F83" s="3">
-        <v>1370900</v>
+        <v>1546800</v>
       </c>
       <c r="G83" s="3">
-        <v>1111700</v>
+        <v>1420900</v>
       </c>
       <c r="H83" s="3">
-        <v>1046300</v>
+        <v>1152200</v>
       </c>
       <c r="I83" s="3">
-        <v>996300</v>
+        <v>1084500</v>
       </c>
       <c r="J83" s="3">
+        <v>1032600</v>
+      </c>
+      <c r="K83" s="3">
         <v>992200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1340200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1407900</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1643300</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>5136700</v>
+        <v>-195700</v>
       </c>
       <c r="E89" s="3">
-        <v>2694900</v>
+        <v>5323900</v>
       </c>
       <c r="F89" s="3">
-        <v>1950700</v>
+        <v>2793100</v>
       </c>
       <c r="G89" s="3">
-        <v>2477500</v>
+        <v>2021800</v>
       </c>
       <c r="H89" s="3">
-        <v>2994000</v>
+        <v>2567800</v>
       </c>
       <c r="I89" s="3">
-        <v>3390100</v>
+        <v>3103100</v>
       </c>
       <c r="J89" s="3">
+        <v>3513600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1158600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1589800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1009600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2103800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>563400</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-405300</v>
+        <v>-469800</v>
       </c>
       <c r="E91" s="3">
-        <v>-495100</v>
+        <v>-420000</v>
       </c>
       <c r="F91" s="3">
-        <v>-496100</v>
+        <v>-513100</v>
       </c>
       <c r="G91" s="3">
-        <v>-430800</v>
+        <v>-514200</v>
       </c>
       <c r="H91" s="3">
-        <v>-428700</v>
+        <v>-446500</v>
       </c>
       <c r="I91" s="3">
-        <v>-367500</v>
+        <v>-444400</v>
       </c>
       <c r="J91" s="3">
+        <v>-380900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-441000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-493400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-576600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-725800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1156200</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3748400</v>
+        <v>-1573200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1293400</v>
+        <v>-3885000</v>
       </c>
       <c r="F94" s="3">
-        <v>-522600</v>
+        <v>-1340500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1516900</v>
+        <v>-541700</v>
       </c>
       <c r="H94" s="3">
-        <v>-3265500</v>
+        <v>-1572200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1114700</v>
+        <v>-3384500</v>
       </c>
       <c r="J94" s="3">
+        <v>-1155300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1890500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1011700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1087300</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1606900</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-492000</v>
+        <v>-435900</v>
       </c>
       <c r="E96" s="3">
-        <v>-1000</v>
+        <v>-510000</v>
       </c>
       <c r="F96" s="3">
-        <v>-462400</v>
+        <v>-1100</v>
       </c>
       <c r="G96" s="3">
-        <v>-409300</v>
+        <v>-479300</v>
       </c>
       <c r="H96" s="3">
-        <v>-392000</v>
+        <v>-424300</v>
       </c>
       <c r="I96" s="3">
-        <v>-336900</v>
+        <v>-406300</v>
       </c>
       <c r="J96" s="3">
+        <v>-349100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-304200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-329700</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-325400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-280000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-304000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2395800</v>
+        <v>529000</v>
       </c>
       <c r="E100" s="3">
-        <v>493000</v>
+        <v>-2483100</v>
       </c>
       <c r="F100" s="3">
-        <v>-1694500</v>
+        <v>511000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1216800</v>
+        <v>-1756300</v>
       </c>
       <c r="H100" s="3">
-        <v>56100</v>
+        <v>-1261100</v>
       </c>
       <c r="I100" s="3">
-        <v>-1677200</v>
+        <v>58200</v>
       </c>
       <c r="J100" s="3">
+        <v>-1738300</v>
+      </c>
+      <c r="K100" s="3">
         <v>540000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1342500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1484500</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2101100</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>66400</v>
+        <v>43400</v>
       </c>
       <c r="E101" s="3">
-        <v>-56100</v>
+        <v>68800</v>
       </c>
       <c r="F101" s="3">
-        <v>-2000</v>
+        <v>-58200</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="H101" s="3">
-        <v>-187800</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-17400</v>
+        <v>-194700</v>
       </c>
       <c r="J101" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="K101" s="3">
         <v>81700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>96000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-75400</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-8200</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-941200</v>
+        <v>-1196600</v>
       </c>
       <c r="E102" s="3">
-        <v>1838500</v>
+        <v>-975500</v>
       </c>
       <c r="F102" s="3">
-        <v>-268500</v>
+        <v>1905500</v>
       </c>
       <c r="G102" s="3">
-        <v>-256200</v>
+        <v>-278300</v>
       </c>
       <c r="H102" s="3">
-        <v>-403200</v>
+        <v>-265600</v>
       </c>
       <c r="I102" s="3">
-        <v>580800</v>
+        <v>-417900</v>
       </c>
       <c r="J102" s="3">
+        <v>602000</v>
+      </c>
+      <c r="K102" s="3">
         <v>-110200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-668400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1637600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>754300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3152900</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18861000</v>
+        <v>19197900</v>
       </c>
       <c r="E8" s="3">
-        <v>18151000</v>
+        <v>18475300</v>
       </c>
       <c r="F8" s="3">
-        <v>18317200</v>
+        <v>18644400</v>
       </c>
       <c r="G8" s="3">
-        <v>18141500</v>
+        <v>18465600</v>
       </c>
       <c r="H8" s="3">
-        <v>19172000</v>
+        <v>19514500</v>
       </c>
       <c r="I8" s="3">
-        <v>18811200</v>
+        <v>19147300</v>
       </c>
       <c r="J8" s="3">
-        <v>18432500</v>
+        <v>18761800</v>
       </c>
       <c r="K8" s="3">
         <v>17155600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11209500</v>
+        <v>11409800</v>
       </c>
       <c r="E9" s="3">
-        <v>10468900</v>
+        <v>10655900</v>
       </c>
       <c r="F9" s="3">
-        <v>9860600</v>
+        <v>10036700</v>
       </c>
       <c r="G9" s="3">
-        <v>20762200</v>
+        <v>21133100</v>
       </c>
       <c r="H9" s="3">
-        <v>10122900</v>
+        <v>10303800</v>
       </c>
       <c r="I9" s="3">
-        <v>10156800</v>
+        <v>10338200</v>
       </c>
       <c r="J9" s="3">
-        <v>10034100</v>
+        <v>10213300</v>
       </c>
       <c r="K9" s="3">
         <v>9793600</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7651500</v>
+        <v>7788100</v>
       </c>
       <c r="E10" s="3">
-        <v>7682100</v>
+        <v>7819400</v>
       </c>
       <c r="F10" s="3">
-        <v>8456600</v>
+        <v>8607700</v>
       </c>
       <c r="G10" s="3">
-        <v>-2620700</v>
+        <v>-2667500</v>
       </c>
       <c r="H10" s="3">
-        <v>9049100</v>
+        <v>9210700</v>
       </c>
       <c r="I10" s="3">
-        <v>8654400</v>
+        <v>8809000</v>
       </c>
       <c r="J10" s="3">
-        <v>8398400</v>
+        <v>8548400</v>
       </c>
       <c r="K10" s="3">
         <v>7362000</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2225000</v>
+        <v>2264700</v>
       </c>
       <c r="E12" s="3">
-        <v>1803900</v>
+        <v>1836100</v>
       </c>
       <c r="F12" s="3">
-        <v>1789100</v>
+        <v>1821000</v>
       </c>
       <c r="G12" s="3">
-        <v>3727300</v>
+        <v>3793900</v>
       </c>
       <c r="H12" s="3">
-        <v>1780600</v>
+        <v>1812400</v>
       </c>
       <c r="I12" s="3">
-        <v>1757300</v>
+        <v>1788700</v>
       </c>
       <c r="J12" s="3">
-        <v>1765800</v>
+        <v>1797300</v>
       </c>
       <c r="K12" s="3">
         <v>1594500</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1471700</v>
+        <v>1498000</v>
       </c>
       <c r="E14" s="3">
-        <v>448600</v>
+        <v>456600</v>
       </c>
       <c r="F14" s="3">
-        <v>614700</v>
+        <v>625700</v>
       </c>
       <c r="G14" s="3">
-        <v>649600</v>
+        <v>661200</v>
       </c>
       <c r="H14" s="3">
-        <v>190400</v>
+        <v>193800</v>
       </c>
       <c r="I14" s="3">
-        <v>288800</v>
+        <v>294000</v>
       </c>
       <c r="J14" s="3">
-        <v>26500</v>
+        <v>26900</v>
       </c>
       <c r="K14" s="3">
         <v>47000</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>20478600</v>
+        <v>20844500</v>
       </c>
       <c r="E17" s="3">
-        <v>17566000</v>
+        <v>17879800</v>
       </c>
       <c r="F17" s="3">
-        <v>16979800</v>
+        <v>17283200</v>
       </c>
       <c r="G17" s="3">
-        <v>16696300</v>
+        <v>16994600</v>
       </c>
       <c r="H17" s="3">
-        <v>17353300</v>
+        <v>17663300</v>
       </c>
       <c r="I17" s="3">
-        <v>17208400</v>
+        <v>17515800</v>
       </c>
       <c r="J17" s="3">
-        <v>16909000</v>
+        <v>17211000</v>
       </c>
       <c r="K17" s="3">
         <v>16530800</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-1617700</v>
+        <v>-1646600</v>
       </c>
       <c r="E18" s="3">
-        <v>585100</v>
+        <v>595500</v>
       </c>
       <c r="F18" s="3">
-        <v>1337300</v>
+        <v>1361200</v>
       </c>
       <c r="G18" s="3">
-        <v>1445200</v>
+        <v>1471000</v>
       </c>
       <c r="H18" s="3">
-        <v>1818700</v>
+        <v>1851200</v>
       </c>
       <c r="I18" s="3">
-        <v>1602900</v>
+        <v>1631500</v>
       </c>
       <c r="J18" s="3">
-        <v>1523500</v>
+        <v>1550700</v>
       </c>
       <c r="K18" s="3">
         <v>624700</v>
@@ -1155,25 +1155,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="E20" s="3">
-        <v>109000</v>
+        <v>110900</v>
       </c>
       <c r="F20" s="3">
-        <v>106900</v>
+        <v>108800</v>
       </c>
       <c r="G20" s="3">
-        <v>73000</v>
+        <v>74300</v>
       </c>
       <c r="H20" s="3">
-        <v>-29600</v>
+        <v>-30200</v>
       </c>
       <c r="I20" s="3">
-        <v>88900</v>
+        <v>90500</v>
       </c>
       <c r="J20" s="3">
-        <v>-60300</v>
+        <v>-61400</v>
       </c>
       <c r="K20" s="3">
         <v>69400</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>69400</v>
+        <v>87700</v>
       </c>
       <c r="E21" s="3">
-        <v>2089000</v>
+        <v>2140500</v>
       </c>
       <c r="F21" s="3">
-        <v>2985700</v>
+        <v>3054600</v>
       </c>
       <c r="G21" s="3">
-        <v>2934300</v>
+        <v>3001000</v>
       </c>
       <c r="H21" s="3">
-        <v>2937300</v>
+        <v>3001400</v>
       </c>
       <c r="I21" s="3">
-        <v>2772500</v>
+        <v>2833000</v>
       </c>
       <c r="J21" s="3">
-        <v>2492300</v>
+        <v>2547200</v>
       </c>
       <c r="K21" s="3">
         <v>1667200</v>
@@ -1239,25 +1239,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>211600</v>
+        <v>215400</v>
       </c>
       <c r="E22" s="3">
-        <v>155500</v>
+        <v>158300</v>
       </c>
       <c r="F22" s="3">
-        <v>162900</v>
+        <v>165800</v>
       </c>
       <c r="G22" s="3">
-        <v>197800</v>
+        <v>201400</v>
       </c>
       <c r="H22" s="3">
-        <v>198900</v>
+        <v>202500</v>
       </c>
       <c r="I22" s="3">
-        <v>234900</v>
+        <v>239100</v>
       </c>
       <c r="J22" s="3">
-        <v>369200</v>
+        <v>375800</v>
       </c>
       <c r="K22" s="3">
         <v>358300</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1831400</v>
+        <v>-1864100</v>
       </c>
       <c r="E23" s="3">
-        <v>538500</v>
+        <v>548100</v>
       </c>
       <c r="F23" s="3">
-        <v>1281200</v>
+        <v>1304100</v>
       </c>
       <c r="G23" s="3">
-        <v>1320400</v>
+        <v>1344000</v>
       </c>
       <c r="H23" s="3">
-        <v>1590200</v>
+        <v>1618600</v>
       </c>
       <c r="I23" s="3">
-        <v>1456900</v>
+        <v>1482900</v>
       </c>
       <c r="J23" s="3">
-        <v>1094000</v>
+        <v>1113500</v>
       </c>
       <c r="K23" s="3">
         <v>335800</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-119600</v>
+        <v>-121700</v>
       </c>
       <c r="E24" s="3">
-        <v>-109000</v>
+        <v>-110900</v>
       </c>
       <c r="F24" s="3">
-        <v>224300</v>
+        <v>228300</v>
       </c>
       <c r="G24" s="3">
-        <v>273000</v>
+        <v>277800</v>
       </c>
       <c r="H24" s="3">
-        <v>204200</v>
+        <v>207800</v>
       </c>
       <c r="I24" s="3">
-        <v>369200</v>
+        <v>375800</v>
       </c>
       <c r="J24" s="3">
-        <v>214800</v>
+        <v>218600</v>
       </c>
       <c r="K24" s="3">
         <v>172500</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1711800</v>
+        <v>-1742400</v>
       </c>
       <c r="E26" s="3">
-        <v>647500</v>
+        <v>659100</v>
       </c>
       <c r="F26" s="3">
-        <v>1056900</v>
+        <v>1075800</v>
       </c>
       <c r="G26" s="3">
-        <v>1047400</v>
+        <v>1066100</v>
       </c>
       <c r="H26" s="3">
-        <v>1386000</v>
+        <v>1410700</v>
       </c>
       <c r="I26" s="3">
-        <v>1087600</v>
+        <v>1107100</v>
       </c>
       <c r="J26" s="3">
-        <v>879200</v>
+        <v>894900</v>
       </c>
       <c r="K26" s="3">
         <v>163300</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-1715000</v>
+        <v>-1745700</v>
       </c>
       <c r="E27" s="3">
-        <v>643300</v>
+        <v>654800</v>
       </c>
       <c r="F27" s="3">
-        <v>1047400</v>
+        <v>1066100</v>
       </c>
       <c r="G27" s="3">
-        <v>1041100</v>
+        <v>1059700</v>
       </c>
       <c r="H27" s="3">
-        <v>1378600</v>
+        <v>1403200</v>
       </c>
       <c r="I27" s="3">
-        <v>861200</v>
+        <v>876600</v>
       </c>
       <c r="J27" s="3">
-        <v>847500</v>
+        <v>862600</v>
       </c>
       <c r="K27" s="3">
         <v>178600</v>
@@ -1533,25 +1533,25 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>13800</v>
+        <v>14000</v>
       </c>
       <c r="E29" s="3">
-        <v>2868200</v>
+        <v>2919500</v>
       </c>
       <c r="F29" s="3">
-        <v>207400</v>
+        <v>211100</v>
       </c>
       <c r="G29" s="3">
-        <v>193600</v>
+        <v>197100</v>
       </c>
       <c r="H29" s="3">
-        <v>-225400</v>
+        <v>-229400</v>
       </c>
       <c r="I29" s="3">
-        <v>891900</v>
+        <v>907800</v>
       </c>
       <c r="J29" s="3">
-        <v>698300</v>
+        <v>710800</v>
       </c>
       <c r="K29" s="3">
         <v>489000</v>
@@ -1659,25 +1659,25 @@
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="E32" s="3">
-        <v>-109000</v>
+        <v>-110900</v>
       </c>
       <c r="F32" s="3">
-        <v>-106900</v>
+        <v>-108800</v>
       </c>
       <c r="G32" s="3">
-        <v>-73000</v>
+        <v>-74300</v>
       </c>
       <c r="H32" s="3">
-        <v>29600</v>
+        <v>30200</v>
       </c>
       <c r="I32" s="3">
-        <v>-88900</v>
+        <v>-90500</v>
       </c>
       <c r="J32" s="3">
-        <v>60300</v>
+        <v>61400</v>
       </c>
       <c r="K32" s="3">
         <v>-69400</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-1701300</v>
+        <v>-1731700</v>
       </c>
       <c r="E33" s="3">
-        <v>3511500</v>
+        <v>3574200</v>
       </c>
       <c r="F33" s="3">
-        <v>1254800</v>
+        <v>1277200</v>
       </c>
       <c r="G33" s="3">
-        <v>1234700</v>
+        <v>1256700</v>
       </c>
       <c r="H33" s="3">
-        <v>1153200</v>
+        <v>1173800</v>
       </c>
       <c r="I33" s="3">
-        <v>1753100</v>
+        <v>1784400</v>
       </c>
       <c r="J33" s="3">
-        <v>1545700</v>
+        <v>1573400</v>
       </c>
       <c r="K33" s="3">
         <v>667600</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-1701300</v>
+        <v>-1731700</v>
       </c>
       <c r="E35" s="3">
-        <v>3511500</v>
+        <v>3574200</v>
       </c>
       <c r="F35" s="3">
-        <v>1254800</v>
+        <v>1277200</v>
       </c>
       <c r="G35" s="3">
-        <v>1234700</v>
+        <v>1256700</v>
       </c>
       <c r="H35" s="3">
-        <v>1153200</v>
+        <v>1173800</v>
       </c>
       <c r="I35" s="3">
-        <v>1753100</v>
+        <v>1784400</v>
       </c>
       <c r="J35" s="3">
-        <v>1545700</v>
+        <v>1573400</v>
       </c>
       <c r="K35" s="3">
         <v>667600</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1240000</v>
+        <v>1262100</v>
       </c>
       <c r="E41" s="3">
-        <v>2436600</v>
+        <v>2480100</v>
       </c>
       <c r="F41" s="3">
-        <v>3413100</v>
+        <v>3474100</v>
       </c>
       <c r="G41" s="3">
-        <v>1507700</v>
+        <v>1534600</v>
       </c>
       <c r="H41" s="3">
-        <v>1785900</v>
+        <v>1817800</v>
       </c>
       <c r="I41" s="3">
-        <v>2051500</v>
+        <v>2088100</v>
       </c>
       <c r="J41" s="3">
-        <v>2469400</v>
+        <v>2513500</v>
       </c>
       <c r="K41" s="3">
         <v>1802700</v>
@@ -1952,10 +1952,10 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="E42" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -1964,13 +1964,13 @@
         <v>1100</v>
       </c>
       <c r="H42" s="3">
-        <v>461300</v>
+        <v>469500</v>
       </c>
       <c r="I42" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J42" s="3">
-        <v>106900</v>
+        <v>108800</v>
       </c>
       <c r="K42" s="3">
         <v>12200</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>4922900</v>
+        <v>5010800</v>
       </c>
       <c r="E43" s="3">
-        <v>4536700</v>
+        <v>4617700</v>
       </c>
       <c r="F43" s="3">
-        <v>4825500</v>
+        <v>4911700</v>
       </c>
       <c r="G43" s="3">
-        <v>5310100</v>
+        <v>5405000</v>
       </c>
       <c r="H43" s="3">
-        <v>4716600</v>
+        <v>4800800</v>
       </c>
       <c r="I43" s="3">
-        <v>4447800</v>
+        <v>4527300</v>
       </c>
       <c r="J43" s="3">
-        <v>6040100</v>
+        <v>6148000</v>
       </c>
       <c r="K43" s="3">
         <v>10287600</v>
@@ -2036,25 +2036,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>4283800</v>
+        <v>4360400</v>
       </c>
       <c r="E44" s="3">
-        <v>3650100</v>
+        <v>3715300</v>
       </c>
       <c r="F44" s="3">
-        <v>3166600</v>
+        <v>3223200</v>
       </c>
       <c r="G44" s="3">
-        <v>2933800</v>
+        <v>2986200</v>
       </c>
       <c r="H44" s="3">
-        <v>2829100</v>
+        <v>2879600</v>
       </c>
       <c r="I44" s="3">
-        <v>2489500</v>
+        <v>2533900</v>
       </c>
       <c r="J44" s="3">
-        <v>3588700</v>
+        <v>3652800</v>
       </c>
       <c r="K44" s="3">
         <v>7070100</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>395700</v>
+        <v>402800</v>
       </c>
       <c r="E45" s="3">
-        <v>321600</v>
+        <v>327400</v>
       </c>
       <c r="F45" s="3">
-        <v>472900</v>
+        <v>481400</v>
       </c>
       <c r="G45" s="3">
-        <v>255000</v>
+        <v>259500</v>
       </c>
       <c r="H45" s="3">
-        <v>334300</v>
+        <v>340300</v>
       </c>
       <c r="I45" s="3">
-        <v>1712900</v>
+        <v>1743500</v>
       </c>
       <c r="J45" s="3">
-        <v>2686300</v>
+        <v>2734200</v>
       </c>
       <c r="K45" s="3">
         <v>2858200</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>10854000</v>
+        <v>11047900</v>
       </c>
       <c r="E46" s="3">
-        <v>10947100</v>
+        <v>11142700</v>
       </c>
       <c r="F46" s="3">
-        <v>11878200</v>
+        <v>12090400</v>
       </c>
       <c r="G46" s="3">
-        <v>10007600</v>
+        <v>10186400</v>
       </c>
       <c r="H46" s="3">
-        <v>10127200</v>
+        <v>10308100</v>
       </c>
       <c r="I46" s="3">
-        <v>10703800</v>
+        <v>10895000</v>
       </c>
       <c r="J46" s="3">
-        <v>14891400</v>
+        <v>15157400</v>
       </c>
       <c r="K46" s="3">
         <v>12957000</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1561600</v>
+        <v>1589500</v>
       </c>
       <c r="E47" s="3">
-        <v>1354200</v>
+        <v>1378400</v>
       </c>
       <c r="F47" s="3">
-        <v>952200</v>
+        <v>969200</v>
       </c>
       <c r="G47" s="3">
-        <v>697200</v>
+        <v>709700</v>
       </c>
       <c r="H47" s="3">
-        <v>810400</v>
+        <v>824900</v>
       </c>
       <c r="I47" s="3">
-        <v>908800</v>
+        <v>925100</v>
       </c>
       <c r="J47" s="3">
-        <v>719400</v>
+        <v>732300</v>
       </c>
       <c r="K47" s="3">
         <v>878900</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2791000</v>
+        <v>2840900</v>
       </c>
       <c r="E48" s="3">
-        <v>2855500</v>
+        <v>2906600</v>
       </c>
       <c r="F48" s="3">
-        <v>2837600</v>
+        <v>2888200</v>
       </c>
       <c r="G48" s="3">
-        <v>3032200</v>
+        <v>3086400</v>
       </c>
       <c r="H48" s="3">
-        <v>1811300</v>
+        <v>1843700</v>
       </c>
       <c r="I48" s="3">
-        <v>1683300</v>
+        <v>1713300</v>
       </c>
       <c r="J48" s="3">
-        <v>2280000</v>
+        <v>2320700</v>
       </c>
       <c r="K48" s="3">
         <v>4740600</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14562300</v>
+        <v>14822500</v>
       </c>
       <c r="E49" s="3">
-        <v>15115600</v>
+        <v>15385700</v>
       </c>
       <c r="F49" s="3">
-        <v>11649600</v>
+        <v>11857700</v>
       </c>
       <c r="G49" s="3">
-        <v>12823000</v>
+        <v>13052000</v>
       </c>
       <c r="H49" s="3">
-        <v>12793300</v>
+        <v>13021900</v>
       </c>
       <c r="I49" s="3">
-        <v>11694100</v>
+        <v>11903000</v>
       </c>
       <c r="J49" s="3">
-        <v>13172100</v>
+        <v>13407400</v>
       </c>
       <c r="K49" s="3">
         <v>16239900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2699000</v>
+        <v>2747200</v>
       </c>
       <c r="E52" s="3">
-        <v>2484200</v>
+        <v>2528600</v>
       </c>
       <c r="F52" s="3">
-        <v>2002800</v>
+        <v>2038600</v>
       </c>
       <c r="G52" s="3">
-        <v>2022900</v>
+        <v>2059000</v>
       </c>
       <c r="H52" s="3">
-        <v>1985900</v>
+        <v>2021300</v>
       </c>
       <c r="I52" s="3">
-        <v>1793300</v>
+        <v>1825300</v>
       </c>
       <c r="J52" s="3">
-        <v>3078800</v>
+        <v>3133800</v>
       </c>
       <c r="K52" s="3">
         <v>2944000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32467900</v>
+        <v>33047900</v>
       </c>
       <c r="E54" s="3">
-        <v>32756700</v>
+        <v>33341900</v>
       </c>
       <c r="F54" s="3">
-        <v>29320400</v>
+        <v>29844100</v>
       </c>
       <c r="G54" s="3">
-        <v>28582900</v>
+        <v>29093500</v>
       </c>
       <c r="H54" s="3">
-        <v>27528100</v>
+        <v>28019900</v>
       </c>
       <c r="I54" s="3">
-        <v>26783300</v>
+        <v>27261700</v>
       </c>
       <c r="J54" s="3">
-        <v>34141700</v>
+        <v>34751600</v>
       </c>
       <c r="K54" s="3">
         <v>31620300</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2082100</v>
+        <v>2119300</v>
       </c>
       <c r="E57" s="3">
-        <v>1980600</v>
+        <v>2016000</v>
       </c>
       <c r="F57" s="3">
-        <v>2241900</v>
+        <v>2282000</v>
       </c>
       <c r="G57" s="3">
-        <v>2210200</v>
+        <v>2249600</v>
       </c>
       <c r="H57" s="3">
-        <v>2436600</v>
+        <v>2480100</v>
       </c>
       <c r="I57" s="3">
-        <v>2211200</v>
+        <v>2250700</v>
       </c>
       <c r="J57" s="3">
-        <v>6023200</v>
+        <v>6130800</v>
       </c>
       <c r="K57" s="3">
         <v>5453100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>343900</v>
+        <v>350000</v>
       </c>
       <c r="E58" s="3">
-        <v>328000</v>
+        <v>333800</v>
       </c>
       <c r="F58" s="3">
-        <v>380900</v>
+        <v>387700</v>
       </c>
       <c r="G58" s="3">
-        <v>404200</v>
+        <v>411400</v>
       </c>
       <c r="H58" s="3">
-        <v>727900</v>
+        <v>740900</v>
       </c>
       <c r="I58" s="3">
-        <v>242300</v>
+        <v>246600</v>
       </c>
       <c r="J58" s="3">
-        <v>1676900</v>
+        <v>1706900</v>
       </c>
       <c r="K58" s="3">
         <v>1699600</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5968200</v>
+        <v>6074800</v>
       </c>
       <c r="E59" s="3">
-        <v>5573500</v>
+        <v>5673100</v>
       </c>
       <c r="F59" s="3">
-        <v>5560800</v>
+        <v>5660200</v>
       </c>
       <c r="G59" s="3">
-        <v>4768400</v>
+        <v>4853600</v>
       </c>
       <c r="H59" s="3">
-        <v>5239200</v>
+        <v>5332800</v>
       </c>
       <c r="I59" s="3">
-        <v>4810700</v>
+        <v>4896700</v>
       </c>
       <c r="J59" s="3">
-        <v>6393500</v>
+        <v>6507700</v>
       </c>
       <c r="K59" s="3">
         <v>9915000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8394200</v>
+        <v>8544100</v>
       </c>
       <c r="E60" s="3">
-        <v>7882100</v>
+        <v>8022900</v>
       </c>
       <c r="F60" s="3">
-        <v>8183600</v>
+        <v>8329800</v>
       </c>
       <c r="G60" s="3">
-        <v>7382700</v>
+        <v>7514600</v>
       </c>
       <c r="H60" s="3">
-        <v>8403700</v>
+        <v>8553800</v>
       </c>
       <c r="I60" s="3">
-        <v>7264200</v>
+        <v>7394000</v>
       </c>
       <c r="J60" s="3">
-        <v>11080400</v>
+        <v>11278400</v>
       </c>
       <c r="K60" s="3">
         <v>10166100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7425000</v>
+        <v>7557700</v>
       </c>
       <c r="E61" s="3">
-        <v>6067600</v>
+        <v>6176000</v>
       </c>
       <c r="F61" s="3">
-        <v>5916300</v>
+        <v>6022000</v>
       </c>
       <c r="G61" s="3">
-        <v>5159900</v>
+        <v>5252000</v>
       </c>
       <c r="H61" s="3">
-        <v>3426900</v>
+        <v>3488100</v>
       </c>
       <c r="I61" s="3">
-        <v>3669100</v>
+        <v>3734700</v>
       </c>
       <c r="J61" s="3">
-        <v>4254200</v>
+        <v>4330200</v>
       </c>
       <c r="K61" s="3">
         <v>4180200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2595300</v>
+        <v>2641600</v>
       </c>
       <c r="E62" s="3">
-        <v>3492500</v>
+        <v>3554800</v>
       </c>
       <c r="F62" s="3">
-        <v>2629100</v>
+        <v>2676100</v>
       </c>
       <c r="G62" s="3">
-        <v>2683100</v>
+        <v>2731000</v>
       </c>
       <c r="H62" s="3">
-        <v>2877800</v>
+        <v>2929200</v>
       </c>
       <c r="I62" s="3">
-        <v>3129600</v>
+        <v>3185500</v>
       </c>
       <c r="J62" s="3">
-        <v>4573700</v>
+        <v>4655400</v>
       </c>
       <c r="K62" s="3">
         <v>10611200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18450500</v>
+        <v>18780100</v>
       </c>
       <c r="E66" s="3">
-        <v>17480300</v>
+        <v>17792500</v>
       </c>
       <c r="F66" s="3">
-        <v>16761900</v>
+        <v>17061300</v>
       </c>
       <c r="G66" s="3">
-        <v>15255300</v>
+        <v>15527800</v>
       </c>
       <c r="H66" s="3">
-        <v>14739000</v>
+        <v>15002300</v>
       </c>
       <c r="I66" s="3">
-        <v>14088300</v>
+        <v>14340000</v>
       </c>
       <c r="J66" s="3">
-        <v>20868000</v>
+        <v>21240800</v>
       </c>
       <c r="K66" s="3">
         <v>19715700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7228300</v>
+        <v>7357400</v>
       </c>
       <c r="E72" s="3">
-        <v>9886000</v>
+        <v>10062600</v>
       </c>
       <c r="F72" s="3">
-        <v>8282000</v>
+        <v>8430000</v>
       </c>
       <c r="G72" s="3">
-        <v>8777200</v>
+        <v>8934000</v>
       </c>
       <c r="H72" s="3">
-        <v>8745400</v>
+        <v>8901700</v>
       </c>
       <c r="I72" s="3">
-        <v>9094600</v>
+        <v>9257000</v>
       </c>
       <c r="J72" s="3">
-        <v>8652300</v>
+        <v>8806900</v>
       </c>
       <c r="K72" s="3">
         <v>8207200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14017400</v>
+        <v>14267800</v>
       </c>
       <c r="E76" s="3">
-        <v>15276500</v>
+        <v>15549400</v>
       </c>
       <c r="F76" s="3">
-        <v>12558500</v>
+        <v>12782800</v>
       </c>
       <c r="G76" s="3">
-        <v>13327600</v>
+        <v>13565700</v>
       </c>
       <c r="H76" s="3">
-        <v>12789100</v>
+        <v>13017600</v>
       </c>
       <c r="I76" s="3">
-        <v>12694900</v>
+        <v>12921700</v>
       </c>
       <c r="J76" s="3">
-        <v>13273700</v>
+        <v>13510800</v>
       </c>
       <c r="K76" s="3">
         <v>11904600</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-1701300</v>
+        <v>-1731700</v>
       </c>
       <c r="E81" s="3">
-        <v>3511500</v>
+        <v>3574200</v>
       </c>
       <c r="F81" s="3">
-        <v>1254800</v>
+        <v>1277200</v>
       </c>
       <c r="G81" s="3">
-        <v>1234700</v>
+        <v>1256700</v>
       </c>
       <c r="H81" s="3">
-        <v>1153200</v>
+        <v>1173800</v>
       </c>
       <c r="I81" s="3">
-        <v>1753100</v>
+        <v>1784400</v>
       </c>
       <c r="J81" s="3">
-        <v>1545700</v>
+        <v>1573400</v>
       </c>
       <c r="K81" s="3">
         <v>667600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1694900</v>
+        <v>1725200</v>
       </c>
       <c r="E83" s="3">
-        <v>1399700</v>
+        <v>1424700</v>
       </c>
       <c r="F83" s="3">
-        <v>1546800</v>
+        <v>1574400</v>
       </c>
       <c r="G83" s="3">
-        <v>1420900</v>
+        <v>1446300</v>
       </c>
       <c r="H83" s="3">
-        <v>1152200</v>
+        <v>1172700</v>
       </c>
       <c r="I83" s="3">
-        <v>1084500</v>
+        <v>1103800</v>
       </c>
       <c r="J83" s="3">
-        <v>1032600</v>
+        <v>1051100</v>
       </c>
       <c r="K83" s="3">
         <v>992200</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-195700</v>
+        <v>-199200</v>
       </c>
       <c r="E89" s="3">
-        <v>5323900</v>
+        <v>5419000</v>
       </c>
       <c r="F89" s="3">
-        <v>2793100</v>
+        <v>2843000</v>
       </c>
       <c r="G89" s="3">
-        <v>2021800</v>
+        <v>2058000</v>
       </c>
       <c r="H89" s="3">
-        <v>2567800</v>
+        <v>2613600</v>
       </c>
       <c r="I89" s="3">
-        <v>3103100</v>
+        <v>3158500</v>
       </c>
       <c r="J89" s="3">
-        <v>3513600</v>
+        <v>3576400</v>
       </c>
       <c r="K89" s="3">
         <v>1158600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-469800</v>
+        <v>-478100</v>
       </c>
       <c r="E91" s="3">
-        <v>-420000</v>
+        <v>-427500</v>
       </c>
       <c r="F91" s="3">
-        <v>-513100</v>
+        <v>-522300</v>
       </c>
       <c r="G91" s="3">
-        <v>-514200</v>
+        <v>-523400</v>
       </c>
       <c r="H91" s="3">
-        <v>-446500</v>
+        <v>-454500</v>
       </c>
       <c r="I91" s="3">
-        <v>-444400</v>
+        <v>-452300</v>
       </c>
       <c r="J91" s="3">
-        <v>-380900</v>
+        <v>-387700</v>
       </c>
       <c r="K91" s="3">
         <v>-441000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1573200</v>
+        <v>-1601400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3885000</v>
+        <v>-3954400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1340500</v>
+        <v>-1364400</v>
       </c>
       <c r="G94" s="3">
-        <v>-541700</v>
+        <v>-551400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1572200</v>
+        <v>-1600300</v>
       </c>
       <c r="I94" s="3">
-        <v>-3384500</v>
+        <v>-3445000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1155300</v>
+        <v>-1176000</v>
       </c>
       <c r="K94" s="3">
         <v>-1890500</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-435900</v>
+        <v>-443700</v>
       </c>
       <c r="E96" s="3">
-        <v>-510000</v>
+        <v>-519100</v>
       </c>
       <c r="F96" s="3">
         <v>-1100</v>
       </c>
       <c r="G96" s="3">
-        <v>-479300</v>
+        <v>-487800</v>
       </c>
       <c r="H96" s="3">
-        <v>-424300</v>
+        <v>-431800</v>
       </c>
       <c r="I96" s="3">
-        <v>-406300</v>
+        <v>-413500</v>
       </c>
       <c r="J96" s="3">
-        <v>-349100</v>
+        <v>-355400</v>
       </c>
       <c r="K96" s="3">
         <v>-304200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>529000</v>
+        <v>538500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2483100</v>
+        <v>-2527500</v>
       </c>
       <c r="F100" s="3">
-        <v>511000</v>
+        <v>520100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1756300</v>
+        <v>-1787700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1261100</v>
+        <v>-1283700</v>
       </c>
       <c r="I100" s="3">
-        <v>58200</v>
+        <v>59200</v>
       </c>
       <c r="J100" s="3">
-        <v>-1738300</v>
+        <v>-1769300</v>
       </c>
       <c r="K100" s="3">
         <v>540000</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>43400</v>
+        <v>44200</v>
       </c>
       <c r="E101" s="3">
-        <v>68800</v>
+        <v>70000</v>
       </c>
       <c r="F101" s="3">
-        <v>-58200</v>
+        <v>-59200</v>
       </c>
       <c r="G101" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-194700</v>
+        <v>-198100</v>
       </c>
       <c r="J101" s="3">
-        <v>-18000</v>
+        <v>-18300</v>
       </c>
       <c r="K101" s="3">
         <v>81700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1196600</v>
+        <v>-1218000</v>
       </c>
       <c r="E102" s="3">
-        <v>-975500</v>
+        <v>-992900</v>
       </c>
       <c r="F102" s="3">
-        <v>1905500</v>
+        <v>1939500</v>
       </c>
       <c r="G102" s="3">
-        <v>-278300</v>
+        <v>-283200</v>
       </c>
       <c r="H102" s="3">
-        <v>-265600</v>
+        <v>-270300</v>
       </c>
       <c r="I102" s="3">
-        <v>-417900</v>
+        <v>-425400</v>
       </c>
       <c r="J102" s="3">
-        <v>602000</v>
+        <v>612800</v>
       </c>
       <c r="K102" s="3">
         <v>-110200</v>

--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19197900</v>
+        <v>19326300</v>
       </c>
       <c r="E8" s="3">
-        <v>18475300</v>
+        <v>18598800</v>
       </c>
       <c r="F8" s="3">
-        <v>18644400</v>
+        <v>18769000</v>
       </c>
       <c r="G8" s="3">
-        <v>18465600</v>
+        <v>18589100</v>
       </c>
       <c r="H8" s="3">
-        <v>19514500</v>
+        <v>19645000</v>
       </c>
       <c r="I8" s="3">
-        <v>19147300</v>
+        <v>19275300</v>
       </c>
       <c r="J8" s="3">
-        <v>18761800</v>
+        <v>18887200</v>
       </c>
       <c r="K8" s="3">
         <v>17155600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11409800</v>
+        <v>11486000</v>
       </c>
       <c r="E9" s="3">
-        <v>10655900</v>
+        <v>10727200</v>
       </c>
       <c r="F9" s="3">
-        <v>10036700</v>
+        <v>10103800</v>
       </c>
       <c r="G9" s="3">
-        <v>21133100</v>
+        <v>21274400</v>
       </c>
       <c r="H9" s="3">
-        <v>10303800</v>
+        <v>10372700</v>
       </c>
       <c r="I9" s="3">
-        <v>10338200</v>
+        <v>10407400</v>
       </c>
       <c r="J9" s="3">
-        <v>10213300</v>
+        <v>10281600</v>
       </c>
       <c r="K9" s="3">
         <v>9793600</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7788100</v>
+        <v>7840200</v>
       </c>
       <c r="E10" s="3">
-        <v>7819400</v>
+        <v>7871700</v>
       </c>
       <c r="F10" s="3">
-        <v>8607700</v>
+        <v>8665200</v>
       </c>
       <c r="G10" s="3">
-        <v>-2667500</v>
+        <v>-2685300</v>
       </c>
       <c r="H10" s="3">
-        <v>9210700</v>
+        <v>9272300</v>
       </c>
       <c r="I10" s="3">
-        <v>8809000</v>
+        <v>8867900</v>
       </c>
       <c r="J10" s="3">
-        <v>8548400</v>
+        <v>8605600</v>
       </c>
       <c r="K10" s="3">
         <v>7362000</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2264700</v>
+        <v>2279900</v>
       </c>
       <c r="E12" s="3">
-        <v>1836100</v>
+        <v>1848400</v>
       </c>
       <c r="F12" s="3">
-        <v>1821000</v>
+        <v>1833200</v>
       </c>
       <c r="G12" s="3">
-        <v>3793900</v>
+        <v>3819300</v>
       </c>
       <c r="H12" s="3">
-        <v>1812400</v>
+        <v>1824500</v>
       </c>
       <c r="I12" s="3">
-        <v>1788700</v>
+        <v>1800700</v>
       </c>
       <c r="J12" s="3">
-        <v>1797300</v>
+        <v>1809400</v>
       </c>
       <c r="K12" s="3">
         <v>1594500</v>
@@ -954,25 +954,25 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1498000</v>
+        <v>1508000</v>
       </c>
       <c r="E14" s="3">
-        <v>456600</v>
+        <v>459700</v>
       </c>
       <c r="F14" s="3">
-        <v>625700</v>
+        <v>629900</v>
       </c>
       <c r="G14" s="3">
-        <v>661200</v>
+        <v>665600</v>
       </c>
       <c r="H14" s="3">
-        <v>193800</v>
+        <v>195100</v>
       </c>
       <c r="I14" s="3">
-        <v>294000</v>
+        <v>296000</v>
       </c>
       <c r="J14" s="3">
-        <v>26900</v>
+        <v>27100</v>
       </c>
       <c r="K14" s="3">
         <v>47000</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>20844500</v>
+        <v>20983800</v>
       </c>
       <c r="E17" s="3">
-        <v>17879800</v>
+        <v>17999300</v>
       </c>
       <c r="F17" s="3">
-        <v>17283200</v>
+        <v>17398700</v>
       </c>
       <c r="G17" s="3">
-        <v>16994600</v>
+        <v>17108200</v>
       </c>
       <c r="H17" s="3">
-        <v>17663300</v>
+        <v>17781400</v>
       </c>
       <c r="I17" s="3">
-        <v>17515800</v>
+        <v>17632900</v>
       </c>
       <c r="J17" s="3">
-        <v>17211000</v>
+        <v>17326100</v>
       </c>
       <c r="K17" s="3">
         <v>16530800</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-1646600</v>
+        <v>-1657600</v>
       </c>
       <c r="E18" s="3">
-        <v>595500</v>
+        <v>599500</v>
       </c>
       <c r="F18" s="3">
-        <v>1361200</v>
+        <v>1370300</v>
       </c>
       <c r="G18" s="3">
-        <v>1471000</v>
+        <v>1480900</v>
       </c>
       <c r="H18" s="3">
-        <v>1851200</v>
+        <v>1863600</v>
       </c>
       <c r="I18" s="3">
-        <v>1631500</v>
+        <v>1642400</v>
       </c>
       <c r="J18" s="3">
-        <v>1550700</v>
+        <v>1561100</v>
       </c>
       <c r="K18" s="3">
         <v>624700</v>
@@ -1158,22 +1158,22 @@
         <v>-2200</v>
       </c>
       <c r="E20" s="3">
-        <v>110900</v>
+        <v>111700</v>
       </c>
       <c r="F20" s="3">
-        <v>108800</v>
+        <v>109500</v>
       </c>
       <c r="G20" s="3">
-        <v>74300</v>
+        <v>74800</v>
       </c>
       <c r="H20" s="3">
-        <v>-30200</v>
+        <v>-30400</v>
       </c>
       <c r="I20" s="3">
-        <v>90500</v>
+        <v>91100</v>
       </c>
       <c r="J20" s="3">
-        <v>-61400</v>
+        <v>-61800</v>
       </c>
       <c r="K20" s="3">
         <v>69400</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>87700</v>
+        <v>77000</v>
       </c>
       <c r="E21" s="3">
-        <v>2140500</v>
+        <v>2145400</v>
       </c>
       <c r="F21" s="3">
-        <v>3054600</v>
+        <v>3064800</v>
       </c>
       <c r="G21" s="3">
-        <v>3001000</v>
+        <v>3011600</v>
       </c>
       <c r="H21" s="3">
-        <v>3001400</v>
+        <v>3013800</v>
       </c>
       <c r="I21" s="3">
-        <v>2833000</v>
+        <v>2844700</v>
       </c>
       <c r="J21" s="3">
-        <v>2547200</v>
+        <v>2557400</v>
       </c>
       <c r="K21" s="3">
         <v>1667200</v>
@@ -1239,25 +1239,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>215400</v>
+        <v>216800</v>
       </c>
       <c r="E22" s="3">
-        <v>158300</v>
+        <v>159400</v>
       </c>
       <c r="F22" s="3">
-        <v>165800</v>
+        <v>167000</v>
       </c>
       <c r="G22" s="3">
-        <v>201400</v>
+        <v>202700</v>
       </c>
       <c r="H22" s="3">
-        <v>202500</v>
+        <v>203800</v>
       </c>
       <c r="I22" s="3">
-        <v>239100</v>
+        <v>240700</v>
       </c>
       <c r="J22" s="3">
-        <v>375800</v>
+        <v>378400</v>
       </c>
       <c r="K22" s="3">
         <v>358300</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1864100</v>
+        <v>-1876600</v>
       </c>
       <c r="E23" s="3">
-        <v>548100</v>
+        <v>551800</v>
       </c>
       <c r="F23" s="3">
-        <v>1304100</v>
+        <v>1312800</v>
       </c>
       <c r="G23" s="3">
-        <v>1344000</v>
+        <v>1353000</v>
       </c>
       <c r="H23" s="3">
-        <v>1618600</v>
+        <v>1629400</v>
       </c>
       <c r="I23" s="3">
-        <v>1482900</v>
+        <v>1492800</v>
       </c>
       <c r="J23" s="3">
-        <v>1113500</v>
+        <v>1121000</v>
       </c>
       <c r="K23" s="3">
         <v>335800</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-121700</v>
+        <v>-122500</v>
       </c>
       <c r="E24" s="3">
-        <v>-110900</v>
+        <v>-111700</v>
       </c>
       <c r="F24" s="3">
-        <v>228300</v>
+        <v>229800</v>
       </c>
       <c r="G24" s="3">
-        <v>277800</v>
+        <v>279700</v>
       </c>
       <c r="H24" s="3">
-        <v>207800</v>
+        <v>209200</v>
       </c>
       <c r="I24" s="3">
-        <v>375800</v>
+        <v>378400</v>
       </c>
       <c r="J24" s="3">
-        <v>218600</v>
+        <v>220100</v>
       </c>
       <c r="K24" s="3">
         <v>172500</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1742400</v>
+        <v>-1754100</v>
       </c>
       <c r="E26" s="3">
-        <v>659100</v>
+        <v>663500</v>
       </c>
       <c r="F26" s="3">
-        <v>1075800</v>
+        <v>1083000</v>
       </c>
       <c r="G26" s="3">
-        <v>1066100</v>
+        <v>1073300</v>
       </c>
       <c r="H26" s="3">
-        <v>1410700</v>
+        <v>1420200</v>
       </c>
       <c r="I26" s="3">
-        <v>1107100</v>
+        <v>1114500</v>
       </c>
       <c r="J26" s="3">
-        <v>894900</v>
+        <v>900900</v>
       </c>
       <c r="K26" s="3">
         <v>163300</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-1745700</v>
+        <v>-1757300</v>
       </c>
       <c r="E27" s="3">
-        <v>654800</v>
+        <v>659100</v>
       </c>
       <c r="F27" s="3">
-        <v>1066100</v>
+        <v>1073300</v>
       </c>
       <c r="G27" s="3">
-        <v>1059700</v>
+        <v>1066800</v>
       </c>
       <c r="H27" s="3">
-        <v>1403200</v>
+        <v>1412600</v>
       </c>
       <c r="I27" s="3">
-        <v>876600</v>
+        <v>882500</v>
       </c>
       <c r="J27" s="3">
-        <v>862600</v>
+        <v>868400</v>
       </c>
       <c r="K27" s="3">
         <v>178600</v>
@@ -1533,25 +1533,25 @@
         <v>23</v>
       </c>
       <c r="D29" s="3">
-        <v>14000</v>
+        <v>14100</v>
       </c>
       <c r="E29" s="3">
-        <v>2919500</v>
+        <v>2939000</v>
       </c>
       <c r="F29" s="3">
-        <v>211100</v>
+        <v>212500</v>
       </c>
       <c r="G29" s="3">
-        <v>197100</v>
+        <v>198400</v>
       </c>
       <c r="H29" s="3">
-        <v>-229400</v>
+        <v>-230900</v>
       </c>
       <c r="I29" s="3">
-        <v>907800</v>
+        <v>913900</v>
       </c>
       <c r="J29" s="3">
-        <v>710800</v>
+        <v>715500</v>
       </c>
       <c r="K29" s="3">
         <v>489000</v>
@@ -1662,22 +1662,22 @@
         <v>2200</v>
       </c>
       <c r="E32" s="3">
-        <v>-110900</v>
+        <v>-111700</v>
       </c>
       <c r="F32" s="3">
-        <v>-108800</v>
+        <v>-109500</v>
       </c>
       <c r="G32" s="3">
-        <v>-74300</v>
+        <v>-74800</v>
       </c>
       <c r="H32" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="I32" s="3">
-        <v>-90500</v>
+        <v>-91100</v>
       </c>
       <c r="J32" s="3">
-        <v>61400</v>
+        <v>61800</v>
       </c>
       <c r="K32" s="3">
         <v>-69400</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-1731700</v>
+        <v>-1743200</v>
       </c>
       <c r="E33" s="3">
-        <v>3574200</v>
+        <v>3598100</v>
       </c>
       <c r="F33" s="3">
-        <v>1277200</v>
+        <v>1285700</v>
       </c>
       <c r="G33" s="3">
-        <v>1256700</v>
+        <v>1265100</v>
       </c>
       <c r="H33" s="3">
-        <v>1173800</v>
+        <v>1181700</v>
       </c>
       <c r="I33" s="3">
-        <v>1784400</v>
+        <v>1796400</v>
       </c>
       <c r="J33" s="3">
-        <v>1573400</v>
+        <v>1583900</v>
       </c>
       <c r="K33" s="3">
         <v>667600</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-1731700</v>
+        <v>-1743200</v>
       </c>
       <c r="E35" s="3">
-        <v>3574200</v>
+        <v>3598100</v>
       </c>
       <c r="F35" s="3">
-        <v>1277200</v>
+        <v>1285700</v>
       </c>
       <c r="G35" s="3">
-        <v>1256700</v>
+        <v>1265100</v>
       </c>
       <c r="H35" s="3">
-        <v>1173800</v>
+        <v>1181700</v>
       </c>
       <c r="I35" s="3">
-        <v>1784400</v>
+        <v>1796400</v>
       </c>
       <c r="J35" s="3">
-        <v>1573400</v>
+        <v>1583900</v>
       </c>
       <c r="K35" s="3">
         <v>667600</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1262100</v>
+        <v>1270600</v>
       </c>
       <c r="E41" s="3">
-        <v>2480100</v>
+        <v>2496700</v>
       </c>
       <c r="F41" s="3">
-        <v>3474100</v>
+        <v>3497300</v>
       </c>
       <c r="G41" s="3">
-        <v>1534600</v>
+        <v>1544800</v>
       </c>
       <c r="H41" s="3">
-        <v>1817800</v>
+        <v>1830000</v>
       </c>
       <c r="I41" s="3">
-        <v>2088100</v>
+        <v>2102100</v>
       </c>
       <c r="J41" s="3">
-        <v>2513500</v>
+        <v>2530300</v>
       </c>
       <c r="K41" s="3">
         <v>1802700</v>
@@ -1952,7 +1952,7 @@
         <v>34</v>
       </c>
       <c r="D42" s="3">
-        <v>11800</v>
+        <v>11900</v>
       </c>
       <c r="E42" s="3">
         <v>2200</v>
@@ -1964,13 +1964,13 @@
         <v>1100</v>
       </c>
       <c r="H42" s="3">
-        <v>469500</v>
+        <v>472700</v>
       </c>
       <c r="I42" s="3">
         <v>2200</v>
       </c>
       <c r="J42" s="3">
-        <v>108800</v>
+        <v>109500</v>
       </c>
       <c r="K42" s="3">
         <v>12200</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>5010800</v>
+        <v>5044300</v>
       </c>
       <c r="E43" s="3">
-        <v>4617700</v>
+        <v>4648600</v>
       </c>
       <c r="F43" s="3">
-        <v>4911700</v>
+        <v>4944600</v>
       </c>
       <c r="G43" s="3">
-        <v>5405000</v>
+        <v>5441100</v>
       </c>
       <c r="H43" s="3">
-        <v>4800800</v>
+        <v>4832900</v>
       </c>
       <c r="I43" s="3">
-        <v>4527300</v>
+        <v>4557600</v>
       </c>
       <c r="J43" s="3">
-        <v>6148000</v>
+        <v>6189100</v>
       </c>
       <c r="K43" s="3">
         <v>10287600</v>
@@ -2036,25 +2036,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>4360400</v>
+        <v>4389500</v>
       </c>
       <c r="E44" s="3">
-        <v>3715300</v>
+        <v>3740100</v>
       </c>
       <c r="F44" s="3">
-        <v>3223200</v>
+        <v>3244700</v>
       </c>
       <c r="G44" s="3">
-        <v>2986200</v>
+        <v>3006200</v>
       </c>
       <c r="H44" s="3">
-        <v>2879600</v>
+        <v>2898900</v>
       </c>
       <c r="I44" s="3">
-        <v>2533900</v>
+        <v>2550900</v>
       </c>
       <c r="J44" s="3">
-        <v>3652800</v>
+        <v>3677300</v>
       </c>
       <c r="K44" s="3">
         <v>7070100</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>402800</v>
+        <v>405500</v>
       </c>
       <c r="E45" s="3">
-        <v>327400</v>
+        <v>329600</v>
       </c>
       <c r="F45" s="3">
-        <v>481400</v>
+        <v>484600</v>
       </c>
       <c r="G45" s="3">
-        <v>259500</v>
+        <v>261300</v>
       </c>
       <c r="H45" s="3">
-        <v>340300</v>
+        <v>342600</v>
       </c>
       <c r="I45" s="3">
-        <v>1743500</v>
+        <v>1755200</v>
       </c>
       <c r="J45" s="3">
-        <v>2734200</v>
+        <v>2752500</v>
       </c>
       <c r="K45" s="3">
         <v>2858200</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>11047900</v>
+        <v>11121800</v>
       </c>
       <c r="E46" s="3">
-        <v>11142700</v>
+        <v>11217200</v>
       </c>
       <c r="F46" s="3">
-        <v>12090400</v>
+        <v>12171200</v>
       </c>
       <c r="G46" s="3">
-        <v>10186400</v>
+        <v>10254500</v>
       </c>
       <c r="H46" s="3">
-        <v>10308100</v>
+        <v>10377000</v>
       </c>
       <c r="I46" s="3">
-        <v>10895000</v>
+        <v>10967800</v>
       </c>
       <c r="J46" s="3">
-        <v>15157400</v>
+        <v>15258700</v>
       </c>
       <c r="K46" s="3">
         <v>12957000</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1589500</v>
+        <v>1600100</v>
       </c>
       <c r="E47" s="3">
-        <v>1378400</v>
+        <v>1387600</v>
       </c>
       <c r="F47" s="3">
-        <v>969200</v>
+        <v>975700</v>
       </c>
       <c r="G47" s="3">
-        <v>709700</v>
+        <v>714400</v>
       </c>
       <c r="H47" s="3">
-        <v>824900</v>
+        <v>830400</v>
       </c>
       <c r="I47" s="3">
-        <v>925100</v>
+        <v>931200</v>
       </c>
       <c r="J47" s="3">
-        <v>732300</v>
+        <v>737200</v>
       </c>
       <c r="K47" s="3">
         <v>878900</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2840900</v>
+        <v>2859900</v>
       </c>
       <c r="E48" s="3">
-        <v>2906600</v>
+        <v>2926000</v>
       </c>
       <c r="F48" s="3">
-        <v>2888200</v>
+        <v>2907600</v>
       </c>
       <c r="G48" s="3">
-        <v>3086400</v>
+        <v>3107000</v>
       </c>
       <c r="H48" s="3">
-        <v>1843700</v>
+        <v>1856000</v>
       </c>
       <c r="I48" s="3">
-        <v>1713300</v>
+        <v>1724800</v>
       </c>
       <c r="J48" s="3">
-        <v>2320700</v>
+        <v>2336200</v>
       </c>
       <c r="K48" s="3">
         <v>4740600</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14822500</v>
+        <v>14921600</v>
       </c>
       <c r="E49" s="3">
-        <v>15385700</v>
+        <v>15488500</v>
       </c>
       <c r="F49" s="3">
-        <v>11857700</v>
+        <v>11937000</v>
       </c>
       <c r="G49" s="3">
-        <v>13052000</v>
+        <v>13139300</v>
       </c>
       <c r="H49" s="3">
-        <v>13021900</v>
+        <v>13108900</v>
       </c>
       <c r="I49" s="3">
-        <v>11903000</v>
+        <v>11982600</v>
       </c>
       <c r="J49" s="3">
-        <v>13407400</v>
+        <v>13497000</v>
       </c>
       <c r="K49" s="3">
         <v>16239900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2747200</v>
+        <v>2765500</v>
       </c>
       <c r="E52" s="3">
-        <v>2528600</v>
+        <v>2545500</v>
       </c>
       <c r="F52" s="3">
-        <v>2038600</v>
+        <v>2052200</v>
       </c>
       <c r="G52" s="3">
-        <v>2059000</v>
+        <v>2072800</v>
       </c>
       <c r="H52" s="3">
-        <v>2021300</v>
+        <v>2034900</v>
       </c>
       <c r="I52" s="3">
-        <v>1825300</v>
+        <v>1837500</v>
       </c>
       <c r="J52" s="3">
-        <v>3133800</v>
+        <v>3154700</v>
       </c>
       <c r="K52" s="3">
         <v>2944000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33047900</v>
+        <v>33268900</v>
       </c>
       <c r="E54" s="3">
-        <v>33341900</v>
+        <v>33564800</v>
       </c>
       <c r="F54" s="3">
-        <v>29844100</v>
+        <v>30043700</v>
       </c>
       <c r="G54" s="3">
-        <v>29093500</v>
+        <v>29288000</v>
       </c>
       <c r="H54" s="3">
-        <v>28019900</v>
+        <v>28207200</v>
       </c>
       <c r="I54" s="3">
-        <v>27261700</v>
+        <v>27444000</v>
       </c>
       <c r="J54" s="3">
-        <v>34751600</v>
+        <v>34983900</v>
       </c>
       <c r="K54" s="3">
         <v>31620300</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2119300</v>
+        <v>2133500</v>
       </c>
       <c r="E57" s="3">
-        <v>2016000</v>
+        <v>2029400</v>
       </c>
       <c r="F57" s="3">
-        <v>2282000</v>
+        <v>2297200</v>
       </c>
       <c r="G57" s="3">
-        <v>2249600</v>
+        <v>2264700</v>
       </c>
       <c r="H57" s="3">
-        <v>2480100</v>
+        <v>2496700</v>
       </c>
       <c r="I57" s="3">
-        <v>2250700</v>
+        <v>2265800</v>
       </c>
       <c r="J57" s="3">
-        <v>6130800</v>
+        <v>6171800</v>
       </c>
       <c r="K57" s="3">
         <v>5453100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>350000</v>
+        <v>352300</v>
       </c>
       <c r="E58" s="3">
-        <v>333800</v>
+        <v>336100</v>
       </c>
       <c r="F58" s="3">
-        <v>387700</v>
+        <v>390300</v>
       </c>
       <c r="G58" s="3">
-        <v>411400</v>
+        <v>414100</v>
       </c>
       <c r="H58" s="3">
-        <v>740900</v>
+        <v>745900</v>
       </c>
       <c r="I58" s="3">
-        <v>246600</v>
+        <v>248300</v>
       </c>
       <c r="J58" s="3">
-        <v>1706900</v>
+        <v>1718300</v>
       </c>
       <c r="K58" s="3">
         <v>1699600</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6074800</v>
+        <v>6115400</v>
       </c>
       <c r="E59" s="3">
-        <v>5673100</v>
+        <v>5711000</v>
       </c>
       <c r="F59" s="3">
-        <v>5660200</v>
+        <v>5698000</v>
       </c>
       <c r="G59" s="3">
-        <v>4853600</v>
+        <v>4886000</v>
       </c>
       <c r="H59" s="3">
-        <v>5332800</v>
+        <v>5368500</v>
       </c>
       <c r="I59" s="3">
-        <v>4896700</v>
+        <v>4929400</v>
       </c>
       <c r="J59" s="3">
-        <v>6507700</v>
+        <v>6551200</v>
       </c>
       <c r="K59" s="3">
         <v>9915000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8544100</v>
+        <v>8601200</v>
       </c>
       <c r="E60" s="3">
-        <v>8022900</v>
+        <v>8076500</v>
       </c>
       <c r="F60" s="3">
-        <v>8329800</v>
+        <v>8385500</v>
       </c>
       <c r="G60" s="3">
-        <v>7514600</v>
+        <v>7564800</v>
       </c>
       <c r="H60" s="3">
-        <v>8553800</v>
+        <v>8611000</v>
       </c>
       <c r="I60" s="3">
-        <v>7394000</v>
+        <v>7443400</v>
       </c>
       <c r="J60" s="3">
-        <v>11278400</v>
+        <v>11353800</v>
       </c>
       <c r="K60" s="3">
         <v>10166100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7557700</v>
+        <v>7608200</v>
       </c>
       <c r="E61" s="3">
-        <v>6176000</v>
+        <v>6217300</v>
       </c>
       <c r="F61" s="3">
-        <v>6022000</v>
+        <v>6062300</v>
       </c>
       <c r="G61" s="3">
-        <v>5252000</v>
+        <v>5287200</v>
       </c>
       <c r="H61" s="3">
-        <v>3488100</v>
+        <v>3511400</v>
       </c>
       <c r="I61" s="3">
-        <v>3734700</v>
+        <v>3759700</v>
       </c>
       <c r="J61" s="3">
-        <v>4330200</v>
+        <v>4359200</v>
       </c>
       <c r="K61" s="3">
         <v>4180200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2641600</v>
+        <v>2659300</v>
       </c>
       <c r="E62" s="3">
-        <v>3554800</v>
+        <v>3578600</v>
       </c>
       <c r="F62" s="3">
-        <v>2676100</v>
+        <v>2694000</v>
       </c>
       <c r="G62" s="3">
-        <v>2731000</v>
+        <v>2749300</v>
       </c>
       <c r="H62" s="3">
-        <v>2929200</v>
+        <v>2948800</v>
       </c>
       <c r="I62" s="3">
-        <v>3185500</v>
+        <v>3206800</v>
       </c>
       <c r="J62" s="3">
-        <v>4655400</v>
+        <v>4686600</v>
       </c>
       <c r="K62" s="3">
         <v>10611200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18780100</v>
+        <v>18905600</v>
       </c>
       <c r="E66" s="3">
-        <v>17792500</v>
+        <v>17911500</v>
       </c>
       <c r="F66" s="3">
-        <v>17061300</v>
+        <v>17175400</v>
       </c>
       <c r="G66" s="3">
-        <v>15527800</v>
+        <v>15631600</v>
       </c>
       <c r="H66" s="3">
-        <v>15002300</v>
+        <v>15102600</v>
       </c>
       <c r="I66" s="3">
-        <v>14340000</v>
+        <v>14435900</v>
       </c>
       <c r="J66" s="3">
-        <v>21240800</v>
+        <v>21382800</v>
       </c>
       <c r="K66" s="3">
         <v>19715700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7357400</v>
+        <v>7406600</v>
       </c>
       <c r="E72" s="3">
-        <v>10062600</v>
+        <v>10129800</v>
       </c>
       <c r="F72" s="3">
-        <v>8430000</v>
+        <v>8486300</v>
       </c>
       <c r="G72" s="3">
-        <v>8934000</v>
+        <v>8993700</v>
       </c>
       <c r="H72" s="3">
-        <v>8901700</v>
+        <v>8961200</v>
       </c>
       <c r="I72" s="3">
-        <v>9257000</v>
+        <v>9318900</v>
       </c>
       <c r="J72" s="3">
-        <v>8806900</v>
+        <v>8865800</v>
       </c>
       <c r="K72" s="3">
         <v>8207200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14267800</v>
+        <v>14363200</v>
       </c>
       <c r="E76" s="3">
-        <v>15549400</v>
+        <v>15653300</v>
       </c>
       <c r="F76" s="3">
-        <v>12782800</v>
+        <v>12868300</v>
       </c>
       <c r="G76" s="3">
-        <v>13565700</v>
+        <v>13656400</v>
       </c>
       <c r="H76" s="3">
-        <v>13017600</v>
+        <v>13104600</v>
       </c>
       <c r="I76" s="3">
-        <v>12921700</v>
+        <v>13008100</v>
       </c>
       <c r="J76" s="3">
-        <v>13510800</v>
+        <v>13601100</v>
       </c>
       <c r="K76" s="3">
         <v>11904600</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-1731700</v>
+        <v>-1743200</v>
       </c>
       <c r="E81" s="3">
-        <v>3574200</v>
+        <v>3598100</v>
       </c>
       <c r="F81" s="3">
-        <v>1277200</v>
+        <v>1285700</v>
       </c>
       <c r="G81" s="3">
-        <v>1256700</v>
+        <v>1265100</v>
       </c>
       <c r="H81" s="3">
-        <v>1173800</v>
+        <v>1181700</v>
       </c>
       <c r="I81" s="3">
-        <v>1784400</v>
+        <v>1796400</v>
       </c>
       <c r="J81" s="3">
-        <v>1573400</v>
+        <v>1583900</v>
       </c>
       <c r="K81" s="3">
         <v>667600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1725200</v>
+        <v>1736700</v>
       </c>
       <c r="E83" s="3">
-        <v>1424700</v>
+        <v>1434300</v>
       </c>
       <c r="F83" s="3">
-        <v>1574400</v>
+        <v>1585000</v>
       </c>
       <c r="G83" s="3">
-        <v>1446300</v>
+        <v>1455900</v>
       </c>
       <c r="H83" s="3">
-        <v>1172700</v>
+        <v>1180600</v>
       </c>
       <c r="I83" s="3">
-        <v>1103800</v>
+        <v>1111200</v>
       </c>
       <c r="J83" s="3">
-        <v>1051100</v>
+        <v>1058100</v>
       </c>
       <c r="K83" s="3">
         <v>992200</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-199200</v>
+        <v>-200600</v>
       </c>
       <c r="E89" s="3">
-        <v>5419000</v>
+        <v>5455200</v>
       </c>
       <c r="F89" s="3">
-        <v>2843000</v>
+        <v>2862000</v>
       </c>
       <c r="G89" s="3">
-        <v>2058000</v>
+        <v>2071700</v>
       </c>
       <c r="H89" s="3">
-        <v>2613600</v>
+        <v>2631100</v>
       </c>
       <c r="I89" s="3">
-        <v>3158500</v>
+        <v>3179700</v>
       </c>
       <c r="J89" s="3">
-        <v>3576400</v>
+        <v>3600300</v>
       </c>
       <c r="K89" s="3">
         <v>1158600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-478100</v>
+        <v>-481300</v>
       </c>
       <c r="E91" s="3">
-        <v>-427500</v>
+        <v>-430400</v>
       </c>
       <c r="F91" s="3">
-        <v>-522300</v>
+        <v>-525800</v>
       </c>
       <c r="G91" s="3">
-        <v>-523400</v>
+        <v>-526900</v>
       </c>
       <c r="H91" s="3">
-        <v>-454500</v>
+        <v>-457500</v>
       </c>
       <c r="I91" s="3">
-        <v>-452300</v>
+        <v>-455300</v>
       </c>
       <c r="J91" s="3">
-        <v>-387700</v>
+        <v>-390300</v>
       </c>
       <c r="K91" s="3">
         <v>-441000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1601400</v>
+        <v>-1612100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3954400</v>
+        <v>-3980800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1364400</v>
+        <v>-1373600</v>
       </c>
       <c r="G94" s="3">
-        <v>-551400</v>
+        <v>-555100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1600300</v>
+        <v>-1611000</v>
       </c>
       <c r="I94" s="3">
-        <v>-3445000</v>
+        <v>-3468000</v>
       </c>
       <c r="J94" s="3">
-        <v>-1176000</v>
+        <v>-1183800</v>
       </c>
       <c r="K94" s="3">
         <v>-1890500</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-443700</v>
+        <v>-446600</v>
       </c>
       <c r="E96" s="3">
-        <v>-519100</v>
+        <v>-522500</v>
       </c>
       <c r="F96" s="3">
         <v>-1100</v>
       </c>
       <c r="G96" s="3">
-        <v>-487800</v>
+        <v>-491100</v>
       </c>
       <c r="H96" s="3">
-        <v>-431800</v>
+        <v>-434700</v>
       </c>
       <c r="I96" s="3">
-        <v>-413500</v>
+        <v>-416300</v>
       </c>
       <c r="J96" s="3">
-        <v>-355400</v>
+        <v>-357800</v>
       </c>
       <c r="K96" s="3">
         <v>-304200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>538500</v>
+        <v>542100</v>
       </c>
       <c r="E100" s="3">
-        <v>-2527500</v>
+        <v>-2544400</v>
       </c>
       <c r="F100" s="3">
-        <v>520100</v>
+        <v>523600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1787700</v>
+        <v>-1799600</v>
       </c>
       <c r="H100" s="3">
-        <v>-1283700</v>
+        <v>-1292200</v>
       </c>
       <c r="I100" s="3">
-        <v>59200</v>
+        <v>59600</v>
       </c>
       <c r="J100" s="3">
-        <v>-1769300</v>
+        <v>-1781200</v>
       </c>
       <c r="K100" s="3">
         <v>540000</v>
@@ -4207,13 +4207,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>44200</v>
+        <v>44400</v>
       </c>
       <c r="E101" s="3">
-        <v>70000</v>
+        <v>70500</v>
       </c>
       <c r="F101" s="3">
-        <v>-59200</v>
+        <v>-59600</v>
       </c>
       <c r="G101" s="3">
         <v>-2200</v>
@@ -4222,10 +4222,10 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-198100</v>
+        <v>-199500</v>
       </c>
       <c r="J101" s="3">
-        <v>-18300</v>
+        <v>-18400</v>
       </c>
       <c r="K101" s="3">
         <v>81700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1218000</v>
+        <v>-1226100</v>
       </c>
       <c r="E102" s="3">
-        <v>-992900</v>
+        <v>-999500</v>
       </c>
       <c r="F102" s="3">
-        <v>1939500</v>
+        <v>1952500</v>
       </c>
       <c r="G102" s="3">
-        <v>-283200</v>
+        <v>-285100</v>
       </c>
       <c r="H102" s="3">
-        <v>-270300</v>
+        <v>-272100</v>
       </c>
       <c r="I102" s="3">
-        <v>-425400</v>
+        <v>-428200</v>
       </c>
       <c r="J102" s="3">
-        <v>612800</v>
+        <v>616900</v>
       </c>
       <c r="K102" s="3">
         <v>-110200</v>

--- a/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/PHG_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>19326300</v>
+        <v>19342300</v>
       </c>
       <c r="E8" s="3">
-        <v>18598800</v>
+        <v>18614300</v>
       </c>
       <c r="F8" s="3">
-        <v>18769000</v>
+        <v>18784600</v>
       </c>
       <c r="G8" s="3">
-        <v>18589100</v>
+        <v>18604500</v>
       </c>
       <c r="H8" s="3">
-        <v>19645000</v>
+        <v>19661300</v>
       </c>
       <c r="I8" s="3">
-        <v>19275300</v>
+        <v>19291300</v>
       </c>
       <c r="J8" s="3">
-        <v>18887200</v>
+        <v>18902900</v>
       </c>
       <c r="K8" s="3">
         <v>17155600</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>11486000</v>
+        <v>11495600</v>
       </c>
       <c r="E9" s="3">
-        <v>10727200</v>
+        <v>10736100</v>
       </c>
       <c r="F9" s="3">
-        <v>10103800</v>
+        <v>10112200</v>
       </c>
       <c r="G9" s="3">
-        <v>21274400</v>
+        <v>21292000</v>
       </c>
       <c r="H9" s="3">
-        <v>10372700</v>
+        <v>10381300</v>
       </c>
       <c r="I9" s="3">
-        <v>10407400</v>
+        <v>10416000</v>
       </c>
       <c r="J9" s="3">
-        <v>10281600</v>
+        <v>10290100</v>
       </c>
       <c r="K9" s="3">
         <v>9793600</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>7840200</v>
+        <v>7846700</v>
       </c>
       <c r="E10" s="3">
-        <v>7871700</v>
+        <v>7878200</v>
       </c>
       <c r="F10" s="3">
-        <v>8665200</v>
+        <v>8672400</v>
       </c>
       <c r="G10" s="3">
-        <v>-2685300</v>
+        <v>-2687500</v>
       </c>
       <c r="H10" s="3">
-        <v>9272300</v>
+        <v>9280000</v>
       </c>
       <c r="I10" s="3">
-        <v>8867900</v>
+        <v>8875300</v>
       </c>
       <c r="J10" s="3">
-        <v>8605600</v>
+        <v>8612700</v>
       </c>
       <c r="K10" s="3">
         <v>7362000</v>
@@ -870,25 +870,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>2279900</v>
+        <v>2281800</v>
       </c>
       <c r="E12" s="3">
-        <v>1848400</v>
+        <v>1849900</v>
       </c>
       <c r="F12" s="3">
-        <v>1833200</v>
+        <v>1834700</v>
       </c>
       <c r="G12" s="3">
-        <v>3819300</v>
+        <v>3822500</v>
       </c>
       <c r="H12" s="3">
-        <v>1824500</v>
+        <v>1826100</v>
       </c>
       <c r="I12" s="3">
-        <v>1800700</v>
+        <v>1802200</v>
       </c>
       <c r="J12" s="3">
-        <v>1809400</v>
+        <v>1810900</v>
       </c>
       <c r="K12" s="3">
         <v>1594500</v>
@@ -954,22 +954,22 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>1508000</v>
+        <v>1509200</v>
       </c>
       <c r="E14" s="3">
-        <v>459700</v>
+        <v>460000</v>
       </c>
       <c r="F14" s="3">
-        <v>629900</v>
+        <v>630400</v>
       </c>
       <c r="G14" s="3">
-        <v>665600</v>
+        <v>666200</v>
       </c>
       <c r="H14" s="3">
-        <v>195100</v>
+        <v>195300</v>
       </c>
       <c r="I14" s="3">
-        <v>296000</v>
+        <v>296200</v>
       </c>
       <c r="J14" s="3">
         <v>27100</v>
@@ -1053,25 +1053,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>20983800</v>
+        <v>21001300</v>
       </c>
       <c r="E17" s="3">
-        <v>17999300</v>
+        <v>18014300</v>
       </c>
       <c r="F17" s="3">
-        <v>17398700</v>
+        <v>17413200</v>
       </c>
       <c r="G17" s="3">
-        <v>17108200</v>
+        <v>17122400</v>
       </c>
       <c r="H17" s="3">
-        <v>17781400</v>
+        <v>17796200</v>
       </c>
       <c r="I17" s="3">
-        <v>17632900</v>
+        <v>17647500</v>
       </c>
       <c r="J17" s="3">
-        <v>17326100</v>
+        <v>17340500</v>
       </c>
       <c r="K17" s="3">
         <v>16530800</v>
@@ -1095,25 +1095,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-1657600</v>
+        <v>-1659000</v>
       </c>
       <c r="E18" s="3">
-        <v>599500</v>
+        <v>600000</v>
       </c>
       <c r="F18" s="3">
-        <v>1370300</v>
+        <v>1371400</v>
       </c>
       <c r="G18" s="3">
-        <v>1480900</v>
+        <v>1482100</v>
       </c>
       <c r="H18" s="3">
-        <v>1863600</v>
+        <v>1865100</v>
       </c>
       <c r="I18" s="3">
-        <v>1642400</v>
+        <v>1643800</v>
       </c>
       <c r="J18" s="3">
-        <v>1561100</v>
+        <v>1562400</v>
       </c>
       <c r="K18" s="3">
         <v>624700</v>
@@ -1158,13 +1158,13 @@
         <v>-2200</v>
       </c>
       <c r="E20" s="3">
-        <v>111700</v>
+        <v>111800</v>
       </c>
       <c r="F20" s="3">
-        <v>109500</v>
+        <v>109600</v>
       </c>
       <c r="G20" s="3">
-        <v>74800</v>
+        <v>74900</v>
       </c>
       <c r="H20" s="3">
         <v>-30400</v>
@@ -1197,25 +1197,25 @@
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>77000</v>
+        <v>76400</v>
       </c>
       <c r="E21" s="3">
-        <v>2145400</v>
+        <v>2146700</v>
       </c>
       <c r="F21" s="3">
-        <v>3064800</v>
+        <v>3066700</v>
       </c>
       <c r="G21" s="3">
-        <v>3011600</v>
+        <v>3013600</v>
       </c>
       <c r="H21" s="3">
-        <v>3013800</v>
+        <v>3015900</v>
       </c>
       <c r="I21" s="3">
-        <v>2844700</v>
+        <v>2846600</v>
       </c>
       <c r="J21" s="3">
-        <v>2557400</v>
+        <v>2559100</v>
       </c>
       <c r="K21" s="3">
         <v>1667200</v>
@@ -1239,25 +1239,25 @@
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>216800</v>
+        <v>217000</v>
       </c>
       <c r="E22" s="3">
-        <v>159400</v>
+        <v>159500</v>
       </c>
       <c r="F22" s="3">
-        <v>167000</v>
+        <v>167100</v>
       </c>
       <c r="G22" s="3">
-        <v>202700</v>
+        <v>202900</v>
       </c>
       <c r="H22" s="3">
-        <v>203800</v>
+        <v>204000</v>
       </c>
       <c r="I22" s="3">
-        <v>240700</v>
+        <v>240900</v>
       </c>
       <c r="J22" s="3">
-        <v>378400</v>
+        <v>378700</v>
       </c>
       <c r="K22" s="3">
         <v>358300</v>
@@ -1281,25 +1281,25 @@
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-1876600</v>
+        <v>-1878100</v>
       </c>
       <c r="E23" s="3">
-        <v>551800</v>
+        <v>552300</v>
       </c>
       <c r="F23" s="3">
-        <v>1312800</v>
+        <v>1313900</v>
       </c>
       <c r="G23" s="3">
-        <v>1353000</v>
+        <v>1354100</v>
       </c>
       <c r="H23" s="3">
-        <v>1629400</v>
+        <v>1630800</v>
       </c>
       <c r="I23" s="3">
-        <v>1492800</v>
+        <v>1494000</v>
       </c>
       <c r="J23" s="3">
-        <v>1121000</v>
+        <v>1121900</v>
       </c>
       <c r="K23" s="3">
         <v>335800</v>
@@ -1323,25 +1323,25 @@
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>-122500</v>
+        <v>-122600</v>
       </c>
       <c r="E24" s="3">
-        <v>-111700</v>
+        <v>-111800</v>
       </c>
       <c r="F24" s="3">
-        <v>229800</v>
+        <v>230000</v>
       </c>
       <c r="G24" s="3">
-        <v>279700</v>
+        <v>279900</v>
       </c>
       <c r="H24" s="3">
-        <v>209200</v>
+        <v>209400</v>
       </c>
       <c r="I24" s="3">
-        <v>378400</v>
+        <v>378700</v>
       </c>
       <c r="J24" s="3">
-        <v>220100</v>
+        <v>220300</v>
       </c>
       <c r="K24" s="3">
         <v>172500</v>
@@ -1407,25 +1407,25 @@
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>-1754100</v>
+        <v>-1755500</v>
       </c>
       <c r="E26" s="3">
-        <v>663500</v>
+        <v>664000</v>
       </c>
       <c r="F26" s="3">
-        <v>1083000</v>
+        <v>1083900</v>
       </c>
       <c r="G26" s="3">
-        <v>1073300</v>
+        <v>1074200</v>
       </c>
       <c r="H26" s="3">
-        <v>1420200</v>
+        <v>1421400</v>
       </c>
       <c r="I26" s="3">
-        <v>1114500</v>
+        <v>1115400</v>
       </c>
       <c r="J26" s="3">
-        <v>900900</v>
+        <v>901600</v>
       </c>
       <c r="K26" s="3">
         <v>163300</v>
@@ -1449,25 +1449,25 @@
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>-1757300</v>
+        <v>-1758800</v>
       </c>
       <c r="E27" s="3">
-        <v>659100</v>
+        <v>659700</v>
       </c>
       <c r="F27" s="3">
-        <v>1073300</v>
+        <v>1074200</v>
       </c>
       <c r="G27" s="3">
-        <v>1066800</v>
+        <v>1067600</v>
       </c>
       <c r="H27" s="3">
-        <v>1412600</v>
+        <v>1413800</v>
       </c>
       <c r="I27" s="3">
-        <v>882500</v>
+        <v>883200</v>
       </c>
       <c r="J27" s="3">
-        <v>868400</v>
+        <v>869100</v>
       </c>
       <c r="K27" s="3">
         <v>178600</v>
@@ -1536,22 +1536,22 @@
         <v>14100</v>
       </c>
       <c r="E29" s="3">
-        <v>2939000</v>
+        <v>2941400</v>
       </c>
       <c r="F29" s="3">
-        <v>212500</v>
+        <v>212700</v>
       </c>
       <c r="G29" s="3">
-        <v>198400</v>
+        <v>198600</v>
       </c>
       <c r="H29" s="3">
-        <v>-230900</v>
+        <v>-231100</v>
       </c>
       <c r="I29" s="3">
-        <v>913900</v>
+        <v>914700</v>
       </c>
       <c r="J29" s="3">
-        <v>715500</v>
+        <v>716100</v>
       </c>
       <c r="K29" s="3">
         <v>489000</v>
@@ -1662,13 +1662,13 @@
         <v>2200</v>
       </c>
       <c r="E32" s="3">
-        <v>-111700</v>
+        <v>-111800</v>
       </c>
       <c r="F32" s="3">
-        <v>-109500</v>
+        <v>-109600</v>
       </c>
       <c r="G32" s="3">
-        <v>-74800</v>
+        <v>-74900</v>
       </c>
       <c r="H32" s="3">
         <v>30400</v>
@@ -1701,25 +1701,25 @@
         <v>27</v>
       </c>
       <c r="D33" s="3">
-        <v>-1743200</v>
+        <v>-1744700</v>
       </c>
       <c r="E33" s="3">
-        <v>3598100</v>
+        <v>3601100</v>
       </c>
       <c r="F33" s="3">
-        <v>1285700</v>
+        <v>1286800</v>
       </c>
       <c r="G33" s="3">
-        <v>1265100</v>
+        <v>1266200</v>
       </c>
       <c r="H33" s="3">
-        <v>1181700</v>
+        <v>1182700</v>
       </c>
       <c r="I33" s="3">
-        <v>1796400</v>
+        <v>1797800</v>
       </c>
       <c r="J33" s="3">
-        <v>1583900</v>
+        <v>1585200</v>
       </c>
       <c r="K33" s="3">
         <v>667600</v>
@@ -1785,25 +1785,25 @@
         <v>29</v>
       </c>
       <c r="D35" s="3">
-        <v>-1743200</v>
+        <v>-1744700</v>
       </c>
       <c r="E35" s="3">
-        <v>3598100</v>
+        <v>3601100</v>
       </c>
       <c r="F35" s="3">
-        <v>1285700</v>
+        <v>1286800</v>
       </c>
       <c r="G35" s="3">
-        <v>1265100</v>
+        <v>1266200</v>
       </c>
       <c r="H35" s="3">
-        <v>1181700</v>
+        <v>1182700</v>
       </c>
       <c r="I35" s="3">
-        <v>1796400</v>
+        <v>1797800</v>
       </c>
       <c r="J35" s="3">
-        <v>1583900</v>
+        <v>1585200</v>
       </c>
       <c r="K35" s="3">
         <v>667600</v>
@@ -1910,25 +1910,25 @@
         <v>33</v>
       </c>
       <c r="D41" s="3">
-        <v>1270600</v>
+        <v>1271600</v>
       </c>
       <c r="E41" s="3">
-        <v>2496700</v>
+        <v>2498800</v>
       </c>
       <c r="F41" s="3">
-        <v>3497300</v>
+        <v>3500200</v>
       </c>
       <c r="G41" s="3">
-        <v>1544800</v>
+        <v>1546100</v>
       </c>
       <c r="H41" s="3">
-        <v>1830000</v>
+        <v>1831500</v>
       </c>
       <c r="I41" s="3">
-        <v>2102100</v>
+        <v>2103800</v>
       </c>
       <c r="J41" s="3">
-        <v>2530300</v>
+        <v>2532400</v>
       </c>
       <c r="K41" s="3">
         <v>1802700</v>
@@ -1964,13 +1964,13 @@
         <v>1100</v>
       </c>
       <c r="H42" s="3">
-        <v>472700</v>
+        <v>473100</v>
       </c>
       <c r="I42" s="3">
         <v>2200</v>
       </c>
       <c r="J42" s="3">
-        <v>109500</v>
+        <v>109600</v>
       </c>
       <c r="K42" s="3">
         <v>12200</v>
@@ -1994,25 +1994,25 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>5044300</v>
+        <v>5048500</v>
       </c>
       <c r="E43" s="3">
-        <v>4648600</v>
+        <v>4652500</v>
       </c>
       <c r="F43" s="3">
-        <v>4944600</v>
+        <v>4948700</v>
       </c>
       <c r="G43" s="3">
-        <v>5441100</v>
+        <v>5445600</v>
       </c>
       <c r="H43" s="3">
-        <v>4832900</v>
+        <v>4836900</v>
       </c>
       <c r="I43" s="3">
-        <v>4557600</v>
+        <v>4561300</v>
       </c>
       <c r="J43" s="3">
-        <v>6189100</v>
+        <v>6194300</v>
       </c>
       <c r="K43" s="3">
         <v>10287600</v>
@@ -2036,25 +2036,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>4389500</v>
+        <v>4393200</v>
       </c>
       <c r="E44" s="3">
-        <v>3740100</v>
+        <v>3743300</v>
       </c>
       <c r="F44" s="3">
-        <v>3244700</v>
+        <v>3247400</v>
       </c>
       <c r="G44" s="3">
-        <v>3006200</v>
+        <v>3008700</v>
       </c>
       <c r="H44" s="3">
-        <v>2898900</v>
+        <v>2901300</v>
       </c>
       <c r="I44" s="3">
-        <v>2550900</v>
+        <v>2553000</v>
       </c>
       <c r="J44" s="3">
-        <v>3677300</v>
+        <v>3680300</v>
       </c>
       <c r="K44" s="3">
         <v>7070100</v>
@@ -2078,25 +2078,25 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>405500</v>
+        <v>405800</v>
       </c>
       <c r="E45" s="3">
-        <v>329600</v>
+        <v>329800</v>
       </c>
       <c r="F45" s="3">
-        <v>484600</v>
+        <v>485000</v>
       </c>
       <c r="G45" s="3">
-        <v>261300</v>
+        <v>261500</v>
       </c>
       <c r="H45" s="3">
-        <v>342600</v>
+        <v>342900</v>
       </c>
       <c r="I45" s="3">
-        <v>1755200</v>
+        <v>1756600</v>
       </c>
       <c r="J45" s="3">
-        <v>2752500</v>
+        <v>2754800</v>
       </c>
       <c r="K45" s="3">
         <v>2858200</v>
@@ -2120,25 +2120,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>11121800</v>
+        <v>11131000</v>
       </c>
       <c r="E46" s="3">
-        <v>11217200</v>
+        <v>11226500</v>
       </c>
       <c r="F46" s="3">
-        <v>12171200</v>
+        <v>12181300</v>
       </c>
       <c r="G46" s="3">
-        <v>10254500</v>
+        <v>10263000</v>
       </c>
       <c r="H46" s="3">
-        <v>10377000</v>
+        <v>10385600</v>
       </c>
       <c r="I46" s="3">
-        <v>10967800</v>
+        <v>10976900</v>
       </c>
       <c r="J46" s="3">
-        <v>15258700</v>
+        <v>15271400</v>
       </c>
       <c r="K46" s="3">
         <v>12957000</v>
@@ -2162,25 +2162,25 @@
         <v>39</v>
       </c>
       <c r="D47" s="3">
-        <v>1600100</v>
+        <v>1601500</v>
       </c>
       <c r="E47" s="3">
-        <v>1387600</v>
+        <v>1388800</v>
       </c>
       <c r="F47" s="3">
-        <v>975700</v>
+        <v>976500</v>
       </c>
       <c r="G47" s="3">
-        <v>714400</v>
+        <v>715000</v>
       </c>
       <c r="H47" s="3">
-        <v>830400</v>
+        <v>831100</v>
       </c>
       <c r="I47" s="3">
-        <v>931200</v>
+        <v>932000</v>
       </c>
       <c r="J47" s="3">
-        <v>737200</v>
+        <v>737800</v>
       </c>
       <c r="K47" s="3">
         <v>878900</v>
@@ -2204,25 +2204,25 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>2859900</v>
+        <v>2862200</v>
       </c>
       <c r="E48" s="3">
-        <v>2926000</v>
+        <v>2928400</v>
       </c>
       <c r="F48" s="3">
-        <v>2907600</v>
+        <v>2910000</v>
       </c>
       <c r="G48" s="3">
-        <v>3107000</v>
+        <v>3109600</v>
       </c>
       <c r="H48" s="3">
-        <v>1856000</v>
+        <v>1857500</v>
       </c>
       <c r="I48" s="3">
-        <v>1724800</v>
+        <v>1726200</v>
       </c>
       <c r="J48" s="3">
-        <v>2336200</v>
+        <v>2338200</v>
       </c>
       <c r="K48" s="3">
         <v>4740600</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14921600</v>
+        <v>14933900</v>
       </c>
       <c r="E49" s="3">
-        <v>15488500</v>
+        <v>15501400</v>
       </c>
       <c r="F49" s="3">
-        <v>11937000</v>
+        <v>11946900</v>
       </c>
       <c r="G49" s="3">
-        <v>13139300</v>
+        <v>13150200</v>
       </c>
       <c r="H49" s="3">
-        <v>13108900</v>
+        <v>13119800</v>
       </c>
       <c r="I49" s="3">
-        <v>11982600</v>
+        <v>11992500</v>
       </c>
       <c r="J49" s="3">
-        <v>13497000</v>
+        <v>13508300</v>
       </c>
       <c r="K49" s="3">
         <v>16239900</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2765500</v>
+        <v>2767800</v>
       </c>
       <c r="E52" s="3">
-        <v>2545500</v>
+        <v>2547600</v>
       </c>
       <c r="F52" s="3">
-        <v>2052200</v>
+        <v>2053900</v>
       </c>
       <c r="G52" s="3">
-        <v>2072800</v>
+        <v>2074500</v>
       </c>
       <c r="H52" s="3">
-        <v>2034900</v>
+        <v>2036500</v>
       </c>
       <c r="I52" s="3">
-        <v>1837500</v>
+        <v>1839100</v>
       </c>
       <c r="J52" s="3">
-        <v>3154700</v>
+        <v>3157300</v>
       </c>
       <c r="K52" s="3">
         <v>2944000</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33268900</v>
+        <v>33296500</v>
       </c>
       <c r="E54" s="3">
-        <v>33564800</v>
+        <v>33592700</v>
       </c>
       <c r="F54" s="3">
-        <v>30043700</v>
+        <v>30068600</v>
       </c>
       <c r="G54" s="3">
-        <v>29288000</v>
+        <v>29312400</v>
       </c>
       <c r="H54" s="3">
-        <v>28207200</v>
+        <v>28230600</v>
       </c>
       <c r="I54" s="3">
-        <v>27444000</v>
+        <v>27466800</v>
       </c>
       <c r="J54" s="3">
-        <v>34983900</v>
+        <v>35012900</v>
       </c>
       <c r="K54" s="3">
         <v>31620300</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2133500</v>
+        <v>2135300</v>
       </c>
       <c r="E57" s="3">
-        <v>2029400</v>
+        <v>2031100</v>
       </c>
       <c r="F57" s="3">
-        <v>2297200</v>
+        <v>2299100</v>
       </c>
       <c r="G57" s="3">
-        <v>2264700</v>
+        <v>2266600</v>
       </c>
       <c r="H57" s="3">
-        <v>2496700</v>
+        <v>2498800</v>
       </c>
       <c r="I57" s="3">
-        <v>2265800</v>
+        <v>2267700</v>
       </c>
       <c r="J57" s="3">
-        <v>6171800</v>
+        <v>6176900</v>
       </c>
       <c r="K57" s="3">
         <v>5453100</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>352300</v>
+        <v>352600</v>
       </c>
       <c r="E58" s="3">
-        <v>336100</v>
+        <v>336300</v>
       </c>
       <c r="F58" s="3">
-        <v>390300</v>
+        <v>390600</v>
       </c>
       <c r="G58" s="3">
-        <v>414100</v>
+        <v>414500</v>
       </c>
       <c r="H58" s="3">
-        <v>745900</v>
+        <v>746500</v>
       </c>
       <c r="I58" s="3">
-        <v>248300</v>
+        <v>248500</v>
       </c>
       <c r="J58" s="3">
-        <v>1718300</v>
+        <v>1719700</v>
       </c>
       <c r="K58" s="3">
         <v>1699600</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6115400</v>
+        <v>6120500</v>
       </c>
       <c r="E59" s="3">
-        <v>5711000</v>
+        <v>5715800</v>
       </c>
       <c r="F59" s="3">
-        <v>5698000</v>
+        <v>5702800</v>
       </c>
       <c r="G59" s="3">
-        <v>4886000</v>
+        <v>4890100</v>
       </c>
       <c r="H59" s="3">
-        <v>5368500</v>
+        <v>5372900</v>
       </c>
       <c r="I59" s="3">
-        <v>4929400</v>
+        <v>4933500</v>
       </c>
       <c r="J59" s="3">
-        <v>6551200</v>
+        <v>6556700</v>
       </c>
       <c r="K59" s="3">
         <v>9915000</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>8601200</v>
+        <v>8608400</v>
       </c>
       <c r="E60" s="3">
-        <v>8076500</v>
+        <v>8083300</v>
       </c>
       <c r="F60" s="3">
-        <v>8385500</v>
+        <v>8392500</v>
       </c>
       <c r="G60" s="3">
-        <v>7564800</v>
+        <v>7571100</v>
       </c>
       <c r="H60" s="3">
-        <v>8611000</v>
+        <v>8618200</v>
       </c>
       <c r="I60" s="3">
-        <v>7443400</v>
+        <v>7449600</v>
       </c>
       <c r="J60" s="3">
-        <v>11353800</v>
+        <v>11363200</v>
       </c>
       <c r="K60" s="3">
         <v>10166100</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7608200</v>
+        <v>7614500</v>
       </c>
       <c r="E61" s="3">
-        <v>6217300</v>
+        <v>6222500</v>
       </c>
       <c r="F61" s="3">
-        <v>6062300</v>
+        <v>6067300</v>
       </c>
       <c r="G61" s="3">
-        <v>5287200</v>
+        <v>5291500</v>
       </c>
       <c r="H61" s="3">
-        <v>3511400</v>
+        <v>3514300</v>
       </c>
       <c r="I61" s="3">
-        <v>3759700</v>
+        <v>3762800</v>
       </c>
       <c r="J61" s="3">
-        <v>4359200</v>
+        <v>4362800</v>
       </c>
       <c r="K61" s="3">
         <v>4180200</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2659300</v>
+        <v>2661500</v>
       </c>
       <c r="E62" s="3">
-        <v>3578600</v>
+        <v>3581600</v>
       </c>
       <c r="F62" s="3">
-        <v>2694000</v>
+        <v>2696200</v>
       </c>
       <c r="G62" s="3">
-        <v>2749300</v>
+        <v>2751600</v>
       </c>
       <c r="H62" s="3">
-        <v>2948800</v>
+        <v>2951200</v>
       </c>
       <c r="I62" s="3">
-        <v>3206800</v>
+        <v>3209400</v>
       </c>
       <c r="J62" s="3">
-        <v>4686600</v>
+        <v>4690500</v>
       </c>
       <c r="K62" s="3">
         <v>10611200</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18905600</v>
+        <v>18921300</v>
       </c>
       <c r="E66" s="3">
-        <v>17911500</v>
+        <v>17926400</v>
       </c>
       <c r="F66" s="3">
-        <v>17175400</v>
+        <v>17189700</v>
       </c>
       <c r="G66" s="3">
-        <v>15631600</v>
+        <v>15644600</v>
       </c>
       <c r="H66" s="3">
-        <v>15102600</v>
+        <v>15115100</v>
       </c>
       <c r="I66" s="3">
-        <v>14435900</v>
+        <v>14447900</v>
       </c>
       <c r="J66" s="3">
-        <v>21382800</v>
+        <v>21400500</v>
       </c>
       <c r="K66" s="3">
         <v>19715700</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>7406600</v>
+        <v>7412700</v>
       </c>
       <c r="E72" s="3">
-        <v>10129800</v>
+        <v>10138200</v>
       </c>
       <c r="F72" s="3">
-        <v>8486300</v>
+        <v>8493400</v>
       </c>
       <c r="G72" s="3">
-        <v>8993700</v>
+        <v>9001200</v>
       </c>
       <c r="H72" s="3">
-        <v>8961200</v>
+        <v>8968600</v>
       </c>
       <c r="I72" s="3">
-        <v>9318900</v>
+        <v>9326700</v>
       </c>
       <c r="J72" s="3">
-        <v>8865800</v>
+        <v>8873100</v>
       </c>
       <c r="K72" s="3">
         <v>8207200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14363200</v>
+        <v>14375200</v>
       </c>
       <c r="E76" s="3">
-        <v>15653300</v>
+        <v>15666300</v>
       </c>
       <c r="F76" s="3">
-        <v>12868300</v>
+        <v>12878900</v>
       </c>
       <c r="G76" s="3">
-        <v>13656400</v>
+        <v>13667700</v>
       </c>
       <c r="H76" s="3">
-        <v>13104600</v>
+        <v>13115500</v>
       </c>
       <c r="I76" s="3">
-        <v>13008100</v>
+        <v>13018900</v>
       </c>
       <c r="J76" s="3">
-        <v>13601100</v>
+        <v>13612400</v>
       </c>
       <c r="K76" s="3">
         <v>11904600</v>
@@ -3439,25 +3439,25 @@
         <v>27</v>
       </c>
       <c r="D81" s="3">
-        <v>-1743200</v>
+        <v>-1744700</v>
       </c>
       <c r="E81" s="3">
-        <v>3598100</v>
+        <v>3601100</v>
       </c>
       <c r="F81" s="3">
-        <v>1285700</v>
+        <v>1286800</v>
       </c>
       <c r="G81" s="3">
-        <v>1265100</v>
+        <v>1266200</v>
       </c>
       <c r="H81" s="3">
-        <v>1181700</v>
+        <v>1182700</v>
       </c>
       <c r="I81" s="3">
-        <v>1796400</v>
+        <v>1797800</v>
       </c>
       <c r="J81" s="3">
-        <v>1583900</v>
+        <v>1585200</v>
       </c>
       <c r="K81" s="3">
         <v>667600</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1736700</v>
+        <v>1738200</v>
       </c>
       <c r="E83" s="3">
-        <v>1434300</v>
+        <v>1435500</v>
       </c>
       <c r="F83" s="3">
-        <v>1585000</v>
+        <v>1586300</v>
       </c>
       <c r="G83" s="3">
-        <v>1455900</v>
+        <v>1457200</v>
       </c>
       <c r="H83" s="3">
-        <v>1180600</v>
+        <v>1181600</v>
       </c>
       <c r="I83" s="3">
-        <v>1111200</v>
+        <v>1112100</v>
       </c>
       <c r="J83" s="3">
-        <v>1058100</v>
+        <v>1059000</v>
       </c>
       <c r="K83" s="3">
         <v>992200</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200600</v>
+        <v>-200700</v>
       </c>
       <c r="E89" s="3">
-        <v>5455200</v>
+        <v>5459700</v>
       </c>
       <c r="F89" s="3">
-        <v>2862000</v>
+        <v>2864400</v>
       </c>
       <c r="G89" s="3">
-        <v>2071700</v>
+        <v>2073400</v>
       </c>
       <c r="H89" s="3">
-        <v>2631100</v>
+        <v>2633300</v>
       </c>
       <c r="I89" s="3">
-        <v>3179700</v>
+        <v>3182300</v>
       </c>
       <c r="J89" s="3">
-        <v>3600300</v>
+        <v>3603300</v>
       </c>
       <c r="K89" s="3">
         <v>1158600</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-481300</v>
+        <v>-481700</v>
       </c>
       <c r="E91" s="3">
-        <v>-430400</v>
+        <v>-430700</v>
       </c>
       <c r="F91" s="3">
-        <v>-525800</v>
+        <v>-526200</v>
       </c>
       <c r="G91" s="3">
-        <v>-526900</v>
+        <v>-527300</v>
       </c>
       <c r="H91" s="3">
-        <v>-457500</v>
+        <v>-457900</v>
       </c>
       <c r="I91" s="3">
-        <v>-455300</v>
+        <v>-455700</v>
       </c>
       <c r="J91" s="3">
-        <v>-390300</v>
+        <v>-390600</v>
       </c>
       <c r="K91" s="3">
         <v>-441000</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1612100</v>
+        <v>-1613400</v>
       </c>
       <c r="E94" s="3">
-        <v>-3980800</v>
+        <v>-3984100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1373600</v>
+        <v>-1374700</v>
       </c>
       <c r="G94" s="3">
-        <v>-555100</v>
+        <v>-555500</v>
       </c>
       <c r="H94" s="3">
-        <v>-1611000</v>
+        <v>-1612300</v>
       </c>
       <c r="I94" s="3">
-        <v>-3468000</v>
+        <v>-3470900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1183800</v>
+        <v>-1184800</v>
       </c>
       <c r="K94" s="3">
         <v>-1890500</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-446600</v>
+        <v>-447000</v>
       </c>
       <c r="E96" s="3">
-        <v>-522500</v>
+        <v>-523000</v>
       </c>
       <c r="F96" s="3">
         <v>-1100</v>
       </c>
       <c r="G96" s="3">
-        <v>-491100</v>
+        <v>-491500</v>
       </c>
       <c r="H96" s="3">
-        <v>-434700</v>
+        <v>-435100</v>
       </c>
       <c r="I96" s="3">
-        <v>-416300</v>
+        <v>-416600</v>
       </c>
       <c r="J96" s="3">
-        <v>-357800</v>
+        <v>-358100</v>
       </c>
       <c r="K96" s="3">
         <v>-304200</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>542100</v>
+        <v>542500</v>
       </c>
       <c r="E100" s="3">
-        <v>-2544400</v>
+        <v>-2546500</v>
       </c>
       <c r="F100" s="3">
-        <v>523600</v>
+        <v>524100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1799600</v>
+        <v>-1801100</v>
       </c>
       <c r="H100" s="3">
-        <v>-1292200</v>
+        <v>-1293300</v>
       </c>
       <c r="I100" s="3">
-        <v>59600</v>
+        <v>59700</v>
       </c>
       <c r="J100" s="3">
-        <v>-1781200</v>
+        <v>-1782700</v>
       </c>
       <c r="K100" s="3">
         <v>540000</v>
@@ -4207,13 +4207,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>44400</v>
+        <v>44500</v>
       </c>
       <c r="E101" s="3">
         <v>70500</v>
       </c>
       <c r="F101" s="3">
-        <v>-59600</v>
+        <v>-59700</v>
       </c>
       <c r="G101" s="3">
         <v>-2200</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>-199500</v>
+        <v>-199600</v>
       </c>
       <c r="J101" s="3">
         <v>-18400</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1226100</v>
+        <v>-1227100</v>
       </c>
       <c r="E102" s="3">
-        <v>-999500</v>
+        <v>-1000400</v>
       </c>
       <c r="F102" s="3">
-        <v>1952500</v>
+        <v>1954100</v>
       </c>
       <c r="G102" s="3">
-        <v>-285100</v>
+        <v>-285400</v>
       </c>
       <c r="H102" s="3">
-        <v>-272100</v>
+        <v>-272300</v>
       </c>
       <c r="I102" s="3">
-        <v>-428200</v>
+        <v>-428600</v>
       </c>
       <c r="J102" s="3">
-        <v>616900</v>
+        <v>617400</v>
       </c>
       <c r="K102" s="3">
         <v>-110200</v>
